--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -2327,6 +2327,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -1097,7 +1097,7 @@
         <v>0.02431115796865323</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-0.001166316771635145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>-2.835451127669586E-05</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2327,7 +2327,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07642773593912115</v>
+        <v>0.07734587062857547</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01274296314218892</v>
+        <v>-0.006450585330891156</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04558932016237519</v>
+        <v>0.04570695616373351</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003303392954492557</v>
+        <v>0.01418887012995418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03589488810077045</v>
+        <v>0.03631201682699237</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0123504109705721</v>
+        <v>-0.002818560430777106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03523178703444359</v>
+        <v>0.03543188648038283</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006404801361580059</v>
+        <v>-0.007476635514018559</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03217886913332834</v>
+        <v>0.03177072951871244</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01197142305464372</v>
+        <v>0.01029248908865865</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03039268285947603</v>
+        <v>0.03080613898431449</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01433480656529285</v>
+        <v>-0.0008013858696956921</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03006051592389353</v>
+        <v>0.03021674090605479</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00592195486847058</v>
+        <v>-0.003718163227365734</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02431115796865323</v>
+        <v>0.02402729729616526</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.009797060881735487</v>
+        <v>-0.002358490566037763</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02653745556971364</v>
+        <v>0.02649822591720486</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0007581501137227109</v>
+        <v>0.001770359129995125</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02662621751805813</v>
+        <v>0.02668567431530702</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002955818294959389</v>
+        <v>-0.004032883511710939</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02522693471460075</v>
+        <v>0.02488589374425464</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01280748119536501</v>
+        <v>0.005148270181219106</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02345534485003176</v>
+        <v>0.02337014381638335</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002913907284768147</v>
+        <v>0.00823591923485667</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0206312355268712</v>
+        <v>0.0205081556560854</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005248816865050743</v>
+        <v>-0.001585837033619808</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01861002733868009</v>
+        <v>0.0188000296645467</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01093822868529259</v>
+        <v>0.009394002935625867</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02022307850106712</v>
+        <v>0.0203148433359606</v>
       </c>
       <c r="E16" s="1">
-        <v>0.005262092693786968</v>
+        <v>-0.005033219247030374</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01842323274960846</v>
+        <v>0.01840443667296832</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0002997826575733553</v>
+        <v>-0.008321463378064164</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01705600287194215</v>
+        <v>0.01716926802238244</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007366759377583909</v>
+        <v>-0.002910230579807438</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01637879851826721</v>
+        <v>0.01602008713591019</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.02119556217916863</v>
+        <v>0.004398578920656426</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01468033863669537</v>
+        <v>0.01474692618381621</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005260293850897879</v>
+        <v>-0.05232767953807282</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01484913427513048</v>
+        <v>0.01513818282969717</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02020091324200912</v>
+        <v>0.01693640790604412</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01506033839999685</v>
+        <v>0.01507392607072629</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001624056999161683</v>
+        <v>-0.009676238296982054</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01394095160698576</v>
+        <v>0.01393356570561584</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0001910098051700615</v>
+        <v>0.007002355337704547</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01505432231238683</v>
+        <v>0.01507363041079237</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002004677581022296</v>
+        <v>0.005335111703901108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01396047923562155</v>
+        <v>0.01397880167550484</v>
       </c>
       <c r="E25" s="1">
-        <v>0.002034587995930925</v>
+        <v>-0.006824591088550491</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01226788750507916</v>
+        <v>0.0126150209536659</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0290377039954981</v>
+        <v>0.03642130591709525</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01264561890747849</v>
+        <v>0.01239307889660698</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01926376540321328</v>
+        <v>0.01630218687872764</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01226793681727268</v>
+        <v>0.01244935283736215</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01551967393008313</v>
+        <v>0.01543686322939175</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01248249417129873</v>
+        <v>0.01258407521391612</v>
       </c>
       <c r="E29" s="1">
-        <v>0.008864940031287905</v>
+        <v>-0.00930392832529281</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01058732794975679</v>
+        <v>0.01078528017597679</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01943176525384249</v>
+        <v>0.01065462918966342</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01230536477215794</v>
+        <v>0.01211910069117901</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01442654484251027</v>
+        <v>0.007806782141986046</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01236187654593727</v>
+        <v>0.01250996312381474</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01270912615782271</v>
+        <v>-0.00726744186046524</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01116477373593123</v>
+        <v>0.01099928869147565</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01411156751026887</v>
+        <v>-0.008556772618327546</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0112492948356326</v>
+        <v>0.01124118779407384</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.001976994967649137</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0104730222851665</v>
+        <v>0.01000631480342187</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.04387377461366793</v>
+        <v>0.03683075286609139</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01082052531293518</v>
+        <v>0.01085298630084334</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003723300019596421</v>
+        <v>0.0003904724716907726</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01083438203931563</v>
+        <v>0.01076793479318711</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.005416230485639995</v>
+        <v>0.006315211422295297</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01032227490956144</v>
+        <v>0.0101137871894</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01949122178430662</v>
+        <v>0.008550756413067129</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009285880538252456</v>
+        <v>0.009425244479967437</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01574017035919884</v>
+        <v>0.01131373123091706</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009318032088430571</v>
+        <v>0.009320777969984109</v>
       </c>
       <c r="E40" s="1">
-        <v>0.001016088060965314</v>
+        <v>-0.005075283369988082</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009088040017831289</v>
+        <v>0.009220155039141678</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01526891522333651</v>
+        <v>0.002020202020201811</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.01000623306126153</v>
+        <v>0.009979015536190376</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.002000827928797966</v>
+        <v>0.001175250604908307</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.00977357813221191</v>
+        <v>0.00984084379374073</v>
       </c>
       <c r="E43" s="1">
-        <v>0.007608553063098489</v>
+        <v>0.006379377685197252</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009351761628801478</v>
+        <v>0.009223604405037352</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01299276539199778</v>
+        <v>-0.00942408376963344</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009786004804980139</v>
+        <v>0.009547450585985669</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.02367346938775516</v>
+        <v>0.003623188405797118</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009429181772635284</v>
+        <v>0.00953414588895949</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01186105619881395</v>
+        <v>-0.001116382919341352</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009093957481054257</v>
+        <v>0.008959678637362497</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01405517959396141</v>
+        <v>0.01847940865892284</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007462315621708412</v>
+        <v>0.007525530851251762</v>
       </c>
       <c r="E48" s="1">
-        <v>0.009198562063861271</v>
+        <v>-0.02184389732844427</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008556257322860739</v>
+        <v>0.008450355124538123</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0116648992576881</v>
+        <v>0.005633047210300557</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008055146812262562</v>
+        <v>0.008229694260526171</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02240587695133156</v>
+        <v>-0.007903718340219301</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007964806873725281</v>
+        <v>0.007811434007347641</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01854901620871985</v>
+        <v>0.03166122052459586</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007763563811950909</v>
+        <v>0.007768316933651691</v>
       </c>
       <c r="E52" s="1">
-        <v>0.001333866880085299</v>
+        <v>-0.01412015452244553</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007543286243475998</v>
+        <v>0.007301322068032828</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.03137870170621693</v>
+        <v>0.02125936424377395</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.00709119205324139</v>
+        <v>0.007126094280532493</v>
       </c>
       <c r="E54" s="1">
-        <v>0.005646653036814664</v>
+        <v>0.007122408618805975</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006738511245152612</v>
+        <v>0.006689306004828618</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.00658616904500553</v>
+        <v>0.001962430939226545</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00641610812388801</v>
+        <v>0.006418580058673713</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001106738809641072</v>
+        <v>-0.01332760103181418</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006686733441951659</v>
+        <v>0.006693740903837345</v>
       </c>
       <c r="E57" s="1">
-        <v>0.001769911504424737</v>
+        <v>-0.009893992932862195</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006587911806128126</v>
+        <v>0.006504222886197781</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01199137698733499</v>
+        <v>0.003681985544797373</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005838218527971849</v>
+        <v>0.005710967283503629</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.02109077394778391</v>
+        <v>0.03189066059225509</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006192625262833992</v>
+        <v>0.006154161524442329</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.005494505494505364</v>
+        <v>0.04479942349267341</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005592495867638183</v>
+        <v>0.005457882380072323</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.02336654615995037</v>
+        <v>0.01589021307331162</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005666562782312308</v>
+        <v>0.005682978143093001</v>
       </c>
       <c r="E62" s="1">
-        <v>0.003620161514898523</v>
+        <v>-0.004023307436181955</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005296129584554632</v>
+        <v>0.005299408655493842</v>
       </c>
       <c r="E63" s="1">
-        <v>0.001340782122905004</v>
+        <v>-0.01398497359220408</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004843640896771828</v>
+        <v>0.004880359975824872</v>
       </c>
       <c r="E64" s="1">
-        <v>0.008307541944942098</v>
+        <v>0.004523424878836835</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.00474896148520437</v>
+        <v>0.004721689144623781</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.005025751786010835</v>
+        <v>-0.0007931538300980367</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004421232647039099</v>
+        <v>0.004371332122934414</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.01057351268152329</v>
+        <v>0.0135272235373689</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004531593336147417</v>
+        <v>0.004509405312072756</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.004178636719770035</v>
+        <v>0.001573564122737903</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003698118641192645</v>
+        <v>0.003685548906218393</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.002680214417153159</v>
+        <v>0.008663912398219065</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003948131462362962</v>
+        <v>0.003855405538252605</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.02278177458033559</v>
+        <v>0.01932515337423291</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003905525727157606</v>
+        <v>0.003842002287915121</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01555555555555566</v>
+        <v>0.03950338600451486</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00314809043461795</v>
+        <v>0.003170657131305286</v>
       </c>
       <c r="E71" s="1">
-        <v>0.007894736842104955</v>
+        <v>-0.006340917568071536</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002601957891331706</v>
+        <v>0.002619793397765845</v>
       </c>
       <c r="E72" s="1">
-        <v>0.007580782715815415</v>
+        <v>0.003761873412959638</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002565466868123415</v>
+        <v>0.00258224458615863</v>
       </c>
       <c r="E73" s="1">
-        <v>0.007265737626141133</v>
+        <v>0.0007823979543157833</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002207164469972819</v>
+        <v>0.002220110443768314</v>
       </c>
       <c r="E74" s="1">
-        <v>0.006590853236220662</v>
+        <v>0.001043192613308319</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002155337354578341</v>
+        <v>0.002060848292699392</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.04314999542417852</v>
+        <v>0.01138156950887081</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.002056614343141858</v>
+        <v>0.001948891731056883</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.05169519973145353</v>
+        <v>0.02407079646017696</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>0.0007495453415760078</v>
+        <v>0.001973648322856514</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07734587062857547</v>
+        <v>0.0652076995478746</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006450585330891156</v>
+        <v>-0.03390509778775253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04570695616373351</v>
+        <v>0.03933448022505742</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01418887012995418</v>
+        <v>-0.03435882553663749</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03631201682699237</v>
+        <v>0.03072534954316602</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002818560430777106</v>
+        <v>-0.02666216672291599</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03543188648038283</v>
+        <v>0.02984058203920127</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007476635514018559</v>
+        <v>-0.01058201058201069</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03177072951871244</v>
+        <v>0.02723620449893906</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01029248908865865</v>
+        <v>0.01650654458701406</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03080613898431449</v>
+        <v>0.02611929005820624</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0008013858696956921</v>
+        <v>-0.02923802480045345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03021674090605479</v>
+        <v>0.02554477656555617</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003718163227365734</v>
+        <v>-0.001866019779809713</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02402729729616526</v>
+        <v>0.1701254037514828</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002358490566037763</v>
+        <v>-0.01074053137365738</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02649822591720486</v>
+        <v>0.02252460847428141</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001770359129995125</v>
+        <v>-0.01577884372633176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02668567431530702</v>
+        <v>0.02255253969794154</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004032883511710939</v>
+        <v>0.002180345740538936</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02488589374425464</v>
+        <v>0.02122538844199442</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005148270181219106</v>
+        <v>-0.01516082769924199</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02337014381638335</v>
+        <v>0.01999382218198602</v>
       </c>
       <c r="E13" s="1">
-        <v>0.00823591923485667</v>
+        <v>0.02608695652173898</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0205081556560854</v>
+        <v>0.01737439188645787</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001585837033619808</v>
+        <v>-0.03615675628844539</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0188000296645467</v>
+        <v>0.01610243406648586</v>
       </c>
       <c r="E15" s="1">
-        <v>0.009394002935625867</v>
+        <v>-0.040051518550833</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0203148433359606</v>
+        <v>0.01715119297643123</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005033219247030374</v>
+        <v>-0.01254552812626486</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01840443667296832</v>
+        <v>0.01548694362894517</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.008321463378064164</v>
+        <v>-0.01716056849107961</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01716926802238244</v>
+        <v>0.01452641059014185</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.002910230579807438</v>
+        <v>-0.008157461457865445</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01602008713591019</v>
+        <v>0.01365347622434449</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004398578920656426</v>
+        <v>-0.04311942058278584</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01474692618381621</v>
+        <v>0.01185856059850825</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.05232767953807282</v>
+        <v>-0.01209063214013728</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01513818282969717</v>
+        <v>0.01306290645941074</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01693640790604412</v>
+        <v>-0.0189782049927818</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01507392607072629</v>
+        <v>0.01266706080912557</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009676238296982054</v>
+        <v>-0.03084398436674762</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01393356570561584</v>
+        <v>0.01190597677759597</v>
       </c>
       <c r="E23" s="1">
-        <v>0.007002355337704547</v>
+        <v>-0.03103862443896588</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01507363041079237</v>
+        <v>0.01285881618593003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005335111703901108</v>
+        <v>-0.004643449419568735</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01397880167550484</v>
+        <v>0.01178062077679794</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006824591088550491</v>
+        <v>0.02802544153557851</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0126150209536659</v>
+        <v>0.01109421513667103</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03642130591709525</v>
+        <v>-0.05213170113972143</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01239307889660698</v>
+        <v>0.01068745623881805</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01630218687872764</v>
+        <v>-0.02143974960876371</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01244935283736215</v>
+        <v>0.01072684428176393</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01543686322939175</v>
+        <v>-0.031240498631803</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01258407521391612</v>
+        <v>0.0105787418952307</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.00930392832529281</v>
+        <v>-0.02834782608695663</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01078528017597679</v>
+        <v>0.00924924909957554</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01065462918966342</v>
+        <v>-0.02502667221207577</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01211910069117901</v>
+        <v>0.01036382200060032</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007806782141986046</v>
+        <v>0.002178649237472685</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01250996312381474</v>
+        <v>0.01053805764280358</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00726744186046524</v>
+        <v>0.0111773738528016</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01099928869147565</v>
+        <v>0.009253472233691818</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.008556772618327546</v>
+        <v>0.007094281647499923</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01124118779407384</v>
+        <v>0.00955745426364568</v>
       </c>
       <c r="E34" s="1">
-        <v>0.001976994967649137</v>
+        <v>0.0100448430493274</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01000631480342187</v>
+        <v>0.008803478477658328</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03683075286609139</v>
+        <v>-0.06932075633006074</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01085298630084334</v>
+        <v>0.009212787981264705</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0003904724716907726</v>
+        <v>-0.01307572209211549</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01076793479318711</v>
+        <v>0.009194724674945576</v>
       </c>
       <c r="E37" s="1">
-        <v>0.006315211422295297</v>
+        <v>0.008412914961346107</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0101137871894</v>
+        <v>0.008655334277916026</v>
       </c>
       <c r="E38" s="1">
-        <v>0.008550756413067129</v>
+        <v>-0.007536231884057942</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009425244479967437</v>
+        <v>0.00808817991006263</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01131373123091706</v>
+        <v>-0.04019934241816414</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009320777969984109</v>
+        <v>0.007868911441688758</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005075283369988082</v>
+        <v>0.004165958170379236</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009220155039141678</v>
+        <v>0.007839474942502029</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002020202020201811</v>
+        <v>-0.03113799283154117</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009979015536190376</v>
+        <v>0.008477544512941635</v>
       </c>
       <c r="E42" s="1">
-        <v>0.001175250604908307</v>
+        <v>-0.01139345394282565</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.00984084379374073</v>
+        <v>0.008403618759302236</v>
       </c>
       <c r="E43" s="1">
-        <v>0.006379377685197252</v>
+        <v>-0.0003880983182406039</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009223604405037352</v>
+        <v>0.007752837973304724</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.00942408376963344</v>
+        <v>0.007852612503775225</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009547450585985669</v>
+        <v>0.008130745756897985</v>
       </c>
       <c r="E45" s="1">
-        <v>0.003623188405797118</v>
+        <v>-0.03619364991206142</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00953414588895949</v>
+        <v>0.00808107166452038</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001116382919341352</v>
+        <v>-0.0005588153115393402</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008959678637362497</v>
+        <v>0.007743137308800006</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01847940865892284</v>
+        <v>0.0111456713322966</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007525530851251762</v>
+        <v>0.006246224424020327</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02184389732844427</v>
+        <v>-0.01499491244042195</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008450355124538123</v>
+        <v>0.007210855157312708</v>
       </c>
       <c r="E49" s="1">
-        <v>0.005633047210300557</v>
+        <v>-0.001333688983729209</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008229694260526171</v>
+        <v>0.006928030611149306</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.007903718340219301</v>
+        <v>-0.02571066449393422</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007811434007347641</v>
+        <v>0.006838174024853452</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03166122052459586</v>
+        <v>-0.01262680306467479</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007768316933651691</v>
+        <v>0.006498650767188341</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01412015452244553</v>
+        <v>0.00635049317659786</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007301322068032828</v>
+        <v>0.00632717479678383</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02125936424377395</v>
+        <v>-0.02498017446471035</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007126094280532493</v>
+        <v>0.00608984302209083</v>
       </c>
       <c r="E54" s="1">
-        <v>0.007122408618805975</v>
+        <v>-0.006165719150806104</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006689306004828618</v>
+        <v>0.005687282170428683</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001962430939226545</v>
+        <v>-0.009788525501336465</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006418580058673713</v>
+        <v>0.005373833629940907</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01332760103181418</v>
+        <v>-0.002801120448179373</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006693740903837345</v>
+        <v>0.005623709367355526</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.009893992932862195</v>
+        <v>0.0596002855103499</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006504222886197781</v>
+        <v>0.005539413937866257</v>
       </c>
       <c r="E58" s="1">
-        <v>0.003681985544797373</v>
+        <v>0.003260869565217428</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005710967283503629</v>
+        <v>0.005000525299345572</v>
       </c>
       <c r="E59" s="1">
-        <v>0.03189066059225509</v>
+        <v>-0.00570272259013993</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006154161524442329</v>
+        <v>0.005455996585767501</v>
       </c>
       <c r="E60" s="1">
-        <v>0.04479942349267341</v>
+        <v>-0.0495459248189446</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005457882380072323</v>
+        <v>0.004704822284787977</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01589021307331162</v>
+        <v>0.001599715606114493</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005682978143093001</v>
+        <v>0.004802832446852882</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.004023307436181955</v>
+        <v>0.005989692157682081</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005299408655493842</v>
+        <v>0.004433872690001041</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.01398497359220408</v>
+        <v>-0.001131648434553045</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004880359975824872</v>
+        <v>0.004159912544160916</v>
       </c>
       <c r="E64" s="1">
-        <v>0.004523424878836835</v>
+        <v>0.002412351238340271</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004721689144623781</v>
+        <v>0.004003363889395131</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.0007931538300980367</v>
+        <v>-0.0006684491978610207</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004371332122934414</v>
+        <v>0.003759425627668743</v>
       </c>
       <c r="E66" s="1">
-        <v>0.0135272235373689</v>
+        <v>-0.01955288621955276</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004509405312072756</v>
+        <v>0.003832431490708557</v>
       </c>
       <c r="E67" s="1">
-        <v>0.001573564122737903</v>
+        <v>0.007200837915684932</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003685548906218393</v>
+        <v>0.003154430305605135</v>
       </c>
       <c r="E68" s="1">
-        <v>0.008663912398219065</v>
+        <v>-0.05193462440847807</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003855405538252605</v>
+        <v>0.003334687049914777</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01932515337423291</v>
+        <v>-0.008764670478483283</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003842002287915121</v>
+        <v>0.003388876968872165</v>
       </c>
       <c r="E70" s="1">
-        <v>0.03950338600451486</v>
+        <v>-0.02334419109663421</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003170657131305286</v>
+        <v>0.002673369335231106</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.006340917568071536</v>
+        <v>-0.01707957957957973</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002619793397765845</v>
+        <v>0.00223136190213038</v>
       </c>
       <c r="E72" s="1">
-        <v>0.003761873412959638</v>
+        <v>-0.04637871263937032</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00258224458615863</v>
+        <v>0.002192851936575015</v>
       </c>
       <c r="E73" s="1">
-        <v>0.0007823979543157833</v>
+        <v>-0.03746853786896509</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002220110443768314</v>
+        <v>0.001885817542358892</v>
       </c>
       <c r="E74" s="1">
-        <v>0.001043192613308319</v>
+        <v>-0.02623001707279216</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002060848292699392</v>
+        <v>0.001768615117329913</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01138156950887081</v>
+        <v>-0.05848976310936693</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001948891731056883</v>
+        <v>0.001693518593836497</v>
       </c>
       <c r="E76" s="1">
-        <v>0.02407079646017696</v>
+        <v>-0.02281368821292773</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.001973648322856514</v>
+        <v>-0.01445436224958985</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0652076995478746</v>
+        <v>0.06386155911810711</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.03390509778775253</v>
+        <v>-0.004480212395254313</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03933448022505742</v>
+        <v>0.03850437150466184</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.03435882553663749</v>
+        <v>0.0155119402640036</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03072534954316602</v>
+        <v>0.03031665520694398</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02666216672291599</v>
+        <v>-0.001603675450762898</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02984058203920127</v>
+        <v>0.02993008428242253</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01058201058201069</v>
+        <v>-0.06235837940723277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02723620449893906</v>
+        <v>0.02806581208918759</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01650654458701406</v>
+        <v>-0.01592134475103091</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02611929005820624</v>
+        <v>0.02570366028198018</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02923802480045345</v>
+        <v>0.002780333837949289</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02554477656555617</v>
+        <v>0.02584709844081577</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001866019779809713</v>
+        <v>-0.002679628591013894</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1701254037514828</v>
+        <v>0.1715344896819791</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01074053137365738</v>
+        <v>-0.03154305200341001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02252460847428141</v>
+        <v>0.0224735041554361</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01577884372633176</v>
+        <v>0.001923816852635651</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02255253969794154</v>
+        <v>0.02291195696719596</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002180345740538936</v>
+        <v>-0.005361305361305302</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02122538844199442</v>
+        <v>0.02119052951251775</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01516082769924199</v>
+        <v>-0.005928853754940788</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01999382218198602</v>
+        <v>0.02079700709330095</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02608695652173898</v>
+        <v>-0.01052901900359526</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01737439188645787</v>
+        <v>0.01697605869197836</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03615675628844539</v>
+        <v>0.009707865168539387</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01610243406648586</v>
+        <v>0.01566968633520739</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.040051518550833</v>
+        <v>0.01138281757195414</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01715119297643123</v>
+        <v>0.01716849641098355</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01254552812626486</v>
+        <v>0.003688524590163889</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01548694362894517</v>
+        <v>0.01543011409119475</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01716056849107961</v>
+        <v>0.01330666871779118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01452641059014185</v>
+        <v>0.01460568377519231</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.008157461457865445</v>
+        <v>0.01486455896778072</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01365347622434449</v>
+        <v>0.01324408094532359</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.04311942058278584</v>
+        <v>-0.005632811124801962</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01185856059850825</v>
+        <v>0.01187599287955007</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01209063214013728</v>
+        <v>-0.003372843789149038</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01306290645941074</v>
+        <v>0.01299090242205971</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0189782049927818</v>
+        <v>0.04123896346278078</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01266706080912557</v>
+        <v>0.01244487099117315</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.03084398436674762</v>
+        <v>-0.02858310626702998</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01190597677759597</v>
+        <v>0.01169478775868064</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.03103862443896588</v>
+        <v>0.01702766179540705</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01285881618593003</v>
+        <v>0.01297479530020464</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004643449419568735</v>
+        <v>-0.008330556481172979</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01178062077679794</v>
+        <v>0.01227701782657831</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02802544153557851</v>
+        <v>0.009750034525617846</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01109421513667103</v>
+        <v>0.01066020188963243</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.05213170113972143</v>
+        <v>0.007682030728122902</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01068745623881805</v>
+        <v>0.010601877153652</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02143974960876371</v>
+        <v>0.0004797697105389798</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01072684428176393</v>
+        <v>0.01053437559693047</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.031240498631803</v>
+        <v>0.0005492349941151886</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0105787418952307</v>
+        <v>0.01041995145101537</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02834782608695663</v>
+        <v>-0.007338464292106495</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.00924924909957554</v>
+        <v>0.009141554621676875</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02502667221207577</v>
+        <v>0.0058237661590963</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01036382200060032</v>
+        <v>0.01052897123367647</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002178649237472685</v>
+        <v>-0.002898550724637627</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01053805764280358</v>
+        <v>0.01080211411060807</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0111773738528016</v>
+        <v>0.02097753920045209</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009253472233691818</v>
+        <v>0.009447038903806933</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007094281647499923</v>
+        <v>-0.001660123387548951</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00955745426364568</v>
+        <v>0.009785966657367631</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0100448430493274</v>
+        <v>-0.001243118451429548</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008803478477658328</v>
+        <v>0.008305679771724783</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.06932075633006074</v>
+        <v>0.002618041521220027</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009212787981264705</v>
+        <v>0.009217130932907332</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01307572209211549</v>
+        <v>0.004745896776744862</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009194724674945576</v>
+        <v>0.009399353345683399</v>
       </c>
       <c r="E37" s="1">
-        <v>0.008412914961346107</v>
+        <v>-0.01379932356257041</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008655334277916026</v>
+        <v>0.008708018720799087</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.007536231884057942</v>
+        <v>-0.027015186915888</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00808817991006263</v>
+        <v>0.007869600641080405</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.04019934241816414</v>
+        <v>0.0222126467736723</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007868911441688758</v>
+        <v>0.008010156472847198</v>
       </c>
       <c r="E40" s="1">
-        <v>0.004165958170379236</v>
+        <v>0.01811870290407258</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007839474942502029</v>
+        <v>0.00769962811834674</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.03113799283154117</v>
+        <v>0.009788053949903786</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008477544512941635</v>
+        <v>0.008495998132591156</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01139345394282565</v>
+        <v>-0.0396731158762309</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008403618759302236</v>
+        <v>0.008515665776119442</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0003880983182406039</v>
+        <v>0.00310599197618755</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007752837973304724</v>
+        <v>0.007920973882365493</v>
       </c>
       <c r="E44" s="1">
-        <v>0.007852612503775225</v>
+        <v>-0.007192088702427157</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008130745756897985</v>
+        <v>0.007944032498915897</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.03619364991206142</v>
+        <v>-0.007107184018440349</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00808107166452038</v>
+        <v>0.008187419587578418</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0005588153115393402</v>
+        <v>-0.006709533128319789</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007743137308800006</v>
+        <v>0.007936911455569448</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0111456713322966</v>
+        <v>-0.01794411689310427</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.006246224424020327</v>
+        <v>0.006237016679581682</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01499491244042195</v>
+        <v>0.001957266351329201</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007210855157312708</v>
+        <v>0.007300086722015682</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.001333688983729209</v>
+        <v>-0.01415598290598286</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006928030611149306</v>
+        <v>0.006842559687006409</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02571066449393422</v>
+        <v>-0.01189370005575174</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006838174024853452</v>
+        <v>0.006844509496494127</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01262680306467479</v>
+        <v>-0.02336570140454308</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006498650767188341</v>
+        <v>0.00662969135554295</v>
       </c>
       <c r="E52" s="1">
-        <v>0.00635049317659786</v>
+        <v>-0.01745435016111707</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00632717479678383</v>
+        <v>0.006253801996041167</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02498017446471035</v>
+        <v>-0.003660024400162776</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.00608984302209083</v>
+        <v>0.006135372263243694</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.006165719150806104</v>
+        <v>0.008166028767634392</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005687282170428683</v>
+        <v>0.005708915018549577</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.009788525501336465</v>
+        <v>0.002303151798641156</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005373833629940907</v>
+        <v>0.005432338781433075</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.002801120448179373</v>
+        <v>-0.005680399500624156</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.005623709367355526</v>
+        <v>0.006040679341601049</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0596002855103499</v>
+        <v>-0.003368137420006856</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005539413937866257</v>
+        <v>0.005633762578946887</v>
       </c>
       <c r="E58" s="1">
-        <v>0.003260869565217428</v>
+        <v>-0.01124052004333698</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005000525299345572</v>
+        <v>0.005040257525750678</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.00570272259013993</v>
+        <v>-0.01230342275670671</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005455996585767501</v>
+        <v>0.005256855927538467</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.0495459248189446</v>
+        <v>0.01149008224479897</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004704822284787977</v>
+        <v>0.004777033244908767</v>
       </c>
       <c r="E61" s="1">
-        <v>0.001599715606114493</v>
+        <v>-0.007985803016858917</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004802832446852882</v>
+        <v>0.004897921433147275</v>
       </c>
       <c r="E62" s="1">
-        <v>0.005989692157682081</v>
+        <v>0.001107726391581298</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004433872690001041</v>
+        <v>0.004489648281284265</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.001131648434553045</v>
+        <v>-0.01570996978851968</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004159912544160916</v>
+        <v>0.004227186969372329</v>
       </c>
       <c r="E64" s="1">
-        <v>0.002412351238340271</v>
+        <v>0.005936146317985003</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004003363889395131</v>
+        <v>0.004055603734453157</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.0006684491978610207</v>
+        <v>-0.0007525083612038852</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003759425627668743</v>
+        <v>0.003736513173071851</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.01955288621955276</v>
+        <v>-0.006398039749523687</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003832431490708557</v>
+        <v>0.003913013318873095</v>
       </c>
       <c r="E67" s="1">
-        <v>0.007200837915684932</v>
+        <v>-0.002339789418952409</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003154430305605135</v>
+        <v>0.003031657043261843</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.05193462440847807</v>
+        <v>0.0120380856507698</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003334687049914777</v>
+        <v>0.003350832378968702</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.008764670478483283</v>
+        <v>0.06098440286896145</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003388876968872165</v>
+        <v>0.003355198256734679</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.02334419109663421</v>
+        <v>-0.009449694274596854</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002673369335231106</v>
+        <v>0.002663778857524814</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01707957957957973</v>
+        <v>0.01298453312965431</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00223136190213038</v>
+        <v>0.002157082713694828</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.04637871263937032</v>
+        <v>0.009687561406956258</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002192851936575015</v>
+        <v>0.002139661589793697</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.03746853786896509</v>
+        <v>0.01463975118366045</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001885817542358892</v>
+        <v>0.001861559414817242</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.02623001707279216</v>
+        <v>0.005282572066123148</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001768615117329913</v>
+        <v>0.001688026370410353</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.05848976310936693</v>
+        <v>-0.004770992366412319</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001693518593836497</v>
+        <v>0.001677599128367339</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.02281368821292773</v>
+        <v>0.02440749911567042</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01445436224958985</v>
+        <v>-0.007365714766142339</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,7 +975,7 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06386155911810711</v>
+        <v>0.07486016806290953</v>
       </c>
       <c r="E2" s="1">
         <v>-0.004480212395254313</v>
@@ -992,7 +992,7 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03850437150466184</v>
+        <v>0.04513581819486788</v>
       </c>
       <c r="E3" s="1">
         <v>0.0155119402640036</v>
@@ -1009,7 +1009,7 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03031665520694398</v>
+        <v>0.03553796580036234</v>
       </c>
       <c r="E4" s="1">
         <v>-0.001603675450762898</v>
@@ -1026,7 +1026,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02993008428242253</v>
+        <v>0.03508481738404525</v>
       </c>
       <c r="E5" s="1">
         <v>-0.06235837940723277</v>
@@ -1043,7 +1043,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02806581208918759</v>
+        <v>0.032899469396495</v>
       </c>
       <c r="E6" s="1">
         <v>-0.01592134475103091</v>
@@ -1060,7 +1060,7 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02570366028198018</v>
+        <v>0.03013049407363111</v>
       </c>
       <c r="E7" s="1">
         <v>0.002780333837949289</v>
@@ -1077,7 +1077,7 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02584709844081577</v>
+        <v>0.03029863598600139</v>
       </c>
       <c r="E8" s="1">
         <v>-0.002679628591013894</v>
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1715344896819791</v>
+        <v>0.02885134354406234</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.03154305200341001</v>
+        <v>-0.005822704586865179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,7 +1108,7 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0224735041554361</v>
+        <v>0.02634402168176048</v>
       </c>
       <c r="E10" s="1">
         <v>0.001923816852635651</v>
@@ -1125,7 +1125,7 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02291195696719596</v>
+        <v>0.02685798738553065</v>
       </c>
       <c r="E11" s="1">
         <v>-0.005361305361305302</v>
@@ -1142,7 +1142,7 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02119052951251775</v>
+        <v>0.02484008568778179</v>
       </c>
       <c r="E12" s="1">
         <v>-0.005928853754940788</v>
@@ -1159,7 +1159,7 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02079700709330095</v>
+        <v>0.0243787885499432</v>
       </c>
       <c r="E13" s="1">
         <v>-0.01052901900359526</v>
@@ -1173,7 +1173,7 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01697605869197836</v>
+        <v>0.0198997742033985</v>
       </c>
       <c r="E14" s="1">
         <v>0.009707865168539387</v>
@@ -1187,7 +1187,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01566968633520739</v>
+        <v>0.0183684108052743</v>
       </c>
       <c r="E15" s="1">
         <v>0.01138281757195414</v>
@@ -1204,7 +1204,7 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01716849641098355</v>
+        <v>0.02012535466503003</v>
       </c>
       <c r="E16" s="1">
         <v>0.003688524590163889</v>
@@ -1221,7 +1221,7 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01543011409119475</v>
+        <v>0.01808757803674095</v>
       </c>
       <c r="E17" s="1">
         <v>0.01330666871779118</v>
@@ -1238,7 +1238,7 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01460568377519231</v>
+        <v>0.01712115953922259</v>
       </c>
       <c r="E18" s="1">
         <v>0.01486455896778072</v>
@@ -1255,7 +1255,7 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01324408094532359</v>
+        <v>0.01552505355486362</v>
       </c>
       <c r="E19" s="1">
         <v>-0.005632811124801962</v>
@@ -1272,7 +1272,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01187599287955007</v>
+        <v>0.01392134540957301</v>
       </c>
       <c r="E20" s="1">
         <v>-0.003372843789149038</v>
@@ -1289,7 +1289,7 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01299090242205971</v>
+        <v>0.01522827115457174</v>
       </c>
       <c r="E21" s="1">
         <v>0.04123896346278078</v>
@@ -1306,7 +1306,7 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01244487099117315</v>
+        <v>0.01458819901652385</v>
       </c>
       <c r="E22" s="1">
         <v>-0.02858310626702998</v>
@@ -1320,7 +1320,7 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01169478775868064</v>
+        <v>0.01370893208942437</v>
       </c>
       <c r="E23" s="1">
         <v>0.01702766179540705</v>
@@ -1337,7 +1337,7 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01297479530020464</v>
+        <v>0.01520938997055852</v>
       </c>
       <c r="E24" s="1">
         <v>-0.008330556481172979</v>
@@ -1354,7 +1354,7 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01227701782657831</v>
+        <v>0.01439143720417564</v>
       </c>
       <c r="E25" s="1">
         <v>0.009750034525617846</v>
@@ -1371,7 +1371,7 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01066020188963243</v>
+        <v>0.01249616382785995</v>
       </c>
       <c r="E26" s="1">
         <v>0.007682030728122902</v>
@@ -1385,7 +1385,7 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.010601877153652</v>
+        <v>0.01242779406680158</v>
       </c>
       <c r="E27" s="1">
         <v>0.0004797697105389798</v>
@@ -1402,7 +1402,7 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01053437559693047</v>
+        <v>0.01234866699958832</v>
       </c>
       <c r="E28" s="1">
         <v>0.0005492349941151886</v>
@@ -1419,7 +1419,7 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01041995145101537</v>
+        <v>0.01221453606210498</v>
       </c>
       <c r="E29" s="1">
         <v>-0.007338464292106495</v>
@@ -1436,7 +1436,7 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009141554621676875</v>
+        <v>0.01071596629937215</v>
       </c>
       <c r="E30" s="1">
         <v>0.0058237661590963</v>
@@ -1453,7 +1453,7 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01052897123367647</v>
+        <v>0.01234233186547862</v>
       </c>
       <c r="E31" s="1">
         <v>-0.002898550724637627</v>
@@ -1470,7 +1470,7 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01080211411060807</v>
+        <v>0.01266251699648162</v>
       </c>
       <c r="E32" s="1">
         <v>0.02097753920045209</v>
@@ -1487,7 +1487,7 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009447038903806933</v>
+        <v>0.01107406286038063</v>
       </c>
       <c r="E33" s="1">
         <v>-0.001660123387548951</v>
@@ -1504,7 +1504,7 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009785966657367631</v>
+        <v>0.01147136272187969</v>
       </c>
       <c r="E34" s="1">
         <v>-0.001243118451429548</v>
@@ -1521,7 +1521,7 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008305679771724783</v>
+        <v>0.00973613222373915</v>
       </c>
       <c r="E35" s="1">
         <v>0.002618041521220027</v>
@@ -1538,7 +1538,7 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009217130932907332</v>
+        <v>0.0108045588022552</v>
       </c>
       <c r="E36" s="1">
         <v>0.004745896776744862</v>
@@ -1555,7 +1555,7 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009399353345683399</v>
+        <v>0.01101816461823625</v>
       </c>
       <c r="E37" s="1">
         <v>-0.01379932356257041</v>
@@ -1572,7 +1572,7 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008708018720799087</v>
+        <v>0.01020776432545865</v>
       </c>
       <c r="E38" s="1">
         <v>-0.027015186915888</v>
@@ -1589,7 +1589,7 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007869600641080405</v>
+        <v>0.009224949010244609</v>
       </c>
       <c r="E39" s="1">
         <v>0.0222126467736723</v>
@@ -1606,7 +1606,7 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008010156472847198</v>
+        <v>0.00938971218442306</v>
       </c>
       <c r="E40" s="1">
         <v>0.01811870290407258</v>
@@ -1623,7 +1623,7 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.00769962811834674</v>
+        <v>0.009025702831578872</v>
       </c>
       <c r="E41" s="1">
         <v>0.009788053949903786</v>
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008495998132591156</v>
+        <v>0.009959228319053154</v>
       </c>
       <c r="E42" s="1">
         <v>-0.0396731158762309</v>
@@ -1657,7 +1657,7 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008515665776119442</v>
+        <v>0.009982283238479814</v>
       </c>
       <c r="E43" s="1">
         <v>0.00310599197618755</v>
@@ -1674,7 +1674,7 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007920973882365493</v>
+        <v>0.009285170049781483</v>
       </c>
       <c r="E44" s="1">
         <v>-0.007192088702427157</v>
@@ -1691,7 +1691,7 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007944032498915897</v>
+        <v>0.009312199955316189</v>
       </c>
       <c r="E45" s="1">
         <v>-0.007107184018440349</v>
@@ -1708,7 +1708,7 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008187419587578418</v>
+        <v>0.009597504583221094</v>
       </c>
       <c r="E46" s="1">
         <v>-0.006709533128319789</v>
@@ -1725,7 +1725,7 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007936911455569448</v>
+        <v>0.009303852484489296</v>
       </c>
       <c r="E47" s="1">
         <v>-0.01794411689310427</v>
@@ -1742,7 +1742,7 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.006237016679581682</v>
+        <v>0.007311191948526515</v>
       </c>
       <c r="E48" s="1">
         <v>0.001957266351329201</v>
@@ -1756,7 +1756,7 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007300086722015682</v>
+        <v>0.008557350093398509</v>
       </c>
       <c r="E49" s="1">
         <v>-0.01415598290598286</v>
@@ -1773,7 +1773,7 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006842559687006409</v>
+        <v>0.008021025092770587</v>
       </c>
       <c r="E50" s="1">
         <v>-0.01189370005575174</v>
@@ -1790,7 +1790,7 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006844509496494127</v>
+        <v>0.008023310709782712</v>
       </c>
       <c r="E51" s="1">
         <v>-0.02336570140454308</v>
@@ -1807,7 +1807,7 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00662969135554295</v>
+        <v>0.007771495339838085</v>
       </c>
       <c r="E52" s="1">
         <v>-0.01745435016111707</v>
@@ -1824,7 +1824,7 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006253801996041167</v>
+        <v>0.007330868129761336</v>
       </c>
       <c r="E53" s="1">
         <v>-0.003660024400162776</v>
@@ -1841,7 +1841,7 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006135372263243694</v>
+        <v>0.007192041739937876</v>
       </c>
       <c r="E54" s="1">
         <v>0.008166028767634392</v>
@@ -1855,7 +1855,7 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005708915018549577</v>
+        <v>0.006692137549524912</v>
       </c>
       <c r="E55" s="1">
         <v>0.002303151798641156</v>
@@ -1872,7 +1872,7 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005432338781433075</v>
+        <v>0.00636792774508752</v>
       </c>
       <c r="E56" s="1">
         <v>-0.005680399500624156</v>
@@ -1889,7 +1889,7 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006040679341601049</v>
+        <v>0.007081040252870731</v>
       </c>
       <c r="E57" s="1">
         <v>-0.003368137420006856</v>
@@ -1906,7 +1906,7 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005633762578946887</v>
+        <v>0.006604041919905373</v>
       </c>
       <c r="E58" s="1">
         <v>-0.01124052004333698</v>
@@ -1923,7 +1923,7 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005040257525750678</v>
+        <v>0.005908319976344858</v>
       </c>
       <c r="E59" s="1">
         <v>-0.01230342275670671</v>
@@ -1940,7 +1940,7 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005256855927538467</v>
+        <v>0.006162222213996211</v>
       </c>
       <c r="E60" s="1">
         <v>0.01149008224479897</v>
@@ -1957,7 +1957,7 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004777033244908767</v>
+        <v>0.005599761679707893</v>
       </c>
       <c r="E61" s="1">
         <v>-0.007985803016858917</v>
@@ -1974,7 +1974,7 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004897921433147275</v>
+        <v>0.005741469934459684</v>
       </c>
       <c r="E62" s="1">
         <v>0.001107726391581298</v>
@@ -1991,7 +1991,7 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004489648281284265</v>
+        <v>0.00526288160705111</v>
       </c>
       <c r="E63" s="1">
         <v>-0.01570996978851968</v>
@@ -2008,7 +2008,7 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004227186969372329</v>
+        <v>0.004955217682288454</v>
       </c>
       <c r="E64" s="1">
         <v>0.005936146317985003</v>
@@ -2025,7 +2025,7 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004055603734453157</v>
+        <v>0.004754083385221395</v>
       </c>
       <c r="E65" s="1">
         <v>-0.0007525083612038852</v>
@@ -2042,7 +2042,7 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003736513173071851</v>
+        <v>0.004380037192454393</v>
       </c>
       <c r="E66" s="1">
         <v>-0.006398039749523687</v>
@@ -2059,7 +2059,7 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003913013318873095</v>
+        <v>0.004586935219378118</v>
       </c>
       <c r="E67" s="1">
         <v>-0.002339789418952409</v>
@@ -2076,7 +2076,7 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003031657043261843</v>
+        <v>0.003553786642570964</v>
       </c>
       <c r="E68" s="1">
         <v>0.0120380856507698</v>
@@ -2093,7 +2093,7 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003350832378968702</v>
+        <v>0.003927932209990666</v>
       </c>
       <c r="E69" s="1">
         <v>0.06098440286896145</v>
@@ -2110,7 +2110,7 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003355198256734679</v>
+        <v>0.003933050004604774</v>
       </c>
       <c r="E70" s="1">
         <v>-0.009449694274596854</v>
@@ -2127,7 +2127,7 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002663778857524814</v>
+        <v>0.00312255033717447</v>
       </c>
       <c r="E71" s="1">
         <v>0.01298453312965431</v>
@@ -2144,7 +2144,7 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002157082713694828</v>
+        <v>0.002528588037979899</v>
       </c>
       <c r="E72" s="1">
         <v>0.009687561406956258</v>
@@ -2161,7 +2161,7 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002139661589793697</v>
+        <v>0.00250816654684982</v>
       </c>
       <c r="E73" s="1">
         <v>0.01463975118366045</v>
@@ -2178,7 +2178,7 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001861559414817242</v>
+        <v>0.002182167998663809</v>
       </c>
       <c r="E74" s="1">
         <v>0.005282572066123148</v>
@@ -2192,7 +2192,7 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001688026370410353</v>
+        <v>0.001978748084584624</v>
       </c>
       <c r="E75" s="1">
         <v>-0.004770992366412319</v>
@@ -2209,7 +2209,7 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001677599128367339</v>
+        <v>0.001966525002302387</v>
       </c>
       <c r="E76" s="1">
         <v>0.02440749911567042</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.007365714766142339</v>
+        <v>-0.002459686622529378</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07486016806290953</v>
+        <v>0.07470853820204756</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004480212395254313</v>
+        <v>0.0283356946412201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04513581819486788</v>
+        <v>0.04594898240782096</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0155119402640036</v>
+        <v>0.01167820069204151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03553796580036234</v>
+        <v>0.03556846170648163</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001603675450762898</v>
+        <v>0.02448448013891924</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03508481738404525</v>
+        <v>0.03297810082360974</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.06235837940723277</v>
+        <v>0.00531657805703234</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.032899469396495</v>
+        <v>0.03245549595132646</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01592134475103091</v>
+        <v>-0.02687894804692526</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03013049407363111</v>
+        <v>0.03028876778278637</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002780333837949289</v>
+        <v>0.001840194182420873</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03029863598600139</v>
+        <v>0.03029195561273548</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002679628591013894</v>
+        <v>0.002874281429642744</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02885134354406234</v>
+        <v>0.02875407671150157</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005822704586865179</v>
+        <v>-0.002510060161759364</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02634402168176048</v>
+        <v>0.02645978553515386</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001923816852635651</v>
+        <v>0.009728622631848483</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02685798738553065</v>
+        <v>0.02677986358598234</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005361305361305302</v>
+        <v>0.01695180064057511</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02484008568778179</v>
+        <v>0.0247536987942611</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005928853754940788</v>
+        <v>0.008998639740504633</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0243787885499432</v>
+        <v>0.02418158293808061</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01052901900359526</v>
+        <v>-0.02257980794186343</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0198997742033985</v>
+        <v>0.02014250277286415</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009707865168539387</v>
+        <v>0.01486690999732931</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0183684108052743</v>
+        <v>0.01862330256273834</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01138281757195414</v>
+        <v>0.02383601506333455</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02012535466503003</v>
+        <v>0.02024939469584546</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003688524590163889</v>
+        <v>0.02694977541853816</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01808757803674095</v>
+        <v>0.01837345639047634</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01330666871779118</v>
+        <v>0.004782146652497321</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01712115953922259</v>
+        <v>0.01741850208134414</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01486455896778072</v>
+        <v>0.02453531598513026</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01552505355486362</v>
+        <v>0.01547566915688652</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.005632811124801962</v>
+        <v>-0.01026730394760156</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01392134540957301</v>
+        <v>0.01390860168768101</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003372843789149038</v>
+        <v>0.02397988783600846</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01522827115457174</v>
+        <v>0.01589536689362488</v>
       </c>
       <c r="E21" s="1">
-        <v>0.04123896346278078</v>
+        <v>0.0118231015821586</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01458819901652385</v>
+        <v>0.01420616568949385</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02858310626702998</v>
+        <v>0.00530139407029262</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01370893208942437</v>
+        <v>0.01397674155284337</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01702766179540705</v>
+        <v>0.01238052472897566</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01520938997055852</v>
+        <v>0.01511987744865935</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008330556481172979</v>
+        <v>0.00772849462365599</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01439143720417564</v>
+        <v>0.01456758590997492</v>
       </c>
       <c r="E25" s="1">
-        <v>0.009750034525617846</v>
+        <v>0.003501285628316753</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01249616382785995</v>
+        <v>0.01262320888038571</v>
       </c>
       <c r="E26" s="1">
-        <v>0.007682030728122902</v>
+        <v>0.008507347254447017</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01242779406680158</v>
+        <v>0.01246441510104534</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0004797697105389798</v>
+        <v>-0.008072250639386325</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01234866699958832</v>
+        <v>0.01238591478854835</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0005492349941151886</v>
+        <v>0.02932873274780423</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01221453606210498</v>
+        <v>0.01215479711723741</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.007338464292106495</v>
+        <v>0.01640822214208426</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01071596629937215</v>
+        <v>0.01080495037315841</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0058237661590963</v>
+        <v>0.03267503826224849</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01234233186547862</v>
+        <v>0.01233690190308069</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002898550724637627</v>
+        <v>-0.0075096899224808</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01266251699648162</v>
+        <v>0.01296002303844704</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02097753920045209</v>
+        <v>-0.0005534417156692895</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01107406286038063</v>
+        <v>0.01108293910668995</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001660123387548951</v>
+        <v>0.02168490595716954</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01147136272187969</v>
+        <v>0.01148535282792295</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001243118451429548</v>
+        <v>0.006223328591749677</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00973613222373915</v>
+        <v>0.009785691556771376</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002618041521220027</v>
+        <v>0.02310382213263695</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0108045588022552</v>
+        <v>0.01088260391832517</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004745896776744862</v>
+        <v>0.003739421373745389</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01101816461823625</v>
+        <v>0.01089291455581684</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01379932356257041</v>
+        <v>0.001920526773057984</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01020776432545865</v>
+        <v>0.00995648950826388</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.027015186915888</v>
+        <v>0.01200660363199768</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009224949010244609</v>
+        <v>0.00945311123536121</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0222126467736723</v>
+        <v>0.00172828057159724</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.00938971218442306</v>
+        <v>0.009583413784531345</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01811870290407258</v>
+        <v>0.01014553014553021</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009025702831578872</v>
+        <v>0.009136519873539584</v>
       </c>
       <c r="E41" s="1">
-        <v>0.009788053949903786</v>
+        <v>0.02343153716989765</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009959228319053154</v>
+        <v>0.009587697431025471</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0396731158762309</v>
+        <v>0.005673139864717403</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009982283238479814</v>
+        <v>0.01003797841133817</v>
       </c>
       <c r="E43" s="1">
-        <v>0.00310599197618755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009285170049781483</v>
+        <v>0.009241120543744968</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.007192088702427157</v>
+        <v>0.0009055236945365586</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009312199955316189</v>
+        <v>0.009268814816427915</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.007107184018440349</v>
+        <v>-0.008125362739408004</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009597504583221094</v>
+        <v>0.009556616089021586</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006709533128319789</v>
+        <v>0.01322825781030113</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009303852484489296</v>
+        <v>0.009159432401298857</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01794411689310427</v>
+        <v>-0.02845210127903952</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007311191948526515</v>
+        <v>0.007343564766533395</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001957266351329201</v>
+        <v>0.008410657116501241</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008557350093398509</v>
+        <v>0.008457013995948228</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01415598290598286</v>
+        <v>-0.01192088864806284</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008021025092770587</v>
+        <v>0.007945168049743217</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01189370005575174</v>
+        <v>0.01156667293586588</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.008023310709782712</v>
+        <v>0.007855161663523631</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02336570140454308</v>
+        <v>0.003240268098894772</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007771495339838085</v>
+        <v>0.007654677045629981</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01745435016111707</v>
+        <v>0.003962831374692444</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007330868129761336</v>
+        <v>0.007322046914376859</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.003660024400162776</v>
+        <v>-0.02102040816326534</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007192041739937876</v>
+        <v>0.007268650762729159</v>
       </c>
       <c r="E54" s="1">
-        <v>0.008166028767634392</v>
+        <v>0.00175428978674419</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006692137549524912</v>
+        <v>0.006724089711671341</v>
       </c>
       <c r="E55" s="1">
-        <v>0.002303151798641156</v>
+        <v>0.002702318304650841</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00636792774508752</v>
+        <v>0.006347367907434503</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.005680399500624156</v>
+        <v>0.01111180865088834</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.007081040252870731</v>
+        <v>0.007074591614576695</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.003368137420006856</v>
+        <v>-0.01757350456235196</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006604041919905373</v>
+        <v>0.006545909941452913</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01124052004333698</v>
+        <v>-0.01438159156279972</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005908319976344858</v>
+        <v>0.005850016625529381</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.01230342275670671</v>
+        <v>-0.007211763604008659</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006162222213996211</v>
+        <v>0.006248395749483027</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01149008224479897</v>
+        <v>0.01028339112758592</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005599761679707893</v>
+        <v>0.005568740442362809</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.007985803016858917</v>
+        <v>0.003846153846153832</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005741469934459684</v>
+        <v>0.005762002633027994</v>
       </c>
       <c r="E62" s="1">
-        <v>0.001107726391581298</v>
+        <v>-0.003457814661134151</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.00526288160705111</v>
+        <v>0.005192974987110707</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.01570996978851968</v>
+        <v>0.02079496623695531</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004955217682288454</v>
+        <v>0.004996923445240045</v>
       </c>
       <c r="E64" s="1">
-        <v>0.005936146317985003</v>
+        <v>0.01084529505582132</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004754083385221395</v>
+        <v>0.004762219465236346</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.0007525083612038852</v>
+        <v>0.01087775081583131</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004380037192454393</v>
+        <v>0.004362744524737689</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.006398039749523687</v>
+        <v>0.00013700506918779</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004586935219378118</v>
+        <v>0.0045874865361504</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.002339789418952409</v>
+        <v>-0.01667752442996739</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003553786642570964</v>
+        <v>0.003605435672450712</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0120380856507698</v>
+        <v>0.01286886604774518</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003927932209990666</v>
+        <v>0.004177750768003026</v>
       </c>
       <c r="E69" s="1">
-        <v>0.06098440286896145</v>
+        <v>-0.01988697331711864</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003933050004604774</v>
+        <v>0.003905490166411298</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.009449694274596854</v>
+        <v>-0.0145903479236813</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00312255033717447</v>
+        <v>0.003170894602511774</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01298453312965431</v>
+        <v>0.01399622997172489</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002528588037979899</v>
+        <v>0.00255937916055392</v>
       </c>
       <c r="E72" s="1">
-        <v>0.009687561406956258</v>
+        <v>0.02650682132222726</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00250816654684982</v>
+        <v>0.002551160536466353</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01463975118366045</v>
+        <v>0.02134015385216137</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002182167998663809</v>
+        <v>0.002199104566460805</v>
       </c>
       <c r="E74" s="1">
-        <v>0.005282572066123148</v>
+        <v>0.02471121177802948</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001978748084584624</v>
+        <v>0.001974163315676275</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.004770992366412319</v>
+        <v>-0.01165665842458485</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001966525002302387</v>
+        <v>0.002019490272765275</v>
       </c>
       <c r="E76" s="1">
-        <v>0.02440749911567042</v>
+        <v>-0.05110497237569056</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.002459686622529378</v>
+        <v>0.007592330065203212</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07470853820204756</v>
+        <v>0.07624656742143043</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0283356946412201</v>
+        <v>-0.006888726801199452</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04594898240782096</v>
+        <v>0.04613530934973116</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01167820069204151</v>
+        <v>0.00856030628087967</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03556846170648163</v>
+        <v>0.03616476218943412</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02448448013891924</v>
+        <v>0.006737573626001137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03297810082360974</v>
+        <v>0.03290361635510437</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00531657805703234</v>
+        <v>0.0007211538461537881</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03245549595132646</v>
+        <v>0.0313451436850157</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02687894804692526</v>
+        <v>-0.01000198714976475</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03028876778278637</v>
+        <v>0.03011585548203736</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001840194182420873</v>
+        <v>0.005239598363117937</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03029195561273548</v>
+        <v>0.03015011360423401</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002874281429642744</v>
+        <v>-0.0009345794392523477</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02875407671150157</v>
+        <v>0.02846578064682548</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002510060161759364</v>
+        <v>-0.008188208979070244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02645978553515386</v>
+        <v>0.02651588544924324</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009728622631848483</v>
+        <v>-0.007733265720081262</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02677986358598234</v>
+        <v>0.02702862028823835</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01695180064057511</v>
+        <v>0.01858964510677508</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0247536987942611</v>
+        <v>0.02478824785252121</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008998639740504633</v>
+        <v>-0.02141449756299929</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02418158293808061</v>
+        <v>0.0234574705804668</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02257980794186343</v>
+        <v>-0.0201805629314924</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02014250277286415</v>
+        <v>0.02028792691126027</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01486690999732931</v>
+        <v>0.0003216374269006117</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01862330256273834</v>
+        <v>0.01892353416576615</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02383601506333455</v>
+        <v>-0.02503657262277958</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02024939469584546</v>
+        <v>0.020638417656389</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02694977541853816</v>
+        <v>-0.00576540755467192</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01837345639047634</v>
+        <v>0.01832221266735346</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004782146652497321</v>
+        <v>0.01186069351061403</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01741850208134414</v>
+        <v>0.01771139974114602</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02453531598513026</v>
+        <v>0.01204644412191569</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01547566915688652</v>
+        <v>0.01520136200011474</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01026730394760156</v>
+        <v>-0.01234126274369518</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01390860168768101</v>
+        <v>0.01413481223620041</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02397988783600846</v>
+        <v>-0.01000944287063266</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01589536689362488</v>
+        <v>0.01596210982476723</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0118231015821586</v>
+        <v>-0.0099134700551885</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01420616568949385</v>
+        <v>0.01417386550681419</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00530139407029262</v>
+        <v>-0.008733258928571463</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01397674155284337</v>
+        <v>0.01404316063655743</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01238052472897566</v>
+        <v>-0.03928526169053348</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01511987744865935</v>
+        <v>0.01512192072685354</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00772849462365599</v>
+        <v>0.0003334444814937498</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01456758590997492</v>
+        <v>0.01450843833657883</v>
       </c>
       <c r="E25" s="1">
-        <v>0.003501285628316753</v>
+        <v>0.004470370168456528</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01262320888038571</v>
+        <v>0.01263467229943359</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008507347254447017</v>
+        <v>-0.06441717791411039</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01246441510104534</v>
+        <v>0.01227063649588943</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.008072250639386325</v>
+        <v>-0.02723390540649417</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01238591478854835</v>
+        <v>0.01265311137530566</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02932873274780423</v>
+        <v>-0.03275940880694805</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01215479711723741</v>
+        <v>0.01226114506809469</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01640822214208426</v>
+        <v>-0.0040801844952989</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01080495037315841</v>
+        <v>0.01107392564143576</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03267503826224849</v>
+        <v>-0.02789136296269845</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01233690190308069</v>
+        <v>0.01215199364845516</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0075096899224808</v>
+        <v>-0.02684891383939469</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01296002303844704</v>
+        <v>0.0128552491266218</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0005534417156692895</v>
+        <v>0.003599363189589644</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01108293910668995</v>
+        <v>0.01123794937801364</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02168490595716954</v>
+        <v>-0.005828531210135046</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01148535282792295</v>
+        <v>0.01146974784118834</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006223328591749677</v>
+        <v>0.005654709312599371</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009785691556771376</v>
+        <v>0.009936338472620159</v>
       </c>
       <c r="E35" s="1">
-        <v>0.02310382213263695</v>
+        <v>-0.01170149253731345</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01088260391832517</v>
+        <v>0.01084099018430647</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003739421373745389</v>
+        <v>0.00764705882352934</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01089291455581684</v>
+        <v>0.01083159762555126</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001920526773057984</v>
+        <v>-0.01086212404728248</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00995648950826388</v>
+        <v>0.01000010900311608</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01200660363199768</v>
+        <v>-0.01431113747590096</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00945311123536121</v>
+        <v>0.009398095421426684</v>
       </c>
       <c r="E39" s="1">
-        <v>0.00172828057159724</v>
+        <v>-0.02360713684564886</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009583413784531345</v>
+        <v>0.009607697785227229</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01014553014553021</v>
+        <v>-0.008067835679591684</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009136519873539584</v>
+        <v>0.009280144657269115</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02343153716989765</v>
+        <v>-0.01170855395629788</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009587697431025471</v>
+        <v>0.009569435466929678</v>
       </c>
       <c r="E42" s="1">
-        <v>0.005673139864717403</v>
+        <v>-0.008317060823027522</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01003797841133817</v>
+        <v>0.009962341030016171</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>-0.0159979357502259</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009241120543744968</v>
+        <v>0.009179792582147626</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0009055236945365586</v>
+        <v>0.01432448733413749</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009268814816427915</v>
+        <v>0.009124228181932576</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.008125362739408004</v>
+        <v>-0.005558806319485021</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009556616089021586</v>
+        <v>0.009610070642175915</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01322825781030113</v>
+        <v>-0.01777777777777778</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009159432401298857</v>
+        <v>0.0088317735630071</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02845210127903952</v>
+        <v>-0.02364320257925834</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007343564766533395</v>
+        <v>0.007349528922394947</v>
       </c>
       <c r="E48" s="1">
-        <v>0.008410657116501241</v>
+        <v>-0.01162290142057687</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008457013995948228</v>
+        <v>0.00829323390469504</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01192088864806284</v>
+        <v>-0.01096791883740056</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007945168049743217</v>
+        <v>0.007976506936565302</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01156667293586588</v>
+        <v>-0.01227107929720184</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007855161663523631</v>
+        <v>0.007821233109985701</v>
       </c>
       <c r="E51" s="1">
-        <v>0.003240268098894772</v>
+        <v>-0.03437748871781265</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007654677045629981</v>
+        <v>0.007627103750871375</v>
       </c>
       <c r="E52" s="1">
-        <v>0.003962831374692444</v>
+        <v>-0.02136926636722458</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007322046914376859</v>
+        <v>0.007114121739277448</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02102040816326534</v>
+        <v>-0.04857202418178019</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007268650762729159</v>
+        <v>0.007226535837221419</v>
       </c>
       <c r="E54" s="1">
-        <v>0.00175428978674419</v>
+        <v>-0.01963279155037478</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006724089711671341</v>
+        <v>0.006691456595292859</v>
       </c>
       <c r="E55" s="1">
-        <v>0.002702318304650841</v>
+        <v>-0.01470855496453904</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006347367907434503</v>
+        <v>0.006369539002587872</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01111180865088834</v>
+        <v>-0.007450639513224777</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.007074591614576695</v>
+        <v>0.006897895149828491</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.01757350456235196</v>
+        <v>-0.01719986240110083</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006545909941452913</v>
+        <v>0.006403154476027582</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01438159156279972</v>
+        <v>-0.01459143968871601</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005850016625529381</v>
+        <v>0.005764065004514978</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.007211763604008659</v>
+        <v>-0.05415094339622628</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006248395749483027</v>
+        <v>0.006265083862325949</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01028339112758592</v>
+        <v>-0.0124275062137531</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005568740442362809</v>
+        <v>0.005548036153145077</v>
       </c>
       <c r="E61" s="1">
-        <v>0.003846153846153832</v>
+        <v>-0.05016484006058985</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005762002633027994</v>
+        <v>0.005698811438426129</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.003457814661134151</v>
+        <v>0.01651630811936156</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005192974987110707</v>
+        <v>0.005261019331393671</v>
       </c>
       <c r="E63" s="1">
-        <v>0.02079496623695531</v>
+        <v>0.01691347816282041</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004996923445240045</v>
+        <v>0.005013055780256045</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01084529505582132</v>
+        <v>-0.01199116440517523</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004762219465236346</v>
+        <v>0.004777747466178075</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01087775081583131</v>
+        <v>-0.005628673123085903</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004362744524737689</v>
+        <v>0.004330463931350875</v>
       </c>
       <c r="E66" s="1">
-        <v>0.00013700506918779</v>
+        <v>-0.008835616438356175</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.0045874865361504</v>
+        <v>0.004476987847932199</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01667752442996739</v>
+        <v>-0.02729561415131843</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003605435672450712</v>
+        <v>0.003624316533778026</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01286886604774518</v>
+        <v>-0.002516521063076538</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004177750768003026</v>
+        <v>0.004063814131742352</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.01988697331711864</v>
+        <v>-0.0263119480329902</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003905490166411298</v>
+        <v>0.003819508735067284</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.0145903479236813</v>
+        <v>-0.04014806378132119</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003170894602511774</v>
+        <v>0.003191047685304</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01399622997172489</v>
+        <v>-0.0007900729655621053</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00255937916055392</v>
+        <v>0.002607423744966917</v>
       </c>
       <c r="E72" s="1">
-        <v>0.02650682132222726</v>
+        <v>-0.008759124087591275</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002551160536466353</v>
+        <v>0.00258596916338922</v>
       </c>
       <c r="E73" s="1">
-        <v>0.02134015385216137</v>
+        <v>0.02290149299382538</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002199104566460805</v>
+        <v>0.002236467108655764</v>
       </c>
       <c r="E74" s="1">
-        <v>0.02471121177802948</v>
+        <v>0.0172188943657301</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001974163315676275</v>
+        <v>0.001936449008206353</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01165665842458485</v>
+        <v>-0.0521801286633311</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.002019490272765275</v>
+        <v>0.001901844844371357</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.05110497237569056</v>
+        <v>-0.0782387190684134</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>0.007592330065203212</v>
+        <v>-0.008408339712240198</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07624656742143043</v>
+        <v>0.07636341518540066</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006888726801199452</v>
+        <v>-0.01999347151950381</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04613530934973116</v>
+        <v>0.04692480139922205</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00856030628087967</v>
+        <v>-0.0160733067729083</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03616476218943412</v>
+        <v>0.03671715525197795</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006737573626001137</v>
+        <v>-0.008923310042932897</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03290361635510437</v>
+        <v>0.03320655693598281</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0007211538461537881</v>
+        <v>-0.000384338217631619</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0313451436850157</v>
+        <v>0.03129476699276117</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01000198714976475</v>
+        <v>0.007761273919443257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03011585548203736</v>
+        <v>0.03053036010845385</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005239598363117937</v>
+        <v>-0.004310914942708854</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03015011360423401</v>
+        <v>0.03037735908269638</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0009345794392523477</v>
+        <v>0.00972871842843781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02846578064682548</v>
+        <v>0.02847209997504797</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008188208979070244</v>
+        <v>0.005315935725504373</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02651588544924324</v>
+        <v>0.0265339374210001</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007733265720081262</v>
+        <v>-0.008560112431327482</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02702862028823835</v>
+        <v>0.0277645263163397</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01858964510677508</v>
+        <v>-0.0003016591251884249</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02478824785252121</v>
+        <v>0.02446311415351443</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02141449756299929</v>
+        <v>-0.02124728448047464</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0234574705804668</v>
+        <v>0.02317898237721572</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0201805629314924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02028792691126027</v>
+        <v>0.02046654190494069</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0003216374269006117</v>
+        <v>-0.02706731752944946</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01892353416576615</v>
+        <v>0.0186062009869982</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02503657262277958</v>
+        <v>-0.01714824659178604</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.020638417656389</v>
+        <v>0.02069342612397693</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.00576540755467192</v>
+        <v>-0.007198560287942413</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01832221266735346</v>
+        <v>0.01869673531830337</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01186069351061403</v>
+        <v>-0.00619680453934579</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01771139974114602</v>
+        <v>0.01807675462220698</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01204644412191569</v>
+        <v>-0.00466083464792777</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01520136200011474</v>
+        <v>0.01514106925148231</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01234126274369518</v>
+        <v>0.02028250633828343</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01413481223620041</v>
+        <v>0.01411198903848604</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01000944287063266</v>
+        <v>-0.01697825257535301</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01596210982476723</v>
+        <v>0.01593788104512244</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0099134700551885</v>
+        <v>-0.02921240064687058</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01417386550681419</v>
+        <v>0.01416922109373843</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.008733258928571463</v>
+        <v>0.01232865144819439</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01404316063655743</v>
+        <v>0.01360587420841443</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.03928526169053348</v>
+        <v>-0.02842632898034558</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01512192072685354</v>
+        <v>0.01525523423974709</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0003334444814937498</v>
+        <v>-0.0003333333333332966</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01450843833657883</v>
+        <v>0.01469687272508968</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004470370168456528</v>
+        <v>0.005698778833107321</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01263467229943359</v>
+        <v>0.0119210183379357</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.06441717791411039</v>
+        <v>-0.02810304449648726</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01227063649588943</v>
+        <v>0.01203767601153376</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02723390540649417</v>
+        <v>-0.002981860349540177</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01265311137530566</v>
+        <v>0.01234238186667538</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03275940880694805</v>
+        <v>-0.02268431001890359</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01226114506809469</v>
+        <v>0.01231466320576917</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0040801844952989</v>
+        <v>-0.00391877449234046</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01107392564143576</v>
+        <v>0.01085634257838002</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02789136296269845</v>
+        <v>0.01476828125861029</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01215199364845516</v>
+        <v>0.01192600370860228</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02684891383939469</v>
+        <v>0.00953097567093053</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0128552491266218</v>
+        <v>0.0130109200730643</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003599363189589644</v>
+        <v>0.009552382922960234</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01123794937801364</v>
+        <v>0.01126718697501321</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.005828531210135046</v>
+        <v>-0.0146899404880424</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01146974784118834</v>
+        <v>0.01163241523004715</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005654709312599371</v>
+        <v>0.001757160428747184</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009936338472620159</v>
+        <v>0.009903339121755816</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01170149253731345</v>
+        <v>-0.04816056542225444</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01084099018430647</v>
+        <v>0.01101652253789736</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00764705882352934</v>
+        <v>0.002529675034053325</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01083159762555126</v>
+        <v>0.01080479384568754</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01086212404728248</v>
+        <v>0.01674895030683365</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01000010900311608</v>
+        <v>0.009940579840635198</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01431113747590096</v>
+        <v>0.01143458963364163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009398095421426684</v>
+        <v>0.009254044446139913</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02360713684564886</v>
+        <v>-0.01463172865577733</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009607697785227229</v>
+        <v>0.009610996985867329</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.008067835679591684</v>
+        <v>-0.0204996265250228</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009280144657269115</v>
+        <v>0.009249258490299993</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01170855395629788</v>
+        <v>-0.04029580440688207</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009569435466929678</v>
+        <v>0.009570316361228003</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.008317060823027522</v>
+        <v>-0.02887981330221712</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009962341030016171</v>
+        <v>0.009886089739249435</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0159979357502259</v>
+        <v>-0.0003933394519470834</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009179792582147626</v>
+        <v>0.009390244772750989</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01432448733413749</v>
+        <v>-0.006540805708339481</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009124228181932576</v>
+        <v>0.009150448443688298</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.005558806319485021</v>
+        <v>0.02677258017063844</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009610070642175915</v>
+        <v>0.009519266165602183</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01777777777777778</v>
+        <v>0.00707013574660631</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0088317735630071</v>
+        <v>0.008696081761135831</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02364320257925834</v>
+        <v>-0.001651073197578512</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007349528922394947</v>
+        <v>0.007325703072305216</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01162290142057687</v>
+        <v>-0.01910932055749137</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00829323390469504</v>
+        <v>0.008271826717409531</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01096791883740056</v>
+        <v>-0.002772387025228751</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007976506936565302</v>
+        <v>0.007945434499868275</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01227107929720184</v>
+        <v>-0.01204705882352941</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007821233109985701</v>
+        <v>0.00761640003587373</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.03437748871781265</v>
+        <v>0.0136540664375715</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007627103750871375</v>
+        <v>0.007527411169475206</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.02136926636722458</v>
+        <v>0.01821974965229467</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007114121739277448</v>
+        <v>0.006825969516686834</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.04857202418178019</v>
+        <v>-0.0006573181419807783</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007226535837221419</v>
+        <v>0.007144734117108217</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01963279155037478</v>
+        <v>0.008624419107693626</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006691456595292859</v>
+        <v>0.006648941497001769</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01470855496453904</v>
+        <v>-0.001715165550028264</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006369539002587872</v>
+        <v>0.006375690838080966</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.007450639513224777</v>
+        <v>0.0003127736769672484</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006897895149828491</v>
+        <v>0.006836737917326656</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.01719986240110083</v>
+        <v>-0.005250262513125659</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006403154476027582</v>
+        <v>0.006363227411414506</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01459143968871601</v>
+        <v>-0.01170497814130578</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005764065004514978</v>
+        <v>0.005498165893348848</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.05415094339622628</v>
+        <v>0.01865150608418076</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006265083862325949</v>
+        <v>0.006239689926296554</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.0124275062137531</v>
+        <v>0.001438159156280205</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005548036153145077</v>
+        <v>0.00531440513057856</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.05016484006058985</v>
+        <v>0.02026266416510336</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005698811438426129</v>
+        <v>0.005842056761929813</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01651630811936156</v>
+        <v>0.002594210813763098</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005261019331393671</v>
+        <v>0.005395367550203885</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01691347816282041</v>
+        <v>0.002956830277942135</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.005013055780256045</v>
+        <v>0.004994942578263857</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.01199116440517523</v>
+        <v>-0.00511018843819866</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004777747466178075</v>
+        <v>0.004791140625413902</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.005628673123085903</v>
+        <v>0.006284858070423782</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004330463931350875</v>
+        <v>0.004328597934968237</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.008835616438356175</v>
+        <v>-0.001174763319742866</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004476987847932199</v>
+        <v>0.004391712727607191</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.02729561415131843</v>
+        <v>0.002179539572265243</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003624316533778026</v>
+        <v>0.003645851422179557</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.002516521063076538</v>
+        <v>-0.03897116134060796</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004063814131742352</v>
+        <v>0.003990440242653844</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.0263119480329902</v>
+        <v>0.005547018477568333</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003819508735067284</v>
+        <v>0.003697250593752038</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.04014806378132119</v>
+        <v>0.01275585879560959</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003191047685304</v>
+        <v>0.00321556407994669</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.0007900729655621053</v>
+        <v>-0.02544186046511621</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002607423744966917</v>
+        <v>0.002606501345610121</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.008759124087591275</v>
+        <v>-0.03272574259319472</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00258596916338922</v>
+        <v>0.002667621989982441</v>
       </c>
       <c r="E73" s="1">
-        <v>0.02290149299382538</v>
+        <v>-0.02668709936646185</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002236467108655764</v>
+        <v>0.002294267580761964</v>
       </c>
       <c r="E74" s="1">
-        <v>0.0172188943657301</v>
+        <v>-0.01888309430682311</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001936449008206353</v>
+        <v>0.001850968421089313</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.0521801286633311</v>
+        <v>0.01599870717517793</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001901844844371357</v>
+        <v>0.001767912145784024</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.0782387190684134</v>
+        <v>-0.01894986182392411</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.008408339712240198</v>
+        <v>-0.006100485913858922</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07636341518540066</v>
+        <v>0.07529598753005652</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01999347151950381</v>
+        <v>0.004163544008660258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04692480139922205</v>
+        <v>0.04645395637759912</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0160733067729083</v>
+        <v>-0.01321965488310928</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03671715525197795</v>
+        <v>0.03661287300782016</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008923310042932897</v>
+        <v>-0.01325065828590843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03320655693598281</v>
+        <v>0.03339753558245472</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.000384338217631619</v>
+        <v>-0.0004806074878646038</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03129476699276117</v>
+        <v>0.03173123017434516</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007761273919443257</v>
+        <v>0.01281370335944776</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03053036010845385</v>
+        <v>0.03058533170811207</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004310914942708854</v>
+        <v>-3.443983606643553E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03037735908269638</v>
+        <v>0.03086115992723291</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00972871842843781</v>
+        <v>0.0003705762460626261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02847209997504797</v>
+        <v>0.02879914460447625</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005315935725504373</v>
+        <v>0.004486640227536753</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0265339374210001</v>
+        <v>0.02646827326162726</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008560112431327482</v>
+        <v>0.001546391752577536</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0277645263163397</v>
+        <v>0.02792651621239672</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0003016591251884249</v>
+        <v>0.006940253470126612</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02446311415351443</v>
+        <v>0.02409030195555687</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02124728448047464</v>
+        <v>0.01185578172368973</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02317898237721572</v>
+        <v>0.02332125335480021</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.02059620596205969</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02046654190494069</v>
+        <v>0.0200347894674029</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02706731752944946</v>
+        <v>-0.003875619648490369</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0186062009869982</v>
+        <v>0.01839938243772185</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01714824659178604</v>
+        <v>0.003663962313530611</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02069342612397693</v>
+        <v>0.02067056373133392</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.007198560287942413</v>
+        <v>0.01732124874118846</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01869673531830337</v>
+        <v>0.01869492342100245</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00619680453934579</v>
+        <v>0.006761325219742931</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01807675462220698</v>
+        <v>0.01810293857974691</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00466083464792777</v>
+        <v>0.005907355377854584</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01514106925148231</v>
+        <v>0.01554298786306178</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02028250633828343</v>
+        <v>-0.00283990060347894</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01411198903848604</v>
+        <v>0.01395753989980087</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01697825257535301</v>
+        <v>0.007956530176596033</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01593788104512244</v>
+        <v>0.01556726516039847</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02921240064687058</v>
+        <v>-0.0120507549443537</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01416922109373843</v>
+        <v>0.01443195039197126</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01232865144819439</v>
+        <v>-0.003586820519949852</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01360587420841443</v>
+        <v>0.01330024712232141</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02842632898034558</v>
+        <v>0.009300115402891995</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01525523423974709</v>
+        <v>0.0153437535138441</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0003333333333332966</v>
+        <v>0.003001000333444415</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01469687272508968</v>
+        <v>0.01487134940988336</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005698778833107321</v>
+        <v>0.00132218024824593</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0119210183379357</v>
+        <v>0.01165711549803323</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02810304449648726</v>
+        <v>0.01313253012048188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01203767601153376</v>
+        <v>0.01207544743974406</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.002981860349540177</v>
+        <v>0.02243083824873282</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01234238186667538</v>
+        <v>0.01213644164131725</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02268431001890359</v>
+        <v>-0.0003223726627981094</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01231466320576917</v>
+        <v>0.01234169515516386</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.00391877449234046</v>
+        <v>0.00679542203147343</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01085634257838002</v>
+        <v>0.01108429166417979</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01476828125861029</v>
+        <v>-0.008000724047425245</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01192600370860228</v>
+        <v>0.0121135688157273</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00953097567093053</v>
+        <v>0.02409937888198743</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0130109200730643</v>
+        <v>0.01321582833840063</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009552382922960234</v>
+        <v>0.01513236549957298</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01126718697501321</v>
+        <v>0.01116981396161588</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0146899404880424</v>
+        <v>-0.006915598266609591</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01163241523004715</v>
+        <v>0.01172437966276155</v>
       </c>
       <c r="E34" s="1">
-        <v>0.001757160428747184</v>
+        <v>0.006490089457989789</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009903339121755816</v>
+        <v>0.009484247226693724</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.04816056542225444</v>
+        <v>0.01605661065892394</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01101652253789736</v>
+        <v>0.01111218046029385</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002529675034053325</v>
+        <v>0.009704968944099335</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01080479384568754</v>
+        <v>0.01105319264693031</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01674895030683365</v>
+        <v>0.01098202940642579</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009940579840635198</v>
+        <v>0.01011595855450022</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01143458963364163</v>
+        <v>0.01018966158423207</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009254044446139913</v>
+        <v>0.009174611366240371</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01463172865577733</v>
+        <v>0.00968793054431738</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009610996985867329</v>
+        <v>0.009471757460088688</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0204996265250228</v>
+        <v>0.008727334350110194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009249258490299993</v>
+        <v>0.008931035837589555</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.04029580440688207</v>
+        <v>0.000786287152068077</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009570316361228003</v>
+        <v>0.009350972889868104</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02887981330221712</v>
+        <v>-0.03394412736557539</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009886089739249435</v>
+        <v>0.009942857411713163</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0003933394519470834</v>
+        <v>-0.002229800629590772</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009390244772750989</v>
+        <v>0.009386084683536878</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.006540805708339481</v>
+        <v>0.02693401167140497</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009150448443688298</v>
+        <v>0.009453098049738998</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02677258017063844</v>
+        <v>0.003533906399235676</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009519266165602183</v>
+        <v>0.0096454103596334</v>
       </c>
       <c r="E46" s="1">
-        <v>0.00707013574660631</v>
+        <v>0.001684919966301601</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008696081761135831</v>
+        <v>0.008735011709507311</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.001651073197578512</v>
+        <v>0.03996692392502754</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007325703072305216</v>
+        <v>0.007229819274632176</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01910932055749137</v>
+        <v>0.01620691569073651</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008271826717409531</v>
+        <v>0.00829952514860402</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.002772387025228751</v>
+        <v>0.0166805671392829</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007945434499868275</v>
+        <v>0.007897896388738479</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01204705882352941</v>
+        <v>0.02267314470801174</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00761640003587373</v>
+        <v>0.007767782113343047</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0136540664375715</v>
+        <v>0.01365095149844064</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007527411169475206</v>
+        <v>0.007711603243473007</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01821974965229467</v>
+        <v>0.01174702909438596</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006825969516686834</v>
+        <v>0.006863352468140649</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.0006573181419807783</v>
+        <v>0.03069502302126725</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007144734117108217</v>
+        <v>0.007250585392601995</v>
       </c>
       <c r="E54" s="1">
-        <v>0.008624419107693626</v>
+        <v>0.006572120373573132</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006648941497001769</v>
+        <v>0.006678278203712538</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001715165550028264</v>
+        <v>0.0121653624034197</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006375690838080966</v>
+        <v>0.006416830772084317</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0003127736769672484</v>
+        <v>0.0208867487961979</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006836737917326656</v>
+        <v>0.006842586350170832</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.005250262513125659</v>
+        <v>0.01090781140042218</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006363227411414506</v>
+        <v>0.006327345857934182</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01170497814130578</v>
+        <v>0.02340182648401834</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005498165893348848</v>
+        <v>0.005635091765901666</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01865150608418076</v>
+        <v>0.0246744345442087</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006239689926296554</v>
+        <v>0.006287017454920333</v>
       </c>
       <c r="E60" s="1">
-        <v>0.001438159156280205</v>
+        <v>0.02979894686452833</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.00531440513057856</v>
+        <v>0.005455369542022782</v>
       </c>
       <c r="E61" s="1">
-        <v>0.02026266416510336</v>
+        <v>0.02602059580728211</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005842056761929813</v>
+        <v>0.005893163449367161</v>
       </c>
       <c r="E62" s="1">
-        <v>0.002594210813763098</v>
+        <v>0.01143946615824576</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005395367550203885</v>
+        <v>0.005444535045690702</v>
       </c>
       <c r="E63" s="1">
-        <v>0.002956830277942135</v>
+        <v>-7.37028301888154E-05</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004994942578263857</v>
+        <v>0.00499991941843353</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.00511018843819866</v>
+        <v>0.00786516853932584</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004791140625413902</v>
+        <v>0.004850844774456961</v>
       </c>
       <c r="E65" s="1">
-        <v>0.006284858070423782</v>
+        <v>-0.0001654464987385085</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004328597934968237</v>
+        <v>0.004350050277329751</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.001174763319742866</v>
+        <v>0.01418292514182928</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004391712727607191</v>
+        <v>0.004428299417505876</v>
       </c>
       <c r="E67" s="1">
-        <v>0.002179539572265243</v>
+        <v>0.0241946445562049</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003645851422179557</v>
+        <v>0.003525274244050231</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.03897116134060796</v>
+        <v>-0.0001280573697016729</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003990440242653844</v>
+        <v>0.004037204195740968</v>
       </c>
       <c r="E69" s="1">
-        <v>0.005547018477568333</v>
+        <v>0.02195385590219523</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003697250593752038</v>
+        <v>0.003767395141249053</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01275585879560959</v>
+        <v>-0.003514938488576425</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00321556407994669</v>
+        <v>0.003152988911750735</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.02544186046511621</v>
+        <v>-0.01951987782179176</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002606501345610121</v>
+        <v>0.002536676613453256</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.03272574259319472</v>
+        <v>-0.008522502570592394</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002667621989982441</v>
+        <v>0.002612367608662086</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.02668709936646185</v>
+        <v>-0.03446554405637359</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002294267580761964</v>
+        <v>0.002264760851341215</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.01888309430682311</v>
+        <v>-0.001151690992447496</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001850968421089313</v>
+        <v>0.001892124401105033</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01599870717517793</v>
+        <v>0.009596521923545875</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001767912145784024</v>
+        <v>0.001745056145338107</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.01894986182392411</v>
+        <v>0.04024144869215296</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.006100485913858922</v>
+        <v>0.005282153031913595</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07529598753005652</v>
+        <v>0.07521220332000975</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004163544008660258</v>
+        <v>0.005141388174807249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04645395637759912</v>
+        <v>0.04559899026166937</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01321965488310928</v>
+        <v>0.001894125911773736</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03661287300782016</v>
+        <v>0.03593789885731839</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01325065828590843</v>
+        <v>0.0178187139536885</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03339753558245472</v>
+        <v>0.03320608485498285</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0004806074878646038</v>
+        <v>0.02673462518632497</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03173123017434516</v>
+        <v>0.0319689598070576</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01281370335944776</v>
+        <v>0.01665027859718116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03058533170811207</v>
+        <v>0.03042357636814734</v>
       </c>
       <c r="E7" s="1">
-        <v>-3.443983606643553E-05</v>
+        <v>-0.003803272881139019</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03086115992723291</v>
+        <v>0.03071037941628295</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0003705762460626261</v>
+        <v>0.01827498919553006</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02879914460447625</v>
+        <v>0.02877635489492171</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004486640227536753</v>
+        <v>0.0240079760717844</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02646827326162726</v>
+        <v>0.02636991366170453</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001546391752577536</v>
+        <v>0.01621204323211534</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02792651621239672</v>
+        <v>0.02797257787640805</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006940253470126612</v>
+        <v>0.01475876535810605</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02409030195555687</v>
+        <v>0.02424783056546105</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01185578172368973</v>
+        <v>-0.005296666845005626</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02332125335480021</v>
+        <v>0.02367651969191326</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02059620596205969</v>
+        <v>0.027084439723845</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0200347894674029</v>
+        <v>0.01985227946552047</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003875619648490369</v>
+        <v>0.02075039208589691</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01839938243772185</v>
+        <v>0.01836976517077355</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003663962313530611</v>
+        <v>0.05015210777922641</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02067056373133392</v>
+        <v>0.0209181110436737</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01732124874118846</v>
+        <v>0.0407840031676896</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01869492342100245</v>
+        <v>0.01872243113184218</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006761325219742931</v>
+        <v>0.008357585254831656</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01810293857974691</v>
+        <v>0.01811419711013497</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005907355377854584</v>
+        <v>0.02198667908042684</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01554298786306178</v>
+        <v>0.01541741020240472</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00283990060347894</v>
+        <v>0.02723389106443586</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01395753989980087</v>
+        <v>0.01399467149075913</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007956530176596033</v>
+        <v>0.02021563342318067</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01556726516039847</v>
+        <v>0.01529885695912528</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0120507549443537</v>
+        <v>0.0153548109349213</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01443195039197126</v>
+        <v>0.01430462635071363</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003586820519949852</v>
+        <v>0.02171001227815594</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01330024712232141</v>
+        <v>0.01335340622029309</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009300115402891995</v>
+        <v>0.003093892924401098</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0153437535138441</v>
+        <v>0.01530893598064988</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003001000333444415</v>
+        <v>0.007646276595744794</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01487134940988336</v>
+        <v>0.01481276870322112</v>
       </c>
       <c r="E25" s="1">
-        <v>0.00132218024824593</v>
+        <v>0.01452477835565502</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01165711549803323</v>
+        <v>0.01174814740598918</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01313253012048188</v>
+        <v>0.0463788797716731</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01207544743974406</v>
+        <v>0.012281437416162</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02243083824873282</v>
+        <v>0.007962947915820306</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01213644164131725</v>
+        <v>0.0120687800412222</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0003223726627981094</v>
+        <v>0.04595291841341509</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01234169515516386</v>
+        <v>0.01236027332709698</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00679542203147343</v>
+        <v>-0.01989342806394301</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01108429166417979</v>
+        <v>0.01093783399232837</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.008000724047425245</v>
+        <v>0.06605477802310111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0121135688157273</v>
+        <v>0.01234031486863243</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02409937888198743</v>
+        <v>0.05312954876273657</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01321582833840063</v>
+        <v>0.01334532304461494</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01513236549957298</v>
+        <v>0.02230971128608927</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01116981396161588</v>
+        <v>0.01103428324285832</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.006915598266609591</v>
+        <v>0.0401772592642835</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01172437966276155</v>
+        <v>0.01173846755363387</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006490089457989789</v>
+        <v>0.01394214011850825</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009484247226693724</v>
+        <v>0.009585897912085787</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01605661065892394</v>
+        <v>-0.03385436999328528</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01111218046029385</v>
+        <v>0.01116106935025438</v>
       </c>
       <c r="E36" s="1">
-        <v>0.009704968944099335</v>
+        <v>0.01960784313725483</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01105319264693031</v>
+        <v>0.01111586344183217</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01098202940642579</v>
+        <v>0.02168058173983312</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01011595855450022</v>
+        <v>0.01016534185745789</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01018966158423207</v>
+        <v>0.02113090855544097</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009174611366240371</v>
+        <v>0.009214820273083605</v>
       </c>
       <c r="E39" s="1">
-        <v>0.00968793054431738</v>
+        <v>0.04405458089668612</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009471757460088688</v>
+        <v>0.009504217920819607</v>
       </c>
       <c r="E40" s="1">
-        <v>0.008727334350110194</v>
+        <v>0.02536749265014704</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008931035837589555</v>
+        <v>0.008891094076788574</v>
       </c>
       <c r="E41" s="1">
-        <v>0.000786287152068077</v>
+        <v>0.04486172218730355</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009350972889868104</v>
+        <v>0.00898609633907984</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.03394412736557539</v>
+        <v>0.0338152985074629</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009942857411713163</v>
+        <v>0.009868559580090001</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.002229800629590772</v>
+        <v>0.01735243854344692</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009386084683536878</v>
+        <v>0.00958824303095537</v>
       </c>
       <c r="E44" s="1">
-        <v>0.02693401167140497</v>
+        <v>0.02360483753460585</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009453098049738998</v>
+        <v>0.009436658538917099</v>
       </c>
       <c r="E45" s="1">
-        <v>0.003533906399235676</v>
+        <v>0.02293708955934148</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0096454103596334</v>
+        <v>0.009610895881312637</v>
       </c>
       <c r="E46" s="1">
-        <v>0.001684919966301601</v>
+        <v>0.01626016260162588</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008735011709507311</v>
+        <v>0.009036391654410511</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03996692392502754</v>
+        <v>0.01881791677710032</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007229819274632176</v>
+        <v>0.007308388320549609</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01620691569073651</v>
+        <v>0.01212518433557275</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00829952514860402</v>
+        <v>0.008393629499559617</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0166805671392829</v>
+        <v>0.007656549083948638</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007897896388738479</v>
+        <v>0.008034526935636168</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02267314470801174</v>
+        <v>0.02375407545412211</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007767782113343047</v>
+        <v>0.007832447543682581</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01365095149844064</v>
+        <v>0.02341137123745818</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007711603243473007</v>
+        <v>0.007761195846964129</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01174702909438596</v>
+        <v>0.02551640340218708</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006863352468140649</v>
+        <v>0.007036853493139381</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03069502302126725</v>
+        <v>0.0138268453520527</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007250585392601995</v>
+        <v>0.007259889266480748</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006572120373573132</v>
+        <v>0.04041237113402052</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006678278203712538</v>
+        <v>0.006724004656707531</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0121653624034197</v>
+        <v>0.02103739982190556</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006416830772084317</v>
+        <v>0.00651643668867619</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0208867487961979</v>
+        <v>0.02897396630934135</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006842586350170832</v>
+        <v>0.006880878140238907</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01090781140042218</v>
+        <v>0.01879568395405506</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006327345857934182</v>
+        <v>0.006441392884849476</v>
       </c>
       <c r="E58" s="1">
-        <v>0.02340182648401834</v>
+        <v>0.01812604573340759</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005635091765901666</v>
+        <v>0.005743794865367226</v>
       </c>
       <c r="E59" s="1">
-        <v>0.0246744345442087</v>
+        <v>0.00879120879120876</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006287017454920333</v>
+        <v>0.006440345065780086</v>
       </c>
       <c r="E60" s="1">
-        <v>0.02979894686452833</v>
+        <v>0.04416037187681576</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005455369542022782</v>
+        <v>0.005567910950148362</v>
       </c>
       <c r="E61" s="1">
-        <v>0.02602059580728211</v>
+        <v>0.009767900349493708</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005893163449367161</v>
+        <v>0.005929258840649074</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01143946615824576</v>
+        <v>0.002288945738521564</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005444535045690702</v>
+        <v>0.005415528119771508</v>
       </c>
       <c r="E63" s="1">
-        <v>-7.37028301888154E-05</v>
+        <v>0.0107614063536523</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.00499991941843353</v>
+        <v>0.005012766427956851</v>
       </c>
       <c r="E64" s="1">
-        <v>0.00786516853932584</v>
+        <v>0.01831501831501825</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004850844774456961</v>
+        <v>0.004824558164636127</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.0001654464987385085</v>
+        <v>0.01402391097505484</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004350050277329751</v>
+        <v>0.004388565639477991</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01418292514182928</v>
+        <v>0.05013984582850139</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004428299417505876</v>
+        <v>0.004511609535911953</v>
       </c>
       <c r="E67" s="1">
-        <v>0.0241946445562049</v>
+        <v>0.008360982083609914</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003525274244050231</v>
+        <v>0.003506301983052475</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.0001280573697016729</v>
+        <v>0.02898736338797825</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004037204195740968</v>
+        <v>0.004104157606358127</v>
       </c>
       <c r="E69" s="1">
-        <v>0.02195385590219523</v>
+        <v>0.0261142315267342</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003767395141249053</v>
+        <v>0.003734427163302303</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.003514938488576425</v>
+        <v>0.01058201058201047</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003152988911750735</v>
+        <v>0.003075199280218154</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01951987782179176</v>
+        <v>0.01776674454828675</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002536676613453256</v>
+        <v>0.00250184266467774</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.008522502570592394</v>
+        <v>0.0242516104585071</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002612367608662086</v>
+        <v>0.00250907760587114</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.03446554405637359</v>
+        <v>0.01032096408543137</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002264760851341215</v>
+        <v>0.002250266295732064</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.001151690992447496</v>
+        <v>0.04013392758154266</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001892124401105033</v>
+        <v>0.001900244830409985</v>
       </c>
       <c r="E75" s="1">
-        <v>0.009596521923545875</v>
+        <v>0.0301438924482722</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001745056145338107</v>
+        <v>0.001805741529580332</v>
       </c>
       <c r="E76" s="1">
-        <v>0.04024144869215296</v>
+        <v>0.008123791102514266</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.005282153031913595</v>
+        <v>0.01838273816877578</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07521220332000975</v>
+        <v>0.07423426931676005</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005141388174807249</v>
+        <v>0.001485025987954858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04559899026166937</v>
+        <v>0.04486069802481601</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001894125911773736</v>
+        <v>0.007765323407699087</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03593789885731839</v>
+        <v>0.03591799490133487</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0178187139536885</v>
+        <v>-0.005243572395128515</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03320608485498285</v>
+        <v>0.03347841220167635</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02673462518632497</v>
+        <v>0.004589519037137668</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0319689598070576</v>
+        <v>0.03191457462520421</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01665027859718116</v>
+        <v>-0.01553936424011859</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03042357636814734</v>
+        <v>0.02976078253221159</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003803272881139019</v>
+        <v>0.01040138685158021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03071037941628295</v>
+        <v>0.03070713013511776</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01827498919553006</v>
+        <v>0.006730127933062491</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02877635489492171</v>
+        <v>0.02893530676654949</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0240079760717844</v>
+        <v>0.007983798730381464</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02636991366170453</v>
+        <v>0.02631370587663488</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01621204323211534</v>
+        <v>-0.001139528994682171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02797257787640805</v>
+        <v>0.02787303586939139</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01475876535810605</v>
+        <v>0.01565153193060165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02424783056546105</v>
+        <v>0.02368402073331724</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005296666845005626</v>
+        <v>-0.005755163511187766</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02367651969191326</v>
+        <v>0.02387882674259267</v>
       </c>
       <c r="E13" s="1">
-        <v>0.027084439723845</v>
+        <v>-0.009565667011375401</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01985227946552047</v>
+        <v>0.01989843433979185</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02075039208589691</v>
+        <v>-0.008480085096324252</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01836976517077355</v>
+        <v>0.01894282659207857</v>
       </c>
       <c r="E15" s="1">
-        <v>0.05015210777922641</v>
+        <v>-0.01601556033769236</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0209181110436737</v>
+        <v>0.02137824467634765</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0407840031676896</v>
+        <v>-0.0009511128019784598</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01872243113184218</v>
+        <v>0.01853812396717538</v>
       </c>
       <c r="E17" s="1">
-        <v>0.008357585254831656</v>
+        <v>0.01139643306445648</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01811419711013497</v>
+        <v>0.0181783011975278</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02198667908042684</v>
+        <v>0.01478626489138057</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01541741020240472</v>
+        <v>0.01555140879629485</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02723389106443586</v>
+        <v>-0.005371686016288346</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01399467149075913</v>
+        <v>0.01401985923795965</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02021563342318067</v>
+        <v>0.007076806944706471</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01529885695912528</v>
+        <v>0.01525336932083648</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0153548109349213</v>
+        <v>0.02755988976044099</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01430462635071363</v>
+        <v>0.01435136262295904</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02171001227815594</v>
+        <v>-0.008821762167476765</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01335340622029309</v>
+        <v>0.01315293330030385</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003093892924401098</v>
+        <v>-0.01267265656430183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01530893598064988</v>
+        <v>0.01514753909446955</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007646276595744794</v>
+        <v>0.008248102936324608</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01481276870322112</v>
+        <v>0.01475665319356427</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01452477835565502</v>
+        <v>0.006852953676158124</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01174814740598918</v>
+        <v>0.01207111320855296</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0463788797716731</v>
+        <v>-0.01591089896579145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.012281437416162</v>
+        <v>0.01215577738964651</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007962947915820306</v>
+        <v>0.0001612253123739471</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0120687800412222</v>
+        <v>0.01239551224965272</v>
       </c>
       <c r="E28" s="1">
-        <v>0.04595291841341509</v>
+        <v>-0.005703715122552966</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01236027332709698</v>
+        <v>0.0118957094074448</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01989342806394301</v>
+        <v>0.0001812250815511618</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01093783399232837</v>
+        <v>0.01144985058339892</v>
       </c>
       <c r="E30" s="1">
-        <v>0.06605477802310111</v>
+        <v>-0.02386046591239765</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01234031486863243</v>
+        <v>0.01276136146274619</v>
       </c>
       <c r="E31" s="1">
-        <v>0.05312954876273657</v>
+        <v>-0.0002303616678184239</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01334532304461494</v>
+        <v>0.01339678378022433</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02230971128608927</v>
+        <v>-0.00529936473453807</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01103428324285832</v>
+        <v>0.01127042915332683</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0401772592642835</v>
+        <v>-0.003238707994609569</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01173846755363387</v>
+        <v>0.01168728265607215</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01394214011850825</v>
+        <v>0.01117222413200403</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009585897912085787</v>
+        <v>0.0090941971327064</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.03385436999328528</v>
+        <v>-0.01199269447721885</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01116106935025438</v>
+        <v>0.01117449601294421</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01960784313725483</v>
+        <v>0.01527149321266985</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01111586344183217</v>
+        <v>0.01115186010341573</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02168058173983312</v>
+        <v>-0.003646588462721367</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01016534185745789</v>
+        <v>0.01019277367696538</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02113090855544097</v>
+        <v>-0.001009445525993136</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009214820273083605</v>
+        <v>0.009447111540355026</v>
       </c>
       <c r="E39" s="1">
-        <v>0.04405458089668612</v>
+        <v>-0.01954194672641274</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009504217920819607</v>
+        <v>0.009569404246379037</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02536749265014704</v>
+        <v>0.001310723355451904</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008891094076788574</v>
+        <v>0.00912227153997874</v>
       </c>
       <c r="E41" s="1">
-        <v>0.04486172218730355</v>
+        <v>-0.01293330325588382</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00898609633907984</v>
+        <v>0.00912227153997874</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0338152985074629</v>
+        <v>0.003759681179035912</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009868559580090001</v>
+        <v>0.009858575540831653</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01735243854344692</v>
+        <v>0.01175862514536763</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.00958824303095537</v>
+        <v>0.009637409965914827</v>
       </c>
       <c r="E44" s="1">
-        <v>0.02360483753460585</v>
+        <v>0.01252669039145893</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009436658538917099</v>
+        <v>0.009478860608265105</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02293708955934148</v>
+        <v>-0.005210271678451894</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009610895881312637</v>
+        <v>0.009590864264503444</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01626016260162588</v>
+        <v>0.01020689655172413</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009036391654410511</v>
+        <v>0.009040253114544365</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01881791677710032</v>
+        <v>-0.03277835587929245</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007308388320549609</v>
+        <v>0.007263481202983942</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01212518433557275</v>
+        <v>0.005558253736981378</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008393629499559617</v>
+        <v>0.00830522299604587</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007656549083948638</v>
+        <v>-0.004341926729986678</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008034526935636168</v>
+        <v>0.008076904081754242</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02375407545412211</v>
+        <v>-0.007006369426751702</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007832447543682581</v>
+        <v>0.007871123086040757</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02341137123745818</v>
+        <v>0.003137254901960818</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007761195846964129</v>
+        <v>0.007815562217198117</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02551640340218708</v>
+        <v>0.004476040021063721</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007036853493139381</v>
+        <v>0.007005373039789028</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0138268453520527</v>
+        <v>-0.007133864876206486</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007259889266480748</v>
+        <v>0.007416935031215996</v>
       </c>
       <c r="E54" s="1">
-        <v>0.04041237113402052</v>
+        <v>0.001268331351565566</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006724004656707531</v>
+        <v>0.006741532405999241</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02103739982190556</v>
+        <v>-0.004375885751662589</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00651643668867619</v>
+        <v>0.006584207935228765</v>
       </c>
       <c r="E56" s="1">
-        <v>0.02897396630934135</v>
+        <v>0.0009524943445649026</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006880878140238907</v>
+        <v>0.006883668279467054</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01879568395405506</v>
+        <v>-0.007174581482746967</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006441392884849476</v>
+        <v>0.006439769274427967</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01812604573340759</v>
+        <v>-0.01972062448644196</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005743794865367226</v>
+        <v>0.005689697545052319</v>
       </c>
       <c r="E59" s="1">
-        <v>0.00879120879120876</v>
+        <v>-0.01269299990527617</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006440345065780086</v>
+        <v>0.006603365166020187</v>
       </c>
       <c r="E60" s="1">
-        <v>0.04416037187681576</v>
+        <v>-0.02203672787979949</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005567910950148362</v>
+        <v>0.005520810142141753</v>
       </c>
       <c r="E61" s="1">
-        <v>0.009767900349493708</v>
+        <v>-0.02218672346467876</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005929258840649074</v>
+        <v>0.005835557074633043</v>
       </c>
       <c r="E62" s="1">
-        <v>0.002288945738521564</v>
+        <v>0.01356797420741551</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005415528119771508</v>
+        <v>0.005374999608036198</v>
       </c>
       <c r="E63" s="1">
-        <v>0.0107614063536523</v>
+        <v>0.01298038357762699</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.005012766427956851</v>
+        <v>0.005012433091779108</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01831501831501825</v>
+        <v>0.00203315608382848</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004824558164636127</v>
+        <v>0.004803908349456111</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01402391097505484</v>
+        <v>0.008240861618798778</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004388565639477991</v>
+        <v>0.004525418068590529</v>
       </c>
       <c r="E66" s="1">
-        <v>0.05013984582850139</v>
+        <v>0.004352345069507768</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004511609535911953</v>
+        <v>0.004467211444088715</v>
       </c>
       <c r="E67" s="1">
-        <v>0.008360982083609914</v>
+        <v>0.005527770465912241</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003506301983052475</v>
+        <v>0.003542813814058644</v>
       </c>
       <c r="E68" s="1">
-        <v>0.02898736338797825</v>
+        <v>-0.02223789569763102</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004104157606358127</v>
+        <v>0.004135316095287968</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0261142315267342</v>
+        <v>-0.00753536646051034</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003734427163302303</v>
+        <v>0.003705821759948825</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01058201058201047</v>
+        <v>-0.01599767306573596</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003075199280218154</v>
+        <v>0.003073339170980881</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01776674454828675</v>
+        <v>0.008034817542685202</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00250184266467774</v>
+        <v>0.002516260618299379</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0242516104585071</v>
+        <v>0.008489592460618534</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00250907760587114</v>
+        <v>0.002489215116005607</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01032096408543137</v>
+        <v>0.01161303021356175</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002250266295732064</v>
+        <v>0.002298328744743765</v>
       </c>
       <c r="E74" s="1">
-        <v>0.04013392758154266</v>
+        <v>0.0004903110277345579</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001900244830409985</v>
+        <v>0.001922190481864619</v>
       </c>
       <c r="E75" s="1">
-        <v>0.0301438924482722</v>
+        <v>-0.028242251223491</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001805741529580332</v>
+        <v>0.001787550916097796</v>
       </c>
       <c r="E76" s="1">
-        <v>0.008123791102514266</v>
+        <v>-0.01650038372985418</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01838273816877578</v>
+        <v>-0.0002016212798716666</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07423426931676005</v>
+        <v>0.07435950159377423</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001485025987954858</v>
+        <v>-0.01227448719004864</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04486069802481601</v>
+        <v>0.04521817279914706</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007765323407699087</v>
+        <v>-0.006645576822413068</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03591799490133487</v>
+        <v>0.03573686160655758</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005243572395128515</v>
+        <v>-0.01441081448733228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03347841220167635</v>
+        <v>0.03363884431865401</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004589519037137668</v>
+        <v>-0.01216726492937381</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03191457462520421</v>
+        <v>0.03142497836989359</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01553936424011859</v>
+        <v>0.01178936337437775</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02976078253221159</v>
+        <v>0.03007639998659409</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01040138685158021</v>
+        <v>0.0003323899324954027</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03070713013511776</v>
+        <v>0.03092002718483897</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006730127933062491</v>
+        <v>-0.006203324500120511</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02893530676654949</v>
+        <v>0.02917220216871339</v>
       </c>
       <c r="E9" s="1">
-        <v>0.007983798730381464</v>
+        <v>-0.002434124101692303</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02631370587663488</v>
+        <v>0.02628902107190601</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001139528994682171</v>
+        <v>-0.003422487007225361</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02787303586939139</v>
+        <v>0.02831500048694172</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01565153193060165</v>
+        <v>-0.01541033655593516</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02368402073331724</v>
+        <v>0.02355246399933031</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005755163511187766</v>
+        <v>0.003678658371652821</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02387882674259267</v>
+        <v>0.02365517922486161</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009565667011375401</v>
+        <v>0.01774993474288711</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01989843433979185</v>
+        <v>0.01973367265164339</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008480085096324252</v>
+        <v>-0.00518520725929017</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01894282659207857</v>
+        <v>0.01864320547677583</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01601556033769236</v>
+        <v>-0.004289859948689911</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02137824467634765</v>
+        <v>0.02136221863201363</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0009511128019784598</v>
+        <v>-0.01428027418126432</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01853812396717538</v>
+        <v>0.0187531734949496</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01139643306445648</v>
+        <v>-0.006804712080193065</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0181783011975278</v>
+        <v>0.01845081045032742</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01478626489138057</v>
+        <v>-0.01567571300324566</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01555140879629485</v>
+        <v>0.01547099079209459</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.005371686016288346</v>
+        <v>-0.01236933797909412</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01401985923795965</v>
+        <v>0.01412192235523817</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007076806944706471</v>
+        <v>0.0005621662138106664</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01525336932083648</v>
+        <v>0.0156769112967141</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02755988976044099</v>
+        <v>-0.009696719620383765</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01435136262295904</v>
+        <v>0.0142276269074667</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.008821762167476765</v>
+        <v>-0.01297842440274455</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01315293330030385</v>
+        <v>0.0129888695262739</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01267265656430183</v>
+        <v>-0.003870967741935405</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01514753909446955</v>
+        <v>0.01527555743359325</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008248102936324608</v>
+        <v>0.005562827225130906</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01475665319356427</v>
+        <v>0.01486077610301267</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006852953676158124</v>
+        <v>-0.01450957632037142</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01207111320855296</v>
+        <v>0.01188144649833677</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01591089896579145</v>
+        <v>-0.0005774338838201443</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01215577738964651</v>
+        <v>0.0121601889615152</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0001612253123739471</v>
+        <v>0.008946562424438032</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01239551224965272</v>
+        <v>0.01232729722442633</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.005703715122552966</v>
+        <v>-0.01131782945736426</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0118957094074448</v>
+        <v>0.01190026455492265</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0001812250815511618</v>
+        <v>-0.003805037144410162</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01144985058339892</v>
+        <v>0.01117890571913034</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02386046591239765</v>
+        <v>0.003980431008784979</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01276136146274619</v>
+        <v>0.01276099462230418</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0002303616678184239</v>
+        <v>0.004608294930875667</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01339678378022433</v>
+        <v>0.01332847664122232</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00529936473453807</v>
+        <v>0.008669755129053769</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01127042915332683</v>
+        <v>0.01123619297993477</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003238707994609569</v>
+        <v>-0.01548291427699133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01168728265607215</v>
+        <v>0.01182023880907694</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01117222413200403</v>
+        <v>-0.004079551249362434</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0090941971327064</v>
+        <v>0.008986945164364428</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01199269447721885</v>
+        <v>0.03980107641217767</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01117449601294421</v>
+        <v>0.01134743513735655</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01527149321266985</v>
+        <v>-0.01299907149489343</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01115186010341573</v>
+        <v>0.01111343456392528</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.003646588462721367</v>
+        <v>-0.008907311050357247</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01019277367696538</v>
+        <v>0.0101845380467756</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001009445525993136</v>
+        <v>0.00801154817755334</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009447111540355026</v>
+        <v>0.009264364482939175</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01954194672641274</v>
+        <v>-0.03482713384960434</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009569404246379037</v>
+        <v>0.009583879402053705</v>
       </c>
       <c r="E40" s="1">
-        <v>0.001310723355451904</v>
+        <v>-0.02028961793340422</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.00912227153997874</v>
+        <v>0.009006106258440163</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01293330325588382</v>
+        <v>-0.008836748685914553</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00912227153997874</v>
+        <v>0.009158414903932181</v>
       </c>
       <c r="E42" s="1">
-        <v>0.003759681179035912</v>
+        <v>-0.004045246834969096</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009858575540831653</v>
+        <v>0.009976510311861312</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01175862514536763</v>
+        <v>-0.01711366538952752</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009637409965914827</v>
+        <v>0.009760102661123617</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01252669039145893</v>
+        <v>-0.008154084071418488</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009478860608265105</v>
+        <v>0.009431374735138916</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.005210271678451894</v>
+        <v>-0.009259259259259078</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009590864264503444</v>
+        <v>0.009690711077463162</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01020689655172413</v>
+        <v>-0.0139268159475695</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009040253114544365</v>
+        <v>0.008745691798290682</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.03277835587929245</v>
+        <v>0.0252824098977944</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007263481202983942</v>
+        <v>0.007305326383779298</v>
       </c>
       <c r="E48" s="1">
-        <v>0.005558253736981378</v>
+        <v>-0.004507888805409532</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00830522299604587</v>
+        <v>0.008270829901631206</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.004341926729986678</v>
+        <v>0.00763150722267647</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008076904081754242</v>
+        <v>0.008021931700069443</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.007006369426751702</v>
+        <v>0.01044625675799504</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007871123086040757</v>
+        <v>0.007897409091255024</v>
       </c>
       <c r="E51" s="1">
-        <v>0.003137254901960818</v>
+        <v>0.01242289983494071</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007815562217198117</v>
+        <v>0.007852128142595236</v>
       </c>
       <c r="E52" s="1">
-        <v>0.004476040021063721</v>
+        <v>-0.002883355176933056</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007005373039789028</v>
+        <v>0.00695680029409486</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007133864876206486</v>
+        <v>0.03338968723584124</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007416935031215996</v>
+        <v>0.007427839773010329</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001268331351565566</v>
+        <v>-0.01134774232707891</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006741532405999241</v>
+        <v>0.006713385791835079</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.004375885751662589</v>
+        <v>-0.0008606285435229788</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006584207935228765</v>
+        <v>0.006591808404897774</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0009524943445649026</v>
+        <v>0.002973712382538407</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006883668279467054</v>
+        <v>0.006835659054823217</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.007174581482746967</v>
+        <v>0.0003441156228494169</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006439769274427967</v>
+        <v>0.006314046048833181</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01972062448644196</v>
+        <v>0.01927912824811395</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005689697545052319</v>
+        <v>0.005618611046202156</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.01269299990527617</v>
+        <v>0.007675333397294315</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006603365166020187</v>
+        <v>0.006459150907038414</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.02203672787979949</v>
+        <v>0.01559121429384303</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005520810142141753</v>
+        <v>0.005399410090189996</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.02218672346467876</v>
+        <v>0.01207115628970779</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005835557074633043</v>
+        <v>0.005915926539188023</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01356797420741551</v>
+        <v>-0.01418157720344604</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005374999608036198</v>
+        <v>0.005445867167386403</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01298038357762699</v>
+        <v>-0.004319343459794123</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.005012433091779108</v>
+        <v>0.005023637022740577</v>
       </c>
       <c r="E64" s="1">
-        <v>0.00203315608382848</v>
+        <v>-0.01186202590916174</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004803908349456111</v>
+        <v>0.004844473442329118</v>
       </c>
       <c r="E65" s="1">
-        <v>0.008240861618798778</v>
+        <v>-0.007890264627336663</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004525418068590529</v>
+        <v>0.004546030826162327</v>
       </c>
       <c r="E66" s="1">
-        <v>0.004352345069507768</v>
+        <v>-0.02858806028070637</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004467211444088715</v>
+        <v>0.004492811009880367</v>
       </c>
       <c r="E67" s="1">
-        <v>0.005527770465912241</v>
+        <v>-0.005890052356020914</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003542813814058644</v>
+        <v>0.003464727652809248</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.02223789569763102</v>
+        <v>0.00369160266474311</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004135316095287968</v>
+        <v>0.004104982624930616</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.00753536646051034</v>
+        <v>0.02399541580116016</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003705821759948825</v>
+        <v>0.003647272602763484</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01599767306573596</v>
+        <v>0.02276086313922554</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003073339170980881</v>
+        <v>0.003098657645786927</v>
       </c>
       <c r="E71" s="1">
-        <v>0.008034817542685202</v>
+        <v>-0.003653271338425856</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002516260618299379</v>
+        <v>0.002538134387377114</v>
       </c>
       <c r="E72" s="1">
-        <v>0.008489592460618534</v>
+        <v>-0.005908134303863388</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002489215116005607</v>
+        <v>0.002518630255811534</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01161303021356175</v>
+        <v>-0.001089600155657289</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002298328744743765</v>
+        <v>0.002299919353356297</v>
       </c>
       <c r="E74" s="1">
-        <v>0.0004903110277345579</v>
+        <v>-0.008224665473451021</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001922190481864619</v>
+        <v>0.00186828018041753</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.028242251223491</v>
+        <v>-0.003777148253068963</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001787550916097796</v>
+        <v>0.001758410172955141</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.01650038372985418</v>
+        <v>0.03979711275848596</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.0002016212798716666</v>
+        <v>-0.003891559400354683</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07435950159377423</v>
+        <v>0.07373371597954634</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01227448719004864</v>
+        <v>0.01876563803169318</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04521817279914706</v>
+        <v>0.04509315464790287</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006645576822413068</v>
+        <v>0.01269601248981278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03573686160655758</v>
+        <v>0.03535946779286687</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01441081448733228</v>
+        <v>0.01690748328660785</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03363884431865401</v>
+        <v>0.03335937156391044</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01216726492937381</v>
+        <v>-0.0008022652194431545</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03142497836989359</v>
+        <v>0.03191967617480256</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01178936337437775</v>
+        <v>-0.01456499223200414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03007639998659409</v>
+        <v>0.03020393749604581</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003323899324954027</v>
+        <v>0.007842773165499528</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03092002718483897</v>
+        <v>0.03084826809033046</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006203324500120511</v>
+        <v>-0.003999757590448905</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02917220216871339</v>
+        <v>0.02921488486815403</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002434124101692303</v>
+        <v>-0.01053487741585646</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02628902107190601</v>
+        <v>0.0263014007019991</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003422487007225361</v>
+        <v>0.006359704909692176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02831500048694172</v>
+        <v>0.02798757209915204</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01541033655593516</v>
+        <v>-0.000147655961609261</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02355246399933031</v>
+        <v>0.02373145784605945</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003678658371652821</v>
+        <v>-0.005443863526114257</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02365517922486161</v>
+        <v>0.02416911264996541</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01774993474288711</v>
+        <v>-0.007694280584765512</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01973367265164339</v>
+        <v>0.01970804449477388</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00518520725929017</v>
+        <v>0.02273612317646712</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01864320547677583</v>
+        <v>0.0186357508677579</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004289859948689911</v>
+        <v>0.02872228088701156</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02136221863201363</v>
+        <v>0.02113942562333094</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01428027418126432</v>
+        <v>-0.001158972377824918</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0187531734949496</v>
+        <v>0.01869832920752503</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006804712080193065</v>
+        <v>0.0006630322675702516</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01845081045032742</v>
+        <v>0.01823253382944707</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01567571300324566</v>
+        <v>-0.007646976287357998</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01547099079209459</v>
+        <v>0.01533931874818525</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01236933797909412</v>
+        <v>-0.01517022402540125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01412192235523817</v>
+        <v>0.0141850632390529</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0005621662138106664</v>
+        <v>0.01339076692574204</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0156769112967141</v>
+        <v>0.01558554877219035</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.009696719620383765</v>
+        <v>0.02267361111111099</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0142276269074667</v>
+        <v>0.01409783729848127</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01297842440274455</v>
+        <v>-0.006002233389168055</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0129888695262739</v>
+        <v>0.01298913803355045</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003870967741935405</v>
+        <v>0.02645214071448043</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01527555743359325</v>
+        <v>0.01542054267818174</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005562827225130906</v>
+        <v>-0.0149690855841198</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01486077610301267</v>
+        <v>0.01470236767509956</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01450957632037142</v>
+        <v>-0.003988649748367101</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01188144649833677</v>
+        <v>0.01192097693840589</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0005774338838201443</v>
+        <v>0.01929743471227141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0121601889615152</v>
+        <v>0.01231691284913376</v>
       </c>
       <c r="E27" s="1">
-        <v>0.008946562424438032</v>
+        <v>0.003275283591627876</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01232729722442633</v>
+        <v>0.01223539373828932</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01131782945736426</v>
+        <v>0.003606711619883907</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01190026455492265</v>
+        <v>0.01190129821520868</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003805037144410162</v>
+        <v>-0.01582393597671872</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01117890571913034</v>
+        <v>0.01126724975379458</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003980431008784979</v>
+        <v>0.03961156909319552</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01276099462230418</v>
+        <v>0.01286988497097536</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004608294930875667</v>
+        <v>-0.002064220183486287</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01332847664122232</v>
+        <v>0.01349655391119052</v>
       </c>
       <c r="E32" s="1">
-        <v>0.008669755129053769</v>
+        <v>0.001410668591299791</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01123619297993477</v>
+        <v>0.01110544145230552</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01548291427699133</v>
+        <v>0.0108755842027155</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01182023880907694</v>
+        <v>0.01181800801927649</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004079551249362434</v>
+        <v>-0.007509813961426803</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008986945164364428</v>
+        <v>0.009381142528957982</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03980107641217767</v>
+        <v>0.05083225826751825</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01134743513735655</v>
+        <v>0.01124368448276592</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01299907149489343</v>
+        <v>-0.008278457196613243</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01111343456392528</v>
+        <v>0.01105747456451232</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.008907311050357247</v>
+        <v>-0.01441537640149482</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0101845380467756</v>
+        <v>0.01030623930645882</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00801154817755334</v>
+        <v>-0.009881139911213088</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009264364482939175</v>
+        <v>0.008976646373639329</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.03482713384960434</v>
+        <v>0.01644159943879342</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009583879402053705</v>
+        <v>0.009426108411463605</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02028961793340422</v>
+        <v>0.0007515657620043026</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009006106258440163</v>
+        <v>0.008961395363161491</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.008836748685914553</v>
+        <v>0.0190607947121666</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009158414903932181</v>
+        <v>0.009157001871741757</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.004045246834969096</v>
+        <v>-0.0004512974802557412</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009976510311861312</v>
+        <v>0.009844084492172346</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01711366538952752</v>
+        <v>0.001689189189189255</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009760102661123617</v>
+        <v>0.009718337450942173</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.008154084071418488</v>
+        <v>-0.005386250885896504</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009431374735138916</v>
+        <v>0.009380552167262066</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.009259259259259078</v>
+        <v>-0.01076182384593616</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009690711077463162</v>
+        <v>0.009593082377791932</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0139268159475695</v>
+        <v>0.003323179174743673</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008745691798290682</v>
+        <v>0.009001835139331756</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0252824098977944</v>
+        <v>-0.01757607555089169</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007305326383779298</v>
+        <v>0.007300806306164922</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.004507888805409532</v>
+        <v>0.007115902964959453</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008270829901631206</v>
+        <v>0.008366507560909831</v>
       </c>
       <c r="E49" s="1">
-        <v>0.00763150722267647</v>
+        <v>-0.008655666756829827</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008021931700069443</v>
+        <v>0.008137398026086312</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01044625675799504</v>
+        <v>-0.009068649678062979</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007897409091255024</v>
+        <v>0.00802675440491</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01242289983494071</v>
+        <v>-0.005191350609232925</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007852128142595236</v>
+        <v>0.007860075619429632</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.002883355176933056</v>
+        <v>-0.01117245005257617</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00695680029409486</v>
+        <v>0.007217171732576779</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03338968723584124</v>
+        <v>-0.01267893660531694</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007427839773010329</v>
+        <v>0.007372240071370794</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01134774232707891</v>
+        <v>0.006272855884472683</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006713385791835079</v>
+        <v>0.006733813094045308</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0008606285435229788</v>
+        <v>0.0006575342465753309</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006591808404897774</v>
+        <v>0.006637239759954999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.002973712382538407</v>
+        <v>0.008005218216318832</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006835659054823217</v>
+        <v>0.006864725800114748</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0003441156228494169</v>
+        <v>-0.007911936704506517</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006314046048833181</v>
+        <v>0.006460918400107997</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01927912824811395</v>
+        <v>-0.002878289473684181</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005618611046202156</v>
+        <v>0.005683854817858166</v>
       </c>
       <c r="E59" s="1">
-        <v>0.007675333397294315</v>
+        <v>-0.009330667428353756</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006459150907038414</v>
+        <v>0.006585484717946337</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01559121429384303</v>
+        <v>-0.001344688480501843</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005399410090189996</v>
+        <v>0.005485936059302227</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01207115628970779</v>
+        <v>-0.01246524975338548</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005915926539188023</v>
+        <v>0.005854813725633928</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.01418157720344604</v>
+        <v>0.005646679214842631</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005445867167386403</v>
+        <v>0.005443528410812239</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.004319343459794123</v>
+        <v>0.00535030005061099</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.005023637022740577</v>
+        <v>0.004983439862461469</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.01186202590916174</v>
+        <v>-0.002843152740483301</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004844473442329118</v>
+        <v>0.004825026140723928</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.007890264627336663</v>
+        <v>-0.008320078306619294</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004546030826162327</v>
+        <v>0.004433321155483462</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.02858806028070637</v>
+        <v>0.001731140555296662</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004492811009880367</v>
+        <v>0.004483797080484306</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.005890052356020914</v>
+        <v>-0.02172481895984224</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003464727652809248</v>
+        <v>0.003491103888801046</v>
       </c>
       <c r="E68" s="1">
-        <v>0.00369160266474311</v>
+        <v>0.02663397311236992</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004104982624930616</v>
+        <v>0.00421990540240972</v>
       </c>
       <c r="E69" s="1">
-        <v>0.02399541580116016</v>
+        <v>-0.00657526580861767</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003647272602763484</v>
+        <v>0.003744861024429069</v>
       </c>
       <c r="E70" s="1">
-        <v>0.02276086313922554</v>
+        <v>-0.02601156069364152</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003098657645786927</v>
+        <v>0.00309939890356058</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.003653271338425856</v>
+        <v>0.008904761904761971</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002538134387377114</v>
+        <v>0.002532996053136883</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.005908134303863388</v>
+        <v>0.03701905335327349</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002518630255811534</v>
+        <v>0.002525714925553914</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.001089600155657289</v>
+        <v>0.01610861138705455</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002299919353356297</v>
+        <v>0.002289914624843345</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.008224665473451021</v>
+        <v>0.02129076612383463</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.00186828018041753</v>
+        <v>0.001868494767575093</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.003777148253068963</v>
+        <v>0.006529752501316377</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001758410172955141</v>
+        <v>0.001835532906219766</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03979711275848596</v>
+        <v>-0.004127579737335685</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.003891559400354683</v>
+        <v>0.003292643965357334</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07373371597954634</v>
+        <v>0.07449849791646478</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01876563803169318</v>
+        <v>0.02357723577235782</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04509315464790287</v>
+        <v>0.04594921988564783</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01269601248981278</v>
+        <v>0.02079405251502697</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03535946779286687</v>
+        <v>0.03640299447620893</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01690748328660785</v>
+        <v>0.02772849185062931</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03335937156391044</v>
+        <v>0.03362496365926931</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0008022652194431545</v>
+        <v>0.01005256847735847</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03191967617480256</v>
+        <v>0.03128122880124044</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01456499223200414</v>
+        <v>-0.0005855181835925372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03020393749604581</v>
+        <v>0.03095910456439577</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007842773165499528</v>
+        <v>0.04187286949825797</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03084826809033046</v>
+        <v>0.02998129663727106</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003999757590448905</v>
+        <v>0.003684824663759523</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02921488486815403</v>
+        <v>0.02877507510417676</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01053487741585646</v>
+        <v>0.0172734314484897</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0263014007019991</v>
+        <v>0.02636902800658979</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006359704909692176</v>
+        <v>0.01399475196801214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02798757209915204</v>
+        <v>0.02732706657621863</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.000147655961609261</v>
+        <v>0.01616026213881439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02373145784605945</v>
+        <v>0.0238066673127241</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005443863526114257</v>
+        <v>-0.002487167275228908</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02416911264996541</v>
+        <v>0.02410960364376393</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007694280584765512</v>
+        <v>0.007850088630032559</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01970804449477388</v>
+        <v>0.02032522531253029</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02273612317646712</v>
+        <v>0.01129991989930179</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0186357508677579</v>
+        <v>0.01960965209807152</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02872228088701156</v>
+        <v>0.01664426346169035</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02113942562333094</v>
+        <v>0.02090483573989728</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001158972377824918</v>
+        <v>0.008272412466333146</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01869832920752503</v>
+        <v>0.01839984494621572</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0006630322675702516</v>
+        <v>0.02809320159268536</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01823253382944707</v>
+        <v>0.0177986238976645</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007646976287357998</v>
+        <v>0.01330690826727055</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01533931874818525</v>
+        <v>0.01529435991859676</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01517022402540125</v>
+        <v>-0.01550792821048963</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0141850632390529</v>
+        <v>0.01419730594049811</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01339076692574204</v>
+        <v>-0.02193144120899371</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01558554877219035</v>
+        <v>0.01591849985463708</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02267361111111099</v>
+        <v>0.03431996249916303</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01409783729848127</v>
+        <v>0.01408275995736021</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006002233389168055</v>
+        <v>0.01381778144783929</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01298913803355045</v>
+        <v>0.01321523403430565</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02645214071448043</v>
+        <v>0.004289862724392801</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01542054267818174</v>
+        <v>0.01505930807248764</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0149690855841198</v>
+        <v>0.007876599934361739</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01470236767509956</v>
+        <v>0.01422889814904545</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003988649748367101</v>
+        <v>0.008472498433541364</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01192097693840589</v>
+        <v>0.01253745517976548</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01929743471227141</v>
+        <v>0.01450059517368252</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01231691284913376</v>
+        <v>0.01225797073359822</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003275283591627876</v>
+        <v>0.01193770258518478</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01223539373828932</v>
+        <v>0.0121981296637271</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003606711619883907</v>
+        <v>0.03082881487219225</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01190129821520868</v>
+        <v>0.01167264269793585</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01582393597671872</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01126724975379458</v>
+        <v>0.01239073553638918</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03961156909319552</v>
+        <v>0.03363053339590172</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01286988497097536</v>
+        <v>0.01278902994476209</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002064220183486287</v>
+        <v>0.03387133439418033</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01349655391119052</v>
+        <v>0.01342063184417095</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001410668591299791</v>
+        <v>0.02485783915515838</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01110544145230552</v>
+        <v>0.01105485027618955</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0108755842027155</v>
+        <v>0.0199211045364891</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01181800801927649</v>
+        <v>0.01158203314274639</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.007509813961426803</v>
+        <v>0.009777015437392844</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009381142528957982</v>
+        <v>0.009619391413896696</v>
       </c>
       <c r="E35" s="1">
-        <v>0.05083225826751825</v>
+        <v>0.04427653947865484</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01124368448276592</v>
+        <v>0.01094064347320477</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.008278457196613243</v>
+        <v>0.005713197486193256</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01105747456451232</v>
+        <v>0.01072681461381917</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01441537640149482</v>
+        <v>0.004155750293612703</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01030623930645882</v>
+        <v>0.01013833704816358</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.009881139911213088</v>
+        <v>0.02057495160943423</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008976646373639329</v>
+        <v>0.009224731078592887</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01644159943879342</v>
+        <v>0.02632629477886339</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009426108411463605</v>
+        <v>0.009221048551216204</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0007515657620043026</v>
+        <v>0.00773499243315956</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008961395363161491</v>
+        <v>0.009347126659560034</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0190607947121666</v>
+        <v>0.01843384861020403</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009157001871741757</v>
+        <v>0.008990309138482411</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0004512974802557412</v>
+        <v>0.01954274503885922</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009844084492172346</v>
+        <v>0.009711890687082083</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001689189189189255</v>
+        <v>-0.001167466597483569</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009718337450942173</v>
+        <v>0.009742610718092839</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.005386250885896504</v>
+        <v>0.03272524718005854</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009380552167262066</v>
+        <v>0.009223277449365248</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01076182384593616</v>
+        <v>-0.01172576832151295</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009593082377791932</v>
+        <v>0.009498013373388894</v>
       </c>
       <c r="E46" s="1">
-        <v>0.003323179174743673</v>
+        <v>-0.000550964187327696</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009001835139331756</v>
+        <v>0.008833414090512647</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01757607555089169</v>
+        <v>0.006582411795681864</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007300806306164922</v>
+        <v>0.007180540750072682</v>
       </c>
       <c r="E48" s="1">
-        <v>0.007115902964959453</v>
+        <v>-0.001889440725545311</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008366507560909831</v>
+        <v>0.008273669929256711</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.008655666756829827</v>
+        <v>0.0037715517241379</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008137398026086312</v>
+        <v>0.007949898245954065</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.009068649678062979</v>
+        <v>0.01499360029255814</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00802675440491</v>
+        <v>0.007894078883612753</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.005191350609232925</v>
+        <v>0.004167740826673594</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007860075619429632</v>
+        <v>0.007560325612946991</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01117245005257617</v>
+        <v>0.009959623149394581</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007217171732576779</v>
+        <v>0.007098071518558</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01267893660531694</v>
+        <v>0.02908048330944091</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007372240071370794</v>
+        <v>0.007431243337532707</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006272855884472683</v>
+        <v>0.02241696334259213</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006733813094045308</v>
+        <v>0.006702684368640372</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0006575342465753309</v>
+        <v>0.007048362611147496</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006637239759954999</v>
+        <v>0.006639403042930516</v>
       </c>
       <c r="E56" s="1">
-        <v>0.008005218216318832</v>
+        <v>0.003911723493694508</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006864725800114748</v>
+        <v>0.006691346060664793</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.007911936704506517</v>
+        <v>0.001390337156760513</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006460918400107997</v>
+        <v>0.006379106502568078</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.002878289473684181</v>
+        <v>-0.00533223954060702</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005683854817858166</v>
+        <v>0.005625787382498304</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.009330667428353756</v>
+        <v>-0.01269540502131694</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006585484717946337</v>
+        <v>0.006617647058823529</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.001344688480501843</v>
+        <v>0.0174629324546951</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005485936059302227</v>
+        <v>0.005392479891462351</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01246524975338548</v>
+        <v>-0.0011681193278823</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005854813725633928</v>
+        <v>0.005759472817133443</v>
       </c>
       <c r="E62" s="1">
-        <v>0.005646679214842631</v>
+        <v>0.01332615426033112</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005443528410812239</v>
+        <v>0.005309816842717317</v>
       </c>
       <c r="E63" s="1">
-        <v>0.00535030005061099</v>
+        <v>0.01058548693239891</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004983439862461469</v>
+        <v>0.004878767322414963</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.002843152740483301</v>
+        <v>0.003654854600349644</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004825026140723928</v>
+        <v>0.004682236650838259</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.008320078306619294</v>
+        <v>0.01452934845599807</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004433321155483462</v>
+        <v>0.004430661885841652</v>
       </c>
       <c r="E66" s="1">
-        <v>0.001731140555296662</v>
+        <v>0.0003280839895012377</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004483797080484306</v>
+        <v>0.004353328810931292</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.02172481895984224</v>
+        <v>-0.003339121143315027</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003491103888801046</v>
+        <v>0.00359831379009594</v>
       </c>
       <c r="E68" s="1">
-        <v>0.02663397311236992</v>
+        <v>0.01405833400662537</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.00421990540240972</v>
+        <v>0.004121620312045741</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.00657526580861767</v>
+        <v>-0.006947873315934383</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003744861024429069</v>
+        <v>0.003647834092450819</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.02601156069364152</v>
+        <v>0.0111046171829341</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00309939890356058</v>
+        <v>0.003179377846690571</v>
       </c>
       <c r="E71" s="1">
-        <v>0.008904761904761971</v>
+        <v>0.007178127286027847</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002532996053136883</v>
+        <v>0.002676955131311174</v>
       </c>
       <c r="E72" s="1">
-        <v>0.03701905335327349</v>
+        <v>0.01272467283291401</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002525714925553914</v>
+        <v>0.002613722259908906</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01610861138705455</v>
+        <v>0.002317303770716705</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002289914624843345</v>
+        <v>0.002341990502955713</v>
       </c>
       <c r="E74" s="1">
-        <v>0.02129076612383463</v>
+        <v>0.01713079819588703</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001868494767575093</v>
+        <v>0.001907161546661498</v>
       </c>
       <c r="E75" s="1">
-        <v>0.006529752501316377</v>
+        <v>-0.02576219512195133</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001835532906219766</v>
+        <v>0.001822075782537067</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.004127579737335685</v>
+        <v>0.04653760238272531</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.003292643965357334</v>
+        <v>0.01385570307200301</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07449849791646478</v>
+        <v>0.07521283979117906</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02357723577235782</v>
+        <v>0.002462271644162017</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04594921988564783</v>
+        <v>0.0462636746381683</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02079405251502697</v>
+        <v>-0.0009018418026918162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03640299447620893</v>
+        <v>0.03690110387357954</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02772849185062931</v>
+        <v>-0.004858072027943861</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03362496365926931</v>
+        <v>0.03349883105267772</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01005256847735847</v>
+        <v>-0.001780496712929125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03128122880124044</v>
+        <v>0.03083566327855625</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0005855181835925372</v>
+        <v>-0.007030334591850096</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03095910456439577</v>
+        <v>0.03181463694672623</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04187286949825797</v>
+        <v>-0.004371417240508935</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02998129663727106</v>
+        <v>0.02968052787728362</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003684824663759523</v>
+        <v>-0.0002447531053051399</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02877507510417676</v>
+        <v>0.02887207647273551</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0172734314484897</v>
+        <v>0.001522881291403211</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02636902800658979</v>
+        <v>0.0263726444820133</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01399475196801214</v>
+        <v>-0.0003696857670981712</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02732706657621863</v>
+        <v>0.0273891827519789</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01616026213881439</v>
+        <v>0.0003664345914256018</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0238066673127241</v>
+        <v>0.02342291519088601</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002487167275228908</v>
+        <v>0.006525198938992061</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02410960364376393</v>
+        <v>0.02396678945098044</v>
       </c>
       <c r="E13" s="1">
-        <v>0.007850088630032559</v>
+        <v>-0.002763819095477293</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02032522531253029</v>
+        <v>0.02027398836759056</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01129991989930179</v>
+        <v>0.005657548584198535</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01960965209807152</v>
+        <v>0.01966358748446876</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01664426346169035</v>
+        <v>-0.01368850865253735</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02090483573989728</v>
+        <v>0.0207897130723954</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008272412466333146</v>
+        <v>-0.007345926349933252</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01839984494621572</v>
+        <v>0.0186582325692362</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02809320159268536</v>
+        <v>0.004805278634440135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0177986238976645</v>
+        <v>0.01778898959536998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01330690826727055</v>
+        <v>0.003562447611064501</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01529435991859676</v>
+        <v>0.01485139950126061</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01550792821048963</v>
+        <v>-0.002831858407079557</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01419730594049811</v>
+        <v>0.0136961685157595</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02193144120899371</v>
+        <v>-0.007160354249105105</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01591849985463708</v>
+        <v>0.01623980821215723</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03431996249916303</v>
+        <v>-0.008578550386844186</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01408275995736021</v>
+        <v>0.01408223321462091</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01381778144783929</v>
+        <v>0.00339378801042578</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01321523403430565</v>
+        <v>0.01309054684406208</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004289862724392801</v>
+        <v>-0.003942958533219465</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01505930807248764</v>
+        <v>0.01497049744995616</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007876599934361739</v>
+        <v>0.008791924454575106</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01422889814904545</v>
+        <v>0.01415334788061568</v>
       </c>
       <c r="E25" s="1">
-        <v>0.008472498433541364</v>
+        <v>-0.01569506726457404</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01253745517976548</v>
+        <v>0.0125454299889973</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01450059517368252</v>
+        <v>-0.002773333333333405</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01225797073359822</v>
+        <v>0.01223478124641261</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01193770258518478</v>
+        <v>-0.001171875000000044</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0121981296637271</v>
+        <v>0.01240234039895137</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03082881487219225</v>
+        <v>-0.01472798316801938</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01167264269793585</v>
+        <v>0.01152363458646487</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0009132420091324533</v>
+        <v>0.0007299270072993469</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01239073553638918</v>
+        <v>0.01263241163692101</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03363053339590172</v>
+        <v>-0.01259079903147686</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01278902994476209</v>
+        <v>0.01304151213484793</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03387133439418033</v>
+        <v>-0.01759014951627069</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01342063184417095</v>
+        <v>0.01356626954924485</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02485783915515838</v>
+        <v>-0.005136334812936072</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01105485027618955</v>
+        <v>0.01112098602396086</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0199211045364891</v>
+        <v>0.007198263821740936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01158203314274639</v>
+        <v>0.01153543923868309</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009777015437392844</v>
+        <v>0.004076779344317938</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009619391413896696</v>
+        <v>0.009908022164453238</v>
       </c>
       <c r="E35" s="1">
-        <v>0.04427653947865484</v>
+        <v>0.0008248317777297398</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01094064347320477</v>
+        <v>0.01085277667882466</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005713197486193256</v>
+        <v>0.007195606892633988</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01072681461381917</v>
+        <v>0.01062418699639657</v>
       </c>
       <c r="E37" s="1">
-        <v>0.004155750293612703</v>
+        <v>0.003958614484930401</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01013833704816358</v>
+        <v>0.01020552807562089</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02057495160943423</v>
+        <v>-0.008710311885360977</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009224731078592887</v>
+        <v>0.009338196786324422</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02632629477886339</v>
+        <v>-0.009437438584998348</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009221048551216204</v>
+        <v>0.009165380501218843</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00773499243315956</v>
+        <v>0.0009177373602535788</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009347126659560034</v>
+        <v>0.009389334348565287</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01843384861020403</v>
+        <v>-0.0161761562032352</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008990309138482411</v>
+        <v>0.009040738667271016</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01954274503885922</v>
+        <v>0.01509769094138536</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009711890687082083</v>
+        <v>0.009567981271608609</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.001167466597483569</v>
+        <v>-0.01571428571428557</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009742610718092839</v>
+        <v>0.009923936938496424</v>
       </c>
       <c r="E44" s="1">
-        <v>0.03272524718005854</v>
+        <v>0.001618122977346426</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.009223277449365248</v>
+        <v>0.008990556947315025</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01172576832151295</v>
+        <v>-0.008898669983733565</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009498013373388894</v>
+        <v>0.009363048685731198</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.000550964187327696</v>
+        <v>-0.006339581036383879</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008833414090512647</v>
+        <v>0.008770044132194135</v>
       </c>
       <c r="E47" s="1">
-        <v>0.006582411795681864</v>
+        <v>0.002615746795710194</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007180540750072682</v>
+        <v>0.007069027202028833</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.001889440725545311</v>
+        <v>-0.01130401860565733</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008273669929256711</v>
+        <v>0.008191377212930213</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0037715517241379</v>
+        <v>0.004562533548040815</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007949898245954065</v>
+        <v>0.007958820785019888</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01499360029255814</v>
+        <v>0.01918573230048648</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007894078883612753</v>
+        <v>0.007818646513942824</v>
       </c>
       <c r="E51" s="1">
-        <v>0.004167740826673594</v>
+        <v>-0.01313593770056909</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007560325612946991</v>
+        <v>0.00753127253099486</v>
       </c>
       <c r="E52" s="1">
-        <v>0.009959623149394581</v>
+        <v>-0.005597014925373234</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007098071518558</v>
+        <v>0.007204661222252736</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02908048330944091</v>
+        <v>0.02786069651741285</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007431243337532707</v>
+        <v>0.007493994681884696</v>
       </c>
       <c r="E54" s="1">
-        <v>0.02241696334259213</v>
+        <v>-0.002946353409351787</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006702684368640372</v>
+        <v>0.006657680474732454</v>
       </c>
       <c r="E55" s="1">
-        <v>0.007048362611147496</v>
+        <v>0.0008646495100677054</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006639403042930516</v>
+        <v>0.006574283235377023</v>
       </c>
       <c r="E56" s="1">
-        <v>0.003911723493694508</v>
+        <v>0.005931956964233764</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006691346060664793</v>
+        <v>0.006609075894546509</v>
       </c>
       <c r="E57" s="1">
-        <v>0.001390337156760513</v>
+        <v>-0.003471017007983357</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006379106502568078</v>
+        <v>0.006258377360225511</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.00533223954060702</v>
+        <v>-0.002061855670103085</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005625787382498304</v>
+        <v>0.00547845784788095</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.01269540502131694</v>
+        <v>0.005565684675175264</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006617647058823529</v>
+        <v>0.006641192195318342</v>
       </c>
       <c r="E60" s="1">
-        <v>0.0174629324546951</v>
+        <v>0.007987910189982683</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005392479891462351</v>
+        <v>0.005312571419340723</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.0011681193278823</v>
+        <v>0.003688377114069663</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005759472817133443</v>
+        <v>0.005756464576437131</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01332615426033112</v>
+        <v>0.005446333687566307</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005309816842717317</v>
+        <v>0.005292689899815304</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01058548693239891</v>
+        <v>-0.002745069710322845</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004878767322414963</v>
+        <v>0.004829679897021375</v>
       </c>
       <c r="E64" s="1">
-        <v>0.003654854600349644</v>
+        <v>-0.0186827105763141</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004682236650838259</v>
+        <v>0.004685347712005103</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01452934845599807</v>
+        <v>-0.001917662899343142</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004430661885841652</v>
+        <v>0.004371544689880316</v>
       </c>
       <c r="E66" s="1">
-        <v>0.0003280839895012377</v>
+        <v>-0.01134798294522799</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004353328810931292</v>
+        <v>0.00427949707784676</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.003339121143315027</v>
+        <v>0.01701956580005359</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.00359831379009594</v>
+        <v>0.003599032955243546</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01405833400662537</v>
+        <v>0.008644729503624937</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004121620312045741</v>
+        <v>0.004037047682287966</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.006947873315934383</v>
+        <v>0.002130908832617129</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003647834092450819</v>
+        <v>0.003637935736237999</v>
       </c>
       <c r="E70" s="1">
-        <v>0.0111046171829341</v>
+        <v>0.00144508670520227</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003179377846690571</v>
+        <v>0.00315843745402996</v>
       </c>
       <c r="E71" s="1">
-        <v>0.007178127286027847</v>
+        <v>0.003631576558173366</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002676955131311174</v>
+        <v>0.002673968791940567</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01272467283291401</v>
+        <v>-0.009008042895442325</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002613722259908906</v>
+        <v>0.002583976240819493</v>
       </c>
       <c r="E73" s="1">
-        <v>0.002317303770716705</v>
+        <v>0.007139290140011578</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002341990502955713</v>
+        <v>0.002349555920453658</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01713079819588703</v>
+        <v>-0.0005695455839876962</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001907161546661498</v>
+        <v>0.001832636412792726</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.02576219512195133</v>
+        <v>-0.009075262087310132</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001822075782537067</v>
+        <v>0.001880810863950475</v>
       </c>
       <c r="E76" s="1">
-        <v>0.04653760238272531</v>
+        <v>0.01743151903237306</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01385570307200301</v>
+        <v>-0.001454029673358948</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07521283979117906</v>
+        <v>0.07632449312301398</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002462271644162017</v>
+        <v>0.01923377638780299</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0462636746381683</v>
+        <v>0.04696752703725051</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009018418026918162</v>
+        <v>0.006071251055836724</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03690110387357954</v>
+        <v>0.03698378206565611</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004858072027943861</v>
+        <v>0.01340536214485777</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03349883105267772</v>
+        <v>0.03349751314631211</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001780496712929125</v>
+        <v>0.006521639987230321</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03083566327855625</v>
+        <v>0.03106477286761779</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007030334591850096</v>
+        <v>0.00122636029174461</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03181463694672623</v>
+        <v>0.03206745829627309</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004371417240508935</v>
+        <v>0.005091490511516028</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02968052787728362</v>
+        <v>0.02968088269926756</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0002447531053051399</v>
+        <v>-0.00391174133610428</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02887207647273551</v>
+        <v>0.02894606700065963</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001522881291403211</v>
+        <v>-0.0004172672786587617</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0263726444820133</v>
+        <v>0.02633745217455941</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0003696857670981712</v>
+        <v>0.006655984222852185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0273891827519789</v>
+        <v>0.02741752431367751</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0003664345914256018</v>
+        <v>0.003802837501828416</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02342291519088601</v>
+        <v>0.02328074872143644</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006525198938992061</v>
+        <v>-0.001279590531030217</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02396678945098044</v>
+        <v>0.02409108926640597</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002763819095477293</v>
+        <v>-0.00873907615480618</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02027398836759056</v>
+        <v>0.02033098310386973</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005657548584198535</v>
+        <v>0.0185127786074557</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01966358748446876</v>
+        <v>0.01932901377679181</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01368850865253735</v>
+        <v>0.01434499110847653</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0207897130723954</v>
+        <v>0.02051349352589273</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.007345926349933252</v>
+        <v>0.002704268881591698</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0186582325692362</v>
+        <v>0.01868738676345432</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004805278634440135</v>
+        <v>-0.0006437768240344921</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01778898959536998</v>
+        <v>0.01780066205023033</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003562447611064501</v>
+        <v>-0.006066522557701681</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01485139950126061</v>
+        <v>0.01485886903022517</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002831858407079557</v>
+        <v>-0.01042587029510522</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0136961685157595</v>
+        <v>0.0135613884522128</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007160354249105105</v>
+        <v>0.008459271932325985</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01623980821215723</v>
+        <v>0.01644164447666795</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008578550386844186</v>
+        <v>-0.0002235778849531966</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01408223321462091</v>
+        <v>0.01417231857793302</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00339378801042578</v>
+        <v>0.01794761237469022</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01309054684406208</v>
+        <v>0.01279100637526138</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003942958533219465</v>
+        <v>0.003627813234799993</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01497049744995616</v>
+        <v>0.01506133481620466</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008791924454575106</v>
+        <v>-0.03006789524733278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01415334788061568</v>
+        <v>0.01396455364028088</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01569506726457404</v>
+        <v>-0.002051197899573309</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0125454299889973</v>
+        <v>0.01255984878608131</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002773333333333405</v>
+        <v>0.01415495955725876</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01223478124641261</v>
+        <v>0.01210880027253871</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.001171875000000044</v>
+        <v>0.01048730484150773</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01240234039895137</v>
+        <v>0.01233484967046676</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01472798316801938</v>
+        <v>0.01207547169811307</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01152363458646487</v>
+        <v>0.01146908286340759</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0007299270072993469</v>
+        <v>-0.004945054945055039</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01263241163692101</v>
+        <v>0.01258009059066875</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01259079903147686</v>
+        <v>0.01399556756428555</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01304151213484793</v>
+        <v>0.01268645554496309</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01759014951627069</v>
+        <v>0.006321968841724868</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01356626954924485</v>
+        <v>0.0134256155931405</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.005136334812936072</v>
+        <v>0.006272602169808073</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01112098602396086</v>
+        <v>0.01113251512203636</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007198263821740936</v>
+        <v>0.01099961404862992</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01153543923868309</v>
+        <v>0.01154833143797159</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004076779344317938</v>
+        <v>-0.0237288135593221</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009908022164453238</v>
+        <v>0.009609653507568167</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0008248317777297398</v>
+        <v>0.01912157026394601</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01085277667882466</v>
+        <v>0.01093744905235653</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007195606892633988</v>
+        <v>-0.003003003003003046</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01062418699639657</v>
+        <v>0.01050043612973068</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003958614484930401</v>
+        <v>-0.007501704932939335</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01020552807562089</v>
+        <v>0.01005263394333889</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.008710311885360977</v>
+        <v>-0.003419290497221783</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009338196786324422</v>
+        <v>0.009213076454012028</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.009437438584998348</v>
+        <v>0.006259586286946117</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009165380501218843</v>
+        <v>0.009174502449043526</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0009177373602535788</v>
+        <v>-0.002747481475314228</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009389334348565287</v>
+        <v>0.009318964007254777</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0161761562032352</v>
+        <v>0.006526572473642744</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009040738667271016</v>
+        <v>0.009125807541781305</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01509769094138536</v>
+        <v>-0.02094624285923541</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009567981271608609</v>
+        <v>0.009448339692235774</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01571428571428557</v>
+        <v>-0.008276405675249787</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009923936938496424</v>
+        <v>0.009901106849564103</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001618122977346426</v>
+        <v>0.01633589847441619</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008990556947315025</v>
+        <v>0.008953274801736537</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.008898669983733565</v>
+        <v>-0.0112294845954507</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009363048685731198</v>
+        <v>0.009257474751809935</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006339581036383879</v>
+        <v>0.001392369813422611</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008770044132194135</v>
+        <v>0.008799456182914112</v>
       </c>
       <c r="E47" s="1">
-        <v>0.002615746795710194</v>
+        <v>-0.006770833333333171</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007069027202028833</v>
+        <v>0.006963180778076827</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01130401860565733</v>
+        <v>0.001590609916630292</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008191377212930213</v>
+        <v>0.008228580005422322</v>
       </c>
       <c r="E49" s="1">
-        <v>0.004562533548040815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007958820785019888</v>
+        <v>0.008105553754427477</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01918573230048648</v>
+        <v>-0.001325205406837893</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007818646513942824</v>
+        <v>0.007699858340785961</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01313593770056909</v>
+        <v>0.0003038062584088674</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00753127253099486</v>
+        <v>0.007467936909923349</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005597014925373234</v>
+        <v>-0.009397234528124465</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007204661222252736</v>
+        <v>0.00718965983695131</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02786069651741285</v>
+        <v>-0.007768924302788749</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007493994681884696</v>
+        <v>0.007523840573064584</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.002946353409351787</v>
+        <v>0.01598984771573608</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006657680474732454</v>
+        <v>0.006638261622364406</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0008646495100677054</v>
+        <v>0.0006472491909386147</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006574283235377023</v>
+        <v>0.006567128865677437</v>
       </c>
       <c r="E56" s="1">
-        <v>0.005931956964233764</v>
+        <v>0.006222739168362912</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006609075894546509</v>
+        <v>0.006645422638138263</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.003471017007983357</v>
+        <v>-0.009655172413793101</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006258377360225511</v>
+        <v>0.006246410839219013</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.002061855670103085</v>
+        <v>-0.004952538175815091</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.00547845784788095</v>
+        <v>0.005440462383924111</v>
       </c>
       <c r="E59" s="1">
-        <v>0.005565684675175264</v>
+        <v>-0.005791505791505669</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006641192195318342</v>
+        <v>0.00660030823876297</v>
       </c>
       <c r="E60" s="1">
-        <v>0.007987910189982683</v>
+        <v>-0.007594662037539335</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005312571419340723</v>
+        <v>0.005326840933645599</v>
       </c>
       <c r="E61" s="1">
-        <v>0.003688377114069663</v>
+        <v>-0.01389137838322285</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005756464576437131</v>
+        <v>0.005752491711243593</v>
       </c>
       <c r="E62" s="1">
-        <v>0.005446333687566307</v>
+        <v>-0.002522905324658042</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005292689899815304</v>
+        <v>0.005230024000383067</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.002745069710322845</v>
+        <v>0.004454505622900617</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004829679897021375</v>
+        <v>0.004740401481871961</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.0186827105763141</v>
+        <v>-0.00241701579116993</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004685347712005103</v>
+        <v>0.004659816184363503</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.001917662899343142</v>
+        <v>-0.004712728464879912</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004371544689880316</v>
+        <v>0.004398868769564194</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.01134798294522799</v>
+        <v>-0.006576805365631211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.00427949707784676</v>
+        <v>0.004337856915170942</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01701956580005359</v>
+        <v>0.008055995773903923</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003599032955243546</v>
+        <v>0.003660711263595129</v>
       </c>
       <c r="E68" s="1">
-        <v>0.008644729503624937</v>
+        <v>0.03482003129890465</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004037047682287966</v>
+        <v>0.003997422225281833</v>
       </c>
       <c r="E69" s="1">
-        <v>0.002130908832617129</v>
+        <v>0.0190964136003724</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003637935736237999</v>
+        <v>0.003680189226500017</v>
       </c>
       <c r="E70" s="1">
-        <v>0.00144508670520227</v>
+        <v>0.001141552511415567</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00315843745402996</v>
+        <v>0.003162161345419282</v>
       </c>
       <c r="E71" s="1">
-        <v>0.003631576558173366</v>
+        <v>0.01657683771909935</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002673968791940567</v>
+        <v>0.002700848709267486</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.009008042895442325</v>
+        <v>0.01226711917135059</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002583976240819493</v>
+        <v>0.002611336012094288</v>
       </c>
       <c r="E73" s="1">
-        <v>0.007139290140011578</v>
+        <v>0.01387593923106456</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002349555920453658</v>
+        <v>0.002355544528652155</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.0005695455839876962</v>
+        <v>0.01303175857805861</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001832636412792726</v>
+        <v>0.001820903090976075</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.009075262087310132</v>
+        <v>-0.01253211682659539</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001880810863950475</v>
+        <v>0.001938248269456993</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01743151903237306</v>
+        <v>-0.01517241379310352</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.001454029673358948</v>
+        <v>0.003487462421972953</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07632449312301398</v>
+        <v>0.07752214578635383</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01923377638780299</v>
+        <v>0.02021325559987708</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04696752703725051</v>
+        <v>0.0470884594525162</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006071251055836724</v>
+        <v>0.02209559603552247</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03698378206565611</v>
+        <v>0.03734930874699093</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01340536214485777</v>
+        <v>0.01026653504442243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03349751314631211</v>
+        <v>0.03359879732442744</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006521639987230321</v>
+        <v>0.008246488445854183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03106477286761779</v>
+        <v>0.03099477635372363</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00122636029174461</v>
+        <v>0.007478081485301713</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03206745829627309</v>
+        <v>0.03211871663859789</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005091490511516028</v>
+        <v>0.008993836733424354</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02968088269926756</v>
+        <v>0.02946203103740283</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00391174133610428</v>
+        <v>-0.01055408970976246</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>158</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02894606700065963</v>
+        <v>0.02883343323913643</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0004172672786587617</v>
+        <v>0.009487305984592576</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1108,10 +1108,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02633745217455941</v>
+        <v>0.02642061294588912</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006655984222852185</v>
+        <v>0.007224194930819161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>161</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02741752431367751</v>
+        <v>0.02742614106699398</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003802837501828416</v>
+        <v>-0.006484044878333095</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>159</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02328074872143644</v>
+        <v>0.02317015385493677</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001279590531030217</v>
+        <v>0.003042921204356119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>158</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02409108926640597</v>
+        <v>0.02379756229840436</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00873907615480618</v>
+        <v>0.007304785894206578</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,10 +1173,10 @@
         <v>93</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02033098310386973</v>
+        <v>0.02063540090771558</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0185127786074557</v>
+        <v>0.006363083052066676</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01932901377679181</v>
+        <v>0.01953814974452659</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01434499110847653</v>
+        <v>-0.002337540906965918</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02051349352589273</v>
+        <v>0.02049748332524572</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002704268881591698</v>
+        <v>0.003467539973030398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01868738676345432</v>
+        <v>0.01861045300145577</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0006437768240344921</v>
+        <v>0.0005010378641472357</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01780066205023033</v>
+        <v>0.01763118583430861</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006066522557701681</v>
+        <v>0.0002104672372666982</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>162</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01485886903022517</v>
+        <v>0.0146528511213237</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01042587029510522</v>
+        <v>-0.002321428571428585</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0135613884522128</v>
+        <v>0.01362857876858961</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008459271932325985</v>
+        <v>0.01357210179076374</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>159</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01644164447666795</v>
+        <v>0.01638084092141695</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0002235778849531966</v>
+        <v>-0.001789023065618789</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01417231857793302</v>
+        <v>0.01437654021446446</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01794761237469022</v>
+        <v>0.006194737120770899</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01279100637526138</v>
+        <v>0.01279279536437073</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003627813234799993</v>
+        <v>-0.004417966396679684</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>159</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01506133481620466</v>
+        <v>0.014557702737419</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.03006789524733278</v>
+        <v>0.001333333333333409</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1354,10 +1354,10 @@
         <v>160</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01396455364028088</v>
+        <v>0.0138874775211943</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002051197899573309</v>
+        <v>0.03126969771712029</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1371,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01255984878608131</v>
+        <v>0.01269336530319033</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01415495955725876</v>
+        <v>0.0001049428061705715</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,10 +1385,10 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01210880027253871</v>
+        <v>0.01219326539738723</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01048730484150773</v>
+        <v>-0.0003901677721420693</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1402,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01233484967046676</v>
+        <v>0.01244041332457968</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01207547169811307</v>
+        <v>0.01804623415361695</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>159</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01146908286340759</v>
+        <v>0.0113727057345931</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004945054945055039</v>
+        <v>-0.01398858825694826</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>156</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01258009059066875</v>
+        <v>0.01271182408966784</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01399556756428555</v>
+        <v>-0.008982035928143728</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01268645554496309</v>
+        <v>0.01272229041189735</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006321968841724868</v>
+        <v>0.004038590980480317</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0134256155931405</v>
+        <v>0.01346287785801958</v>
       </c>
       <c r="E32" s="1">
-        <v>0.006272602169808073</v>
+        <v>0.01526571891995054</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>160</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01113251512203636</v>
+        <v>0.0112158536237262</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01099961404862992</v>
+        <v>0.01563063349663851</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>159</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01154833143797159</v>
+        <v>0.0112351211714669</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0237288135593221</v>
+        <v>-0.001909722222222077</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>157</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009609653507568167</v>
+        <v>0.009759369737105013</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01912157026394601</v>
+        <v>-0.009915179877156954</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01093744905235653</v>
+        <v>0.01086670662898791</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003003003003003046</v>
+        <v>0.001129518072289226</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01050043612973068</v>
+        <v>0.01038544610319794</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.007501704932939335</v>
+        <v>0.01983508932661482</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>163</v>
       </c>
       <c r="D38" s="1">
-        <v>0.01005263394333889</v>
+        <v>0.009983444181200582</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003419290497221783</v>
+        <v>0.00393137955682632</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009213076454012028</v>
+        <v>0.009238527483610691</v>
       </c>
       <c r="E39" s="1">
-        <v>0.006259586286946117</v>
+        <v>-0.000803328664414682</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>160</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009174502449043526</v>
+        <v>0.009117498739283914</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.002747481475314228</v>
+        <v>0.009350475872432762</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009318964007254777</v>
+        <v>0.009347186938029857</v>
       </c>
       <c r="E41" s="1">
-        <v>0.006526572473642744</v>
+        <v>0.001638877012968498</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="1">
-        <v>0.009125807541781305</v>
+        <v>0.008903605172266149</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02094624285923541</v>
+        <v>0.01324057450628358</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>160</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009448339692235774</v>
+        <v>0.009337576951255483</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.008276405675249787</v>
+        <v>0.01086236587627498</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>156</v>
       </c>
       <c r="D44" s="1">
-        <v>0.009901106849564103</v>
+        <v>0.01002787847648408</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01633589847441619</v>
+        <v>0.00398512221041436</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>162</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008953274801736537</v>
+        <v>0.008821967858875917</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.0112294845954507</v>
+        <v>-0.0009706853038244923</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>160</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009257474751809935</v>
+        <v>0.009238146890075074</v>
       </c>
       <c r="E46" s="1">
-        <v>0.001392369813422611</v>
+        <v>0.01779755283648488</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>158</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008799456182914112</v>
+        <v>0.008709502469100563</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.006770833333333171</v>
+        <v>0.007865757734661694</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>160</v>
       </c>
       <c r="D48" s="1">
-        <v>0.006963180778076827</v>
+        <v>0.006950018553934862</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001590609916630292</v>
+        <v>0.01029516455834845</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008228580005422322</v>
+        <v>0.008199982873290896</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>0.004803843074459468</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008105553754427477</v>
+        <v>0.008066679987440414</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.001325205406837893</v>
+        <v>0.001238499646142976</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007699858340785961</v>
+        <v>0.007675429832824289</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0003038062584088674</v>
+        <v>0.001171468240194429</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>160</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007467936909923349</v>
+        <v>0.007372049210744156</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.009397234528124465</v>
+        <v>0.003794552107331484</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00718965983695131</v>
+        <v>0.007109011503439615</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007768924302788749</v>
+        <v>-0.01084119654687821</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>158</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007523840573064584</v>
+        <v>0.007617579615410233</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01598984771573608</v>
+        <v>0.009680239820134995</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1855,10 +1855,10 @@
         <v>134</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006638261622364406</v>
+        <v>0.006619473068249936</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0006472491909386147</v>
+        <v>0.004204398447606561</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>163</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006567128865677437</v>
+        <v>0.006585029353276435</v>
       </c>
       <c r="E56" s="1">
-        <v>0.006222739168362912</v>
+        <v>0.0168766616576117</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>164</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006645422638138263</v>
+        <v>0.006558387805783119</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.009655172413793101</v>
+        <v>-0.00278551532033422</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006246410839219013</v>
+        <v>0.006193874347044216</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.004952538175815091</v>
+        <v>0.001244296972210623</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>165</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005440462383924111</v>
+        <v>0.00539015594820122</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.005791505791505669</v>
+        <v>0.01048543689320369</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>157</v>
       </c>
       <c r="D60" s="1">
-        <v>0.00660030823876297</v>
+        <v>0.006527417006822139</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.007594662037539335</v>
+        <v>0.02689406362741886</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005326840933645599</v>
+        <v>0.005234588340517037</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01389137838322285</v>
+        <v>0.01999454694174307</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>164</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005752491711243593</v>
+        <v>0.005718037279136814</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.002522905324658042</v>
+        <v>0.0006656017039403661</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005230024000383067</v>
+        <v>0.00523506408243656</v>
       </c>
       <c r="E63" s="1">
-        <v>0.004454505622900617</v>
+        <v>-0.006252271901126982</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004740401481871961</v>
+        <v>0.004712509158031951</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.00241701579116993</v>
+        <v>0.01130673558391226</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004659816184363503</v>
+        <v>0.004621737599786868</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.004712728464879912</v>
+        <v>0.02083419113105767</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>156</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004398868769564194</v>
+        <v>0.004354751234550282</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.006576805365631211</v>
+        <v>0.009438909281594077</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>161</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004337856915170942</v>
+        <v>0.004357605686067422</v>
       </c>
       <c r="E67" s="1">
-        <v>0.008055995773903923</v>
+        <v>0.003013232018865386</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>156</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003660711263595129</v>
+        <v>0.003775012131418948</v>
       </c>
       <c r="E68" s="1">
-        <v>0.03482003129890465</v>
+        <v>0.008582230623818354</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>163</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003997422225281833</v>
+        <v>0.004059600947677903</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0190964136003724</v>
+        <v>0.007523555055547915</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003680189226500017</v>
+        <v>0.00367158583811454</v>
       </c>
       <c r="E70" s="1">
-        <v>0.001141552511415567</v>
+        <v>-0.01140250855188141</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003162161345419282</v>
+        <v>0.003203408215111466</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01657683771909935</v>
+        <v>0.03042993985297415</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002700848709267486</v>
+        <v>0.002724478824727162</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01226711917135059</v>
+        <v>0.005797303904449436</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>159</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002611336012094288</v>
+        <v>0.002638369537293409</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01387593923106456</v>
+        <v>0.00131631144289357</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002355544528652155</v>
+        <v>0.002377948410546247</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01303175857805861</v>
+        <v>0.008402688860435381</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2192,10 +2192,10 @@
         <v>154</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001820903090976075</v>
+        <v>0.001791834365693299</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01253211682659539</v>
+        <v>-0.02023152081563295</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>157</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001938248269456993</v>
+        <v>0.00190220649102275</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.01517241379310352</v>
+        <v>0.02591036414565839</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.003487462421972953</v>
+        <v>0.006847710254141326</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -43,69 +43,78 @@
     <t>V</t>
   </si>
   <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
     <t>JPM</t>
   </si>
   <si>
-    <t>GOOGL</t>
+    <t>BRKB</t>
   </si>
   <si>
     <t>JNJ</t>
   </si>
   <si>
-    <t>BRKB</t>
+    <t>PG</t>
   </si>
   <si>
     <t>GSLC</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>DIS</t>
   </si>
   <si>
     <t>BAC</t>
   </si>
   <si>
+    <t>CSCO</t>
+  </si>
+  <si>
     <t>IGV</t>
   </si>
   <si>
     <t>SMH</t>
   </si>
   <si>
-    <t>CSCO</t>
-  </si>
-  <si>
     <t>WMT</t>
   </si>
   <si>
     <t>PEP</t>
   </si>
   <si>
+    <t>FB</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
-    <t>FB</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
     <t>IBB</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
     <t>XAR</t>
   </si>
   <si>
@@ -115,79 +124,73 @@
     <t>CMCSA</t>
   </si>
   <si>
-    <t>LRCX</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
-    <t>HD</t>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>NKE</t>
   </si>
   <si>
     <t>TMO</t>
   </si>
   <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>ITW</t>
-  </si>
-  <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>NKE</t>
+    <t>FITB</t>
   </si>
   <si>
     <t>MRK</t>
   </si>
   <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>FITB</t>
+    <t>KIE</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>DAL</t>
   </si>
   <si>
     <t>LLY</t>
   </si>
   <si>
-    <t>KIE</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>BLK</t>
+    <t>DHI</t>
   </si>
   <si>
     <t>JPUS</t>
@@ -202,18 +205,15 @@
     <t>C</t>
   </si>
   <si>
+    <t>ED</t>
+  </si>
+  <si>
     <t>LYB</t>
   </si>
   <si>
-    <t>DHI</t>
-  </si>
-  <si>
     <t>EMN</t>
   </si>
   <si>
-    <t>ED</t>
-  </si>
-  <si>
     <t>KMB</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t>BDX</t>
   </si>
   <si>
+    <t>TSN</t>
+  </si>
+  <si>
     <t>VMW</t>
   </si>
   <si>
-    <t>TSN</t>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>HST</t>
   </si>
   <si>
     <t>PYPL</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>HST</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>ADBE</t>
   </si>
   <si>
+    <t>CCL</t>
+  </si>
+  <si>
     <t>OIH</t>
   </si>
   <si>
-    <t>CCL</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -271,69 +271,78 @@
     <t>Visa Inc</t>
   </si>
   <si>
+    <t>Alphabet Inc</t>
+  </si>
+  <si>
     <t>JPMorgan Chase &amp; Co</t>
   </si>
   <si>
-    <t>Alphabet Inc</t>
+    <t>Berkshire Hathaway Inc</t>
   </si>
   <si>
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
-    <t>Berkshire Hathaway Inc</t>
+    <t>Procter &amp; Gamble Co</t>
   </si>
   <si>
     <t>Goldman Sachs ActiveBeta US Large Cap Equity ETF</t>
   </si>
   <si>
-    <t>Procter &amp; Gamble Co</t>
-  </si>
-  <si>
     <t>Walt Disney Co</t>
   </si>
   <si>
     <t>Bank of America Corp</t>
   </si>
   <si>
+    <t>Cisco Systems Inc</t>
+  </si>
+  <si>
     <t>iShares Expanded Tech-Software Sector ETF</t>
   </si>
   <si>
     <t>VanEck Vectors Semiconductor ETF</t>
   </si>
   <si>
-    <t>Cisco Systems Inc</t>
-  </si>
-  <si>
     <t>Walmart Inc</t>
   </si>
   <si>
     <t>PepsiCo Inc</t>
   </si>
   <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
     <t>Exxon Mobil Corp</t>
   </si>
   <si>
+    <t>AT&amp;T Inc</t>
+  </si>
+  <si>
     <t>Abbvie Inc</t>
   </si>
   <si>
-    <t>Facebook Inc</t>
-  </si>
-  <si>
     <t>Mastercard Inc</t>
   </si>
   <si>
+    <t>UnitedHealth Group Inc</t>
+  </si>
+  <si>
+    <t>Home Depot Inc</t>
+  </si>
+  <si>
+    <t>Micron Technology Inc</t>
+  </si>
+  <si>
+    <t>Lam Research Corp</t>
+  </si>
+  <si>
+    <t>Corning Inc</t>
+  </si>
+  <si>
     <t>iShares Nasdaq Biotechnology ETF</t>
   </si>
   <si>
-    <t>AT&amp;T Inc</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Inc</t>
-  </si>
-  <si>
-    <t>Micron Technology Inc</t>
-  </si>
-  <si>
     <t>SPDR S&amp;P Aerospace &amp; Defense ETF</t>
   </si>
   <si>
@@ -343,79 +352,73 @@
     <t>Comcast Corp</t>
   </si>
   <si>
-    <t>Lam Research Corp</t>
-  </si>
-  <si>
-    <t>Corning Inc</t>
-  </si>
-  <si>
-    <t>Home Depot Inc</t>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works Inc</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>Eaton Corporation PLC</t>
+  </si>
+  <si>
+    <t>Tesla Inc</t>
+  </si>
+  <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
+    <t>Chevron Corp</t>
+  </si>
+  <si>
+    <t>Broadcom Inc</t>
+  </si>
+  <si>
+    <t>Qualcomm Inc</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>Nike Inc</t>
   </si>
   <si>
     <t>Thermo Fisher Scientific Inc</t>
   </si>
   <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
-    <t>Tesla Inc</t>
-  </si>
-  <si>
-    <t>Coca-Cola Co</t>
-  </si>
-  <si>
-    <t>Illinois Tool Works Inc</t>
-  </si>
-  <si>
-    <t>Eaton Corporation PLC</t>
-  </si>
-  <si>
-    <t>Broadcom Inc</t>
-  </si>
-  <si>
-    <t>Abbott Laboratories</t>
-  </si>
-  <si>
-    <t>Qualcomm Inc</t>
-  </si>
-  <si>
-    <t>Nike Inc</t>
+    <t>Fifth Third Bancorp</t>
   </si>
   <si>
     <t>Merck &amp; Co Inc</t>
   </si>
   <si>
-    <t>Oracle Corp</t>
-  </si>
-  <si>
-    <t>Chevron Corp</t>
-  </si>
-  <si>
-    <t>Pfizer Inc</t>
-  </si>
-  <si>
-    <t>Fifth Third Bancorp</t>
+    <t>SPDR S&amp;P Insurance ETF</t>
+  </si>
+  <si>
+    <t>Starbucks Corp</t>
+  </si>
+  <si>
+    <t>CVS Health Corp</t>
+  </si>
+  <si>
+    <t>Caterpillar Inc</t>
+  </si>
+  <si>
+    <t>BlackRock Inc</t>
+  </si>
+  <si>
+    <t>Delta Air Lines Inc</t>
   </si>
   <si>
     <t>Eli Lilly and Co</t>
   </si>
   <si>
-    <t>SPDR S&amp;P Insurance ETF</t>
-  </si>
-  <si>
-    <t>Starbucks Corp</t>
-  </si>
-  <si>
-    <t>Caterpillar Inc</t>
-  </si>
-  <si>
-    <t>CVS Health Corp</t>
-  </si>
-  <si>
-    <t>Delta Air Lines Inc</t>
-  </si>
-  <si>
-    <t>BlackRock Inc</t>
+    <t>D.R. Horton Inc</t>
   </si>
   <si>
     <t>JPMorgan Diversified Return US Equity ETF</t>
@@ -430,18 +433,15 @@
     <t>Citigroup Inc</t>
   </si>
   <si>
+    <t>Consolidated Edison Inc</t>
+  </si>
+  <si>
     <t>LyondellBasell Industries NV</t>
   </si>
   <si>
-    <t>D.R. Horton Inc</t>
-  </si>
-  <si>
     <t>Eastman Chemical Co</t>
   </si>
   <si>
-    <t>Consolidated Edison Inc</t>
-  </si>
-  <si>
     <t>Kimberly-Clark Corp</t>
   </si>
   <si>
@@ -451,24 +451,24 @@
     <t>Becton Dickinson and Co</t>
   </si>
   <si>
+    <t>Tyson Foods Inc</t>
+  </si>
+  <si>
     <t>VMware Inc</t>
   </si>
   <si>
-    <t>Tyson Foods Inc</t>
+    <t>FedEx Corp</t>
+  </si>
+  <si>
+    <t>Humana Inc</t>
+  </si>
+  <si>
+    <t>Host Hotels &amp; Resorts Inc</t>
   </si>
   <si>
     <t>PayPal Holdings Inc</t>
   </si>
   <si>
-    <t>FedEx Corp</t>
-  </si>
-  <si>
-    <t>Host Hotels &amp; Resorts Inc</t>
-  </si>
-  <si>
-    <t>Salesforce.Com Inc</t>
-  </si>
-  <si>
     <t>NVIDIA Corp</t>
   </si>
   <si>
@@ -478,24 +478,24 @@
     <t>Adobe Inc</t>
   </si>
   <si>
+    <t>Carnival Corp</t>
+  </si>
+  <si>
     <t>VanEck Vectors Oil Services ETF</t>
   </si>
   <si>
-    <t>Carnival Corp</t>
-  </si>
-  <si>
     <t>Information Technology</t>
   </si>
   <si>
     <t>Consumer Discretionary</t>
   </si>
   <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
     <t>Financials</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
     <t>Health Care</t>
   </si>
   <si>
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07752214578635383</v>
+        <v>0.06770672292658417</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02021325559987708</v>
+        <v>0.002929907595222048</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0470884594525162</v>
+        <v>0.04038566954578399</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02209559603552247</v>
+        <v>0.008195664364603505</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03734930874699093</v>
+        <v>0.03440500711785381</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01026653504442243</v>
+        <v>0.00898319522961355</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03359879732442744</v>
+        <v>0.02974502435249128</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008246488445854183</v>
+        <v>0.01867610175564316</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03099477635372363</v>
+        <v>0.02760056999347382</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007478081485301713</v>
+        <v>-0.0002895994313322214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03211871663859789</v>
+        <v>0.02410366538058681</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008993836733424354</v>
+        <v>0.00850807262008435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02946203103740283</v>
+        <v>0.1733495503295669</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01055408970976246</v>
+        <v>0.01499732190680225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02883343323913643</v>
+        <v>0.02486648252574586</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009487305984592576</v>
+        <v>0.0006607400288323184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1107,11 +1107,14 @@
       <c r="B10" t="s">
         <v>89</v>
       </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
       <c r="D10" s="1">
-        <v>0.02642061294588912</v>
+        <v>0.02335562337699889</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007224194930819161</v>
+        <v>-0.006533575317604345</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1121,14 +1124,11 @@
       <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>161</v>
-      </c>
       <c r="D11" s="1">
-        <v>0.02742614106699398</v>
+        <v>0.02263341768654083</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006484044878333095</v>
+        <v>0.008975136446331078</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1139,13 +1139,13 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02317015385493677</v>
+        <v>0.02066146108690443</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003042921204356119</v>
+        <v>0.001750642814158265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1156,13 +1156,13 @@
         <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02379756229840436</v>
+        <v>0.01875457970096385</v>
       </c>
       <c r="E13" s="1">
-        <v>0.007304785894206578</v>
+        <v>0.01680672268907557</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1172,11 +1172,14 @@
       <c r="B14" t="s">
         <v>93</v>
       </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" s="1">
-        <v>0.02063540090771558</v>
+        <v>0.01735300008290833</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006363083052066676</v>
+        <v>0.002703224560725914</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01953814974452659</v>
+        <v>0.01754657058518593</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002337540906965918</v>
+        <v>0.004086027442643747</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1200,14 +1203,11 @@
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
       <c r="D16" s="1">
-        <v>0.02049748332524572</v>
+        <v>0.01567682889936953</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003467539973030398</v>
+        <v>0.02636891763833393</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01861045300145577</v>
+        <v>0.01477732151005782</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0005010378641472357</v>
+        <v>0.002912138646210538</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01763118583430861</v>
+        <v>0.01470550463340467</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0002104672372666982</v>
+        <v>0.008715942625763473</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0146528511213237</v>
+        <v>0.01343952529004163</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002321428571428585</v>
+        <v>-0.003898893110854007</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01362857876858961</v>
+        <v>0.01249928533831113</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01357210179076374</v>
+        <v>0.01284138180502814</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1286,13 +1286,13 @@
         <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01638084092141695</v>
+        <v>0.01194570196026466</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001789023065618789</v>
+        <v>0.007360321177651397</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1303,13 +1303,13 @@
         <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01437654021446446</v>
+        <v>0.01276422865560997</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006194737120770899</v>
+        <v>0.01623406401907723</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1319,11 +1319,14 @@
       <c r="B23" t="s">
         <v>102</v>
       </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
       <c r="D23" s="1">
-        <v>0.01279279536437073</v>
+        <v>0.01216341326762298</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.004417966396679684</v>
+        <v>0.01717866340971241</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1334,13 +1337,13 @@
         <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.014557702737419</v>
+        <v>0.01280609155672819</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001333333333333409</v>
+        <v>0.005749880210829117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1351,13 +1354,13 @@
         <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0138874775211943</v>
+        <v>0.01177021687717795</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03126969771712029</v>
+        <v>0.006142733670823519</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1371,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01269336530319033</v>
+        <v>0.009888202942624868</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0001049428061705715</v>
+        <v>0.02297668038408762</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1384,11 +1387,14 @@
       <c r="B27" t="s">
         <v>106</v>
       </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
       <c r="D27" s="1">
-        <v>0.01219326539738723</v>
+        <v>0.009899021898747995</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0003901677721420693</v>
+        <v>0.04603363620051226</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01244041332457968</v>
+        <v>0.01066749073740421</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01804623415361695</v>
+        <v>0.01514486391571546</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1415,14 +1421,11 @@
       <c r="B29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
-        <v>159</v>
-      </c>
       <c r="D29" s="1">
-        <v>0.0113727057345931</v>
+        <v>0.01040258778934463</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01398858825694826</v>
+        <v>0.01972555746140658</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1432,14 +1435,11 @@
       <c r="B30" t="s">
         <v>109</v>
       </c>
-      <c r="C30" t="s">
-        <v>156</v>
-      </c>
       <c r="D30" s="1">
-        <v>0.01271182408966784</v>
+        <v>0.01008019904457112</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.008982035928143728</v>
+        <v>0.01425710853023632</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01272229041189735</v>
+        <v>0.009871490077568991</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004038590980480317</v>
+        <v>0.01594896331738438</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1467,13 +1467,13 @@
         <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01346287785801958</v>
+        <v>0.01005743079362544</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01526571891995054</v>
+        <v>0.009139586410635392</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1484,13 +1484,13 @@
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0112158536237262</v>
+        <v>0.009664355510898209</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01563063349663851</v>
+        <v>-0.004281555060798081</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1501,13 +1501,13 @@
         <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0112351211714669</v>
+        <v>0.009184567102228893</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001909722222222077</v>
+        <v>0.008122577072180226</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1518,13 +1518,13 @@
         <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009759369737105013</v>
+        <v>0.008996688662687709</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009915179877156954</v>
+        <v>0.0177690029615003</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1535,13 +1535,13 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01086670662898791</v>
+        <v>0.008719755681327043</v>
       </c>
       <c r="E36" s="1">
-        <v>0.001129518072289226</v>
+        <v>0.0216666666666665</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01038544610319794</v>
+        <v>0.008384287303031545</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01983508932661482</v>
+        <v>0.02202802253358338</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1569,13 +1569,13 @@
         <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009983444181200582</v>
+        <v>0.008707523801829627</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00393137955682632</v>
+        <v>0.03495180739648673</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1586,13 +1586,13 @@
         <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.009238527483610691</v>
+        <v>0.0088234238877606</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.000803328664414682</v>
+        <v>0.01281065846784535</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1603,13 +1603,13 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009117498739283914</v>
+        <v>0.007772168528050239</v>
       </c>
       <c r="E40" s="1">
-        <v>0.009350475872432762</v>
+        <v>0.01381624395539327</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009347186938029857</v>
+        <v>0.007383695338599266</v>
       </c>
       <c r="E41" s="1">
-        <v>0.001638877012968498</v>
+        <v>0.005532957179722686</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1637,13 +1637,13 @@
         <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008903605172266149</v>
+        <v>0.007539359125206661</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01324057450628358</v>
+        <v>0.02091454272863547</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1654,13 +1654,13 @@
         <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009337576951255483</v>
+        <v>0.008317032150415382</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01086236587627498</v>
+        <v>-0.03255931347804131</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1671,13 +1671,13 @@
         <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.01002787847648408</v>
+        <v>0.007183867604235521</v>
       </c>
       <c r="E44" s="1">
-        <v>0.00398512221041436</v>
+        <v>0.02194949256549461</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1688,13 +1688,13 @@
         <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008821967858875917</v>
+        <v>0.007789002500823912</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.0009706853038244923</v>
+        <v>-0.004042623766481457</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1705,13 +1705,13 @@
         <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009238146890075074</v>
+        <v>0.007061064378390165</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01779755283648488</v>
+        <v>0.02524698133918779</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1722,13 +1722,13 @@
         <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008709502469100563</v>
+        <v>0.007612346709798508</v>
       </c>
       <c r="E47" s="1">
-        <v>0.007865757734661694</v>
+        <v>0.008400152730049681</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1738,14 +1738,11 @@
       <c r="B48" t="s">
         <v>127</v>
       </c>
-      <c r="C48" t="s">
-        <v>160</v>
-      </c>
       <c r="D48" s="1">
-        <v>0.006950018553934862</v>
+        <v>0.007054686038586232</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01029516455834845</v>
+        <v>0.01763622005790988</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1755,11 +1752,14 @@
       <c r="B49" t="s">
         <v>128</v>
       </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
       <c r="D49" s="1">
-        <v>0.008199982873290896</v>
+        <v>0.007040597174082606</v>
       </c>
       <c r="E49" s="1">
-        <v>0.004803843074459468</v>
+        <v>0.004042315300593513</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1770,13 +1770,13 @@
         <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008066679987440414</v>
+        <v>0.006741743695800828</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001238499646142976</v>
+        <v>0.01040706099328159</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007675429832824289</v>
+        <v>0.006432474953788576</v>
       </c>
       <c r="E51" s="1">
-        <v>0.001171468240194429</v>
+        <v>0.02121864429117437</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1804,13 +1804,13 @@
         <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007372049210744156</v>
+        <v>0.006499124567815756</v>
       </c>
       <c r="E52" s="1">
-        <v>0.003794552107331484</v>
+        <v>0.008161896243291444</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.007109011503439615</v>
+        <v>0.005383238056041487</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01084119654687821</v>
+        <v>0.02812148481439825</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1838,13 +1838,13 @@
         <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007617579615410233</v>
+        <v>0.00615582455710277</v>
       </c>
       <c r="E54" s="1">
-        <v>0.009680239820134995</v>
+        <v>0.001783746917790152</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1854,11 +1854,14 @@
       <c r="B55" t="s">
         <v>134</v>
       </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
       <c r="D55" s="1">
-        <v>0.006619473068249936</v>
+        <v>0.005566716248502744</v>
       </c>
       <c r="E55" s="1">
-        <v>0.004204398447606561</v>
+        <v>0.01490264331556612</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1868,14 +1871,11 @@
       <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
       <c r="D56" s="1">
-        <v>0.006585029353276435</v>
+        <v>0.005696876768204219</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0168766616576117</v>
+        <v>0.009389930856350315</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1886,13 +1886,13 @@
         <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006558387805783119</v>
+        <v>0.005803158882880209</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.00278551532033422</v>
+        <v>-0.006232956758862485</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1903,13 +1903,13 @@
         <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006193874347044216</v>
+        <v>0.005619398105744094</v>
       </c>
       <c r="E58" s="1">
-        <v>0.001244296972210623</v>
+        <v>0.01586206896551712</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1920,13 +1920,13 @@
         <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.00539015594820122</v>
+        <v>0.005071264574998453</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01048543689320369</v>
+        <v>0.0123226823327125</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1937,13 +1937,13 @@
         <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.006527417006822139</v>
+        <v>0.005125278617135562</v>
       </c>
       <c r="E60" s="1">
-        <v>0.02689406362741886</v>
+        <v>-0.01247637051039696</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005234588340517037</v>
+        <v>0.004646660916404944</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01999454694174307</v>
+        <v>0.03325688073394506</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1971,13 +1971,13 @@
         <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005718037279136814</v>
+        <v>0.004524180644473711</v>
       </c>
       <c r="E62" s="1">
-        <v>0.0006656017039403661</v>
+        <v>0.02034442758989941</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.00523506408243656</v>
+        <v>0.004598540783200583</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.006252271901126982</v>
+        <v>-0.006461127888194307</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004712509158031951</v>
+        <v>0.004268158929052526</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01130673558391226</v>
+        <v>0.00363196125907983</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004621737599786868</v>
+        <v>0.004140915086887976</v>
       </c>
       <c r="E65" s="1">
-        <v>0.02083419113105767</v>
+        <v>0.006629231009202874</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2039,13 +2039,13 @@
         <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004354751234550282</v>
+        <v>0.003804235631414515</v>
       </c>
       <c r="E66" s="1">
-        <v>0.009438909281594077</v>
+        <v>0.01337068636189986</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2056,13 +2056,13 @@
         <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004357605686067422</v>
+        <v>0.004017869645607027</v>
       </c>
       <c r="E67" s="1">
-        <v>0.003013232018865386</v>
+        <v>0.0006631299734749518</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2073,13 +2073,13 @@
         <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003775012131418948</v>
+        <v>0.003395133760698921</v>
       </c>
       <c r="E68" s="1">
-        <v>0.008582230623818354</v>
+        <v>-0.007419561960476551</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2090,13 +2090,13 @@
         <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004059600947677903</v>
+        <v>0.003576714598914704</v>
       </c>
       <c r="E69" s="1">
-        <v>0.007523555055547915</v>
+        <v>0.003273137697516804</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.00367158583811454</v>
+        <v>0.003008961617886077</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01140250855188141</v>
+        <v>0.02420306965761521</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003203408215111466</v>
+        <v>0.003202451381685153</v>
       </c>
       <c r="E71" s="1">
-        <v>0.03042993985297415</v>
+        <v>0.001739590817985803</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002724478824727162</v>
+        <v>0.00244980728482098</v>
       </c>
       <c r="E72" s="1">
-        <v>0.005797303904449436</v>
+        <v>0.01247425228639676</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2158,13 +2158,13 @@
         <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002638369537293409</v>
+        <v>0.002218572282308752</v>
       </c>
       <c r="E73" s="1">
-        <v>0.00131631144289357</v>
+        <v>-0.07400331168004093</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002377948410546247</v>
+        <v>0.002075826652266287</v>
       </c>
       <c r="E74" s="1">
-        <v>0.008402688860435381</v>
+        <v>-0.003636646506291252</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2191,11 +2191,14 @@
       <c r="B75" t="s">
         <v>154</v>
       </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
       <c r="D75" s="1">
-        <v>0.001791834365693299</v>
+        <v>0.00145361556746863</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.02023152081563295</v>
+        <v>0.06259720062208407</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2205,14 +2208,11 @@
       <c r="B76" t="s">
         <v>155</v>
       </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
       <c r="D76" s="1">
-        <v>0.00190220649102275</v>
+        <v>0.001406948726877825</v>
       </c>
       <c r="E76" s="1">
-        <v>0.02591036414565839</v>
+        <v>0.009927694249971308</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.006847710254141326</v>
+        <v>0.01000576220428995</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06770672292658417</v>
+        <v>0.06717372130477627</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002929907595222048</v>
+        <v>-0.01168539325842699</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04038566954578399</v>
+        <v>0.04027811565919099</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008195664364603505</v>
+        <v>-0.01575838335286528</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03440500711785381</v>
+        <v>0.03434018392608963</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00898319522961355</v>
+        <v>-0.01308619234016406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02974502435249128</v>
+        <v>0.0299741915495782</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01867610175564316</v>
+        <v>0.0005275884809847753</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02760056999347382</v>
+        <v>0.02729538932312056</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0002895994313322214</v>
+        <v>-0.01133715188623341</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02410366538058681</v>
+        <v>0.02404692231192205</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00850807262008435</v>
+        <v>-0.02105752623887325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1733495503295669</v>
+        <v>0.1749268236831203</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01499732190680225</v>
+        <v>-0.01706484641638228</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02486648252574586</v>
+        <v>0.0246149098501884</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006607400288323184</v>
+        <v>-0.008463893390959876</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02335562337699889</v>
+        <v>0.02295311800389171</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006533575317604345</v>
+        <v>-0.01622214103032515</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02263341768654083</v>
+        <v>0.02259059315875483</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008975136446331078</v>
+        <v>-0.007092198581560405</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02066146108690443</v>
+        <v>0.02047470679670009</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001750642814158265</v>
+        <v>-0.00191141936540884</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01875457970096385</v>
+        <v>0.01886439044339542</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01680672268907557</v>
+        <v>-0.009297520661157077</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01735300008290833</v>
+        <v>0.01721250233818641</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002703224560725914</v>
+        <v>-0.008280377431157282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01754657058518593</v>
+        <v>0.01742850772344147</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004086027442643747</v>
+        <v>-0.001484780994803425</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01567682889936953</v>
+        <v>0.01591690930549462</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02636891763833393</v>
+        <v>-0.02211874272409786</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01477732151005782</v>
+        <v>0.0146607315649542</v>
       </c>
       <c r="E17" s="1">
-        <v>0.002912138646210538</v>
+        <v>-0.01083569405099161</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01470550463340467</v>
+        <v>0.01467390993011119</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008715942625763473</v>
+        <v>-0.006191318546740932</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01343952529004163</v>
+        <v>0.01324293914626122</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003898893110854007</v>
+        <v>-0.01641954423325709</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01249928533831113</v>
+        <v>0.01252344034312933</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01284138180502814</v>
+        <v>-0.01303571428571415</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01194570196026466</v>
+        <v>0.01190401724631083</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007360321177651397</v>
+        <v>0.04151444702756568</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01276422865560997</v>
+        <v>0.0128317342189232</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01623406401907723</v>
+        <v>-0.006768953068592043</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01216341326762298</v>
+        <v>0.01223910713125726</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01717866340971241</v>
+        <v>0.0006786739754633953</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01280609155672819</v>
+        <v>0.0127410031715393</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005749880210829117</v>
+        <v>-0.0056919335021689</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01177021687717795</v>
+        <v>0.0117149676079678</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006142733670823519</v>
+        <v>-0.01377511888326421</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009888202942624868</v>
+        <v>0.0100064524670236</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02297668038408762</v>
+        <v>-0.05341378925019558</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009899021898747995</v>
+        <v>0.01024318382657102</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04603363620051226</v>
+        <v>-0.04165302144249516</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01066749073740421</v>
+        <v>0.01071241349503967</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01514486391571546</v>
+        <v>-0.01427027027027017</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01040258778934463</v>
+        <v>0.010493532830114</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01972555746140658</v>
+        <v>0.0005822604645142615</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01008019904457112</v>
+        <v>0.01011379624139328</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01425710853023632</v>
+        <v>-0.003158809128958384</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009871490077568991</v>
+        <v>0.009920912896822762</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01594896331738438</v>
+        <v>-0.01773940345368918</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01005743079362544</v>
+        <v>0.010040037330954</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009139586410635392</v>
+        <v>-0.004665629860031162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009664355510898209</v>
+        <v>0.009519332169493336</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.004281555060798081</v>
+        <v>-0.01479188166494672</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009184567102228893</v>
+        <v>0.009159442997387844</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008122577072180226</v>
+        <v>-0.003112982970151945</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008996688662687709</v>
+        <v>0.009057929651239137</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0177690029615003</v>
+        <v>-0.003659289304294044</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008719755681327043</v>
+        <v>0.008812732190439347</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0216666666666665</v>
+        <v>0.007340946166394913</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008384287303031545</v>
+        <v>0.008476683878936051</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02202802253358338</v>
+        <v>-0.0007773302240122737</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008707523801829627</v>
+        <v>0.008914804618746231</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03495180739648673</v>
+        <v>-0.0328307262269526</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0088234238877606</v>
+        <v>0.008840207085069683</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01281065846784535</v>
+        <v>-0.02251454591449542</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007772168528050239</v>
+        <v>0.007794683514841785</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01381624395539327</v>
+        <v>-0.01732697362016944</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007383695338599266</v>
+        <v>0.007344582443070705</v>
       </c>
       <c r="E41" s="1">
-        <v>0.005532957179722686</v>
+        <v>-0.01017855977728965</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007539359125206661</v>
+        <v>0.007614139912190994</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02091454272863547</v>
+        <v>-0.02364343931272483</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008317032150415382</v>
+        <v>0.007959572817063661</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.03255931347804131</v>
+        <v>-0.02334985650926158</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007183867604235521</v>
+        <v>0.007262477234698658</v>
       </c>
       <c r="E44" s="1">
-        <v>0.02194949256549461</v>
+        <v>-0.005542725173210195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007789002500823912</v>
+        <v>0.007673961703115764</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.004042623766481457</v>
+        <v>0.007909910284964905</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007061064378390165</v>
+        <v>0.007161363232948647</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02524698133918779</v>
+        <v>-0.0133832976445396</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007612346709798508</v>
+        <v>0.007593613610097982</v>
       </c>
       <c r="E47" s="1">
-        <v>0.008400152730049681</v>
+        <v>-0.0160292818376877</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007054686038586232</v>
+        <v>0.007101781048663095</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01763622005790988</v>
+        <v>-0.008794619762027889</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007040597174082606</v>
+        <v>0.006992919765578367</v>
       </c>
       <c r="E49" s="1">
-        <v>0.004042315300593513</v>
+        <v>-0.007024156244646251</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006741743695800828</v>
+        <v>0.006738537383608554</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01040706099328159</v>
+        <v>-0.006779661016949157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006432474953788576</v>
+        <v>0.006498211924472864</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02121864429117437</v>
+        <v>-0.01535748085692168</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006499124567815756</v>
+        <v>0.00648159919748708</v>
       </c>
       <c r="E52" s="1">
-        <v>0.008161896243291444</v>
+        <v>-0.01997461584907512</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005383238056041487</v>
+        <v>0.005475011706132112</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02812148481439825</v>
+        <v>-0.02297592997811815</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.00615582455710277</v>
+        <v>0.006100385034491185</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001783746917790152</v>
+        <v>-0.02042419481539659</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005566716248502744</v>
+        <v>0.005588824859760679</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01490264331556612</v>
+        <v>0.01736334405144691</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005696876768204219</v>
+        <v>0.005688435329849598</v>
       </c>
       <c r="E56" s="1">
-        <v>0.009389930856350315</v>
+        <v>-0.006416189901529923</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.005803158882880209</v>
+        <v>0.005704874342021948</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.006232956758862485</v>
+        <v>-0.005936047488379947</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005619398105744094</v>
+        <v>0.005647049273090662</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01586206896551712</v>
+        <v>-0.01731160896130346</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005071264574998453</v>
+        <v>0.005078462718226264</v>
       </c>
       <c r="E59" s="1">
-        <v>0.0123226823327125</v>
+        <v>-0.01188959660297251</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005125278617135562</v>
+        <v>0.005006820333100071</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01247637051039696</v>
+        <v>-0.003190403266972952</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004646660916404944</v>
+        <v>0.004749482802579901</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03325688073394506</v>
+        <v>-0.05660377358490576</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004524180644473711</v>
+        <v>0.004566503199097061</v>
       </c>
       <c r="E62" s="1">
-        <v>0.02034442758989941</v>
+        <v>-0.03130738959335366</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004598540783200583</v>
+        <v>0.004519620166690066</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.006461127888194307</v>
+        <v>-0.008058245564430577</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004268158929052526</v>
+        <v>0.004237523283450698</v>
       </c>
       <c r="E64" s="1">
-        <v>0.00363196125907983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004140915086887976</v>
+        <v>0.004123470523182913</v>
       </c>
       <c r="E65" s="1">
-        <v>0.006629231009202874</v>
+        <v>-0.003912605562872873</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003804235631414515</v>
+        <v>0.003813579269794254</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01337068636189986</v>
+        <v>-0.006785624528776069</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004017869645607027</v>
+        <v>0.003977230604380173</v>
       </c>
       <c r="E67" s="1">
-        <v>0.0006631299734749518</v>
+        <v>-0.008795710584974969</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003395133760698921</v>
+        <v>0.003333647171440528</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.007419561960476551</v>
+        <v>-0.006181269316466453</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003576714598914704</v>
+        <v>0.003549772360015197</v>
       </c>
       <c r="E69" s="1">
-        <v>0.003273137697516804</v>
+        <v>0.0004724940938238831</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003008961617886077</v>
+        <v>0.003048595139650806</v>
       </c>
       <c r="E70" s="1">
-        <v>0.02420306965761521</v>
+        <v>-0.01498559077809802</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003202451381685153</v>
+        <v>0.003173470133123272</v>
       </c>
       <c r="E71" s="1">
-        <v>0.001739590817985803</v>
+        <v>-0.009890898108648849</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00244980728482098</v>
+        <v>0.002453651854472423</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01247425228639676</v>
+        <v>-0.03321831971615508</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002218572282308752</v>
+        <v>0.002032263644967638</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.07400331168004093</v>
+        <v>-0.0002358027117311812</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002075826652266287</v>
+        <v>0.002046001092282806</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.003636646506291252</v>
+        <v>-0.009856735761408442</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.00145361556746863</v>
+        <v>0.001527971538293413</v>
       </c>
       <c r="E75" s="1">
-        <v>0.06259720062208407</v>
+        <v>-0.0153677277716795</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001406948726877825</v>
+        <v>0.001405612414532736</v>
       </c>
       <c r="E76" s="1">
-        <v>0.009927694249971308</v>
+        <v>-0.0100573896244105</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01000576220428995</v>
+        <v>-0.01189562901721641</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06717372130477627</v>
+        <v>0.06721300477059815</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01168539325842699</v>
+        <v>0.01803850234955284</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04027811565919099</v>
+        <v>0.04013558134399115</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01575838335286528</v>
+        <v>0.009622126054686708</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03434018392608963</v>
+        <v>0.03431156528678295</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01308619234016406</v>
+        <v>0.01547614418478038</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0299741915495782</v>
+        <v>0.03036233974535597</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0005275884809847753</v>
+        <v>0.01067803313266258</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02729538932312056</v>
+        <v>0.02732097517375642</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01133715188623341</v>
+        <v>0.02104753786869806</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02404692231192205</v>
+        <v>0.02383281605405788</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02105752623887325</v>
+        <v>0.01913550926240082</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1749268236831203</v>
+        <v>0.1737044698626828</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01706484641638228</v>
+        <v>0.02596359743040688</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0246149098501884</v>
+        <v>0.02470958617170105</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008463893390959876</v>
+        <v>0.002058360576341123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02295311800389171</v>
+        <v>0.02286111574014862</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01622214103032515</v>
+        <v>-0.005125157840006</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02259059315875483</v>
+        <v>0.02270885546794332</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007092198581560405</v>
+        <v>0.01053268765133186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02047470679670009</v>
+        <v>0.02068928427378525</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00191141936540884</v>
+        <v>0.001422630772597966</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01886439044339542</v>
+        <v>0.01892102743226344</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009297520661157077</v>
+        <v>0.02137643378519294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01721250233818641</v>
+        <v>0.01728190476743408</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008280377431157282</v>
+        <v>0.007961165048543606</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01742850772344147</v>
+        <v>0.01761868864089934</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001484780994803425</v>
+        <v>0.0146220570012392</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01591690930549462</v>
+        <v>0.01575808913827373</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02211874272409786</v>
+        <v>0.02298850574712641</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0146607315649542</v>
+        <v>0.0146819170921875</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01083569405099161</v>
+        <v>0.001646738741319043</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01467390993011119</v>
+        <v>0.01476411176382674</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006191318546740932</v>
+        <v>-0.001643047853768564</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01324293914626122</v>
+        <v>0.01318721123360278</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01641954423325709</v>
+        <v>0.01554701200593556</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01252344034312933</v>
+        <v>0.01251364348667226</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01303571428571415</v>
+        <v>0.005427899402930869</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01190401724631083</v>
+        <v>0.01255213307221115</v>
       </c>
       <c r="E21" s="1">
-        <v>0.04151444702756568</v>
+        <v>0.001275510204081565</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0128317342189232</v>
+        <v>0.01290310795883202</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006768953068592043</v>
+        <v>0.01208541572012733</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01223910713125726</v>
+        <v>0.01239946849763674</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0006786739754633953</v>
+        <v>0.009651502504173681</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0127410031715393</v>
+        <v>0.01282576491562206</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0056919335021689</v>
+        <v>0.009507237605285601</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0117149676079678</v>
+        <v>0.01169703356155205</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01377511888326421</v>
+        <v>0.007559260872270324</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0100064524670236</v>
+        <v>0.009589567032350341</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.05341378925019558</v>
+        <v>0.01558257584700762</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01024318382657102</v>
+        <v>0.009938399116414962</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.04165302144249516</v>
+        <v>0.02107267224265308</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01071241349503967</v>
+        <v>0.0106906441043735</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01427027027027017</v>
+        <v>0.01447685896029816</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.010493532830114</v>
+        <v>0.01062999874900761</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0005822604645142615</v>
+        <v>0.004202767360662163</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01011379624139328</v>
+        <v>0.01020701761044896</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003158809128958384</v>
+        <v>0.009110354115503538</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009920912896822762</v>
+        <v>0.009865907701634265</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01773940345368918</v>
+        <v>-0.05322039315966109</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.010040037330954</v>
+        <v>0.01011726248450744</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.004665629860031162</v>
+        <v>-0.0001838235294118196</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009519332169493336</v>
+        <v>0.009494960277979549</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01479188166494672</v>
+        <v>0.0003491620111730764</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009159442997387844</v>
+        <v>0.009244292809133857</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003112982970151945</v>
+        <v>0.0005510653930931309</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009057929651239137</v>
+        <v>0.009136829239425494</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003659289304294044</v>
+        <v>0.01119518562768262</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008812732190439347</v>
+        <v>0.008987641665225397</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007340946166394913</v>
+        <v>-0.0015384615384616</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008476683878936051</v>
+        <v>0.008575253248737322</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0007773302240122737</v>
+        <v>0.01110325318246108</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008914804618746231</v>
+        <v>0.00872917116065596</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0328307262269526</v>
+        <v>0.01349192013227896</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008840207085069683</v>
+        <v>0.008748456383662314</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02251454591449542</v>
+        <v>0.0005175983436851439</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007794683514841785</v>
+        <v>0.007754721590636784</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01732697362016944</v>
+        <v>0.005943536404160454</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007344582443070705</v>
+        <v>0.007360082048152461</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01017855977728965</v>
+        <v>0.02421392630353103</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007614139912190994</v>
+        <v>0.007526412042802651</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02364343931272483</v>
+        <v>0.01850041362713406</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007959572817063661</v>
+        <v>0.007870230777490356</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02334985650926158</v>
+        <v>0.001335648457325922</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007262477234698658</v>
+        <v>0.007311889205755031</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.005542725173210195</v>
+        <v>0.007818547762811434</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007673961703115764</v>
+        <v>0.007830690005791794</v>
       </c>
       <c r="E45" s="1">
-        <v>0.007909910284964905</v>
+        <v>0.008013052188100112</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007161363232948647</v>
+        <v>0.007153240956117854</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0133832976445396</v>
+        <v>0.04015192620727093</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007593613610097982</v>
+        <v>0.007564659046920074</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.0160292818376877</v>
+        <v>-0.001026167265264277</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007101781048663095</v>
+        <v>0.007126718720704504</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.008794619762027889</v>
+        <v>0.01330897703549039</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006992919765578367</v>
+        <v>0.007030009594014359</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.007024156244646251</v>
+        <v>0.01414768806073163</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006738537383608554</v>
+        <v>0.006775945985268176</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.006779661016949157</v>
+        <v>-0.001706484641638251</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006498211924472864</v>
+        <v>0.006477853848526355</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01535748085692168</v>
+        <v>0.005330071213246468</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00648159919748708</v>
+        <v>0.006430995203946975</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01997461584907512</v>
+        <v>0.02244379620781567</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005475011706132112</v>
+        <v>0.005415630234174277</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02297592997811815</v>
+        <v>0.0257558790593504</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006100385034491185</v>
+        <v>0.006049980651301522</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.02042419481539659</v>
+        <v>0.008928094092488514</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005588824859760679</v>
+        <v>0.005756457131330598</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01736334405144691</v>
+        <v>0.03466076696165188</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005688435329849598</v>
+        <v>0.005722107602051356</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.006416189901529923</v>
+        <v>0.008334605144901586</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.005704874342021948</v>
+        <v>0.005741417083199856</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.005936047488379947</v>
+        <v>0.008168553884288388</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005647049273090662</v>
+        <v>0.005618185721096361</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01731160896130346</v>
+        <v>0.007253886010362809</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005078462718226264</v>
+        <v>0.005080382709711619</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.01188959660297251</v>
+        <v>0.0224896146683855</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005006820333100071</v>
+        <v>0.005052809288138593</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.003190403266972952</v>
+        <v>-0.008449622327486805</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004749482802579901</v>
+        <v>0.004536272581368824</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.05660377358490576</v>
+        <v>0.02362745098039221</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004566503199097061</v>
+        <v>0.004478457342586672</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.03130738959335366</v>
+        <v>0.02554843369143267</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004519620166690066</v>
+        <v>0.004538860116531102</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.008058245564430577</v>
+        <v>-0.05857621321171524</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004237523283450698</v>
+        <v>0.004290133299057117</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>-0.004674306393244732</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004123470523182913</v>
+        <v>0.004158330726728576</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.003912605562872873</v>
+        <v>-0.004978026679111736</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003813579269794254</v>
+        <v>0.003834727110496169</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.006785624528776069</v>
+        <v>-0.004301619433198289</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003977230604380173</v>
+        <v>0.003991192127340174</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.008795710584974969</v>
+        <v>0.007354281893879433</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003333647171440528</v>
+        <v>0.003354173314576831</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.006181269316466453</v>
+        <v>0.004339336081579326</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003549772360015197</v>
+        <v>0.003595541828933086</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0004724940938238831</v>
+        <v>0.008950658930418687</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003048595139650806</v>
+        <v>0.003040192094729145</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01498559077809802</v>
+        <v>0.0117027501462843</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003173470133123272</v>
+        <v>0.00318109147036257</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.009890898108648849</v>
+        <v>0.01433637091546869</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002453651854472423</v>
+        <v>0.002401596502726288</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.03321831971615508</v>
+        <v>0.02794565748051392</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002032263644967638</v>
+        <v>0.002057009593537282</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.0002358027117311812</v>
+        <v>-0.006348519988993218</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002046001092282806</v>
+        <v>0.002050985488237603</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.009856735761408442</v>
+        <v>0.01685426481893981</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001527971538293413</v>
+        <v>0.001523168745369778</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.0153677277716795</v>
+        <v>0.01337792642140467</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001405612414532736</v>
+        <v>0.001408751174912792</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.0100573896244105</v>
+        <v>0.01084835265755957</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01189562901721641</v>
+        <v>0.01248775196295471</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06721300477059815</v>
+        <v>0.06767160539291392</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01803850234955284</v>
+        <v>0.002977963073258039</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04013558134399115</v>
+        <v>0.04007535541015738</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009622126054686708</v>
+        <v>0.02038983740810818</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03431156528678295</v>
+        <v>0.03445872635921931</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01547614418478038</v>
+        <v>0.001531686770055662</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03036233974535597</v>
+        <v>0.03034848578449336</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01067803313266258</v>
+        <v>0.001478260869565151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02732097517375642</v>
+        <v>0.02758869284993273</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02104753786869806</v>
+        <v>0.004347958416125675</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02383281605405788</v>
+        <v>0.02402128632396869</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01913550926240082</v>
+        <v>0.00246354617484501</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1737044698626828</v>
+        <v>0.1749176362488072</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02596359743040688</v>
+        <v>0.004206098843322792</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02470958617170105</v>
+        <v>0.0244876693782379</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002058360576341123</v>
+        <v>-0.008458192363460681</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02286111574014862</v>
+        <v>0.02249338600934805</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005125157840006</v>
+        <v>-0.02000895923547852</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02270885546794332</v>
+        <v>0.02269522942995427</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01053268765133186</v>
+        <v>0.001677249311129669</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02068928427378525</v>
+        <v>0.020490465917231</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001422630772597966</v>
+        <v>0.006829854660692858</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01892102743226344</v>
+        <v>0.01911258868385335</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02137643378519294</v>
+        <v>0.005870342011230045</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01728190476743408</v>
+        <v>0.01722758385468553</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007961165048543606</v>
+        <v>-0.005201309959545375</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01761868864089934</v>
+        <v>0.01767937244609395</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0146220570012392</v>
+        <v>0.01126309504423828</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01575808913827373</v>
+        <v>0.01594275132014913</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02298850574712641</v>
+        <v>0.01709470304975924</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0146819170921875</v>
+        <v>0.01454408197529857</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001646738741319043</v>
+        <v>-0.01422444603288064</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01476411176382674</v>
+        <v>0.01457746930814449</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001643047853768564</v>
+        <v>-0.01693753000068576</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01318721123360278</v>
+        <v>0.01324469496273114</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01554701200593556</v>
+        <v>0.006342775545445489</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01251364348667226</v>
+        <v>0.01244295914130179</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005427899402930869</v>
+        <v>0.001979485333813091</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01255213307221115</v>
+        <v>0.01242968417782293</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001275510204081565</v>
+        <v>-0.01560509554140121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01290310795883202</v>
+        <v>0.01291517998071532</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01208541572012733</v>
+        <v>8.97827258035111E-05</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01239946849763674</v>
+        <v>0.01238122256415916</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009651502504173681</v>
+        <v>0.001059267297059963</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01282576491562206</v>
+        <v>0.01280506175956842</v>
       </c>
       <c r="E24" s="1">
-        <v>0.009507237605285601</v>
+        <v>-0.01111638480177857</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01169703356155205</v>
+        <v>0.01165561785858445</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007559260872270324</v>
+        <v>-0.01204112507332733</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009589567032350341</v>
+        <v>0.009631705730845718</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01558257584700762</v>
+        <v>0.02103917238172714</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009938399116414962</v>
+        <v>0.01003603232933425</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02107267224265308</v>
+        <v>0.02498844603101236</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0106906441043735</v>
+        <v>0.01072593058193721</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01447685896029816</v>
+        <v>-0.003891891891891874</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01062999874900761</v>
+        <v>0.01055707464587935</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004202767360662163</v>
+        <v>0.01918743158843594</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01020701761044896</v>
+        <v>0.01018653522853429</v>
       </c>
       <c r="E30" s="1">
-        <v>0.009110354115503538</v>
+        <v>0.005181347150259086</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009865907701634265</v>
+        <v>0.009237935127412659</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.05322039315966109</v>
+        <v>-0.008102633355840716</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01011726248450744</v>
+        <v>0.01000396449587027</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0001838235294118196</v>
+        <v>-0.001287001287001432</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009494960277979549</v>
+        <v>0.009393636054480929</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0003491620111730764</v>
+        <v>-0.006282722513088923</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009244292809133857</v>
+        <v>0.009147489442505513</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0005510653930931309</v>
+        <v>-0.0148705709564898</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009136829239425494</v>
+        <v>0.009137333295747594</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01119518562768262</v>
+        <v>-0.003588307369158161</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008987641665225397</v>
+        <v>0.008874952842891406</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0015384615384616</v>
+        <v>-0.005920038926283344</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008575253248737322</v>
+        <v>0.008574946665235211</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01110325318246108</v>
+        <v>0.002797789746100676</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00872917116065596</v>
+        <v>0.008749480447118362</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01349192013227896</v>
+        <v>0.0120647107211409</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008748456383662314</v>
+        <v>0.008656555702766371</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0005175983436851439</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007754721590636784</v>
+        <v>0.007714872977192453</v>
       </c>
       <c r="E40" s="1">
-        <v>0.005943536404160454</v>
+        <v>-0.0002954209748893266</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007360082048152461</v>
+        <v>0.007455251477589402</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02421392630353103</v>
+        <v>0.01227125480016311</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007526412042802651</v>
+        <v>0.007581203691319513</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01850041362713406</v>
+        <v>0.02606512589529641</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007870230777490356</v>
+        <v>0.007793922985619256</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001335648457325922</v>
+        <v>-0.006269174336401284</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007311889205755031</v>
+        <v>0.007287874980232499</v>
       </c>
       <c r="E44" s="1">
-        <v>0.007818547762811434</v>
+        <v>0.01083032490974722</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007830690005791794</v>
+        <v>0.007806478222162511</v>
       </c>
       <c r="E45" s="1">
-        <v>0.008013052188100112</v>
+        <v>0.01219037472597284</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007153240956117854</v>
+        <v>0.007358488189580873</v>
       </c>
       <c r="E46" s="1">
-        <v>0.04015192620727093</v>
+        <v>0.01147626499739163</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007564659046920074</v>
+        <v>0.007473644499276974</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.001026167265264277</v>
+        <v>-0.004494093477144245</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007126718720704504</v>
+        <v>0.007142010321284104</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01330897703549039</v>
+        <v>0.0002575328354366135</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007030009594014359</v>
+        <v>0.007050924879100869</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01414768806073163</v>
+        <v>-0.01395032323919709</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006775945985268176</v>
+        <v>0.006689861866407885</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.001706484641638251</v>
+        <v>-0.003944773175542315</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006477853848526355</v>
+        <v>0.006440636422541288</v>
       </c>
       <c r="E51" s="1">
-        <v>0.005330071213246468</v>
+        <v>0.001955586458650238</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006430995203946975</v>
+        <v>0.006502892802470742</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02244379620781567</v>
+        <v>0.006333239052104922</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005415630234174277</v>
+        <v>0.005493915608418166</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0257558790593504</v>
+        <v>0.0176855895196506</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006049980651301522</v>
+        <v>0.006036749657180066</v>
       </c>
       <c r="E54" s="1">
-        <v>0.008928094092488514</v>
+        <v>-0.007948283170835069</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005756457131330598</v>
+        <v>0.005890365195444848</v>
       </c>
       <c r="E55" s="1">
-        <v>0.03466076696165188</v>
+        <v>0.02240097749719983</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005722107602051356</v>
+        <v>0.005706235054420352</v>
       </c>
       <c r="E56" s="1">
-        <v>0.008334605144901586</v>
+        <v>0.0009081353794408997</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.005741417083199856</v>
+        <v>0.005724548106448414</v>
       </c>
       <c r="E57" s="1">
-        <v>0.008168553884288388</v>
+        <v>-0.01760169870362094</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005618185721096361</v>
+        <v>0.005596596651230523</v>
       </c>
       <c r="E58" s="1">
-        <v>0.007253886010362809</v>
+        <v>0.0006858710562411829</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005080382709711619</v>
+        <v>0.005137410866317318</v>
       </c>
       <c r="E59" s="1">
-        <v>0.0224896146683855</v>
+        <v>0.01148781171196434</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005052809288138593</v>
+        <v>0.004954920103312803</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.008449622327486805</v>
+        <v>-0.007488702388637858</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004536272581368824</v>
+        <v>0.004592297682259351</v>
       </c>
       <c r="E61" s="1">
-        <v>0.02362745098039221</v>
+        <v>0.0050761421319796</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004478457342586672</v>
+        <v>0.004542276660235107</v>
       </c>
       <c r="E62" s="1">
-        <v>0.02554843369143267</v>
+        <v>0.01813380281690136</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004538860116531102</v>
+        <v>0.004225916687208874</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.05857621321171524</v>
+        <v>-0.01203542502460075</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004290133299057117</v>
+        <v>0.00422303777946647</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.004674306393244732</v>
+        <v>-0.001817906377821643</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004158330726728576</v>
+        <v>0.004092047477187155</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.004978026679111736</v>
+        <v>0.006253664256400171</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003834727110496169</v>
+        <v>0.003776167322117989</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.004301619433198289</v>
+        <v>-0.009529860228716602</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003991192127340174</v>
+        <v>0.003976251410214965</v>
       </c>
       <c r="E67" s="1">
-        <v>0.007354281893879433</v>
+        <v>-0.02365150235308322</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003354173314576831</v>
+        <v>0.003331615984895331</v>
       </c>
       <c r="E68" s="1">
-        <v>0.004339336081579326</v>
+        <v>-0.007128969539857533</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003595541828933086</v>
+        <v>0.003587758804309645</v>
       </c>
       <c r="E69" s="1">
-        <v>0.008950658930418687</v>
+        <v>-0.005572396576319583</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003040192094729145</v>
+        <v>0.00304188590848632</v>
       </c>
       <c r="E70" s="1">
-        <v>0.0117027501462843</v>
+        <v>0.008097165991902688</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00318109147036257</v>
+        <v>0.00319114927796394</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01433637091546869</v>
+        <v>0.0213885651994139</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002401596502726288</v>
+        <v>0.002441513689706125</v>
       </c>
       <c r="E72" s="1">
-        <v>0.02794565748051392</v>
+        <v>0.0139368827893418</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002057009593537282</v>
+        <v>0.002021433068293889</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.006348519988993218</v>
+        <v>0.009395707645138973</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002050985488237603</v>
+        <v>0.002062577458112392</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01685426481893981</v>
+        <v>-0.0002714019851116634</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001523168745369778</v>
+        <v>0.001526540830408943</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01337792642140467</v>
+        <v>0.01026769343601042</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001408751174912792</v>
+        <v>0.001408345673651417</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01084835265755957</v>
+        <v>0.02055533473397286</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01248775196295471</v>
+        <v>0.002265644414509049</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06767160539291392</v>
+        <v>0.0676855416704667</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002977963073258039</v>
+        <v>-0.002449524940617676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04007535541015738</v>
+        <v>0.04077946703473535</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02038983740810818</v>
+        <v>0.002472865943091707</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03445872635921931</v>
+        <v>0.03441612368210189</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001531686770055662</v>
+        <v>0.001605811508315957</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03034848578449336</v>
+        <v>0.03030934784528904</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001478260869565151</v>
+        <v>-0.001866805591734022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02758869284993273</v>
+        <v>0.02763206637945034</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004347958416125675</v>
+        <v>-0.00820371180079027</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02402128632396869</v>
+        <v>0.02401391045956685</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00246354617484501</v>
+        <v>0.004582890541976692</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1749176362488072</v>
+        <v>0.1756722977819319</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004206098843322792</v>
+        <v>0.02218741842860861</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0244876693782379</v>
+        <v>0.02421344155670366</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008458192363460681</v>
+        <v>-0.005727516451377146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02249338600934805</v>
+        <v>0.02198239360566473</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02000895923547852</v>
+        <v>-0.0006094773731524228</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02269522942995427</v>
+        <v>0.02267046487109095</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001677249311129669</v>
+        <v>-0.001076426264800867</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.020490465917231</v>
+        <v>0.02057339463515587</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006829854660692858</v>
+        <v>0.00200792315623799</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01911258868385335</v>
+        <v>0.01917165279088181</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005870342011230045</v>
+        <v>0.01192590713017028</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01722758385468553</v>
+        <v>0.01709061203157523</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005201309959545375</v>
+        <v>-0.005228505034856612</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01767937244609395</v>
+        <v>0.01782908443744528</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01126309504423828</v>
+        <v>-0.004133007702423308</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01594275132014913</v>
+        <v>0.01617047222391555</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01709470304975924</v>
+        <v>-0.005839185670322822</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01454408197529857</v>
+        <v>0.0142975754148596</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01422444603288064</v>
+        <v>0.003408019723007749</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01457746930814449</v>
+        <v>0.01429095627774435</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01693753000068576</v>
+        <v>-0.003278459821428825</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01324469496273114</v>
+        <v>0.01329186531654133</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006342775545445489</v>
+        <v>0.001748944033791</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01244295914130179</v>
+        <v>0.01243313196163759</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001979485333813091</v>
+        <v>0.01311063218390807</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01242968417782293</v>
+        <v>0.01220190078012353</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01560509554140121</v>
+        <v>-0.0045292785506309</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01291517998071532</v>
+        <v>0.01288064145467644</v>
       </c>
       <c r="E22" s="1">
-        <v>8.97827258035111E-05</v>
+        <v>0.0004488733279468526</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01238122256415916</v>
+        <v>0.01236008220745001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001059267297059963</v>
+        <v>0.004129351949828219</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01280506175956842</v>
+        <v>0.01262771864309795</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01111638480177857</v>
+        <v>-0.003435558025564611</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01165561785858445</v>
+        <v>0.01148344528287911</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01204112507332733</v>
+        <v>0.001875058595581125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009631705730845718</v>
+        <v>0.009807168745602063</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02103917238172714</v>
+        <v>0.01844262295081944</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01003603232933425</v>
+        <v>0.01025838655039825</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02498844603101236</v>
+        <v>0.002658706096366537</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01072593058193721</v>
+        <v>0.01065465754227388</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003891891891891874</v>
+        <v>-0.03386151508573909</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01055707464587935</v>
+        <v>0.01072990038405988</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01918743158843594</v>
+        <v>-0.002590182576283961</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01018653522853429</v>
+        <v>0.01021101585827225</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005181347150259086</v>
+        <v>0.001249609497032234</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009237935127412659</v>
+        <v>0.009137758661922452</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008102633355840716</v>
+        <v>-0.01344452008168817</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01000396449587027</v>
+        <v>0.00996347607988989</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001287001287001432</v>
+        <v>-0.0003681885125184081</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009393636054480929</v>
+        <v>0.009308819494599694</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.006282722513088923</v>
+        <v>-0.01088865472427114</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009147489442505513</v>
+        <v>0.008986555240590961</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0148705709564898</v>
+        <v>-0.001490868430860881</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009137333295747594</v>
+        <v>0.009079382657484345</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003588307369158161</v>
+        <v>0.007290294246816043</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008874952842891406</v>
+        <v>0.008798029455766253</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.005920038926283344</v>
+        <v>-0.007178985152553552</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008574946665235211</v>
+        <v>0.008575171881446183</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002797789746100676</v>
+        <v>0.00850945107065626</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008749480447118362</v>
+        <v>0.008830566900862905</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0120647107211409</v>
+        <v>-0.04532646979138444</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008656555702766371</v>
+        <v>0.008637096700361743</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0005173305742369738</v>
+        <v>-0.005946225439503405</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007714872977192453</v>
+        <v>0.007691277830640493</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0002954209748893266</v>
+        <v>0.01162332545311262</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007455251477589402</v>
+        <v>0.007525879151399188</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01227125480016311</v>
+        <v>-0.01165624668856624</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007581203691319513</v>
+        <v>0.007757309704513106</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02606512589529641</v>
+        <v>-0.006836499712147504</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007793922985619256</v>
+        <v>0.007723655778457257</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.006269174336401284</v>
+        <v>0.009664429530201302</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007287874980232499</v>
+        <v>0.007346444711527956</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01083032490974722</v>
+        <v>0.003875379939209944</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007806478222162511</v>
+        <v>0.007879803615465201</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01219037472597284</v>
+        <v>-0.007732167435835158</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007358488189580873</v>
+        <v>0.007422365416753473</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01147626499739163</v>
+        <v>0.01211964930376475</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007473644499276974</v>
+        <v>0.007419494465715533</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.004494093477144245</v>
+        <v>-0.00219269960015489</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007142010321284104</v>
+        <v>0.007124105503367515</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0002575328354366135</v>
+        <v>0.00720906282183309</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007050924879100869</v>
+        <v>0.006933346756624408</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01395032323919709</v>
+        <v>0.001984126984126977</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006689861866407885</v>
+        <v>0.006645055423231296</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.003944773175542315</v>
+        <v>-0.008448844884488382</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006440636422541288</v>
+        <v>0.006435396248821754</v>
       </c>
       <c r="E51" s="1">
-        <v>0.001955586458650238</v>
+        <v>-0.0009541984732823749</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006502892802470742</v>
+        <v>0.006525990703796741</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006333239052104922</v>
+        <v>0.00267621468374224</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005493915608418166</v>
+        <v>0.005575626161598752</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0176855895196506</v>
+        <v>-0.005792748337266618</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006036749657180066</v>
+        <v>0.005972216148034146</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.007948283170835069</v>
+        <v>-0.02675996154257021</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005890365195444848</v>
+        <v>0.006005670702490138</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02240097749719983</v>
+        <v>0.001693058460312757</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005706235054420352</v>
+        <v>0.005695631914984632</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0009081353794408997</v>
+        <v>-0.0003916981005267495</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.005724548106448414</v>
+        <v>0.005608243355335345</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.01760169870362094</v>
+        <v>0.1042034013992377</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005596596651230523</v>
+        <v>0.005584956752472056</v>
       </c>
       <c r="E58" s="1">
-        <v>0.0006858710562411829</v>
+        <v>-0.009938313913639418</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005137410866317318</v>
+        <v>0.005182066623481184</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01148781171196434</v>
+        <v>0.01094182825484746</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004954920103312803</v>
+        <v>0.004904222361920573</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.007488702388637858</v>
+        <v>-0.008846103811630091</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004592297682259351</v>
+        <v>0.004602852251576845</v>
       </c>
       <c r="E61" s="1">
-        <v>0.0050761421319796</v>
+        <v>-0.0002858776443681599</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004542276660235107</v>
+        <v>0.004611863847890378</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01813380281690136</v>
+        <v>0.001037523776586502</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004225916687208874</v>
+        <v>0.004163516994132127</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.01203542502460075</v>
+        <v>-0.008197977321483418</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.00422303777946647</v>
+        <v>0.004203710308663283</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.001817906377821643</v>
+        <v>0.001062376688419908</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004092047477187155</v>
+        <v>0.004106257470653218</v>
       </c>
       <c r="E65" s="1">
-        <v>0.006253664256400171</v>
+        <v>0.002952029520295163</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003776167322117989</v>
+        <v>0.003729843890123345</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.009529860228716602</v>
+        <v>-0.0161642078255293</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003976251410214965</v>
+        <v>0.003871477474661704</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.02365150235308322</v>
+        <v>0.005870720553701858</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003331615984895331</v>
+        <v>0.003298722742592731</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.007128969539857533</v>
+        <v>0.04260951552074266</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003587758804309645</v>
+        <v>0.003557905822406733</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.005572396576319583</v>
+        <v>0.005962254000986267</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.00304188590848632</v>
+        <v>0.003058041347245452</v>
       </c>
       <c r="E70" s="1">
-        <v>0.008097165991902688</v>
+        <v>0.02983362019506597</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00319114927796394</v>
+        <v>0.003250395066787413</v>
       </c>
       <c r="E71" s="1">
-        <v>0.0213885651994139</v>
+        <v>-0.01067275136169588</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002441513689706125</v>
+        <v>0.002468698898068383</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0139368827893418</v>
+        <v>-0.006218503682646426</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002021433068293889</v>
+        <v>0.002034786548139772</v>
       </c>
       <c r="E73" s="1">
-        <v>0.009395707645138973</v>
+        <v>-0.009308250048990829</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002062577458112392</v>
+        <v>0.00205631868092432</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.0002714019851116634</v>
+        <v>0.003141361256544517</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001526540830408943</v>
+        <v>0.001537952521296316</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01026769343601042</v>
+        <v>0.009437386569872919</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001408345673651417</v>
+        <v>0.001433322305691402</v>
       </c>
       <c r="E76" s="1">
-        <v>0.02055533473397286</v>
+        <v>-0.005396984365437008</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.002265644414509049</v>
+        <v>0.003522539294308125</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0676855416704667</v>
+        <v>0.06731349672968848</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002449524940617676</v>
+        <v>-0.006027234169208917</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04077946703473535</v>
+        <v>0.04075543516363875</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002472865943091707</v>
+        <v>0.01201780285185072</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03441612368210189</v>
+        <v>0.03436609231147467</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001605811508315957</v>
+        <v>-0.02828568156659172</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03030934784528904</v>
+        <v>0.03016035532057541</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001866805591734022</v>
+        <v>0.01539732938976113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02763206637945034</v>
+        <v>0.02732166770093114</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00820371180079027</v>
+        <v>0.02970781063125805</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02401391045956685</v>
+        <v>0.02405027391343928</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004582890541976692</v>
+        <v>0.006479338842975135</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1756722977819319</v>
+        <v>0.178564339490542</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02218741842860861</v>
+        <v>0.003584229390680926</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02421344155670366</v>
+        <v>0.02400121930515964</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005727516451377146</v>
+        <v>-0.007353842382645026</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02198239360566473</v>
+        <v>0.02190188878388902</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0006094773731524228</v>
+        <v>0.001677084921481997</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02267046487109095</v>
+        <v>0.02257688655421992</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001076426264800867</v>
+        <v>-0.001795977011494254</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02057339463515587</v>
+        <v>0.02055173423315174</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00200792315623799</v>
+        <v>-0.006769930675909919</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01917165279088181</v>
+        <v>0.01934103151859355</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01192590713017028</v>
+        <v>0.003761283851554609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01709061203157523</v>
+        <v>0.01694932122106946</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005228505034856612</v>
+        <v>-0.005061319836480394</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01782908443744528</v>
+        <v>0.01770116061036677</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004133007702423308</v>
+        <v>-0.003045247527420747</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01617047222391555</v>
+        <v>0.01602694352584048</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005839185670322822</v>
+        <v>-0.0159933328041908</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0142975754148596</v>
+        <v>0.01430247925746858</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003408019723007749</v>
+        <v>-0.003540974129209618</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01429095627774435</v>
+        <v>0.0142005935516171</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.003278459821428825</v>
+        <v>-0.007418293792427533</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01329186531654133</v>
+        <v>0.01327443936709593</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001748944033791</v>
+        <v>0.01162829001548249</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01243313196163759</v>
+        <v>0.01255766169943771</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01311063218390807</v>
+        <v>0.03013650062045725</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01220190078012353</v>
+        <v>0.01210953155427044</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0045292785506309</v>
+        <v>0.006174845628859282</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01288064145467644</v>
+        <v>0.01284706003677629</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0004488733279468526</v>
+        <v>0.00439698492462326</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01236008220745001</v>
+        <v>0.01237321001190324</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004129351949828219</v>
+        <v>0.01691212378235285</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01262771864309795</v>
+        <v>0.01254589495385362</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.003435558025564611</v>
+        <v>0.0002281368821293039</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01148344528287911</v>
+        <v>0.01146983402069182</v>
       </c>
       <c r="E25" s="1">
-        <v>0.001875058595581125</v>
+        <v>-0.002744939018684334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009807168745602063</v>
+        <v>0.009957528945503436</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01844262295081944</v>
+        <v>-0.03834115805946769</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01025838655039825</v>
+        <v>0.01025424174631321</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002658706096366537</v>
+        <v>-0.01059111772732912</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01065465754227388</v>
+        <v>0.01026243076519944</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03386151508573909</v>
+        <v>-0.003370029206919756</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01072990038405988</v>
+        <v>0.01066941705334124</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002590182576283961</v>
+        <v>-0.0070306561945781</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01021101585827225</v>
+        <v>0.01019254583703443</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001249609497032234</v>
+        <v>-0.001326053042121744</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.009137758661922452</v>
+        <v>0.008987368722598501</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01344452008168817</v>
+        <v>-0.006037605658099077</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.00996347607988989</v>
+        <v>0.009929384162146882</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0003681885125184081</v>
+        <v>-0.003683241252301905</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009308819494599694</v>
+        <v>0.009179333636198498</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01088865472427114</v>
+        <v>0.001953125</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008986555240590961</v>
+        <v>0.00894574783534665</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001490868430860881</v>
+        <v>0.0001866368047780398</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009079382657484345</v>
+        <v>0.009117637726919727</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007290294246816043</v>
+        <v>0.002790373212417041</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008798029455766253</v>
+        <v>0.00870818678260828</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007178985152553552</v>
+        <v>-0.002054231717337762</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008575171881446183</v>
+        <v>0.008621725054076494</v>
       </c>
       <c r="E37" s="1">
-        <v>0.00850945107065626</v>
+        <v>-0.0004149664568781075</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008830566900862905</v>
+        <v>0.008404557043515969</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.04532646979138444</v>
+        <v>-0.01467207764565681</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008637096700361743</v>
+        <v>0.008559512362052475</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.005946225439503405</v>
+        <v>0.009362808842652726</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007691277830640493</v>
+        <v>0.00775690900616431</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01162332545311262</v>
+        <v>0.02453748782862708</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007525879151399188</v>
+        <v>0.007415434869112338</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01165624668856624</v>
+        <v>-0.01533183231478508</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007757309704513106</v>
+        <v>0.007680743180018608</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.006836499712147504</v>
+        <v>-0.01043402651981729</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007723655778457257</v>
+        <v>0.007774479619502723</v>
       </c>
       <c r="E43" s="1">
-        <v>0.009664429530201302</v>
+        <v>-0.005982451475671335</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007346444711527956</v>
+        <v>0.007352387374192149</v>
       </c>
       <c r="E44" s="1">
-        <v>0.003875379939209944</v>
+        <v>-0.01059722958140952</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007879803615465201</v>
+        <v>0.007794991919237161</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.007732167435835158</v>
+        <v>-0.009016360001631973</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007422365416753473</v>
+        <v>0.007489374554201588</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01211964930376475</v>
+        <v>0.01401273885350318</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007419494465715533</v>
+        <v>0.007380611662586431</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.00219269960015489</v>
+        <v>-0.003490175801447615</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007124105503367515</v>
+        <v>0.007153545274828473</v>
       </c>
       <c r="E48" s="1">
-        <v>0.00720906282183309</v>
+        <v>0.0007668711656441118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006933346756624408</v>
+        <v>0.006925882599287536</v>
       </c>
       <c r="E49" s="1">
-        <v>0.001984126984126977</v>
+        <v>-0.03228583727938006</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006645055423231296</v>
+        <v>0.006568785722321544</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.008448844884488382</v>
+        <v>0.003861003861003853</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006435396248821754</v>
+        <v>0.006409616636785328</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0009541984732823749</v>
+        <v>0.008509160371624525</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006525990703796741</v>
+        <v>0.006523467850815229</v>
       </c>
       <c r="E52" s="1">
-        <v>0.00267621468374224</v>
+        <v>-0.005155330221447652</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005575626161598752</v>
+        <v>0.005526395172638561</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.005792748337266618</v>
+        <v>0.002157962883038156</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005972216148034146</v>
+        <v>0.005794645169940856</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.02675996154257021</v>
+        <v>-0.009110367158772781</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006005670702490138</v>
+        <v>0.00599746252119105</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001693058460312757</v>
+        <v>-0.007655597534301006</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005695631914984632</v>
+        <v>0.005676009740265529</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0003916981005267495</v>
+        <v>-0.001146139631533316</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.005608243355335345</v>
+        <v>0.006173725189839297</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1042034013992377</v>
+        <v>0.02184103435841966</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005584956752472056</v>
+        <v>0.005512561296073475</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.009938313913639418</v>
+        <v>0.003807545863620643</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005182066623481184</v>
+        <v>0.005222765433546247</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01094182825484746</v>
+        <v>-0.001096040553500544</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004904222361920573</v>
+        <v>0.004845991059741987</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.008846103811630091</v>
+        <v>0.0002625016406352376</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004602852251576845</v>
+        <v>0.004587480429561665</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.0002858776443681599</v>
+        <v>0.01382137069869427</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004611863847890378</v>
+        <v>0.00460254663421157</v>
       </c>
       <c r="E62" s="1">
-        <v>0.001037523776586502</v>
+        <v>-0.00362756952841603</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004163516994132127</v>
+        <v>0.004116770853678962</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.008197977321483418</v>
+        <v>0.001467748165314697</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004203710308663283</v>
+        <v>0.004195321830956575</v>
       </c>
       <c r="E64" s="1">
-        <v>0.001062376688419908</v>
+        <v>0.001061249241965045</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004106257470653218</v>
+        <v>0.00410579915847217</v>
       </c>
       <c r="E65" s="1">
-        <v>0.002952029520295163</v>
+        <v>-0.002710971689709907</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003729843890123345</v>
+        <v>0.003658344806125604</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.0161642078255293</v>
+        <v>0.008345286217238401</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003871477474661704</v>
+        <v>0.003882310497412079</v>
       </c>
       <c r="E67" s="1">
-        <v>0.005870720553701858</v>
+        <v>-0.01327025864717091</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003298722742592731</v>
+        <v>0.003428774009679138</v>
       </c>
       <c r="E68" s="1">
-        <v>0.04260951552074266</v>
+        <v>-0.0004173767868943523</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003557905822406733</v>
+        <v>0.003568186093339356</v>
       </c>
       <c r="E69" s="1">
-        <v>0.005962254000986267</v>
+        <v>-0.02268270944741535</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003058041347245452</v>
+        <v>0.003139653939972619</v>
       </c>
       <c r="E70" s="1">
-        <v>0.02983362019506597</v>
+        <v>0.01838440111420625</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003250395066787413</v>
+        <v>0.003205881636402024</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01067275136169588</v>
+        <v>0.008444312179153313</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002468698898068383</v>
+        <v>0.002445853228218478</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.006218503682646426</v>
+        <v>-0.006826271393046812</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002034786548139772</v>
+        <v>0.002009688591229625</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.009308250048990829</v>
+        <v>0.001918702403323147</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.00205631868092432</v>
+        <v>0.002056477305933952</v>
       </c>
       <c r="E74" s="1">
-        <v>0.003141361256544517</v>
+        <v>-0.003556792700842859</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001537952521296316</v>
+        <v>0.001547724569497265</v>
       </c>
       <c r="E75" s="1">
-        <v>0.009437386569872919</v>
+        <v>-0.0003595828838547366</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001433322305691402</v>
+        <v>0.001421232054468233</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.005396984365437008</v>
+        <v>0.05750727232042974</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>0.003522539294308125</v>
+        <v>0.0003617220825360423</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06731349672968848</v>
+        <v>0.0669019333060337</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006027234169208917</v>
+        <v>-0.0007486150621351939</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04075543516363875</v>
+        <v>0.04124162020599703</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01201780285185072</v>
+        <v>0.00370391788347546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03436609231147467</v>
+        <v>0.03339110459332793</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02828568156659172</v>
+        <v>-0.008053111250785672</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03016035532057541</v>
+        <v>0.03062206696775772</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01539732938976113</v>
+        <v>0.01460698222317425</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02732166770093114</v>
+        <v>0.02813087515707828</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02970781063125805</v>
+        <v>0.01429395008138923</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02405027391343928</v>
+        <v>0.02420398763995539</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006479338842975135</v>
+        <v>0.0194442619720161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.178564339490542</v>
+        <v>0.1789144202295921</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003584229390680926</v>
+        <v>0.01762902401635147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02400121930515964</v>
+        <v>0.02382263531548299</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007353842382645026</v>
+        <v>0.01370539572786766</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02190188878388902</v>
+        <v>0.02193670219197691</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001677084921481997</v>
+        <v>0.008447488584474971</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02257688655421992</v>
+        <v>0.0225343688118192</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001795977011494254</v>
+        <v>0.004797888928871341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02055173423315174</v>
+        <v>0.0204108159055639</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006769930675909919</v>
+        <v>0.01057854844866135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01934103151859355</v>
+        <v>0.01941208143561462</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003761283851554609</v>
+        <v>0.02697976517611789</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01694932122106946</v>
+        <v>0.01686206104038034</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005061319836480394</v>
+        <v>0.006847974955977332</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01770116061036677</v>
+        <v>0.01764571343531189</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003045247527420747</v>
+        <v>-0.01408336486997885</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01602694352584048</v>
+        <v>0.01576924058418692</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0159933328041908</v>
+        <v>0.009235733010687808</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01430247925746858</v>
+        <v>0.01425058862371242</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003540974129209618</v>
+        <v>0.01261875407933877</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0142005935516171</v>
+        <v>0.01409401714090058</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007418293792427533</v>
+        <v>0.01487696538108985</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01327443936709593</v>
+        <v>0.01342762442464253</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01162829001548249</v>
+        <v>0.07297297297297267</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01255766169943771</v>
+        <v>0.01293497477803935</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03013650062045725</v>
+        <v>0.01428325589399426</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01210953155427044</v>
+        <v>0.01218324086513316</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006174845628859282</v>
+        <v>0.0122739018087854</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01284706003677629</v>
+        <v>0.0129024203113161</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00439698492462326</v>
+        <v>-0.009291521486643584</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01237321001190324</v>
+        <v>0.01258136728601241</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01691212378235285</v>
+        <v>-0.0169341589788955</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01254589495385362</v>
+        <v>0.01254766009702423</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0002281368821293039</v>
+        <v>0.01763856154489485</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01146983402069182</v>
+        <v>0.01143735006163884</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002744939018684334</v>
+        <v>0.01760970879859869</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009957528945503436</v>
+        <v>0.009574908622911079</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03834115805946769</v>
+        <v>0.02359641985353944</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01025424174631321</v>
+        <v>0.01014475091222067</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01059111772732912</v>
+        <v>0.004576443852362777</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01026243076519944</v>
+        <v>0.01022695193442298</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003370029206919756</v>
+        <v>0.01780883678990075</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01066941705334124</v>
+        <v>0.01059347786562581</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0070306561945781</v>
+        <v>-0.01186451489443141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01019254583703443</v>
+        <v>0.01017814010885991</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001326053042121744</v>
+        <v>0.006560962274466897</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008987368722598501</v>
+        <v>0.008932325583780291</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006037605658099077</v>
+        <v>0.01145435612634516</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009929384162146882</v>
+        <v>0.009891946994809331</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003683241252301905</v>
+        <v>0.04251386321626627</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009179333636198498</v>
+        <v>0.009196457978622806</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001953125</v>
+        <v>0.01577175261385788</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00894574783534665</v>
+        <v>0.00894663523948282</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0001866368047780398</v>
+        <v>0.01250233252472466</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009117637726919727</v>
+        <v>0.009142280032171286</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002790373212417041</v>
+        <v>0.003347826086956607</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00870818678260828</v>
+        <v>0.008689538425360716</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.002054231717337762</v>
+        <v>-0.003622890078221364</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008621725054076494</v>
+        <v>0.008617393911193798</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0004149664568781075</v>
+        <v>0.003390299591780499</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008404557043515969</v>
+        <v>0.008280520766530096</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01467207764565681</v>
+        <v>-0.0250576036866359</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008559512362052475</v>
+        <v>0.008638898143791212</v>
       </c>
       <c r="E39" s="1">
-        <v>0.009362808842652726</v>
+        <v>-0.005410976552435054</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.00775690900616431</v>
+        <v>0.007946549302050519</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02453748782862708</v>
+        <v>0.01596654628397642</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007415434869112338</v>
+        <v>0.007301104331779225</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01533183231478508</v>
+        <v>0.01543989547038338</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007680743180018608</v>
+        <v>0.007599937641700372</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01043402651981729</v>
+        <v>0.04473896170462033</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007774479619502723</v>
+        <v>0.007727293577452879</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.005982451475671335</v>
+        <v>0.01471178280058849</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007352387374192149</v>
+        <v>0.007273836487857184</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01059722958140952</v>
+        <v>0.01950883635529022</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007794991919237161</v>
+        <v>0.007724034155876192</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.009016360001631973</v>
+        <v>-0.04407163441745576</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007489374554201588</v>
+        <v>0.007593657292808705</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01401273885350318</v>
+        <v>0.02286432160804019</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007380611662586431</v>
+        <v>0.007354209054053055</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.003490175801447615</v>
+        <v>-0.04423401219353995</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007153545274828473</v>
+        <v>0.007158405265190116</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0007668711656441118</v>
+        <v>0.008939974457215838</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006925882599287536</v>
+        <v>0.006701688754017734</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.03228583727938006</v>
+        <v>0.01983985765124552</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006568785722321544</v>
+        <v>0.006593571355376405</v>
       </c>
       <c r="E50" s="1">
-        <v>0.003861003861003853</v>
+        <v>0.01286472148541118</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006409616636785328</v>
+        <v>0.0064635919827451</v>
       </c>
       <c r="E51" s="1">
-        <v>0.008509160371624525</v>
+        <v>-0.02079207920792092</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006523467850815229</v>
+        <v>0.006489269864922415</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005155330221447652</v>
+        <v>0.01352477091194215</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005526395172638561</v>
+        <v>0.005537836756878711</v>
       </c>
       <c r="E53" s="1">
-        <v>0.002157962883038156</v>
+        <v>-0.001291989664082505</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005794645169940856</v>
+        <v>0.005741351860203568</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.009110367158772781</v>
+        <v>0.009138742730545379</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.00599746252119105</v>
+        <v>0.005951028065289236</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007655597534301006</v>
+        <v>0.01663160004007613</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005676009740265529</v>
+        <v>0.00566900860081856</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.001146139631533316</v>
+        <v>0.007231804795961416</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006173725189839297</v>
+        <v>0.006308014226023715</v>
       </c>
       <c r="E57" s="1">
-        <v>0.02184103435841966</v>
+        <v>0.02696980390179959</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005512561296073475</v>
+        <v>0.005533066871644535</v>
       </c>
       <c r="E58" s="1">
-        <v>0.003807545863620643</v>
+        <v>0.009310344827586192</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005222765433546247</v>
+        <v>0.005216584986356935</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.001096040553500544</v>
+        <v>0.01275545192703342</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004845991059741987</v>
+        <v>0.004846839382621034</v>
       </c>
       <c r="E60" s="1">
-        <v>0.0002625016406352376</v>
+        <v>0.006560818790185108</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004587480429561665</v>
+        <v>0.004650479107147443</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01382137069869427</v>
+        <v>0.0106242948476869</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.00460254663421157</v>
+        <v>0.004585449671788171</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.00362756952841603</v>
+        <v>0.0107489597780861</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004116770853678962</v>
+        <v>0.004122452811724123</v>
       </c>
       <c r="E63" s="1">
-        <v>0.001467748165314697</v>
+        <v>0.0230638691761802</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004195321830956575</v>
+        <v>0.004199406960168835</v>
       </c>
       <c r="E64" s="1">
-        <v>0.001061249241965045</v>
+        <v>-0.04755414205664088</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.00410579915847217</v>
+        <v>0.004094310488842483</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.002710971689709907</v>
+        <v>-0.02364956700710652</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003658344806125604</v>
+        <v>0.003688552251588551</v>
       </c>
       <c r="E66" s="1">
-        <v>0.008345286217238401</v>
+        <v>-0.0003879477563689671</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003882310497412079</v>
+        <v>0.003830456337305296</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01327025864717091</v>
+        <v>0.01220347425440504</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003428774009679138</v>
+        <v>0.003427043293624833</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.0004173767868943523</v>
+        <v>0.0301680643028639</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003568186093339356</v>
+        <v>0.003486945102357365</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.02268270944741535</v>
+        <v>0.02056449774292091</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003139653939972619</v>
+        <v>0.003197095076293917</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01838440111420625</v>
+        <v>0.00820568927789922</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003205881636402024</v>
+        <v>0.003232670470332149</v>
       </c>
       <c r="E71" s="1">
-        <v>0.008444312179153313</v>
+        <v>-0.01195175034121498</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002445853228218478</v>
+        <v>0.002428944808373438</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.006826271393046812</v>
+        <v>0.003142029554715542</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002009688591229625</v>
+        <v>0.002013368557345826</v>
       </c>
       <c r="E73" s="1">
-        <v>0.001918702403323147</v>
+        <v>0.004896154149885534</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002056477305933952</v>
+        <v>0.002048983700427676</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.003556792700842859</v>
+        <v>0.001183363079071853</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001547724569497265</v>
+        <v>0.001547032777617854</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.0003595828838547366</v>
+        <v>-0.02122302158273381</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001421232054468233</v>
+        <v>0.001502831841114487</v>
       </c>
       <c r="E76" s="1">
-        <v>0.05750727232042974</v>
+        <v>0.003544223444773786</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>0.0003617220825360423</v>
+        <v>0.009604140069587652</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0669019333060337</v>
+        <v>0.06615001172046582</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0007486150621351939</v>
+        <v>-0.01513335331135734</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04124162020599703</v>
+        <v>0.04095980085929946</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00370391788347546</v>
+        <v>-0.001120614407817189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03339110459332793</v>
+        <v>0.03277447201915092</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008053111250785672</v>
+        <v>-0.001306878935487643</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03062206696775772</v>
+        <v>0.0307431842004518</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01460698222317425</v>
+        <v>-0.01393228067212693</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02813087515707828</v>
+        <v>0.02823342573959035</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01429395008138923</v>
+        <v>-0.01640783028803572</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02420398763995539</v>
+        <v>0.0244155722012907</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0194442619720161</v>
+        <v>-0.008892325536439372</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1789144202295921</v>
+        <v>0.1811521709937732</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01762902401635147</v>
+        <v>-0.02571785268414484</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02382263531548299</v>
+        <v>0.02389560657125484</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01370539572786766</v>
+        <v>-0.008952496954933054</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02193670219197691</v>
+        <v>0.02188976638966868</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008447488584474971</v>
+        <v>0.006867406233491691</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0225343688118192</v>
+        <v>0.02240477622020496</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004797888928871341</v>
+        <v>-0.007043094186462762</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0204108159055639</v>
+        <v>0.02041018491684802</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01057854844866135</v>
+        <v>0.003723088544757891</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01941208143561462</v>
+        <v>0.0197265205763576</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02697976517611789</v>
+        <v>-0.01410848941863296</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01686206104038034</v>
+        <v>0.01679929500526916</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006847974955977332</v>
+        <v>-0.01068791294209104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01764571343531189</v>
+        <v>0.01721455953794077</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01408336486997885</v>
+        <v>-0.008609108107367147</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01576924058418692</v>
+        <v>0.01574780021303173</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009235733010687808</v>
+        <v>-0.02893222506393867</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01425058862371242</v>
+        <v>0.01427891697405144</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01261875407933877</v>
+        <v>0.002005299720690301</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01409401714090058</v>
+        <v>0.01415352738036352</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01487696538108985</v>
+        <v>0.001528414617201657</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01342762442464253</v>
+        <v>0.01425622255888271</v>
       </c>
       <c r="E19" s="1">
-        <v>0.07297297297297267</v>
+        <v>-0.01344420503171373</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01293497477803935</v>
+        <v>0.01298199211135836</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01428325589399426</v>
+        <v>-0.02884289107567017</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01218324086513316</v>
+        <v>0.01220330228205049</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0122739018087854</v>
+        <v>0.002233567326100916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0129024203113161</v>
+        <v>0.01264834094346167</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009291521486643584</v>
+        <v>0.005500946884299696</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01258136728601241</v>
+        <v>0.01223846485945231</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0169341589788955</v>
+        <v>-0.01771435917213005</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01254766009702423</v>
+        <v>0.01263492881941914</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01763856154489485</v>
+        <v>-0.006848462208940309</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01143735006163884</v>
+        <v>0.01151657006567937</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01760970879859869</v>
+        <v>-0.005133091535009404</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009574908622911079</v>
+        <v>0.009697948976299773</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02359641985353944</v>
+        <v>-0.02259822848058157</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01014475091222067</v>
+        <v>0.01008418668333095</v>
       </c>
       <c r="E27" s="1">
-        <v>0.004576443852362777</v>
+        <v>-0.03201397881336099</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01022695193442298</v>
+        <v>0.01029980329330497</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01780883678990075</v>
+        <v>-0.02081949058693244</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01059347786562581</v>
+        <v>0.01035789627632789</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01186451489443141</v>
+        <v>-0.001742947517913707</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01017814010885991</v>
+        <v>0.01013736319859634</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006560962274466897</v>
+        <v>-0.006130208737487264</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008932325583780291</v>
+        <v>0.008939790316347326</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01145435612634516</v>
+        <v>-0.01286890871654078</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009891946994809331</v>
+        <v>0.01020422716009869</v>
       </c>
       <c r="E32" s="1">
-        <v>0.04251386321626627</v>
+        <v>-0.004432624113475225</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009196457978622806</v>
+        <v>0.009243431365052082</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01577175261385788</v>
+        <v>0.008199581297976266</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00894663523948282</v>
+        <v>0.008963389361583448</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01250233252472466</v>
+        <v>-0.005160339107998624</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009142280032171286</v>
+        <v>0.009076586115232708</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003347826086956607</v>
+        <v>-0.001343328855570647</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008689538425360716</v>
+        <v>0.008567161392068978</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003622890078221364</v>
+        <v>-0.007685315263201487</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008617393911193798</v>
+        <v>0.008555833850355641</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003390299591780499</v>
+        <v>-0.01441180526823882</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008280520766530096</v>
+        <v>0.00798827681242693</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0250576036866359</v>
+        <v>0.04791728212703106</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008638898143791212</v>
+        <v>0.008501949363733163</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.005410976552435054</v>
+        <v>0.001295336787564771</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007946549302050519</v>
+        <v>0.007988670129847534</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01596654628397642</v>
+        <v>-0.03582787652011232</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007301104331779225</v>
+        <v>0.007335999202100549</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01543989547038338</v>
+        <v>-0.02163889425035925</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007599937641700372</v>
+        <v>0.007856594140009377</v>
       </c>
       <c r="E42" s="1">
-        <v>0.04473896170462033</v>
+        <v>-0.0271937202130641</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007727293577452879</v>
+        <v>0.007758658102279475</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01471178280058849</v>
+        <v>-0.001054435218136196</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007273836487857184</v>
+        <v>0.007337887125719438</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01950883635529022</v>
+        <v>-0.004802641452798961</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007724034155876192</v>
+        <v>0.007306107078134796</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.04407163441745576</v>
+        <v>0.01257563685695229</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007593657292808705</v>
+        <v>0.007685737052499861</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02286432160804019</v>
+        <v>-0.004175878162613555</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007354209054053055</v>
+        <v>0.006955110611989558</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.04423401219353995</v>
+        <v>0.01112920738327894</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007158405265190116</v>
+        <v>0.007146577532338618</v>
       </c>
       <c r="E48" s="1">
-        <v>0.008939974457215838</v>
+        <v>-0.006075949367088662</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006701688754017734</v>
+        <v>0.006762896388541352</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01983985765124552</v>
+        <v>-0.001221320771176759</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006593571355376405</v>
+        <v>0.0066082833105027</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01286472148541118</v>
+        <v>0.00039282440749</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0064635919827451</v>
+        <v>0.00626275395650383</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02079207920792092</v>
+        <v>0.002813557831802038</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006489269864922415</v>
+        <v>0.006507987368249187</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01352477091194215</v>
+        <v>-0.009693951554416769</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005537836756878711</v>
+        <v>0.005472618590256441</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.001291989664082505</v>
+        <v>0.01164294954721856</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005741351860203568</v>
+        <v>0.005732994722694975</v>
       </c>
       <c r="E54" s="1">
-        <v>0.009138742730545379</v>
+        <v>0.00312843029637766</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005951028065289236</v>
+        <v>0.005986487800272974</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01663160004007613</v>
+        <v>-0.03133931211195418</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00566900860081856</v>
+        <v>0.005650059811386835</v>
       </c>
       <c r="E56" s="1">
-        <v>0.007231804795961416</v>
+        <v>-0.007910817437212558</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006308014226023715</v>
+        <v>0.006410129994003404</v>
       </c>
       <c r="E57" s="1">
-        <v>0.02696980390179959</v>
+        <v>0.0006872177498529197</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005533066871644535</v>
+        <v>0.005525952432490075</v>
       </c>
       <c r="E58" s="1">
-        <v>0.009310344827586192</v>
+        <v>-0.004783054321831237</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005216584986356935</v>
+        <v>0.005227660500705507</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01275545192703342</v>
+        <v>-0.03521126760563398</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004846839382621034</v>
+        <v>0.004827420693500895</v>
       </c>
       <c r="E60" s="1">
-        <v>0.006560818790185108</v>
+        <v>0.009125277017338007</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004650479107147443</v>
+        <v>0.004650545849456168</v>
       </c>
       <c r="E61" s="1">
-        <v>0.0106242948476869</v>
+        <v>-0.03488696622941667</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004585449671788171</v>
+        <v>0.004586081124219499</v>
       </c>
       <c r="E62" s="1">
-        <v>0.0107489597780861</v>
+        <v>-0.01037735849056598</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004122452811724123</v>
+        <v>0.004173255159555623</v>
       </c>
       <c r="E63" s="1">
-        <v>0.0230638691761802</v>
+        <v>0.005202442886224734</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004199406960168835</v>
+        <v>0.003957717213065719</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.04755414205664088</v>
+        <v>-0.007473366194943543</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004094310488842483</v>
+        <v>0.003955514635510348</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.02364956700710652</v>
+        <v>-0.01038103571712667</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003688552251588551</v>
+        <v>0.003648412393504294</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.0003879477563689671</v>
+        <v>0.001940491591203353</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003830456337305296</v>
+        <v>0.003836496784036178</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01220347425440504</v>
+        <v>-0.01070308174940016</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003427043293624833</v>
+        <v>0.00349336666630298</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0301680643028639</v>
+        <v>-0.01942173883672227</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003486945102357365</v>
+        <v>0.003521292203165723</v>
       </c>
       <c r="E69" s="1">
-        <v>0.02056449774292091</v>
+        <v>-0.005361451166115527</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003197095076293917</v>
+        <v>0.003189489627145862</v>
       </c>
       <c r="E70" s="1">
-        <v>0.00820568927789922</v>
+        <v>-0.01465002712967989</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003232670470332149</v>
+        <v>0.003160502133247495</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01195175034121498</v>
+        <v>-0.02075788687698332</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002428944808373438</v>
+        <v>0.002410996456548294</v>
       </c>
       <c r="E72" s="1">
-        <v>0.003142029554715542</v>
+        <v>-0.02057129806358993</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002013368557345826</v>
+        <v>0.002001985670864258</v>
       </c>
       <c r="E73" s="1">
-        <v>0.004896154149885534</v>
+        <v>0.008781925343811503</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002048983700427676</v>
+        <v>0.002029871875984941</v>
       </c>
       <c r="E74" s="1">
-        <v>0.001183363079071853</v>
+        <v>-0.01501676064252366</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001547032777617854</v>
+        <v>0.001498303382041317</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.02122302158273381</v>
+        <v>0.02756339581036382</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001502831841114487</v>
+        <v>0.001492324957248167</v>
       </c>
       <c r="E76" s="1">
-        <v>0.003544223444773786</v>
+        <v>-0.03732012018343789</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.009604140069587652</v>
+        <v>-0.01116157749454061</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06615001172046582</v>
+        <v>0.065794026464722</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01513335331135734</v>
+        <v>0.00821542674577791</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04095980085929946</v>
+        <v>0.04131901850360174</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001120614407817189</v>
+        <v>-0.02334012032000743</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03277447201915092</v>
+        <v>0.03305573912263907</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001306878935487643</v>
+        <v>-0.001268934887778461</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0307431842004518</v>
+        <v>0.03061503065066056</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01393228067212693</v>
+        <v>-0.004067477307758249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02823342573959035</v>
+        <v>0.02804514885656387</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01640783028803572</v>
+        <v>-0.004427448480985752</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0244155722012907</v>
+        <v>0.02443806725092041</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008892325536439372</v>
+        <v>-0.002925687536570964</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1811521709937732</v>
+        <v>0.1796112939587997</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02571785268414484</v>
+        <v>0.03001017293997976</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02389560657125484</v>
+        <v>0.02391617048606467</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008952496954933054</v>
+        <v>0.01523996804522842</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02188976638966868</v>
+        <v>0.02225832702196665</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006867406233491691</v>
+        <v>0.01184230250337293</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02240477622020496</v>
+        <v>0.02246726050116151</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007043094186462762</v>
+        <v>0.001202212070209097</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02041018491684802</v>
+        <v>0.02068902209876699</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003723088544757891</v>
+        <v>-0.002741640683797564</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0197265205763576</v>
+        <v>0.01964077979535402</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01410848941863296</v>
+        <v>0.0007401924500372026</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01679929500526916</v>
+        <v>0.01678430958825527</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01068791294209104</v>
+        <v>0.005107051659791972</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01721455953794077</v>
+        <v>0.01723534374343731</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.008609108107367147</v>
+        <v>-0.01534887579855626</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01574780021303173</v>
+        <v>0.01544360013516328</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02893222506393867</v>
+        <v>-0.01160493827160491</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01427891697405144</v>
+        <v>0.01444921977049332</v>
       </c>
       <c r="E17" s="1">
-        <v>0.002005299720690301</v>
+        <v>0.01579586877278261</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01415352738036352</v>
+        <v>0.01431551823228612</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001528414617201657</v>
+        <v>0.01130688124306323</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01425622255888271</v>
+        <v>0.01420382223542378</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01344420503171373</v>
+        <v>-0.007690414667158807</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01298199211135836</v>
+        <v>0.01273239033365683</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02884289107567017</v>
+        <v>0.02760307477288615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01220330228205049</v>
+        <v>0.0123516626914358</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002233567326100916</v>
+        <v>0.002865329512893977</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01264834094346167</v>
+        <v>0.0128438480033566</v>
       </c>
       <c r="E22" s="1">
-        <v>0.005500946884299696</v>
+        <v>0.02852017937219742</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01223846485945231</v>
+        <v>0.01214070343135902</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01771435917213005</v>
+        <v>-0.006962257237083214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01263492881941914</v>
+        <v>0.01267264965823686</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.006848462208940309</v>
+        <v>0.0178034102306921</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01151657006567937</v>
+        <v>0.01157090290682476</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005133091535009404</v>
+        <v>0.0203911391231808</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009697948976299773</v>
+        <v>0.009572648812175436</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02259822848058157</v>
+        <v>-0.01219937260369475</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01008418668333095</v>
+        <v>0.009858005868170839</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03201397881336099</v>
+        <v>-0.005173664275928802</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01029980329330497</v>
+        <v>0.01018522906239274</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02081949058693244</v>
+        <v>0.01334539696901138</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01035789627632789</v>
+        <v>0.01044222518604116</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001742947517913707</v>
+        <v>0.0001293326435591879</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01013736319859634</v>
+        <v>0.01017498099440181</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006130208737487264</v>
+        <v>-0.000468457214241158</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008939790316347326</v>
+        <v>0.008912125081085851</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01286890871654078</v>
+        <v>-0.004693203545976132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01020422716009869</v>
+        <v>0.0102595871371176</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.004432624113475225</v>
+        <v>0.007479964381121862</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009243431365052082</v>
+        <v>0.009411499929077808</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008199581297976266</v>
+        <v>0.002249524139124492</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008963389361583448</v>
+        <v>0.009005430165235796</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.005160339107998624</v>
+        <v>0.009262689885142672</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009076586115232708</v>
+        <v>0.009154146314685516</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001343328855570647</v>
+        <v>0.01345135815325871</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008567161392068978</v>
+        <v>0.008585497704770399</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007685315263201487</v>
+        <v>-0.004580279813457766</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008555833850355641</v>
+        <v>0.008516025336878424</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01441180526823882</v>
+        <v>0.01000489750227374</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00798827681242693</v>
+        <v>0.008453941111026417</v>
       </c>
       <c r="E38" s="1">
-        <v>0.04791728212703106</v>
+        <v>-0.03459066305818692</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008501949363733163</v>
+        <v>0.008597255178124331</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001295336787564771</v>
+        <v>0.03053040103492877</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007988670129847534</v>
+        <v>0.007778720538244419</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.03582787652011232</v>
+        <v>0.02386727466770155</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007335999202100549</v>
+        <v>0.00724832343792334</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.02163889425035925</v>
+        <v>-0.01328364752301625</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007856594140009377</v>
+        <v>0.007718622372080577</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0271937202130641</v>
+        <v>-0.00987031700288199</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007758658102279475</v>
+        <v>0.007827220115829385</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.001054435218136196</v>
+        <v>0.02031930333817122</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007337887125719438</v>
+        <v>0.007374954603640678</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.004802641452798961</v>
+        <v>0.003091539737596127</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007306107078134796</v>
+        <v>0.007471238777322868</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01257563685695229</v>
+        <v>-0.006060863832592633</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007685737052499861</v>
+        <v>0.007729426536784188</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.004175878162613555</v>
+        <v>-0.001726689689195871</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.006955110611989558</v>
+        <v>0.00710214944487447</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01112920738327894</v>
+        <v>0.01986577181208049</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007146577532338618</v>
+        <v>0.00717348870887332</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.006075949367088662</v>
+        <v>0.006622516556291647</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006762896388541352</v>
+        <v>0.006821519210936896</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.001221320771176759</v>
+        <v>0.0107432963577605</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.0066082833105027</v>
+        <v>0.006676338247732109</v>
       </c>
       <c r="E50" s="1">
-        <v>0.00039282440749</v>
+        <v>0.01688481675392639</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00626275395650383</v>
+        <v>0.006342561056539265</v>
       </c>
       <c r="E51" s="1">
-        <v>0.002813557831802038</v>
+        <v>0.0002630309938187469</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006507987368249187</v>
+        <v>0.006508714810051066</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.009693951554416769</v>
+        <v>0.007713902111558646</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005472618590256441</v>
+        <v>0.005591155234119298</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01164294954721856</v>
+        <v>-0.007459505541347111</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005732994722694975</v>
+        <v>0.005807874067291754</v>
       </c>
       <c r="E54" s="1">
-        <v>0.00312843029637766</v>
+        <v>0.01723477594791256</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005986487800272974</v>
+        <v>0.005856294202489193</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.03133931211195418</v>
+        <v>0.02604537592837519</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005650059811386835</v>
+        <v>0.005660865929173854</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.007910817437212558</v>
+        <v>0.007037153983791233</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006410129994003404</v>
+        <v>0.006478050048465815</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0006872177498529197</v>
+        <v>0.04091042872559592</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005525952432490075</v>
+        <v>0.005553976196756867</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.004783054321831237</v>
+        <v>0.000343288705801692</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005227660500705507</v>
+        <v>0.005093528118652925</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.03521126760563398</v>
+        <v>0.006597417181358756</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004827420693500895</v>
+        <v>0.004919708174744812</v>
       </c>
       <c r="E60" s="1">
-        <v>0.009125277017338007</v>
+        <v>0.004392197390518104</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004650545849456168</v>
+        <v>0.004532744305102937</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.03488696622941667</v>
+        <v>0.03981106612685581</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004586081124219499</v>
+        <v>0.004583428548344883</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.01037735849056598</v>
+        <v>0.02565213623364238</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004173255159555623</v>
+        <v>0.004236503642016395</v>
       </c>
       <c r="E63" s="1">
-        <v>0.005202442886224734</v>
+        <v>0.01065106510651082</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.003957717213065719</v>
+        <v>0.003967035063526304</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.007473366194943543</v>
+        <v>0.01698173662287727</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003955514635510348</v>
+        <v>0.003953212088096682</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.01038103571712667</v>
+        <v>0.01732245488525375</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003648412393504294</v>
+        <v>0.003691687748359246</v>
       </c>
       <c r="E66" s="1">
-        <v>0.001940491591203353</v>
+        <v>0.01355713363460298</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003836496784036178</v>
+        <v>0.003833015755768997</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01070308174940016</v>
+        <v>-0.001430081452465481</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.00349336666630298</v>
+        <v>0.003459437928425348</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.01942173883672227</v>
+        <v>0.04905101443284776</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003521292203165723</v>
+        <v>0.00353709286223256</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.005361451166115527</v>
+        <v>0.01203845117240143</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003189489627145862</v>
+        <v>0.003173882266461128</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01465002712967989</v>
+        <v>-0.004955947136563776</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003160502133247495</v>
+        <v>0.003125541573651216</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.02075788687698332</v>
+        <v>-0.01220023637958001</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002410996456548294</v>
+        <v>0.002384781031159807</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.02057129806358993</v>
+        <v>-0.0115093773943169</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002001985670864258</v>
+        <v>0.00203956413616314</v>
       </c>
       <c r="E73" s="1">
-        <v>0.008781925343811503</v>
+        <v>-0.008491245837147332</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002029871875984941</v>
+        <v>0.002019187163762577</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.01501676064252366</v>
+        <v>-0.00959987410001184</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001498303382041317</v>
+        <v>0.001554846408669834</v>
       </c>
       <c r="E75" s="1">
-        <v>0.02756339581036382</v>
+        <v>-0.001072961373390635</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001492324957248167</v>
+        <v>0.001450856323397566</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.03732012018343789</v>
+        <v>0.04845863220719493</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01116157749454061</v>
+        <v>0.008335607702685932</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.065794026464722</v>
+        <v>0.06568501266571172</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00821542674577791</v>
+        <v>-0.03538554398672089</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04131901850360174</v>
+        <v>0.0399594800747135</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02334012032000743</v>
+        <v>-0.02203461401037643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03305573912263907</v>
+        <v>0.03269052652386122</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001268934887778461</v>
+        <v>-0.01615977130151691</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03061503065066056</v>
+        <v>0.03019194542490017</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004067477307758249</v>
+        <v>-0.002493443961996467</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02804514885656387</v>
+        <v>0.02764758158844695</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004427448480985752</v>
+        <v>-0.01547108933540464</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02443806725092041</v>
+        <v>0.02412797464536265</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002925687536570964</v>
+        <v>0.01382368283776714</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1796112939587997</v>
+        <v>0.1847278392661226</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03001017293997976</v>
+        <v>0.003917727717923647</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02391617048606467</v>
+        <v>0.02404289899141456</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01523996804522842</v>
+        <v>0.01549543005871312</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02225832702196665</v>
+        <v>0.02230138501552005</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01184230250337293</v>
+        <v>-0.003407407407407526</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02246726050116151</v>
+        <v>0.02227400977042164</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001202212070209097</v>
+        <v>-0.006604226705091198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02068902209876699</v>
+        <v>0.02043027128014383</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002741640683797564</v>
+        <v>-0.006792086679963338</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01964077979535402</v>
+        <v>0.01946285529100497</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0007401924500372026</v>
+        <v>0.01084812623274156</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01678430958825527</v>
+        <v>0.01670483867958825</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005107051659791972</v>
+        <v>-0.008989642368575357</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01723534374343731</v>
+        <v>0.01680462459455188</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01534887579855626</v>
+        <v>-0.02376137512639043</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01544360013516328</v>
+        <v>0.01511491119020136</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01160493827160491</v>
+        <v>-0.01240736114580743</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01444921977049332</v>
+        <v>0.01453373788334188</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01579586877278261</v>
+        <v>-0.009850830284266809</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01431551823228612</v>
+        <v>0.01433562134661671</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01130688124306323</v>
+        <v>-0.0125523012552301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01420382223542378</v>
+        <v>0.01395657646585027</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.007690414667158807</v>
+        <v>-0.01308202616405219</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01273239033365683</v>
+        <v>0.01295572806531249</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02760307477288615</v>
+        <v>0.006290377422645266</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0123516626914358</v>
+        <v>0.01226576175853603</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002865329512893977</v>
+        <v>0.01650793650793658</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0128438480033566</v>
+        <v>0.01308080461619319</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02852017937219742</v>
+        <v>-0.006801534705266787</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01214070343135902</v>
+        <v>0.01193812412682654</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.006962257237083214</v>
+        <v>-0.009198734844491185</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01267264965823686</v>
+        <v>0.0127719677993645</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0178034102306921</v>
+        <v>0.01340231584134033</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01157090290682476</v>
+        <v>0.01169123560170763</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0203911391231808</v>
+        <v>0.007569564295879072</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009572648812175436</v>
+        <v>0.009363277797627235</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01219937260369475</v>
+        <v>-0.007174782404140156</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009858005868170839</v>
+        <v>0.009710974876176084</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.005173664275928802</v>
+        <v>-0.01774026310673327</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01018522906239274</v>
+        <v>0.0102200915034087</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01334539696901138</v>
+        <v>0.004017857142857073</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01044222518604116</v>
+        <v>0.01034131349391634</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0001293326435591879</v>
+        <v>-0.02838484417431775</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01017498099440181</v>
+        <v>0.01007062895833114</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.000468457214241158</v>
+        <v>-0.01382596469301678</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008912125081085851</v>
+        <v>0.008783441787223713</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.004693203545976132</v>
+        <v>-0.006287111421585778</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0102595871371176</v>
+        <v>0.01023511642241386</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007479964381121862</v>
+        <v>0.00106063284426372</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009411499929077808</v>
+        <v>0.009340307764383738</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002249524139124492</v>
+        <v>0.01174033149171261</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009005430165235796</v>
+        <v>0.008999847819596538</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009262689885142672</v>
+        <v>-0.006240822320117356</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009154146314685516</v>
+        <v>0.009186440007451259</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01345135815325871</v>
+        <v>0.01036136324713133</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008585497704770399</v>
+        <v>0.008462490637794006</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.004580279813457766</v>
+        <v>-0.01664854011545203</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008516025336878424</v>
+        <v>0.008517005134498611</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01000489750227374</v>
+        <v>0.002147409254640964</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008453941111026417</v>
+        <v>0.008081597141338458</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.03459066305818692</v>
+        <v>-0.0164987589429112</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008597255178124331</v>
+        <v>0.008772979409068285</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03053040103492877</v>
+        <v>0.003012804418779824</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007778720538244419</v>
+        <v>0.007886391191017424</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02386727466770155</v>
+        <v>0.005496067468966137</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.00724832343792334</v>
+        <v>0.007082007372759222</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01328364752301625</v>
+        <v>-0.01244057404363075</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007718622372080577</v>
+        <v>0.007567603315266472</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.00987031700288199</v>
+        <v>-0.02408498872153086</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007827220115829385</v>
+        <v>0.007908063260053671</v>
       </c>
       <c r="E43" s="1">
-        <v>0.02031930333817122</v>
+        <v>0.01551791025475246</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007374954603640678</v>
+        <v>0.007325316663246008</v>
       </c>
       <c r="E44" s="1">
-        <v>0.003091539737596127</v>
+        <v>-0.01112531008043283</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007471238777322868</v>
+        <v>0.007353242559826288</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.006060863832592633</v>
+        <v>-0.004493131926911809</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007729426536784188</v>
+        <v>0.007640525304364839</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001726689689195871</v>
+        <v>0.02100321225599222</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.00710214944487447</v>
+        <v>0.007172314215785032</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01986577181208049</v>
+        <v>0.0001316135825215614</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00717348870887332</v>
+        <v>0.007150288156510445</v>
       </c>
       <c r="E48" s="1">
-        <v>0.006622516556291647</v>
+        <v>0.001265182186234837</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006821519210936896</v>
+        <v>0.006827291730148097</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0107432963577605</v>
+        <v>-0.01391289319045963</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006676338247732109</v>
+        <v>0.006722589284096396</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01688481675392639</v>
+        <v>0.04414982623246244</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006342561056539265</v>
+        <v>0.006282107430853346</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0002630309938187469</v>
+        <v>0.02296533286584568</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006508714810051066</v>
+        <v>0.006494698235101823</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007713902111558646</v>
+        <v>0.01309319057193381</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005591155234119298</v>
+        <v>0.005495108466522586</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007459505541347111</v>
+        <v>-0.04101352802233194</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005807874067291754</v>
+        <v>0.005850121343330495</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01723477594791256</v>
+        <v>0.01226333907056798</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005856294202489193</v>
+        <v>0.005949985922791528</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02604537592837519</v>
+        <v>0.008031730292513473</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005660865929173854</v>
+        <v>0.005644881736364914</v>
       </c>
       <c r="E56" s="1">
-        <v>0.007037153983791233</v>
+        <v>-0.0009260168940599112</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006478050048465815</v>
+        <v>0.006677042540096445</v>
       </c>
       <c r="E57" s="1">
-        <v>0.04091042872559592</v>
+        <v>0.009943449575871899</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005553976196756867</v>
+        <v>0.005501480290812736</v>
       </c>
       <c r="E58" s="1">
-        <v>0.000343288705801692</v>
+        <v>-0.002059025394646641</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005093528118652925</v>
+        <v>0.005076927998295058</v>
       </c>
       <c r="E59" s="1">
-        <v>0.006597417181358756</v>
+        <v>0.008645935016036832</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004919708174744812</v>
+        <v>0.004892931738854842</v>
       </c>
       <c r="E60" s="1">
-        <v>0.004392197390518104</v>
+        <v>0.004758842443729927</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004532744305102937</v>
+        <v>0.004667046634544204</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03981106612685581</v>
+        <v>0.0133494020580327</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004583428548344883</v>
+        <v>0.004654971634191885</v>
       </c>
       <c r="E62" s="1">
-        <v>0.02565213623364238</v>
+        <v>0.02365863962822146</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004236503642016395</v>
+        <v>0.004239701752368498</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01065106510651082</v>
+        <v>-0.0001484340210776702</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.003967035063526304</v>
+        <v>0.003994897836430937</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01698173662287727</v>
+        <v>0.007403906742281086</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003953212088096682</v>
+        <v>0.003982311516845458</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01732245488525375</v>
+        <v>-0.006321112515802807</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003691687748359246</v>
+        <v>0.00370509782797529</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01355713363460298</v>
+        <v>-0.009171974522293014</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003833015755768997</v>
+        <v>0.00379005548517727</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.001430081452465481</v>
+        <v>0.0004981320049814997</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003459437928425348</v>
+        <v>0.00359359090289769</v>
       </c>
       <c r="E68" s="1">
-        <v>0.04905101443284776</v>
+        <v>-0.0008865539320310756</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.00353709286223256</v>
+        <v>0.003544622253260436</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01203845117240143</v>
+        <v>0.02751886373723922</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003173882266461128</v>
+        <v>0.003127228430006999</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.004955947136563776</v>
+        <v>-0.02767017155506368</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003125541573651216</v>
+        <v>0.00305717769506407</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01220023637958001</v>
+        <v>-0.03446678760276345</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002384781031159807</v>
+        <v>0.002334250963873137</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.0115093773943169</v>
+        <v>-0.03272279980453952</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00203956413616314</v>
+        <v>0.002002444113800955</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.008491245837147332</v>
+        <v>-0.01164777749405832</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002019187163762577</v>
+        <v>0.001980221393282844</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.00959987410001184</v>
+        <v>-0.0253446152623843</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001554846408669834</v>
+        <v>0.001537969588848087</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.001072961373390635</v>
+        <v>-0.04475474400286428</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001450856323397566</v>
+        <v>0.001506267796392162</v>
       </c>
       <c r="E76" s="1">
-        <v>0.04845863220719493</v>
+        <v>0.009452684353457252</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.008335607702685932</v>
+        <v>-0.004375197415930954</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06568501266571172</v>
+        <v>0.06369123043742662</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.03538554398672089</v>
+        <v>0.001955416503715224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0399594800747135</v>
+        <v>0.03928284175071236</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02203461401037643</v>
+        <v>-0.01247935456403804</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03269052652386122</v>
+        <v>0.03233002772799028</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01615977130151691</v>
+        <v>-0.005327091488760538</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03019194542490017</v>
+        <v>0.03027376542122598</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002493443961996467</v>
+        <v>-0.01215360082747918</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02764758158844695</v>
+        <v>0.02736183420116</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01547108933540464</v>
+        <v>0.003441952809699833</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02412797464536265</v>
+        <v>0.02458911424824749</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01382368283776714</v>
+        <v>0.01312065860560852</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1847278392661226</v>
+        <v>0.1856005258160989</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003917727717923647</v>
+        <v>0.004409603135717699</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02404289899141456</v>
+        <v>0.02454281592565826</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01549543005871312</v>
+        <v>-0.004172378851999836</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02230138501552005</v>
+        <v>0.02234133266341123</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003407407407407526</v>
+        <v>-0.008027352460234671</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02227400977042164</v>
+        <v>0.02224233095567131</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006604226705091198</v>
+        <v>-0.002054877311737036</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02043027128014383</v>
+        <v>0.02039735663858838</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006792086679963338</v>
+        <v>-0.01487109905020356</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01946285529100497</v>
+        <v>0.01977661909405293</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01084812623274156</v>
+        <v>0.009512195121951228</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01670483867958825</v>
+        <v>0.0166410246708381</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008989642368575357</v>
+        <v>0.008282390061131739</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01680462459455188</v>
+        <v>0.01649090107487625</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02376137512639043</v>
+        <v>-0.007767995857068999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01511491119020136</v>
+        <v>0.01500524286000593</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01240736114580743</v>
+        <v>0.004426644182124795</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01453373788334188</v>
+        <v>0.0144656361079155</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009850830284266809</v>
+        <v>-0.0008527572484365864</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01433562134661671</v>
+        <v>0.01422951861645272</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0125523012552301</v>
+        <v>-0.0004862461794944428</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01395657646585027</v>
+        <v>0.0138458474615373</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01308202616405219</v>
+        <v>-0.01049126774720444</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01295572806531249</v>
+        <v>0.0131052324498024</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006290377422645266</v>
+        <v>0.03007264740665638</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01226576175853603</v>
+        <v>0.01253328408551897</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01650793650793658</v>
+        <v>0.0003123048094939573</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01308080461619319</v>
+        <v>0.01305960626340788</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006801534705266787</v>
+        <v>0.01650570676031582</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01193812412682654</v>
+        <v>0.0118900102097488</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.009198734844491185</v>
+        <v>-0.0180096299646193</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0127719677993645</v>
+        <v>0.01301065893346298</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01340231584134033</v>
+        <v>0.002820051538872992</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01169123560170763</v>
+        <v>0.01184118149207356</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007569564295879072</v>
+        <v>-0.002163656579619366</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009363277797627235</v>
+        <v>0.009344590902921274</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007174782404140156</v>
+        <v>0.00876673379931292</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009710974876176084</v>
+        <v>0.009588457729334945</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01774026310673327</v>
+        <v>0.007768559600191294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0102200915034087</v>
+        <v>0.0103146811190182</v>
       </c>
       <c r="E28" s="1">
-        <v>0.004017857142857073</v>
+        <v>0.009559804357492263</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01034131349391634</v>
+        <v>0.01010019059805611</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02838484417431775</v>
+        <v>-0.008917282225327838</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01007062895833114</v>
+        <v>0.009983199362751627</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01382596469301678</v>
+        <v>-0.01980198019801982</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008783441787223713</v>
+        <v>0.008773749586487975</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006287111421585778</v>
+        <v>-0.0008787346221440506</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01023511642241386</v>
+        <v>0.01029941967365574</v>
       </c>
       <c r="E32" s="1">
-        <v>0.00106063284426372</v>
+        <v>-0.003884866678439125</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009340307764383738</v>
+        <v>0.009499261302553292</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01174033149171261</v>
+        <v>0.001535836177474437</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008999847819596538</v>
+        <v>0.008990335590880662</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006240822320117356</v>
+        <v>-0.002585888437384609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009186440007451259</v>
+        <v>0.009330041131176747</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01036136324713133</v>
+        <v>-0.001356047122637483</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008462490637794006</v>
+        <v>0.008365011705251833</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01664854011545203</v>
+        <v>0.008252509783903461</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008517005134498611</v>
+        <v>0.008579818525599671</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002147409254640964</v>
+        <v>0.005598949332964676</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008081597141338458</v>
+        <v>0.007989722484058808</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0164987589429112</v>
+        <v>-0.003948931116389609</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008772979409068285</v>
+        <v>0.008845312322514037</v>
       </c>
       <c r="E39" s="1">
-        <v>0.003012804418779824</v>
+        <v>0.0005006257822275373</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007886391191017424</v>
+        <v>0.007971100357722744</v>
       </c>
       <c r="E40" s="1">
-        <v>0.005496067468966137</v>
+        <v>0.02685891998869083</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007082007372759222</v>
+        <v>0.0070303864470774</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01244057404363075</v>
+        <v>-0.001597156611328643</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007567603315266472</v>
+        <v>0.00742386288295108</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02408498872153086</v>
+        <v>0.003951685058156906</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.007908063260053671</v>
+        <v>0.008072671997971889</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01551791025475246</v>
+        <v>0.008404431427480041</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007325316663246008</v>
+        <v>0.007281607234209773</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01112531008043283</v>
+        <v>0.005017103762827713</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007353242559826288</v>
+        <v>0.007358388910100717</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.004493131926911809</v>
+        <v>0.005351616231086709</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007640525304364839</v>
+        <v>0.007841694371527552</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02100321225599222</v>
+        <v>0.005566311713455896</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007172314215785032</v>
+        <v>0.007210677096955211</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0001316135825215614</v>
+        <v>0.0225029609159102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007150288156510445</v>
+        <v>0.00719668084913575</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001265182186234837</v>
+        <v>0.003538033864038503</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006827291730148097</v>
+        <v>0.00676742304524904</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01391289319045963</v>
+        <v>-0.005520988519849279</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006722589284096396</v>
+        <v>0.007056006697323194</v>
       </c>
       <c r="E50" s="1">
-        <v>0.04414982623246244</v>
+        <v>0.02366863905325434</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006282107430853346</v>
+        <v>0.00645990096745307</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02296533286584568</v>
+        <v>0.0191508504348572</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006494698235101823</v>
+        <v>0.006614057380583242</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01309319057193381</v>
+        <v>0.01743122556579757</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005495108466522586</v>
+        <v>0.005297223962857279</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.04101352802233194</v>
+        <v>0.01209135691894314</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005850121343330495</v>
+        <v>0.005952754439825288</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01226333907056798</v>
+        <v>0.02449521785334752</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005949985922791528</v>
+        <v>0.006029061666637607</v>
       </c>
       <c r="E55" s="1">
-        <v>0.008031730292513473</v>
+        <v>0.0004918355301986033</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005644881736364914</v>
+        <v>0.005669073428230267</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0009260168940599112</v>
+        <v>0.001481326498587565</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006677042540096445</v>
+        <v>0.006778612136019965</v>
       </c>
       <c r="E57" s="1">
-        <v>0.009943449575871899</v>
+        <v>0.0009798889459196047</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005501480290812736</v>
+        <v>0.005518791682575537</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.002059025394646641</v>
+        <v>-0.005502063273727487</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005076927998295058</v>
+        <v>0.005147535278550833</v>
       </c>
       <c r="E59" s="1">
-        <v>0.008645935016036832</v>
+        <v>0.01907922024056408</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004892931738854842</v>
+        <v>0.004941861602966541</v>
       </c>
       <c r="E60" s="1">
-        <v>0.004758842443729927</v>
+        <v>-0.01574500768049159</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004667046634544204</v>
+        <v>0.004754019305253935</v>
       </c>
       <c r="E61" s="1">
-        <v>0.0133494020580327</v>
+        <v>0.02497484219193113</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004654971634191885</v>
+        <v>0.00478995882295984</v>
       </c>
       <c r="E62" s="1">
-        <v>0.02365863962822146</v>
+        <v>0.01560049525381757</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004239701752368498</v>
+        <v>0.004261185324831364</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.0001484340210776702</v>
+        <v>0.006309382422802878</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.003994897836430937</v>
+        <v>0.004045469143749492</v>
       </c>
       <c r="E64" s="1">
-        <v>0.007403906742281086</v>
+        <v>0.01141516810007825</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003982311516845458</v>
+        <v>0.003977781075198875</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.006321112515802807</v>
+        <v>-0.006957697201017798</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.00370509782797529</v>
+        <v>0.003690264933551627</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.009171974522293014</v>
+        <v>0.00115710979686301</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.00379005548517727</v>
+        <v>0.003811723897679838</v>
       </c>
       <c r="E67" s="1">
-        <v>0.0004981320049814997</v>
+        <v>-0.003983071944236971</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.00359359090289769</v>
+        <v>0.003609134141106612</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.0008865539320310756</v>
+        <v>0.007394505061127932</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003544622253260436</v>
+        <v>0.003661165390062577</v>
       </c>
       <c r="E69" s="1">
-        <v>0.02751886373723922</v>
+        <v>-0.006285097192224698</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003127228430006999</v>
+        <v>0.003056559114200407</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.02767017155506368</v>
+        <v>-0.002276607854297064</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00305717769506407</v>
+        <v>0.002967204537725878</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.03446678760276345</v>
+        <v>-0.01103293891909174</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002334250963873137</v>
+        <v>0.002269645779876266</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.03272279980453952</v>
+        <v>0.007473216618761658</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002002444113800955</v>
+        <v>0.001989444061524501</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.01164777749405832</v>
+        <v>-0.01411025875432259</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001980221393282844</v>
+        <v>0.001940101357347415</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.0253446152623843</v>
+        <v>-0.008171999184838019</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001537969588848087</v>
+        <v>0.001476801832069302</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.04475474400286428</v>
+        <v>-0.005997001499250421</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001506267796392162</v>
+        <v>0.001528437706793079</v>
       </c>
       <c r="E76" s="1">
-        <v>0.009452684353457252</v>
+        <v>0.05908220808112175</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.004375197415930954</v>
+        <v>0.001637339585307096</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06369123043742662</v>
+        <v>0.06368543776590888</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001955416503715224</v>
+        <v>0.01280249804839984</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03928284175071236</v>
+        <v>0.03871338828127497</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01247935456403804</v>
+        <v>0.01095537739945107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03233002772799028</v>
+        <v>0.03209212451354953</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005327091488760538</v>
+        <v>0.01322676187771332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03027376542122598</v>
+        <v>0.02984475132775059</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01215360082747918</v>
+        <v>0.00920553204484964</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02736183420116</v>
+        <v>0.02739993694981467</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003441952809699833</v>
+        <v>0.009754748851937833</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02458911424824749</v>
+        <v>0.02486086057986931</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01312065860560852</v>
+        <v>0.02012442864398167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1856005258160989</v>
+        <v>0.1864465901807476</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004409603135717699</v>
+        <v>0.01411535653443652</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02454281592565826</v>
+        <v>0.02439049757997625</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004172378851999836</v>
+        <v>0.004010295085892235</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02234133266341123</v>
+        <v>0.02211672787988082</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008027352460234671</v>
+        <v>0.01258804136070713</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02224233095567131</v>
+        <v>0.02215129192550672</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002054877311737036</v>
+        <v>0.006177325581395277</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02039735663858838</v>
+        <v>0.02005298605063773</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01487109905020356</v>
+        <v>0.001542614731970815</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01977661909405293</v>
+        <v>0.01992396272963695</v>
       </c>
       <c r="E13" s="1">
-        <v>0.009512195121951228</v>
+        <v>0.01497946363855984</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0166410246708381</v>
+        <v>0.01674458346880453</v>
       </c>
       <c r="E14" s="1">
-        <v>0.008282390061131739</v>
+        <v>0.02562096616467824</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01649090107487625</v>
+        <v>0.01632938089788978</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.007767995857068999</v>
+        <v>-0.004900255161215394</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01500524286000593</v>
+        <v>0.01504088378149788</v>
       </c>
       <c r="E16" s="1">
-        <v>0.004426644182124795</v>
+        <v>0.008226652675760837</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0144656361079155</v>
+        <v>0.0144237814143871</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0008527572484365864</v>
+        <v>0.003200568990042729</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01422951861645272</v>
+        <v>0.01419355172691323</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0004862461794944428</v>
+        <v>0.0115713392174579</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0138458474615373</v>
+        <v>0.01367260527212017</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01049126774720444</v>
+        <v>0.01587200812646805</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0131052324498024</v>
+        <v>0.01347177080609754</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03007264740665638</v>
+        <v>0.009512875184517045</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01253328408551897</v>
+        <v>0.01251159266647858</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0003123048094939573</v>
+        <v>0.01186387761473595</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01305960626340788</v>
+        <v>0.01324805146968334</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01650570676031582</v>
+        <v>0.002591121091725768</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0118900102097488</v>
+        <v>0.01165202904323636</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0180096299646193</v>
+        <v>0.01717505553448562</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01301065893346298</v>
+        <v>0.01302070211934496</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002820051538872992</v>
+        <v>0.005987878787878875</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01184118149207356</v>
+        <v>0.01179142946925953</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002163656579619366</v>
+        <v>0.01665411835566921</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009344590902921274</v>
+        <v>0.009407259997861291</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00876673379931292</v>
+        <v>-0.004110393423370606</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009588457729334945</v>
+        <v>0.009643210902933057</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007768559600191294</v>
+        <v>0.01054009819967283</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0103146811190182</v>
+        <v>0.01039201964481466</v>
       </c>
       <c r="E28" s="1">
-        <v>0.009559804357492263</v>
+        <v>0.005725611098877037</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01010019059805611</v>
+        <v>0.0099896799493269</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008917282225327838</v>
+        <v>-0.003558718861209842</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009983199362751627</v>
+        <v>0.009765526589508721</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01980198019801982</v>
+        <v>0.01268686868686864</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008773749586487975</v>
+        <v>0.008748136273910813</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0008787346221440506</v>
+        <v>0.005980650835532009</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01029941967365574</v>
+        <v>0.01023845427315256</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003884866678439125</v>
+        <v>0.01010459138450637</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009499261302553292</v>
+        <v>0.009494419788714724</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001535836177474437</v>
+        <v>0.01022320667916166</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008990335590880662</v>
+        <v>0.008948773456567992</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002585888437384609</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009330041131176747</v>
+        <v>0.009298359580135859</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001356047122637483</v>
+        <v>0.005940762114911236</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008365011705251833</v>
+        <v>0.008416818589983117</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008252509783903461</v>
+        <v>0.002362669816893037</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008579818525599671</v>
+        <v>0.008610235201465023</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005598949332964676</v>
+        <v>0.006598845202089754</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007989722484058808</v>
+        <v>0.007941918072684826</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003948931116389609</v>
+        <v>-0.01102930217307074</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008845312322514037</v>
+        <v>0.008831666050840063</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0005006257822275373</v>
+        <v>-0.01951463597698266</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007971100357722744</v>
+        <v>0.008168478289561427</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02685891998869083</v>
+        <v>0.0005506607929517404</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0070303864470774</v>
+        <v>0.007004822086822878</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.001597156611328643</v>
+        <v>0.01070229592411498</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00742386288295108</v>
+        <v>0.007437977443993088</v>
       </c>
       <c r="E42" s="1">
-        <v>0.003951685058156906</v>
+        <v>0.01002599331600429</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008072671997971889</v>
+        <v>0.008123892248970945</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008404431427480041</v>
+        <v>0.006945321378961866</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007281607234209773</v>
+        <v>0.007303193448721323</v>
       </c>
       <c r="E44" s="1">
-        <v>0.005017103762827713</v>
+        <v>0.009681567203691177</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007358388910100717</v>
+        <v>0.007382659188322416</v>
       </c>
       <c r="E45" s="1">
-        <v>0.005351616231086709</v>
+        <v>0.005066592556170813</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007841694371527552</v>
+        <v>0.007869238880855027</v>
       </c>
       <c r="E46" s="1">
-        <v>0.005566311713455896</v>
+        <v>0.00890493381468116</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007210677096955211</v>
+        <v>0.007357880397622572</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0225029609159102</v>
+        <v>0.001029601029600924</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00719668084913575</v>
+        <v>0.007207392646461415</v>
       </c>
       <c r="E48" s="1">
-        <v>0.003538033864038503</v>
+        <v>0.008562075044069362</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00676742304524904</v>
+        <v>0.006716314893196665</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.005520988519849279</v>
+        <v>0.01110327811068013</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007056006697323194</v>
+        <v>0.007208260693269371</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02366863905325434</v>
+        <v>0.007947976878612817</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00645990096745307</v>
+        <v>0.006570167376075289</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0191508504348572</v>
+        <v>-0.003405078190684252</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006614057380583242</v>
+        <v>0.006715604673081064</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01743122556579757</v>
+        <v>0.01890694586432606</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005297223962857279</v>
+        <v>0.005350324870858111</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01209135691894314</v>
+        <v>-0.005973451327433543</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005952754439825288</v>
+        <v>0.006086112910620368</v>
       </c>
       <c r="E54" s="1">
-        <v>0.02449521785334752</v>
+        <v>0.005601369223587893</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006029061666637607</v>
+        <v>0.006019707329811709</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0004918355301986033</v>
+        <v>-0.002064693737095613</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005669073428230267</v>
+        <v>0.005665875668219474</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001481326498587565</v>
+        <v>0.00760877286078987</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006778612136019965</v>
+        <v>0.006771396408828803</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0009798889459196047</v>
+        <v>0.00121200820436318</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005518791682575537</v>
+        <v>0.005477217531512092</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.005502063273727487</v>
+        <v>-0.002766251728907432</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005147535278550833</v>
+        <v>0.005235032472092276</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01907922024056408</v>
+        <v>0.01451634784968125</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004941861602966541</v>
+        <v>0.004854117750091802</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01574500768049159</v>
+        <v>0.01261542463259202</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004754019305253935</v>
+        <v>0.004862798218171365</v>
       </c>
       <c r="E61" s="1">
-        <v>0.02497484219193113</v>
+        <v>0.01865405212424109</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.00478995882295984</v>
+        <v>0.004854749056861225</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01560049525381757</v>
+        <v>0.008127438231469331</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004261185324831364</v>
+        <v>0.004279312936532355</v>
       </c>
       <c r="E63" s="1">
-        <v>0.006309382422802878</v>
+        <v>0.004130707383639409</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004045469143749492</v>
+        <v>0.00408329218462658</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01141516810007825</v>
+        <v>-0.003401360544217913</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003977781075198875</v>
+        <v>0.003942037294968232</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.006957697201017798</v>
+        <v>-0.03587300316290987</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003690264933551627</v>
+        <v>0.003686989360121426</v>
       </c>
       <c r="E66" s="1">
-        <v>0.00115710979686301</v>
+        <v>0.006677796327211993</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003811723897679838</v>
+        <v>0.003788787576690851</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.003983071944236971</v>
+        <v>0.01430892276930762</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003609134141106612</v>
+        <v>0.003628396200584374</v>
       </c>
       <c r="E68" s="1">
-        <v>0.007394505061127932</v>
+        <v>0.01445209278047832</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003661165390062577</v>
+        <v>0.00363072414429662</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.006285097192224698</v>
+        <v>0.01201938751113918</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003056559114200407</v>
+        <v>0.003043372108694896</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.002276607854297064</v>
+        <v>-0.02338847689674839</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002967204537725878</v>
+        <v>0.002928474276659949</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01103293891909174</v>
+        <v>0.01867421180274853</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002269645779876266</v>
+        <v>0.002281937231424838</v>
       </c>
       <c r="E72" s="1">
-        <v>0.007473216618761658</v>
+        <v>0.004461043676729837</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001989444061524501</v>
+        <v>0.001957366638595348</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.01411025875432259</v>
+        <v>0.006994839542009412</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001940101357347415</v>
+        <v>0.001920316822564848</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.008171999184838019</v>
+        <v>-0.006328463703795029</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001476801832069302</v>
+        <v>0.001464947358445575</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.005997001499250421</v>
+        <v>-0.02149321266968318</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001528437706793079</v>
+        <v>0.001615435109606732</v>
       </c>
       <c r="E76" s="1">
-        <v>0.05908220808112175</v>
+        <v>0.0115773533290997</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.001637339585307096</v>
+        <v>0.009298521352495426</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06368543776590888</v>
+        <v>0.0639094073700457</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01280249804839984</v>
+        <v>0.003622629875134953</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03871338828127497</v>
+        <v>0.03877868323572016</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01095537739945107</v>
+        <v>-0.004464110187305192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03209212451354953</v>
+        <v>0.03221847712416346</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01322676187771332</v>
+        <v>0.010931806350859</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02984475132775059</v>
+        <v>0.02984334332423614</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00920553204484964</v>
+        <v>0.003458412588621895</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02739993694981467</v>
+        <v>0.02741355482326857</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009754748851937833</v>
+        <v>0.00623783344385731</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02486086057986931</v>
+        <v>0.02512865210345635</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02012442864398167</v>
+        <v>0.003422739436181432</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1864465901807476</v>
+        <v>0.1872998620985267</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01411535653443652</v>
+        <v>0.02352376380220833</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02439049757997625</v>
+        <v>0.02426379423763915</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004010295085892235</v>
+        <v>0.004530821509479033</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02211672787988082</v>
+        <v>0.02218980862234205</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01258804136070713</v>
+        <v>7.399733609614323E-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02215129192550672</v>
+        <v>0.02208378319371462</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006177325581395277</v>
+        <v>0.008426628144938109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02005298605063773</v>
+        <v>0.01989978446773994</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001542614731970815</v>
+        <v>0.01677760052808197</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01992396272963695</v>
+        <v>0.02003700764417147</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01497946363855984</v>
+        <v>0.004046655558200607</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01674458346880453</v>
+        <v>0.01701614301657474</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02562096616467824</v>
+        <v>0.01887871853546907</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01632938089788978</v>
+        <v>0.01610038356223508</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004900255161215394</v>
+        <v>0.009644803170255623</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01504088378149788</v>
+        <v>0.01502558596495426</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008226652675760837</v>
+        <v>0.01411265142999873</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0144237814143871</v>
+        <v>0.01433728076716122</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003200568990042729</v>
+        <v>-0.006026231832683582</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01419355172691323</v>
+        <v>0.01422615345120492</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0115713392174579</v>
+        <v>3.435127614981326E-05</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01367260527212017</v>
+        <v>0.01376227265349883</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01587200812646805</v>
+        <v>-0.002937316417723879</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01347177080609754</v>
+        <v>0.01347523773573236</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009512875184517045</v>
+        <v>0.01429731925264011</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01251159266647858</v>
+        <v>0.01254395759733477</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01186387761473595</v>
+        <v>-0.007713668620796033</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01324805146968334</v>
+        <v>0.01316060180299135</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002591121091725768</v>
+        <v>-0.002842866988283954</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01165202904323636</v>
+        <v>0.01174348906815084</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01717505553448562</v>
+        <v>-0.0002130606157453308</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01302070211934496</v>
+        <v>0.01297857584587875</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005987878787878875</v>
+        <v>0.006458298190230582</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01179142946925953</v>
+        <v>0.01187789741019403</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01665411835566921</v>
+        <v>0.004946975531725961</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009407259997861291</v>
+        <v>0.009282698293989476</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004110393423370606</v>
+        <v>0.01391509433962268</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009643210902933057</v>
+        <v>0.009655507470756169</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01054009819967283</v>
+        <v>0.02121663643430916</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01039201964481466</v>
+        <v>0.01035569752485553</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005725611098877037</v>
+        <v>0.007225749945259485</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0099896799493269</v>
+        <v>0.009862866937363818</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003558718861209842</v>
+        <v>0.008827493261455599</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009765526589508721</v>
+        <v>0.00979875126518498</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01268686868686864</v>
+        <v>0.01228854133418467</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008748136273910813</v>
+        <v>0.008719770511243709</v>
       </c>
       <c r="E31" s="1">
-        <v>0.005980650835532009</v>
+        <v>0.008393075712537224</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01023845427315256</v>
+        <v>0.01024709183137211</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01010459138450637</v>
+        <v>0.01983151983151976</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009494419788714724</v>
+        <v>0.009503545508707915</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01022320667916166</v>
+        <v>-0.009613762860516073</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008948773456567992</v>
+        <v>0.008955395606500931</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01000000000000001</v>
+        <v>-0.0005500550055004272</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009298359580135859</v>
+        <v>0.009267842223606574</v>
       </c>
       <c r="E35" s="1">
-        <v>0.005940762114911236</v>
+        <v>0.005146376444782108</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008416818589983117</v>
+        <v>0.008359354424770121</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002362669816893037</v>
+        <v>0.00134691472346149</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008610235201465023</v>
+        <v>0.008587590579757951</v>
       </c>
       <c r="E37" s="1">
-        <v>0.006598845202089754</v>
+        <v>0.007375034143676684</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007941918072684826</v>
+        <v>0.0077823133751606</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01102930217307074</v>
+        <v>0.01330741176116002</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008831666050840063</v>
+        <v>0.00857992797503414</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01951463597698266</v>
+        <v>0.009951518244450286</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008168478289561427</v>
+        <v>0.008098043965719306</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0005506607929517404</v>
+        <v>0.009172628875435684</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007004822086822878</v>
+        <v>0.007014880055117585</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01070229592411498</v>
+        <v>0.008917027063177096</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007437977443993088</v>
+        <v>0.007443673160274579</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01002599331600429</v>
+        <v>0.01360294117647043</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008123892248970945</v>
+        <v>0.008105315621222514</v>
       </c>
       <c r="E43" s="1">
-        <v>0.006945321378961866</v>
+        <v>0.008276899924755554</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007303193448721323</v>
+        <v>0.007306293604154806</v>
       </c>
       <c r="E44" s="1">
-        <v>0.009681567203691177</v>
+        <v>0.03236197467975122</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007382659188322416</v>
+        <v>0.007352034662965317</v>
       </c>
       <c r="E45" s="1">
-        <v>0.005066592556170813</v>
+        <v>-0.00359467392691537</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007869238880855027</v>
+        <v>0.007866523837278414</v>
       </c>
       <c r="E46" s="1">
-        <v>0.00890493381468116</v>
+        <v>0.01025763358778642</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007357880397622572</v>
+        <v>0.007297927290833909</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001029601029600924</v>
+        <v>0.008099768578040623</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007207392646461415</v>
+        <v>0.00720245749116274</v>
       </c>
       <c r="E48" s="1">
-        <v>0.008562075044069362</v>
+        <v>0.006991260923845166</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006716314893196665</v>
+        <v>0.00672862703579232</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01110327811068013</v>
+        <v>-0.003486142583231544</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007208260693269371</v>
+        <v>0.007198938948177316</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007947976878612817</v>
+        <v>0.01684587813620064</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006570167376075289</v>
+        <v>0.006487763220979024</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.003405078190684252</v>
+        <v>0.01653520057367031</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006715604673081064</v>
+        <v>0.006779841383691269</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01890694586432606</v>
+        <v>0.007761503863452868</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005350324870858111</v>
+        <v>0.005269604544503207</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.005973451327433543</v>
+        <v>0.02626307589583776</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006086112910620368</v>
+        <v>0.006064091550611925</v>
       </c>
       <c r="E54" s="1">
-        <v>0.005601369223587893</v>
+        <v>0.007891072257465659</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006019707329811709</v>
+        <v>0.005952201883675444</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.002064693737095613</v>
+        <v>0.02334975369458148</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005665875668219474</v>
+        <v>0.005656644272899836</v>
       </c>
       <c r="E56" s="1">
-        <v>0.00760877286078987</v>
+        <v>0.0115985900891562</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006771396408828803</v>
+        <v>0.006717445888083084</v>
       </c>
       <c r="E57" s="1">
-        <v>0.00121200820436318</v>
+        <v>0.01266412142657614</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005477217531512092</v>
+        <v>0.005411988250646694</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.002766251728907432</v>
+        <v>0.01421636615811384</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005235032472092276</v>
+        <v>0.005262332888999997</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01451634784968125</v>
+        <v>0.00401176785236701</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004854117750091802</v>
+        <v>0.004870289010579653</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01261542463259202</v>
+        <v>0.002954020035962124</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004862798218171365</v>
+        <v>0.004908093800211929</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01865405212424109</v>
+        <v>-0.0006133356698500014</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004854749056861225</v>
+        <v>0.004849334132355351</v>
       </c>
       <c r="E62" s="1">
-        <v>0.008127438231469331</v>
+        <v>0.007497581425346622</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004279312936532355</v>
+        <v>0.00425759339205117</v>
       </c>
       <c r="E63" s="1">
-        <v>0.004130707383639409</v>
+        <v>-0.004627929185337498</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.00408329218462658</v>
+        <v>0.004032093881607557</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.003401360544217913</v>
+        <v>-0.000310269934843288</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003942037294968232</v>
+        <v>0.003765779272533028</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.03587300316290987</v>
+        <v>-0.005896765084506539</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003686989360121426</v>
+        <v>0.003677581128365069</v>
       </c>
       <c r="E66" s="1">
-        <v>0.006677796327211993</v>
+        <v>0.005485393545094919</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003788787576690851</v>
+        <v>0.003807767218825754</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01430892276930762</v>
+        <v>0.006653114026982099</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003628396200584374</v>
+        <v>0.003647087089158061</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01445209278047832</v>
+        <v>0.01199511191149982</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.00363072414429662</v>
+        <v>0.003640675521940178</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01201938751113918</v>
+        <v>-0.00115974399725105</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003043372108694896</v>
+        <v>0.002944942288955691</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.02338847689674839</v>
+        <v>0.02686915887850461</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002928474276659949</v>
+        <v>0.002955810677288445</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01867421180274853</v>
+        <v>0.005317038330291179</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002281937231424838</v>
+        <v>0.002271102212324952</v>
       </c>
       <c r="E72" s="1">
-        <v>0.004461043676729837</v>
+        <v>0.01991668388074097</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001957366638595348</v>
+        <v>0.00195298683152057</v>
       </c>
       <c r="E73" s="1">
-        <v>0.006994839542009412</v>
+        <v>0.008587728956060303</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001920316822564848</v>
+        <v>0.001890669525756507</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.006328463703795029</v>
+        <v>0.01058704327867499</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001464947358445575</v>
+        <v>0.001420318518449451</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.02149321266968318</v>
+        <v>0.03121387283237009</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001615435109606732</v>
+        <v>0.001619155292047962</v>
       </c>
       <c r="E76" s="1">
-        <v>0.0115773533290997</v>
+        <v>0.04930461657330487</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.009298521352495426</v>
+        <v>0.00968559883226594</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0639094073700457</v>
+        <v>0.06367875953186783</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003622629875134953</v>
+        <v>-0.02580446970278805</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03877868323572016</v>
+        <v>0.03832739817048127</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004464110187305192</v>
+        <v>-0.03072052885973742</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03221847712416346</v>
+        <v>0.03233599495788284</v>
       </c>
       <c r="E4" s="1">
-        <v>0.010931806350859</v>
+        <v>-0.02091420423037316</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02984334332423614</v>
+        <v>0.02973077378445601</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003458412588621895</v>
+        <v>-0.02649491642254009</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02741355482326857</v>
+        <v>0.0273857952731642</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00623783344385731</v>
+        <v>-0.02558749622650325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02512865210345635</v>
+        <v>0.02503297649076856</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003422739436181432</v>
+        <v>-0.0001240387000744914</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1872998620985267</v>
+        <v>0.1879142205408955</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02352376380220833</v>
+        <v>-0.002375296912114022</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02426379423763915</v>
+        <v>0.02419810405787902</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004530821509479033</v>
+        <v>0.01050445103857567</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02218980862234205</v>
+        <v>0.0220315499340346</v>
       </c>
       <c r="E10" s="1">
-        <v>7.399733609614323E-05</v>
+        <v>0.01864594894561589</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02208378319371462</v>
+        <v>0.02210940925994703</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008426628144938109</v>
+        <v>-0.00907246030798603</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01989978446773994</v>
+        <v>0.02008786133830043</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01677760052808197</v>
+        <v>-0.002921445574550985</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02003700764417147</v>
+        <v>0.01997312945026596</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004046655558200607</v>
+        <v>-0.003082029397818986</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01701614301657474</v>
+        <v>0.01721246131757728</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01887871853546907</v>
+        <v>-0.005053340819764163</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01610038356223508</v>
+        <v>0.01613853824246708</v>
       </c>
       <c r="E15" s="1">
-        <v>0.009644803170255623</v>
+        <v>-0.02274170274170273</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01502558596495426</v>
+        <v>0.01512784190809035</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01411265142999873</v>
+        <v>-0.04433497536945807</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01433728076716122</v>
+        <v>0.01414819615234271</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006026231832683582</v>
+        <v>0.004422253922967245</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01422615345120492</v>
+        <v>0.01412413195390517</v>
       </c>
       <c r="E18" s="1">
-        <v>3.435127614981326E-05</v>
+        <v>0.007969222313822577</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01376227265349883</v>
+        <v>0.01362297561483173</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002937316417723879</v>
+        <v>-0.0410868747649491</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01347523773573236</v>
+        <v>0.01356941336669656</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01429731925264011</v>
+        <v>0.002402691013935643</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01254395759733477</v>
+        <v>0.01235750928280336</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007713668620796033</v>
+        <v>0.01461442786069678</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01316060180299135</v>
+        <v>0.01302862872664775</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.002842866988283954</v>
+        <v>0.004060475161987043</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01174348906815084</v>
+        <v>0.01165638721735861</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0002130606157453308</v>
+        <v>-0.02413425679275438</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01297857584587875</v>
+        <v>0.01296827416443747</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006458298190230582</v>
+        <v>0.007757691847240622</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01187789741019403</v>
+        <v>0.01185064739990683</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004946975531725961</v>
+        <v>0.005512159174649867</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009282698293989476</v>
+        <v>0.009344050626850633</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01391509433962268</v>
+        <v>-0.059665038381019</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009655507470756169</v>
+        <v>0.009789315924391716</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02121663643430916</v>
+        <v>-0.06992419196244481</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01035569752485553</v>
+        <v>0.01035536797279994</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007225749945259485</v>
+        <v>-0.01652173913043475</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009862866937363818</v>
+        <v>0.00987823701894076</v>
       </c>
       <c r="E29" s="1">
-        <v>0.008827493261455599</v>
+        <v>-0.01790127579987977</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.00979875126518498</v>
+        <v>0.009847691012214397</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01228854133418467</v>
+        <v>-0.0127699826580483</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008719770511243709</v>
+        <v>0.008729598489004323</v>
       </c>
       <c r="E31" s="1">
-        <v>0.008393075712537224</v>
+        <v>-0.02947806485174276</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01024709183137211</v>
+        <v>0.01037500746378284</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01983151983151976</v>
+        <v>-0.01032524522457401</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009503545508707915</v>
+        <v>0.009344361132636925</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.009613762860516073</v>
+        <v>0.01362397820163497</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008955395606500931</v>
+        <v>0.008885976965625054</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0005500550055004272</v>
+        <v>0.007338103100348548</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009267842223606574</v>
+        <v>0.009248414844673052</v>
       </c>
       <c r="E35" s="1">
-        <v>0.005146376444782108</v>
+        <v>0.003273459795198885</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008359354424770121</v>
+        <v>0.008310299237841812</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00134691472346149</v>
+        <v>-8.406893652790348E-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008587590579757951</v>
+        <v>0.00858859004880499</v>
       </c>
       <c r="E37" s="1">
-        <v>0.007375034143676684</v>
+        <v>-0.0006778741865511861</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0077823133751606</v>
+        <v>0.007829054082314277</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01330741176116002</v>
+        <v>-0.06444368428097635</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00857992797503414</v>
+        <v>0.008602873314974368</v>
       </c>
       <c r="E39" s="1">
-        <v>0.009951518244450286</v>
+        <v>0.00707427993936327</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008098043965719306</v>
+        <v>0.008113438569333413</v>
       </c>
       <c r="E40" s="1">
-        <v>0.009172628875435684</v>
+        <v>-0.004090165424468384</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007014880055117585</v>
+        <v>0.007026435437975708</v>
       </c>
       <c r="E41" s="1">
-        <v>0.008917027063177096</v>
+        <v>-0.03641345176543365</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007443673160274579</v>
+        <v>0.00749056396203396</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01360294117647043</v>
+        <v>-0.06463547334058761</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008105315621222514</v>
+        <v>0.008113516195779984</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008276899924755554</v>
+        <v>-0.003109452736318463</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007306293604154806</v>
+        <v>0.007488390421529925</v>
       </c>
       <c r="E44" s="1">
-        <v>0.03236197467975122</v>
+        <v>-0.01023147812205205</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007352034662965317</v>
+        <v>0.0072728217793975</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.00359467392691537</v>
+        <v>-0.01063080371437708</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007866523837278414</v>
+        <v>0.007889952029650571</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01025763358778642</v>
+        <v>-0.002597402597402709</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007297927290833909</v>
+        <v>0.007304027610919731</v>
       </c>
       <c r="E47" s="1">
-        <v>0.008099768578040623</v>
+        <v>-0.003060834077286079</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00720245749116274</v>
+        <v>0.007200551557638303</v>
       </c>
       <c r="E48" s="1">
-        <v>0.006991260923845166</v>
+        <v>-0.01016612943218431</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.00672862703579232</v>
+        <v>0.006656855925843022</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.003486142583231544</v>
+        <v>-0.0003498338289313896</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007198938948177316</v>
+        <v>0.007267465554583983</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01684587813620064</v>
+        <v>0.008694630478204513</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006487763220979024</v>
+        <v>0.006547519075845354</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01653520057367031</v>
+        <v>0.006722270633636285</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006779841383691269</v>
+        <v>0.006783231780863398</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007761503863452868</v>
+        <v>-0.01874506482954352</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005269604544503207</v>
+        <v>0.005369033177201709</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02626307589583776</v>
+        <v>-0.01474734330947725</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006064091550611925</v>
+        <v>0.006067904075695845</v>
       </c>
       <c r="E54" s="1">
-        <v>0.007891072257465659</v>
+        <v>-0.00337734111145227</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005952201883675444</v>
+        <v>0.006047294254130791</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02334975369458148</v>
+        <v>0.005583902955617503</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005656644272899836</v>
+        <v>0.0056810216286221</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0115985900891562</v>
+        <v>-0.0009797210049723448</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006717445888083084</v>
+        <v>0.006753500851826049</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01266412142657614</v>
+        <v>-0.006298850574712689</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005411988250646694</v>
+        <v>0.005449376549404467</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01421636615811384</v>
+        <v>0.00786324786324788</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005262332888999997</v>
+        <v>0.005245374247811377</v>
       </c>
       <c r="E59" s="1">
-        <v>0.00401176785236701</v>
+        <v>0.0006659563132658253</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004870289010579653</v>
+        <v>0.00484947937029054</v>
       </c>
       <c r="E60" s="1">
-        <v>0.002954020035962124</v>
+        <v>0.02253809706748622</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004908093800211929</v>
+        <v>0.004869739872846017</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.0006133356698500014</v>
+        <v>-0.005435735577766221</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004849334132355351</v>
+        <v>0.004850488514095985</v>
       </c>
       <c r="E62" s="1">
-        <v>0.007497581425346622</v>
+        <v>-0.0007201728414820696</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.00425759339205117</v>
+        <v>0.004207353404241056</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.004627929185337498</v>
+        <v>0.01033210332103329</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004032093881607557</v>
+        <v>0.004001798573716511</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.000310269934843288</v>
+        <v>0.004034761018001376</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003765779272533028</v>
+        <v>0.003716599009008363</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.005896765084506539</v>
+        <v>0.03024353565311833</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003677581128365069</v>
+        <v>0.003671109911316753</v>
       </c>
       <c r="E66" s="1">
-        <v>0.005485393545094919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003807767218825754</v>
+        <v>0.003805481290334119</v>
       </c>
       <c r="E67" s="1">
-        <v>0.006653114026982099</v>
+        <v>0.001529894131326204</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003647087089158061</v>
+        <v>0.003664239970795067</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01199511191149982</v>
+        <v>-0.01722329911976861</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003640675521940178</v>
+        <v>0.003610250777203746</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.00115974399725105</v>
+        <v>0.01051432011696929</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002944942288955691</v>
+        <v>0.003002280447646256</v>
       </c>
       <c r="E70" s="1">
-        <v>0.02686915887850461</v>
+        <v>-0.0267349260523323</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002955810677288445</v>
+        <v>0.002950115475549393</v>
       </c>
       <c r="E71" s="1">
-        <v>0.005317038330291179</v>
+        <v>-0.03840385222608156</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002271102212324952</v>
+        <v>0.002299644666493342</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01991668388074097</v>
+        <v>-0.03689513747067463</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00195298683152057</v>
+        <v>0.001955565442059791</v>
       </c>
       <c r="E73" s="1">
-        <v>0.008587728956060303</v>
+        <v>-0.0340385836773579</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001890669525756507</v>
+        <v>0.001896918661674106</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01058704327867499</v>
+        <v>-0.01913121764573489</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001420318518449451</v>
+        <v>0.001454098597200064</v>
       </c>
       <c r="E75" s="1">
-        <v>0.03121387283237009</v>
+        <v>-0.01831091180866984</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001619155292047962</v>
+        <v>0.001686745057578485</v>
       </c>
       <c r="E76" s="1">
-        <v>0.04930461657330487</v>
+        <v>-0.02324083022688561</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.00968559883226594</v>
+        <v>-0.01013022798980512</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06367875953186783</v>
+        <v>0.06266477728102028</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02580446970278805</v>
+        <v>-0.00741032715806067</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03832739817048127</v>
+        <v>0.03752676488303065</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.03072052885973742</v>
+        <v>0.01047488003410146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03233599495788284</v>
+        <v>0.03198083152796676</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02091420423037316</v>
+        <v>-0.003843353022089269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02973077378445601</v>
+        <v>0.02923662311018145</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02649491642254009</v>
+        <v>-0.002168429437536035</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0273857952731642</v>
+        <v>0.02695572260708715</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02558749622650325</v>
+        <v>-0.009464383113341301</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02503297649076856</v>
+        <v>0.02528374443817805</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0001240387000744914</v>
+        <v>-0.01662324773601298</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1879142205408955</v>
+        <v>0.1894594936245624</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002375296912114022</v>
+        <v>-0.0242741551642075</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02419810405787902</v>
+        <v>0.02470030658774925</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01050445103857567</v>
+        <v>-0.008163505021436701</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0220315499340346</v>
+        <v>0.02266997737032732</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01864594894561589</v>
+        <v>-0.004939347715551601</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02210940925994703</v>
+        <v>0.02213103934922697</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00907246030798603</v>
+        <v>-0.007589447054571763</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02008786133830043</v>
+        <v>0.02023232768868224</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002921445574550985</v>
+        <v>-0.01427021161150321</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01997312945026596</v>
+        <v>0.02011353078747941</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003082029397818986</v>
+        <v>-0.01141498216409031</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01721246131757728</v>
+        <v>0.01729918122901691</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005053340819764163</v>
+        <v>-0.006207674943566666</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01613853824246708</v>
+        <v>0.01593148779615901</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02274170274170273</v>
+        <v>0.01086763924162781</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01512784190809035</v>
+        <v>0.01460378539934959</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.04433497536945807</v>
+        <v>0.001932989690721643</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01414819615234271</v>
+        <v>0.01435490001029495</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004422253922967245</v>
+        <v>-0.009018605311745365</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01412413195390517</v>
+        <v>0.01438109021821689</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007969222313822577</v>
+        <v>-0.007292802617230087</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01362297561483173</v>
+        <v>0.01319574806836043</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0410868747649491</v>
+        <v>0.001830244795241409</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01356941336669656</v>
+        <v>0.01373997902070249</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002402691013935643</v>
+        <v>-0.03179929689996808</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01235750928280336</v>
+        <v>0.01266527873724681</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01461442786069678</v>
+        <v>-0.01133925835121075</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01302862872664775</v>
+        <v>0.01321421451735928</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004060475161987043</v>
+        <v>-0.01144381345723633</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01165638721735861</v>
+        <v>0.01149044403607759</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02413425679275438</v>
+        <v>0.003466724900365925</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01296827416443747</v>
+        <v>0.013201433068583</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007757691847240622</v>
+        <v>-0.02183468364655849</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01185064739990683</v>
+        <v>0.01203683136781443</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005512159174649867</v>
+        <v>-0.03066369606003749</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009344050626850633</v>
+        <v>0.008875657588876608</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.059665038381019</v>
+        <v>-0.002102659245516336</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009789315924391716</v>
+        <v>0.009197154153187892</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.06992419196244481</v>
+        <v>0.01019694773637969</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01035536797279994</v>
+        <v>0.01028757640277635</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01652173913043475</v>
+        <v>-0.002210433244916099</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.00987823701894076</v>
+        <v>0.009799803383679201</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01790127579987977</v>
+        <v>0.005509079779636883</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009847691012214397</v>
+        <v>0.009820543832767084</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0127699826580483</v>
+        <v>-0.01189715745768116</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008729598489004323</v>
+        <v>0.008558199335068259</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02947806485174276</v>
+        <v>-0.01661604430945152</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01037500746378284</v>
+        <v>0.0103720280612552</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01032524522457401</v>
+        <v>-0.0001738828029907991</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009344361132636925</v>
+        <v>0.009567737753903774</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01362397820163497</v>
+        <v>-0.01646505376344098</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008885976965625054</v>
+        <v>0.009041973250560565</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007338103100348548</v>
+        <v>-0.01074485521762869</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009248414844673052</v>
+        <v>0.009372801056616493</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003273459795198885</v>
+        <v>-0.01125240525391114</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008310299237841812</v>
+        <v>0.008393883225186725</v>
       </c>
       <c r="E36" s="1">
-        <v>-8.406893652790348E-05</v>
+        <v>-0.004624180258954169</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00858859004880499</v>
+        <v>0.008669821373921213</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0006778741865511861</v>
+        <v>-0.01126034459367797</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007829054082314277</v>
+        <v>0.007398812151745217</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.06444368428097635</v>
+        <v>-0.01882233244308773</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008602873314974368</v>
+        <v>0.008751606963330156</v>
       </c>
       <c r="E39" s="1">
-        <v>0.00707427993936327</v>
+        <v>-0.01279478173607629</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008113438569333413</v>
+        <v>0.008162209664392166</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.004090165424468384</v>
+        <v>-0.02619330108606366</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007026435437975708</v>
+        <v>0.006839251302251239</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.03641345176543365</v>
+        <v>0.009103416647557871</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00749056396203396</v>
+        <v>0.007077472415026282</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.06463547334058761</v>
+        <v>-0.004420660772452178</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008113516195779984</v>
+        <v>0.008170325492296123</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.003109452736318463</v>
+        <v>-0.03069245165315038</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007488390421529925</v>
+        <v>0.007486949258644214</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01023147812205205</v>
+        <v>0.005278592375366431</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0072728217793975</v>
+        <v>0.007268488422504889</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01063080371437708</v>
+        <v>0.001143547586683002</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007889952029650571</v>
+        <v>0.007949277000883073</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.002597402597402709</v>
+        <v>-0.01444128787878773</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007304027610919731</v>
+        <v>0.007355527736257455</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.003060834077286079</v>
+        <v>-0.009082768325444524</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007200551557638303</v>
+        <v>0.00719964110946457</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01016612943218431</v>
+        <v>-0.01678356713426865</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006656855925843022</v>
+        <v>0.006722022676971881</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0003498338289313896</v>
+        <v>-0.006561679790026198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007267465554583983</v>
+        <v>0.007405006841642922</v>
       </c>
       <c r="E50" s="1">
-        <v>0.008694630478204513</v>
+        <v>-0.01723937099592299</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006547519075845354</v>
+        <v>0.006658389881377099</v>
       </c>
       <c r="E51" s="1">
-        <v>0.006722270633636285</v>
+        <v>-0.01364329582457435</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006783231780863398</v>
+        <v>0.006723590952895351</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01874506482954352</v>
+        <v>-0.01556942095749025</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005369033177201709</v>
+        <v>0.00534350814024204</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01474734330947725</v>
+        <v>-0.02003081664098605</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006067904075695845</v>
+        <v>0.006108748377099065</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.00337734111145227</v>
+        <v>-5.134524543026764E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006047294254130791</v>
+        <v>0.006142740757740271</v>
       </c>
       <c r="E55" s="1">
-        <v>0.005583902955617503</v>
+        <v>-0.04643370033508853</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.0056810216286221</v>
+        <v>0.005733020831354202</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0009797210049723448</v>
+        <v>-0.01060593004743393</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006753500851826049</v>
+        <v>0.006779029506790004</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.006298850574712689</v>
+        <v>-0.008328320917965981</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005449376549404467</v>
+        <v>0.005547932906866311</v>
       </c>
       <c r="E58" s="1">
-        <v>0.00786324786324788</v>
+        <v>-0.004748982360922693</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005245374247811377</v>
+        <v>0.00530210565586244</v>
       </c>
       <c r="E59" s="1">
-        <v>0.0006659563132658253</v>
+        <v>-0.003460668175162884</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.00484947937029054</v>
+        <v>0.005009073299562131</v>
       </c>
       <c r="E60" s="1">
-        <v>0.02253809706748622</v>
+        <v>-0.006386975579210863</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004869739872846017</v>
+        <v>0.004892393570855988</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.005435735577766221</v>
+        <v>-0.008021861777150918</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004850488514095985</v>
+        <v>0.004896157433072316</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.0007201728414820696</v>
+        <v>0.02818705957719425</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004207353404241056</v>
+        <v>0.004293939478459962</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01033210332103329</v>
+        <v>-0.01964937910883857</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004001798573716511</v>
+        <v>0.004058698089939511</v>
       </c>
       <c r="E64" s="1">
-        <v>0.004034761018001376</v>
+        <v>-0.006800618238021583</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003716599009008363</v>
+        <v>0.003867838910053252</v>
       </c>
       <c r="E65" s="1">
-        <v>0.03024353565311833</v>
+        <v>-0.02201678627904147</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003671109911316753</v>
+        <v>0.003708345248636386</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>0.00786602385181423</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003805481290334119</v>
+        <v>0.003849960564525698</v>
       </c>
       <c r="E67" s="1">
-        <v>0.001529894131326204</v>
+        <v>-0.01643651472565089</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003664239970795067</v>
+        <v>0.00363765521138599</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.01722329911976861</v>
+        <v>-0.01173731690755653</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003610250777203746</v>
+        <v>0.003685213178765208</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01051432011696929</v>
+        <v>-0.03023597250888366</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003002280447646256</v>
+        <v>0.002951652115562269</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.0267349260523323</v>
+        <v>-0.007013442431326622</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002950115475549393</v>
+        <v>0.002865592974261871</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.03840385222608156</v>
+        <v>0.02039978656158925</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002299644666493342</v>
+        <v>0.002237263225523747</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.03689513747067463</v>
+        <v>0.00283896745702128</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001955565442059791</v>
+        <v>0.001908160522983637</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.0340385836773579</v>
+        <v>0.01723889950481827</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001896918661674106</v>
+        <v>0.001879500280482228</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.01913121764573489</v>
+        <v>0.01211982143602164</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001454098597200064</v>
+        <v>0.00144195129783419</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01831091180866984</v>
+        <v>-0.01484583174724019</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001686745057578485</v>
+        <v>0.001664254409986016</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.02324083022688561</v>
+        <v>-0.00381643422540523</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01013022798980512</v>
+        <v>-0.01075624978147061</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06266477728102028</v>
+        <v>0.06287672857810878</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00741032715806067</v>
+        <v>-0.02493844809784773</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03752676488303065</v>
+        <v>0.03833216356926351</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01047488003410146</v>
+        <v>-0.02232382417623324</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03198083152796676</v>
+        <v>0.03220431556472025</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003843353022089269</v>
+        <v>-0.02936279088656935</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02923662311018145</v>
+        <v>0.02949043200882558</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002168429437536035</v>
+        <v>-0.02150966826326051</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02695572260708715</v>
+        <v>0.02699092444641517</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009464383113341301</v>
+        <v>-0.03075249112358269</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02528374443817805</v>
+        <v>0.02513379183360593</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01662324773601298</v>
+        <v>-0.006875236533366857</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1894594936245624</v>
+        <v>0.1868705508001955</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0242741551642075</v>
+        <v>-0.007317073170731714</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02470030658774925</v>
+        <v>0.0247650445155476</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008163505021436701</v>
+        <v>-0.004026527711984862</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02266997737032732</v>
+        <v>0.02280328024757134</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004939347715551601</v>
+        <v>-0.01058471421271634</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02213103934922697</v>
+        <v>0.02220188602957724</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007589447054571763</v>
+        <v>-0.02330662782228698</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02023232768868224</v>
+        <v>0.02016045902414427</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01427021161150321</v>
+        <v>-0.02102713711674997</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02011353078747941</v>
+        <v>0.02010013728961237</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01141498216409031</v>
+        <v>-0.009381765696415689</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01729918122901691</v>
+        <v>0.01737872342520189</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.006207674943566666</v>
+        <v>-0.02328222600794982</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01593148779615901</v>
+        <v>0.01627973434712371</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01086763924162781</v>
+        <v>-0.02521180251241606</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01460378539934959</v>
+        <v>0.01479111125315651</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001932989690721643</v>
+        <v>-0.04124330117899255</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01435490001029495</v>
+        <v>0.01438011494100423</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009018605311745365</v>
+        <v>-0.02586886420637768</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01438109021821689</v>
+        <v>0.01443143993851987</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007292802617230087</v>
+        <v>-0.009749399244764922</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01319574806836043</v>
+        <v>0.01336364219097822</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001830244795241409</v>
+        <v>-0.01298404723844315</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01373997902070249</v>
+        <v>0.01344770421393627</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.03179929689996808</v>
+        <v>-0.009077405512460834</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01266527873724681</v>
+        <v>0.01265781448383067</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01133925835121075</v>
+        <v>-0.008989460632362056</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01321421451735928</v>
+        <v>0.01320503011371366</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01144381345723633</v>
+        <v>0.0006092784402471629</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01149044403607759</v>
+        <v>0.01165564931998471</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003466724900365925</v>
+        <v>-0.02989581349800063</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.013201433068583</v>
+        <v>0.01305359164614048</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02183468364655849</v>
+        <v>-0.0153752732572261</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01203683136781443</v>
+        <v>0.01179460332870273</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03066369606003749</v>
+        <v>-0.04131131676041855</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008875657588876608</v>
+        <v>0.008953299026080034</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002102659245516336</v>
+        <v>-0.04809122459097659</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009197154153187892</v>
+        <v>0.009391959313727235</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01019694773637969</v>
+        <v>-0.05867359856860721</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01028757640277635</v>
+        <v>0.01037644806916241</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.002210433244916099</v>
+        <v>-0.05073105892778018</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009799803383679201</v>
+        <v>0.009960933571900643</v>
       </c>
       <c r="E29" s="1">
-        <v>0.005509079779636883</v>
+        <v>-0.01001082251082241</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009820543832767084</v>
+        <v>0.009809217671908458</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01189715745768116</v>
+        <v>-0.02715151515151504</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008558199335068259</v>
+        <v>0.008507504761944168</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01661604430945152</v>
+        <v>-0.02579941860465118</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0103720280612552</v>
+        <v>0.01048298211805975</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0001738828029907991</v>
+        <v>-0.01530434782608692</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009567737753903774</v>
+        <v>0.009512523516385601</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01646505376344098</v>
+        <v>-0.002220703792278789</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009041973250560565</v>
+        <v>0.009042077400161145</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01074485521762869</v>
+        <v>-0.005154639175257825</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009372801056616493</v>
+        <v>0.009368100125692938</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01125240525391114</v>
+        <v>-0.01937640140457741</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008393883225186725</v>
+        <v>0.008445914764925398</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.004624180258954169</v>
+        <v>-0.01723118506630639</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008669821373921213</v>
+        <v>0.008665403441559858</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01126034459367797</v>
+        <v>-0.01420142700329297</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007398812151745217</v>
+        <v>0.00733848381466897</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01882233244308773</v>
+        <v>-0.04424821775761512</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008751606963330156</v>
+        <v>0.008733572550229282</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01279478173607629</v>
+        <v>0.008640406607369755</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008162209664392166</v>
+        <v>0.008034839186367684</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02619330108606366</v>
+        <v>0.00627928772258679</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006839251302251239</v>
+        <v>0.006976553407477584</v>
       </c>
       <c r="E41" s="1">
-        <v>0.009103416647557871</v>
+        <v>-0.04019815029427132</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007077472415026282</v>
+        <v>0.007122799925495128</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.004420660772452178</v>
+        <v>-0.02921243281140451</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008170325492296123</v>
+        <v>0.008005669149169604</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.03069245165315038</v>
+        <v>-0.01209936928819666</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007486949258644214</v>
+        <v>0.007608306658751203</v>
       </c>
       <c r="E44" s="1">
-        <v>0.005278592375366431</v>
+        <v>-0.02720245040840152</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007268488422504889</v>
+        <v>0.007355922423863474</v>
       </c>
       <c r="E45" s="1">
-        <v>0.001143547586683002</v>
+        <v>-0.01987068965517247</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007949277000883073</v>
+        <v>0.007919665099278529</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01444128787878773</v>
+        <v>-0.0165745856353593</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007355527736257455</v>
+        <v>0.007367970917488767</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.009082768325444524</v>
+        <v>0.006971340046475705</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00719964110946457</v>
+        <v>0.007155774750153826</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01678356713426865</v>
+        <v>-0.01936305732484067</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006722022676971881</v>
+        <v>0.006750525252395184</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.006561679790026198</v>
+        <v>-0.03311316600616465</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007405006841642922</v>
+        <v>0.007356477288701481</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01723937099592299</v>
+        <v>-0.0117340286831813</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006658389881377099</v>
+        <v>0.006638957786753074</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01364329582457435</v>
+        <v>-0.008274132887588825</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006723590952895351</v>
+        <v>0.006690877282309438</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01556942095749025</v>
+        <v>-0.02440469138727641</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.00534350814024204</v>
+        <v>0.005293410554586237</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02003081664098605</v>
+        <v>-0.0334681042228212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006108748377099065</v>
+        <v>0.006174852982962981</v>
       </c>
       <c r="E54" s="1">
-        <v>-5.134524543026764E-05</v>
+        <v>-0.007958921694480203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006142740757740271</v>
+        <v>0.005921200485588378</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.04643370033508853</v>
+        <v>-0.07279116465863456</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005733020831354202</v>
+        <v>0.005733891987898184</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01060593004743393</v>
+        <v>-0.02281198515696847</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006779029506790004</v>
+        <v>0.00679566747028732</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.008328320917965981</v>
+        <v>-0.01693649979004352</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005547932906866311</v>
+        <v>0.005581623204728129</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.004748982360922693</v>
+        <v>-0.02522154055896375</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.00530210565586244</v>
+        <v>0.005341208197060264</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.003460668175162884</v>
+        <v>-0.008548150126886589</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005009073299562131</v>
+        <v>0.005031197285425242</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.006386975579210863</v>
+        <v>-0.01814973531635999</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004892393570855988</v>
+        <v>0.004905916731643816</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.008021861777150918</v>
+        <v>-0.02194970230160831</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004896157433072316</v>
+        <v>0.005088903228577964</v>
       </c>
       <c r="E62" s="1">
-        <v>0.02818705957719425</v>
+        <v>-0.02585669781931466</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004293939478459962</v>
+        <v>0.004255337709080676</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.01964937910883857</v>
+        <v>-0.009164741822517031</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004058698089939511</v>
+        <v>0.00407492737032299</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.006800618238021583</v>
+        <v>0.004201680672268893</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003867838910053252</v>
+        <v>0.003823811397922133</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.02201678627904147</v>
+        <v>0.00182421227197338</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003708345248636386</v>
+        <v>0.003778153948394705</v>
       </c>
       <c r="E66" s="1">
-        <v>0.00786602385181423</v>
+        <v>-0.003524672708962728</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003849960564525698</v>
+        <v>0.003827853984599041</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01643651472565089</v>
+        <v>-0.02789339628502208</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.00363765521138599</v>
+        <v>0.003634047623323759</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.01173731690755653</v>
+        <v>-0.03150765606595995</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003685213178765208</v>
+        <v>0.003612645693857777</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.03023597250888366</v>
+        <v>-0.004410215903106862</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002951652115562269</v>
+        <v>0.002962819702146216</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.007013442431326622</v>
+        <v>-0.02825191288993512</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002865592974261871</v>
+        <v>0.002955844258468415</v>
       </c>
       <c r="E71" s="1">
-        <v>0.02039978656158925</v>
+        <v>-0.03495575221238933</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002237263225523747</v>
+        <v>0.00226801002535338</v>
       </c>
       <c r="E72" s="1">
-        <v>0.00283896745702128</v>
+        <v>-0.03828746177370024</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001908160522983637</v>
+        <v>0.001962160600003409</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01723889950481827</v>
+        <v>-0.02040074331421182</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001879500280482228</v>
+        <v>0.001922963362518491</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01211982143602164</v>
+        <v>-0.02699973206372763</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.00144195129783419</v>
+        <v>0.001435990200761969</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01484583174724019</v>
+        <v>-0.04250386398763517</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001664254409986016</v>
+        <v>0.001675929609997257</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.00381643422540523</v>
+        <v>0.003263491462895507</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01075624978147061</v>
+        <v>-0.01798318128976595</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06287672857810878</v>
+        <v>0.06242849816859322</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02493844809784773</v>
+        <v>0.01791968722000492</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03833216356926351</v>
+        <v>0.03816095923029043</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02232382417623324</v>
+        <v>0.003023534711955156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03220431556472025</v>
+        <v>0.03182965469407208</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02936279088656935</v>
+        <v>0.01686192468619252</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02949043200882558</v>
+        <v>0.02938316617218879</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02150966826326051</v>
+        <v>0.01409599782441195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02699092444641517</v>
+        <v>0.02663872108810654</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03075249112358269</v>
+        <v>0.01308487671855474</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02513379183360593</v>
+        <v>0.02541690950466158</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006875236533366857</v>
+        <v>0.02572245157192765</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1868705508001955</v>
+        <v>0.1889378761233708</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007317073170731714</v>
+        <v>0.02431834929992638</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0247650445155476</v>
+        <v>0.02511584544479373</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004026527711984862</v>
+        <v>0.01046373365041631</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02280328024757134</v>
+        <v>0.02297401276579817</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01058471421271634</v>
+        <v>0.01608381289656191</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02220188602957724</v>
+        <v>0.02208050629321449</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02330662782228698</v>
+        <v>0.01255282127765356</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02016045902414427</v>
+        <v>0.02009703492399393</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02102713711674997</v>
+        <v>0.002755130728141708</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02010013728961237</v>
+        <v>0.02027525193315967</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009381765696415689</v>
+        <v>0.01602719766877136</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01737872342520189</v>
+        <v>0.0172841441769712</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02328222600794982</v>
+        <v>0.01724806201550377</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01627973434712371</v>
+        <v>0.01615914930661244</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02521180251241606</v>
+        <v>-0.000239757844576971</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01479111125315651</v>
+        <v>0.01444009773903454</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.04124330117899255</v>
+        <v>0.01135804677368868</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01438011494100423</v>
+        <v>0.0142639792997231</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02586886420637768</v>
+        <v>0.01691922907164933</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01443143993851987</v>
+        <v>0.01455176586955121</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.009749399244764922</v>
+        <v>0.01483741246619985</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01336364219097822</v>
+        <v>0.01343104885312623</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01298404723844315</v>
+        <v>0.008957197157494434</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01344770421393627</v>
+        <v>0.0135690298210469</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.009077405512460834</v>
+        <v>-0.01232511658894075</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01265781448383067</v>
+        <v>0.01277314720380106</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008989460632362056</v>
+        <v>0.007507037847982456</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01320503011371366</v>
+        <v>0.01345441562131168</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0006092784402471629</v>
+        <v>0.01426583159359773</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01165564931998471</v>
+        <v>0.01151372279142892</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02989581349800063</v>
+        <v>0.009533957714093377</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01305359164614048</v>
+        <v>0.01308765018215899</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0153752732572261</v>
+        <v>0.007869353923575906</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01179460332870273</v>
+        <v>0.01151388421987925</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.04131131676041855</v>
+        <v>0.02656151419558372</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008953299026080034</v>
+        <v>0.008678393489810142</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.04809122459097659</v>
+        <v>0.005078124999999822</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009391959313727235</v>
+        <v>0.00900238038962504</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.05867359856860721</v>
+        <v>0.04852332024315476</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01037644806916241</v>
+        <v>0.01002995319020887</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.05073105892778018</v>
+        <v>0.01586931155192528</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009960933571900643</v>
+        <v>0.01004133389595722</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01001082251082241</v>
+        <v>-0.001571467614102318</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009809217671908458</v>
+        <v>0.009717185567691992</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02715151515151504</v>
+        <v>0.01578204169781539</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008507504761944168</v>
+        <v>0.008439398669094668</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02579941860465118</v>
+        <v>0.007273405445729297</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01048298211805975</v>
+        <v>0.01051109068642127</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01530434782608692</v>
+        <v>0.01359943482868253</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009512523516385601</v>
+        <v>0.009664761678446905</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002220703792278789</v>
+        <v>0.006848142441362892</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009042077400161145</v>
+        <v>0.009159773128698048</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.005154639175257825</v>
+        <v>0.008697261287935021</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009368100125692938</v>
+        <v>0.009354375125572419</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01937640140457741</v>
+        <v>0.0265757798006816</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008445914764925398</v>
+        <v>0.008451990088220507</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01723118506630639</v>
+        <v>0.009454232917920136</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008665403441559858</v>
+        <v>0.008698370260538638</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01420142700329297</v>
+        <v>0.01468439000626343</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00733848381466897</v>
+        <v>0.007141877142444342</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.04424821775761512</v>
+        <v>-0.03085320992049356</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008733572550229282</v>
+        <v>0.008969933271108451</v>
       </c>
       <c r="E39" s="1">
-        <v>0.008640406607369755</v>
+        <v>0.01033005794910569</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008034839186367684</v>
+        <v>0.008232972038233531</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00627928772258679</v>
+        <v>-0.006426376082704688</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006976553407477584</v>
+        <v>0.006818414885093021</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.04019815029427132</v>
+        <v>0.01946114872863314</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007122799925495128</v>
+        <v>0.007041024718099869</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02921243281140451</v>
+        <v>0.01998074145402007</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008005669149169604</v>
+        <v>0.008053261815902222</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01209936928819666</v>
+        <v>0.0181107491856678</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007608306658751203</v>
+        <v>0.007536529346391763</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.02720245040840152</v>
+        <v>0.001649299047904895</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007355922423863474</v>
+        <v>0.007341443064166399</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01987068965517247</v>
+        <v>0.004705571924886964</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007919665099278529</v>
+        <v>0.007930656907875607</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0165745856353593</v>
+        <v>0.02540302882266743</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007367970917488767</v>
+        <v>0.007554851475504365</v>
       </c>
       <c r="E47" s="1">
-        <v>0.006971340046475705</v>
+        <v>0.008846153846153726</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007155774750153826</v>
+        <v>0.007145388211239049</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01936305732484067</v>
+        <v>0.02156404260846956</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006750525252395184</v>
+        <v>0.006646211085702117</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.03311316600616465</v>
+        <v>0.006375808361417157</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007356477288701481</v>
+        <v>0.00740294730374262</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0117340286831813</v>
+        <v>0.01067402254737337</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006638957786753074</v>
+        <v>0.006704284970708799</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.008274132887588825</v>
+        <v>0.01158772964773291</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006690877282309438</v>
+        <v>0.006646816442390859</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.02440469138727641</v>
+        <v>0.01880995749848213</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005293410554586237</v>
+        <v>0.005209699663316552</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.0334681042228212</v>
+        <v>0.02184522426214253</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006174852982962981</v>
+        <v>0.006237595320801039</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.007958921694480203</v>
+        <v>0.009006211180124346</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005921200485588378</v>
+        <v>0.005590469020535481</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.07279116465863456</v>
+        <v>0.02837033026529512</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005733891987898184</v>
+        <v>0.005705432309294539</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.02281198515696847</v>
+        <v>0.01405318459274407</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.00679566747028732</v>
+        <v>0.006802594896960554</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.01693649979004352</v>
+        <v>0.02358803986710956</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005581623204728129</v>
+        <v>0.005540224415369869</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.02522154055896375</v>
+        <v>0.01538461538461533</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005341208197060264</v>
+        <v>0.005392275240641241</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.008548150126886589</v>
+        <v>0.01427994072477423</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005031197285425242</v>
+        <v>0.005030110512322992</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01814973531635999</v>
+        <v>0.0177150192554556</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004905916731643816</v>
+        <v>0.004885874191951984</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.02194970230160831</v>
+        <v>0.004361257495911319</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005088903228577964</v>
+        <v>0.005047867641859433</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.02585669781931466</v>
+        <v>0.02006715701950768</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004255337709080676</v>
+        <v>0.004293351065010984</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.009164741822517031</v>
+        <v>0.00579034441269366</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.00407492737032299</v>
+        <v>0.004166791159951253</v>
       </c>
       <c r="E64" s="1">
-        <v>0.004201680672268893</v>
+        <v>0.007903300790330192</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003823811397922133</v>
+        <v>0.003900757073805288</v>
       </c>
       <c r="E65" s="1">
-        <v>0.00182421227197338</v>
+        <v>0.01009766594934614</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003778153948394705</v>
+        <v>0.003833602838467471</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.003524672708962728</v>
+        <v>0.01768569984840829</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003827853984599041</v>
+        <v>0.003789048586176035</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.02789339628502208</v>
+        <v>0.03610685071574649</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003634047623323759</v>
+        <v>0.003583832668692383</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.03150765606595995</v>
+        <v>0.02496537279145961</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003612645693857777</v>
+        <v>0.003662407966891138</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.004410215903106862</v>
+        <v>0.00484848484848488</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002962819702146216</v>
+        <v>0.002931702086466555</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.02825191288993512</v>
+        <v>0.01150817686250738</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002955844258468415</v>
+        <v>0.002904622463923481</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.03495575221238933</v>
+        <v>0.003709724480013499</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00226801002535338</v>
+        <v>0.002221013333883051</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.03828746177370024</v>
+        <v>-0.006777628375186251</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001962160600003409</v>
+        <v>0.001957239246041724</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.02040074331421182</v>
+        <v>0.003464060373623568</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001922963362518491</v>
+        <v>0.001905218927922465</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.02699973206372763</v>
+        <v>0.004384757143764961</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001435990200761969</v>
+        <v>0.001400068949723277</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.04250386398763517</v>
+        <v>0.01372074253430178</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001675929609997257</v>
+        <v>0.00171211014421366</v>
       </c>
       <c r="E76" s="1">
-        <v>0.003263491462895507</v>
+        <v>-0.00900433716764093</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01798318128976595</v>
+        <v>0.01476350954999539</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06242849816859322</v>
+        <v>0.06261980304155873</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01791968722000492</v>
+        <v>0.01984476274305846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03816095923029043</v>
+        <v>0.03771774344353058</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003023534711955156</v>
+        <v>0.01943083439033111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03182965469407208</v>
+        <v>0.03189401610007168</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01686192468619252</v>
+        <v>0.021067357939349</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02938316617218879</v>
+        <v>0.02936249500979318</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01409599782441195</v>
+        <v>0.01430231518727076</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02663872108810654</v>
+        <v>0.02659343876278042</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01308487671855474</v>
+        <v>0.02213508954527521</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02541690950466158</v>
+        <v>0.02569022455220805</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02572245157192765</v>
+        <v>0.01554179566563452</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1889378761233708</v>
+        <v>0.1907538941150909</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02431834929992638</v>
+        <v>0.004075761208343298</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02511584544479373</v>
+        <v>0.02500828032524015</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01046373365041631</v>
+        <v>0.001529771710990779</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02297401276579817</v>
+        <v>0.02300285208418945</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01608381289656191</v>
+        <v>0.00210572175428414</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02208050629321449</v>
+        <v>0.02203139572914094</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01255282127765356</v>
+        <v>0.01448385908923533</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02009703492399393</v>
+        <v>0.01985830496996005</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002755130728141708</v>
+        <v>-0.02601771896377725</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02027525193315967</v>
+        <v>0.02029957235638622</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01602719766877136</v>
+        <v>0.01242829827915859</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0172841441769712</v>
+        <v>0.01732567037149663</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01724806201550377</v>
+        <v>0.007811011621261077</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01615914930661244</v>
+        <v>0.01591950837468313</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.000239757844576971</v>
+        <v>0.02697922599598312</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01444009773903454</v>
+        <v>0.01439097978197621</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01135804677368868</v>
+        <v>0.03170181721713772</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0142639792997231</v>
+        <v>0.01429362735209416</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01691922907164933</v>
+        <v>0.0092592592592593</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01455176586955121</v>
+        <v>0.01455216009174416</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01483741246619985</v>
+        <v>0.001503040240486531</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01343104885312623</v>
+        <v>0.01335358783512033</v>
       </c>
       <c r="E19" s="1">
-        <v>0.008957197157494434</v>
+        <v>0.03498656882657425</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0135690298210469</v>
+        <v>0.01320620707321555</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01232511658894075</v>
+        <v>0.02478920741989898</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01277314720380106</v>
+        <v>0.01268122773217268</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007507037847982456</v>
+        <v>0.0009313877677741278</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01345441562131168</v>
+        <v>0.01344720205895299</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01426583159359773</v>
+        <v>-0.001457975986277726</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01151372279142892</v>
+        <v>0.01145386333533863</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009533957714093377</v>
+        <v>0.01080495528026226</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01308765018215899</v>
+        <v>0.01299814011523235</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007869353923575906</v>
+        <v>0.003035049931466638</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01151388421987925</v>
+        <v>0.01164721607802104</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02656151419558372</v>
+        <v>-0.005500583860856834</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008678393489810142</v>
+        <v>0.008595169679439364</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005078124999999822</v>
+        <v>0.0325171654359373</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.00900238038962504</v>
+        <v>0.009301452013877779</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04852332024315476</v>
+        <v>0.03122808817744938</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01002995319020887</v>
+        <v>0.01004042376717365</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01586931155192528</v>
+        <v>0.01722949689869058</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01004133389595722</v>
+        <v>0.009879243457405691</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001571467614102318</v>
+        <v>0.02429343735030454</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009717185567691992</v>
+        <v>0.009726493995323599</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01578204169781539</v>
+        <v>0.01856243355957132</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008439398669094668</v>
+        <v>0.008376723234446673</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007273405445729297</v>
+        <v>0.02481022032956881</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01051109068642127</v>
+        <v>0.01049855284897153</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01359943482868253</v>
+        <v>0.02247778358599062</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009664761678446905</v>
+        <v>0.009588935966335846</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006848142441362892</v>
+        <v>-0.002040469307940884</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009159773128698048</v>
+        <v>0.009104599674042748</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008697261287935021</v>
+        <v>0.004035956705191523</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009354375125572419</v>
+        <v>0.009462831164393042</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0265757798006816</v>
+        <v>0.002311409960075617</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008451990088220507</v>
+        <v>0.008407384477681584</v>
       </c>
       <c r="E36" s="1">
-        <v>0.009454232917920136</v>
+        <v>0.007322264793529154</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008698370260538638</v>
+        <v>0.008697294287256812</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01468439000626343</v>
+        <v>0.01618655692729765</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007141877142444342</v>
+        <v>0.006820516009714468</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.03085320992049356</v>
+        <v>0.03157305532718779</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008969933271108451</v>
+        <v>0.008930335643101918</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01033005794910569</v>
+        <v>-0.001995012468827717</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008232972038233531</v>
+        <v>0.008060685750675161</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.006426376082704688</v>
+        <v>0.02615298087739015</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006818414885093021</v>
+        <v>0.006849666063269837</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01946114872863314</v>
+        <v>0.02559219693450987</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007041024718099869</v>
+        <v>0.007076901269293547</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01998074145402007</v>
+        <v>0.02391629297458908</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008053261815902222</v>
+        <v>0.008079456317221047</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0181107491856678</v>
+        <v>0.009598157153826392</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007536529346391763</v>
+        <v>0.007438791429394311</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001649299047904895</v>
+        <v>0.01736396976274213</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007341443064166399</v>
+        <v>0.007268345140801797</v>
       </c>
       <c r="E45" s="1">
-        <v>0.004705571924886964</v>
+        <v>0.004705418891709723</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007930656907875607</v>
+        <v>0.008013441189114753</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02540302882266743</v>
+        <v>0.0157217722725107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007554851475504365</v>
+        <v>0.007510453634724154</v>
       </c>
       <c r="E47" s="1">
-        <v>0.008846153846153726</v>
+        <v>-0.00508323802262034</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007145388211239049</v>
+        <v>0.007192944729422561</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02156404260846956</v>
+        <v>0.01271617497456767</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006646211085702117</v>
+        <v>0.006590974251021983</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006375808361417157</v>
+        <v>0.006425920897818793</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00740294730374262</v>
+        <v>0.007372776301288016</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01067402254737337</v>
+        <v>0.0007119971520115342</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006704284970708799</v>
+        <v>0.006682997748876178</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01158772964773291</v>
+        <v>0.008997375765401605</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006646816442390859</v>
+        <v>0.00667301594336131</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01880995749848213</v>
+        <v>0.02131133863335677</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005209699663316552</v>
+        <v>0.005245816595482606</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02184522426214253</v>
+        <v>0.05321810325221765</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006237595320801039</v>
+        <v>0.006201922444838932</v>
       </c>
       <c r="E54" s="1">
-        <v>0.009006211180124346</v>
+        <v>0.006514825074381836</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005590469020535481</v>
+        <v>0.005665171731555414</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02837033026529512</v>
+        <v>0.01389912603980226</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005705432309294539</v>
+        <v>0.005701177814077967</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01405318459274407</v>
+        <v>0.01315635280035488</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006802594896960554</v>
+        <v>0.006861437435510476</v>
       </c>
       <c r="E57" s="1">
-        <v>0.02358803986710956</v>
+        <v>0.00329206658320591</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005540224415369869</v>
+        <v>0.005543361889754466</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01538461538461533</v>
+        <v>0.007575757575757569</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005392275240641241</v>
+        <v>0.005389459151337987</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01427994072477423</v>
+        <v>0.01686810997476407</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005030110512322992</v>
+        <v>0.005044510222907874</v>
       </c>
       <c r="E60" s="1">
-        <v>0.0177150192554556</v>
+        <v>-0.003910191725529755</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004885874191951984</v>
+        <v>0.004835568365636511</v>
       </c>
       <c r="E61" s="1">
-        <v>0.004361257495911319</v>
+        <v>0.03193414148724427</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005047867641859433</v>
+        <v>0.005074018189808399</v>
       </c>
       <c r="E62" s="1">
-        <v>0.02006715701950768</v>
+        <v>0.01097264675915044</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004293351065010984</v>
+        <v>0.004255191992393594</v>
       </c>
       <c r="E63" s="1">
-        <v>0.00579034441269366</v>
+        <v>0.003214953271028165</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004166791159951253</v>
+        <v>0.00413843270557427</v>
       </c>
       <c r="E64" s="1">
-        <v>0.007903300790330192</v>
+        <v>-0.002460024600246191</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003900757073805288</v>
+        <v>0.003882643968237115</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01009766594934614</v>
+        <v>-0.006964929531301234</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003833602838467471</v>
+        <v>0.003844466544753958</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01768569984840829</v>
+        <v>-0.002730883813306884</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003789048586176035</v>
+        <v>0.003868566043327701</v>
       </c>
       <c r="E67" s="1">
-        <v>0.03610685071574649</v>
+        <v>0.01338432122370947</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003583832668692383</v>
+        <v>0.003619696963996868</v>
       </c>
       <c r="E68" s="1">
-        <v>0.02496537279145961</v>
+        <v>0.01987475280158213</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003662407966891138</v>
+        <v>0.003626457549405344</v>
       </c>
       <c r="E69" s="1">
-        <v>0.00484848484848488</v>
+        <v>-0.00701831341155823</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002931702086466555</v>
+        <v>0.002922163622440012</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01150817686250738</v>
+        <v>0.03772455089820359</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002904622463923481</v>
+        <v>0.0028728511171076</v>
       </c>
       <c r="E71" s="1">
-        <v>0.003709724480013499</v>
+        <v>0.02279900332225893</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002221013333883051</v>
+        <v>0.00217376681772174</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.006777628375186251</v>
+        <v>0.04227877279961945</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001957239246041724</v>
+        <v>0.001935356761699314</v>
       </c>
       <c r="E73" s="1">
-        <v>0.003464060373623568</v>
+        <v>0.01378786010767263</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001905218927922465</v>
+        <v>0.001885646574872286</v>
       </c>
       <c r="E74" s="1">
-        <v>0.004384757143764961</v>
+        <v>0.02615151003880545</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001400068949723277</v>
+        <v>0.001398566280266335</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01372074253430178</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.00171211014421366</v>
+        <v>0.001671932539665528</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.00900433716764093</v>
+        <v>0.03672517958232246</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01476350954999539</v>
+        <v>0.01171140584806696</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -418,7 +418,7 @@
     <t>Eli Lilly and Co</t>
   </si>
   <si>
-    <t>D.R. Horton Inc</t>
+    <t>D R Horton Inc</t>
   </si>
   <si>
     <t>JPMorgan Diversified Return US Equity ETF</t>
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06261980304155873</v>
+        <v>0.06303203901975518</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01984476274305846</v>
+        <v>-0.009258532757944415</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03771774344353058</v>
+        <v>0.03795063583417754</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01943083439033111</v>
+        <v>0.01473517639393096</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03189401610007168</v>
+        <v>0.03214246582418404</v>
       </c>
       <c r="E4" s="1">
-        <v>0.021067357939349</v>
+        <v>-0.01196856739875063</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02936249500979318</v>
+        <v>0.02939516902736379</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01430231518727076</v>
+        <v>-0.002203225522164454</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02659343876278042</v>
+        <v>0.02682862318777295</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02213508954527521</v>
+        <v>0.004626093979055224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02569022455220805</v>
+        <v>0.02575024060385971</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01554179566563452</v>
+        <v>0.004024144869215318</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1907538941150909</v>
+        <v>0.1904852107349112</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004075761208343298</v>
+        <v>0.002369668246445578</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02500828032524015</v>
+        <v>0.02472084329565163</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001529771710990779</v>
+        <v>0.0009987075549287017</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02300285208418945</v>
+        <v>0.02275154100985069</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00210572175428414</v>
+        <v>-0.002028838489964491</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02203139572914094</v>
+        <v>0.02205985949664843</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01448385908923533</v>
+        <v>-0.002903811252268684</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01985830496996005</v>
+        <v>0.01909012715702275</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02601771896377725</v>
+        <v>-0.02084052964881955</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02029957235638622</v>
+        <v>0.02028461426460256</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01242829827915859</v>
+        <v>0.008970727101038856</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01732567037149663</v>
+        <v>0.01723394631720121</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007811011621261077</v>
+        <v>0.0007561436672967048</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01591950837468313</v>
+        <v>0.01613640923445454</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02697922599598312</v>
+        <v>-0.006947079599521344</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01439097978197621</v>
+        <v>0.01465413363210688</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03170181721713772</v>
+        <v>-0.01114253878460614</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01429362735209416</v>
+        <v>0.01423838680496817</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0092592592592593</v>
+        <v>-0.004515481651376385</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01455216009174416</v>
+        <v>0.01438451836061747</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001503040240486531</v>
+        <v>-0.00286513404734301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01335358783512033</v>
+        <v>0.01364106474913386</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03498656882657425</v>
+        <v>-0.001519275811863063</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01320620707321555</v>
+        <v>0.01335759386680798</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02478920741989898</v>
+        <v>0.0233667928254071</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01268122773217268</v>
+        <v>0.01252798426159613</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0009313877677741278</v>
+        <v>-0.02698511166253104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01344720205895299</v>
+        <v>0.0132529898926459</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001457975986277726</v>
+        <v>0.003950871768444442</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01145386333533863</v>
+        <v>0.01142707159094029</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01080495528026226</v>
+        <v>-0.001676238630430649</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01299814011523235</v>
+        <v>0.01286805511793392</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003035049931466638</v>
+        <v>-0.002855051244509577</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01164721607802104</v>
+        <v>0.01143252748302604</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005500583860856834</v>
+        <v>-0.01118561320025957</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008595169679439364</v>
+        <v>0.008759258114074343</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0325171654359373</v>
+        <v>0.008657465495608641</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009301452013877779</v>
+        <v>0.009467189550467266</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03122808817744938</v>
+        <v>-0.01810975306389817</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01004042376717365</v>
+        <v>0.01008060452540343</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01722949689869058</v>
+        <v>-0.002032520325203402</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009879243457405691</v>
+        <v>0.009987658104834653</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02429343735030454</v>
+        <v>0.002137894174238486</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009726493995323599</v>
+        <v>0.009778214650377308</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01856243355957132</v>
+        <v>-0.002729608220937596</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008376723234446673</v>
+        <v>0.008472921907127883</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02481022032956881</v>
+        <v>-0.0003613369467029282</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01049855284897153</v>
+        <v>0.01059494992030767</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02247778358599062</v>
+        <v>-0.05495910020449912</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009588935966335846</v>
+        <v>0.009444934220880065</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002040469307940884</v>
+        <v>-0.01277900834895207</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009104599674042748</v>
+        <v>0.009022475468945209</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004035956705191523</v>
+        <v>-0.001644436323771092</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009462831164393042</v>
+        <v>0.009361368794617004</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002311409960075617</v>
+        <v>-0.003983228511530434</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008407384477681584</v>
+        <v>0.008358819185593494</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007322264793529154</v>
+        <v>-0.01327022229735453</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008697294287256812</v>
+        <v>0.008723147173650664</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01618655692729765</v>
+        <v>-0.00492710583153344</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006820516009714468</v>
+        <v>0.006944369349606834</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03157305532718779</v>
+        <v>-0.02189100281479961</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008930335643101918</v>
+        <v>0.008796625087208413</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001995012468827717</v>
+        <v>0.002248875562218755</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008060685750675161</v>
+        <v>0.008163937860372221</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02615298087739015</v>
+        <v>0.01224079656526911</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006849666063269837</v>
+        <v>0.006933614569524129</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02559219693450987</v>
+        <v>-0.003804175535528254</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007076901269293547</v>
+        <v>0.007151928754998594</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02391629297458908</v>
+        <v>-0.002689204763734132</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008079456317221047</v>
+        <v>0.008050934167459422</v>
       </c>
       <c r="E43" s="1">
-        <v>0.009598157153826392</v>
+        <v>0.002408416782862188</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007438791429394311</v>
+        <v>0.007469548026638177</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01736396976274213</v>
+        <v>0.003531229309203354</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007268345140801797</v>
+        <v>0.007207586704477699</v>
       </c>
       <c r="E45" s="1">
-        <v>0.004705418891709723</v>
+        <v>-0.01339664974840438</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008013441189114753</v>
+        <v>0.008033585215647177</v>
       </c>
       <c r="E46" s="1">
-        <v>0.0157217722725107</v>
+        <v>0.006097560975609762</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007510453634724154</v>
+        <v>0.007375110067225815</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.00508323802262034</v>
+        <v>0.0201813769319199</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007192944729422561</v>
+        <v>0.007189688238354659</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01271617497456767</v>
+        <v>-0.001255650426921107</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006590974251021983</v>
+        <v>0.006547070502901956</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006425920897818793</v>
+        <v>-0.001978417266186971</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007372776301288016</v>
+        <v>0.007282085144612639</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0007119971520115342</v>
+        <v>0.002727380528874779</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006682997748876178</v>
+        <v>0.006655442575195195</v>
       </c>
       <c r="E51" s="1">
-        <v>0.008997375765401605</v>
+        <v>0.01056846798497291</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00667301594336131</v>
+        <v>0.006726604678443164</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02131133863335677</v>
+        <v>-0.008647752867996239</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005245816595482606</v>
+        <v>0.005453144514197655</v>
       </c>
       <c r="E53" s="1">
-        <v>0.05321810325221765</v>
+        <v>0.009501187648455867</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006201922444838932</v>
+        <v>0.006161154452634978</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006514825074381836</v>
+        <v>-0.003465674532388774</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005665171731555414</v>
+        <v>0.005669221391406739</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01389912603980226</v>
+        <v>-0.006646588430782141</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005701177814077967</v>
+        <v>0.005701073595921756</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01315635280035488</v>
+        <v>-0.001869236091747606</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006861437435510476</v>
+        <v>0.006794508946848562</v>
       </c>
       <c r="E57" s="1">
-        <v>0.00329206658320591</v>
+        <v>-0.0004159349292910397</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005543361889754466</v>
+        <v>0.005512727565896726</v>
       </c>
       <c r="E58" s="1">
-        <v>0.007575757575757569</v>
+        <v>-0.003417634996582319</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005389459151337987</v>
+        <v>0.005409104867289644</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01686810997476407</v>
+        <v>0.01123301985370961</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005044510222907874</v>
+        <v>0.004959445156970431</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.003910191725529755</v>
+        <v>-0.003039128783082101</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004835568365636511</v>
+        <v>0.004925100512545736</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03193414148724427</v>
+        <v>0.01236083106864205</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005074018189808399</v>
+        <v>0.005062989353533114</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01097264675915044</v>
+        <v>0.006977285060857152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004255191992393594</v>
+        <v>0.004213361726999446</v>
       </c>
       <c r="E63" s="1">
-        <v>0.003214953271028165</v>
+        <v>-0.004098971530779649</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.00413843270557427</v>
+        <v>0.004074570112501476</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.002460024600246191</v>
+        <v>0.008939580764488309</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003882643968237115</v>
+        <v>0.003805465104300662</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.006964929531301234</v>
+        <v>-0.005322221305388175</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003844466544753958</v>
+        <v>0.003784112548224051</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.002730883813306884</v>
+        <v>0.003360716952949927</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003868566043327701</v>
+        <v>0.003869365768441696</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01338432122370947</v>
+        <v>-0.004990870359099397</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003619696963996868</v>
+        <v>0.003643633139771497</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01987475280158213</v>
+        <v>-0.0005493972788676027</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003626457549405344</v>
+        <v>0.00355418006017849</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.00701831341155823</v>
+        <v>-0.005057979017117686</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002922163622440012</v>
+        <v>0.002992968944767865</v>
       </c>
       <c r="E70" s="1">
-        <v>0.03772455089820359</v>
+        <v>0.002885170225043199</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.0028728511171076</v>
+        <v>0.002900140277265688</v>
       </c>
       <c r="E71" s="1">
-        <v>0.02279900332225893</v>
+        <v>-0.007836290551788472</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00217376681772174</v>
+        <v>0.002236209236758574</v>
       </c>
       <c r="E72" s="1">
-        <v>0.04227877279961945</v>
+        <v>-0.005441269395492609</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001935356761699314</v>
+        <v>0.001936527682264231</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01378786010767263</v>
+        <v>-0.008979062366986201</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001885646574872286</v>
+        <v>0.001909797736146268</v>
       </c>
       <c r="E74" s="1">
-        <v>0.02615151003880545</v>
+        <v>-0.007851035843472576</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001398566280266335</v>
+        <v>0.001494678925362749</v>
       </c>
       <c r="E75" s="1">
-        <v>0.08280254777070062</v>
+        <v>0.0117647058823529</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001671932539665528</v>
+        <v>0.001710795053594033</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03672517958232246</v>
+        <v>0.03280870004129777</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01171140584806696</v>
+        <v>-0.001506670112644715</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06303203901975518</v>
+        <v>0.0625483412365874</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009258532757944415</v>
+        <v>-0.01124574324859429</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03795063583417754</v>
+        <v>0.03857144171347172</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01473517639393096</v>
+        <v>-0.01165304443812509</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03214246582418404</v>
+        <v>0.03180856315986746</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01196856739875063</v>
+        <v>-0.008565135818582315</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02939516902736379</v>
+        <v>0.02937731887560318</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002203225522164454</v>
+        <v>-0.003842077371489117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02682862318777295</v>
+        <v>0.02699584586755698</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004626093979055224</v>
+        <v>-0.01155566817538412</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02575024060385971</v>
+        <v>0.02589521660294292</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004024144869215318</v>
+        <v>-0.0140887836278617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1904852107349112</v>
+        <v>0.1911515791686844</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002369668246445578</v>
+        <v>0.003311258278145601</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02472084329565163</v>
+        <v>0.02478511271149745</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0009987075549287017</v>
+        <v>0.0003521333411584671</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02275154100985069</v>
+        <v>0.02274169910645226</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002028838489964491</v>
+        <v>-0.01023742104116754</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02205985949664843</v>
+        <v>0.02203098415268412</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002903811252268684</v>
+        <v>-0.006431258342434187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01909012715702275</v>
+        <v>0.01872217712928871</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02084052964881955</v>
+        <v>-0.002351834430856181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02028461426460256</v>
+        <v>0.0204993183379476</v>
       </c>
       <c r="E13" s="1">
-        <v>0.008970727101038856</v>
+        <v>-0.01357042583060386</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01723394631720121</v>
+        <v>0.01727456422810215</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0007561436672967048</v>
+        <v>-0.0001888930865130423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01613640923445454</v>
+        <v>0.01604993922478996</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006947079599521344</v>
+        <v>0.0004702977572677014</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01465413363210688</v>
+        <v>0.01451402751919123</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01114253878460614</v>
+        <v>-0.005504030510531388</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01423838680496817</v>
+        <v>0.01419676511865417</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.004515481651376385</v>
+        <v>0.02174382604939162</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01438451836061747</v>
+        <v>0.01436624692890389</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00286513404734301</v>
+        <v>-0.004515290415269768</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01364106474913386</v>
+        <v>0.01364212596787637</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001519275811863063</v>
+        <v>-0.01743485703417236</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01335759386680798</v>
+        <v>0.01369158273366022</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0233667928254071</v>
+        <v>-0.02830036983437856</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01252798426159613</v>
+        <v>0.01220941299851181</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02698511166253104</v>
+        <v>-0.05801721389862924</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0132529898926459</v>
+        <v>0.0133266326885319</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003950871768444442</v>
+        <v>0.002737616562580092</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01142707159094029</v>
+        <v>0.01142616407584765</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001676238630430649</v>
+        <v>-0.0006330856041839583</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01286805511793392</v>
+        <v>0.01285183987424615</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002855051244509577</v>
+        <v>0.004282602843648231</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01143252748302604</v>
+        <v>0.0113227294567878</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01118561320025957</v>
+        <v>-0.01018718165057342</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008759258114074343</v>
+        <v>0.008849222832922858</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008657465495608641</v>
+        <v>-0.01878343077497213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009467189550467266</v>
+        <v>0.009310609639949242</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01810975306389817</v>
+        <v>-0.01222828381779184</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01008060452540343</v>
+        <v>0.01007620666449183</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.002032520325203402</v>
+        <v>-0.01832993890020362</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009987658104834653</v>
+        <v>0.01002502009131968</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002137894174238486</v>
+        <v>0.003599999999999826</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009778214650377308</v>
+        <v>0.009767121535244944</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.002729608220937596</v>
+        <v>-0.012719368861697</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008472921907127883</v>
+        <v>0.008483407884100388</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0003613369467029282</v>
+        <v>-0.008855955178022623</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01059494992030767</v>
+        <v>0.01002867627511769</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.05495910020449912</v>
+        <v>-0.009106482733747923</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009444934220880065</v>
+        <v>0.009339151461856291</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01277900834895207</v>
+        <v>-0.0131170176044183</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009022475468945209</v>
+        <v>0.009022046316536353</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001644436323771092</v>
+        <v>-0.005490483162518212</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009361368794617004</v>
+        <v>0.009338994206639173</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003983228511530434</v>
+        <v>-0.02045885076825926</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008358819185593494</v>
+        <v>0.008261088320898769</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01327022229735453</v>
+        <v>0.002055850608189136</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008723147173650664</v>
+        <v>0.008694051247430942</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.00492710583153344</v>
+        <v>-0.02102692803364303</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006944369349606834</v>
+        <v>0.006803214516795212</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02189100281479961</v>
+        <v>0.001802957543816985</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008796625087208413</v>
+        <v>0.008830509462085726</v>
       </c>
       <c r="E39" s="1">
-        <v>0.002248875562218755</v>
+        <v>-0.001495886312640304</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008163937860372221</v>
+        <v>0.008277089039240602</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01224079656526911</v>
+        <v>-0.04178323256023819</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006933614569524129</v>
+        <v>0.006918286021921849</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.003804175535528254</v>
+        <v>-0.01409283084056911</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007151928754998594</v>
+        <v>0.00714410451370436</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.002689204763734132</v>
+        <v>-0.006856702619414623</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008050934167459422</v>
+        <v>0.008083232670337474</v>
       </c>
       <c r="E43" s="1">
-        <v>0.002408416782862188</v>
+        <v>-0.004931714719271563</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007469548026638177</v>
+        <v>0.007507914458508565</v>
       </c>
       <c r="E44" s="1">
-        <v>0.003531229309203354</v>
+        <v>-0.006231214720328393</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007207586704477699</v>
+        <v>0.007122403293741974</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01339664974840438</v>
+        <v>0.003731343283582156</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008033585215647177</v>
+        <v>0.008095498577272736</v>
       </c>
       <c r="E46" s="1">
-        <v>0.006097560975609762</v>
+        <v>-0.02074592074592063</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007375110067225815</v>
+        <v>0.00753598451476426</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0201813769319199</v>
+        <v>-0.00613496932515345</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007189688238354659</v>
+        <v>0.007192145982534134</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.001255650426921107</v>
+        <v>-0.007794820216243448</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006547070502901956</v>
+        <v>0.006544568998439163</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.001978417266186971</v>
+        <v>0.0008109569291763208</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007282085144612639</v>
+        <v>0.007313625637758362</v>
       </c>
       <c r="E50" s="1">
-        <v>0.002727380528874779</v>
+        <v>0.04789498580889306</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006655442575195195</v>
+        <v>0.006736538304736864</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01056846798497291</v>
+        <v>-0.02173291392622245</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006726604678443164</v>
+        <v>0.006679100836684246</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.008647752867996239</v>
+        <v>-0.01097167612365513</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005453144514197655</v>
+        <v>0.005513761050225822</v>
       </c>
       <c r="E53" s="1">
-        <v>0.009501187648455867</v>
+        <v>-0.000427807486631071</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006161154452634978</v>
+        <v>0.006149622520645447</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003465674532388774</v>
+        <v>-0.004602874239247212</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005669221391406739</v>
+        <v>0.005640548069027806</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.006646588430782141</v>
+        <v>-0.0356508102456875</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005701073595921756</v>
+        <v>0.005699518775447334</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.001869236091747606</v>
+        <v>-0.008070356958096103</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006794508946848562</v>
+        <v>0.006802546182122456</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.0004159349292910397</v>
+        <v>-0.01063387119145587</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005512727565896726</v>
+        <v>0.005502674557418951</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.003417634996582319</v>
+        <v>0.005829903978052053</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005409104867289644</v>
+        <v>0.005478614509199784</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01123301985370961</v>
+        <v>-0.01033324722293971</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004959445156970431</v>
+        <v>0.004952281297503361</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.003039128783082101</v>
+        <v>-0.01257462212625438</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004925100512545736</v>
+        <v>0.004993953930039827</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01236083106864205</v>
+        <v>-0.01887772774506413</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005062989353533114</v>
+        <v>0.005106470037888285</v>
       </c>
       <c r="E62" s="1">
-        <v>0.006977285060857152</v>
+        <v>-0.02194164292863177</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004213361726999446</v>
+        <v>0.004202802932715446</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.004098971530779649</v>
+        <v>-0.005163511187607606</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004074570112501476</v>
+        <v>0.004117570605037088</v>
       </c>
       <c r="E64" s="1">
-        <v>0.008939580764488309</v>
+        <v>0.00213871066300042</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003805465104300662</v>
+        <v>0.003791266029515703</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.005322221305388175</v>
+        <v>0.004521133186776716</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003784112548224051</v>
+        <v>0.00380290291558249</v>
       </c>
       <c r="E66" s="1">
-        <v>0.003360716952949927</v>
+        <v>-0.009304056568663954</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003869365768441696</v>
+        <v>0.003856212434185742</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.004990870359099397</v>
+        <v>-0.006667482260827029</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003643633139771497</v>
+        <v>0.003647456133460615</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.0005493972788676027</v>
+        <v>-0.01037961585720737</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.00355418006017849</v>
+        <v>0.003541859255165382</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.005057979017117686</v>
+        <v>-0.002219952936997727</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002992968944767865</v>
+        <v>0.003006405240876071</v>
       </c>
       <c r="E70" s="1">
-        <v>0.002885170225043199</v>
+        <v>-0.001726121979286344</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002900140277265688</v>
+        <v>0.002882016364135149</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.007836290551788472</v>
+        <v>-0.00470617122278616</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002236209236758574</v>
+        <v>0.002227598778095512</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.005441269395492609</v>
+        <v>-0.01057145882602095</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001936527682264231</v>
+        <v>0.001922209146450919</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.008979062366986201</v>
+        <v>-0.005440340328056625</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001909797736146268</v>
+        <v>0.001897834587797514</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.007851035843472576</v>
+        <v>-0.004391597961635685</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001494678925362749</v>
+        <v>0.001514682251287704</v>
       </c>
       <c r="E75" s="1">
-        <v>0.0117647058823529</v>
+        <v>0.01744186046511631</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001710795053594033</v>
+        <v>0.0017697502134543</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03280870004129777</v>
+        <v>-0.02838990581126721</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.001506670112644715</v>
+        <v>-0.006233203668544185</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0625483412365874</v>
+        <v>0.06221020691732292</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01124574324859429</v>
+        <v>-0.001281537845414404</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03857144171347172</v>
+        <v>0.03834712275964005</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01165304443812509</v>
+        <v>-0.0001485019862139669</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03180856315986746</v>
+        <v>0.03172237696132339</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008565135818582315</v>
+        <v>0.0001645548790520923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02937731887560318</v>
+        <v>0.02943729048529585</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003842077371489117</v>
+        <v>-0.004344549363833772</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02699584586755698</v>
+        <v>0.02684149109297549</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01155566817538412</v>
+        <v>0.003991213143157646</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02589521660294292</v>
+        <v>0.02568117192828823</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0140887836278617</v>
+        <v>-0.007637819525715961</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1911515791686844</v>
+        <v>0.1932810714498133</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003311258278145601</v>
+        <v>0.004705882352941115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02478511271149745</v>
+        <v>0.02494027763189698</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003521333411584671</v>
+        <v>-0.002170724552654657</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02274169910645226</v>
+        <v>0.02264182460811497</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01023742104116754</v>
+        <v>0.002053990610328738</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02203098415268412</v>
+        <v>0.02201857965956273</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006431258342434187</v>
+        <v>-0.002320468978993628</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01872217712928871</v>
+        <v>0.01878846243889352</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002351834430856181</v>
+        <v>-0.002416313059877329</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0204993183379476</v>
+        <v>0.02034056381838452</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01357042583060386</v>
+        <v>-0.004506641366223807</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01727456422810215</v>
+        <v>0.01737330885488706</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0001888930865130423</v>
+        <v>-0.008690723597203687</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01604993922478996</v>
+        <v>0.01615232612731407</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0004702977572677014</v>
+        <v>0.004788906190322351</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01451402751919123</v>
+        <v>0.0145193927253078</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005504030510531388</v>
+        <v>0.01791083801804172</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01419676511865417</v>
+        <v>0.01459112916799014</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02174382604939162</v>
+        <v>7.046719751957475E-05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01436624692890389</v>
+        <v>0.01438584588576078</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.004515290415269768</v>
+        <v>-0.0005497903924128744</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01364212596787637</v>
+        <v>0.01348344572833607</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01743485703417236</v>
+        <v>0.01171118854045683</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01369158273366022</v>
+        <v>0.01338268252218689</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02830036983437856</v>
+        <v>-0.02399470461691222</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01220941299851181</v>
+        <v>0.0115689843575009</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.05801721389862924</v>
+        <v>-0.01996615905245358</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0133266326885319</v>
+        <v>0.01344204106709659</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002737616562580092</v>
+        <v>-0.01160310553707022</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01142616407584765</v>
+        <v>0.01148637276501831</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0006330856041839583</v>
+        <v>-0.005756465695320401</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01285183987424615</v>
+        <v>0.01298310974552624</v>
       </c>
       <c r="E24" s="1">
-        <v>0.004282602843648231</v>
+        <v>-0.002144354013353444</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0113227294567878</v>
+        <v>0.01127357574292696</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01018718165057342</v>
+        <v>-0.007261247040252661</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008849222832922858</v>
+        <v>0.008734287583568605</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01878343077497213</v>
+        <v>0.01331135902636915</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009310609639949242</v>
+        <v>0.009251074702076261</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01222828381779184</v>
+        <v>0.02970093873433299</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01007620666449183</v>
+        <v>0.009949931601239657</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01832993890020362</v>
+        <v>-0.004379898570769925</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01002502009131968</v>
+        <v>0.01012053304210605</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003599999999999826</v>
+        <v>-0.009233426331871741</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009767121535244944</v>
+        <v>0.009699842701833291</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.012719368861697</v>
+        <v>-0.004240052185257692</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008483407884100388</v>
+        <v>0.008457940140644557</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008855955178022623</v>
+        <v>0.009482129832239172</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01002867627511769</v>
+        <v>0.009996042236392697</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.009106482733747923</v>
+        <v>-0.01292083712465886</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009339151461856291</v>
+        <v>0.009271084977708711</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0131170176044183</v>
+        <v>-0.00454704442112619</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009022046316536353</v>
+        <v>0.009025504322219538</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.005490483162518212</v>
+        <v>-0.003128450496871715</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009338994206639173</v>
+        <v>0.009201958570978426</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.02045885076825926</v>
+        <v>-0.001976879109545027</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008261088320898769</v>
+        <v>0.008326963791050329</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002055850608189136</v>
+        <v>-0.005129081894340803</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008694051247430942</v>
+        <v>0.008561511112742165</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02102692803364303</v>
+        <v>-0.01087784937296499</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006803214516795212</v>
+        <v>0.006855733980073879</v>
       </c>
       <c r="E38" s="1">
-        <v>0.001802957543816985</v>
+        <v>-0.02493640438160838</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008830509462085726</v>
+        <v>0.008869376717087287</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001495886312640304</v>
+        <v>-0.005493133583021059</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.008277089039240602</v>
+        <v>0.007978088985458463</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.04178323256023819</v>
+        <v>-0.02806554906762104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006918286021921849</v>
+        <v>0.006861072689975817</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01409283084056911</v>
+        <v>0.01839811868861529</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00714410451370436</v>
+        <v>0.007137024672907132</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.006856702619414623</v>
+        <v>0.01357536265611659</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008083232670337474</v>
+        <v>0.008090874175386824</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.004931714719271563</v>
+        <v>0.0006354047528274176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007507914458508565</v>
+        <v>0.007505197926144526</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.006231214720328393</v>
+        <v>-0.01917969902626149</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007122403293741974</v>
+        <v>0.007191202691911989</v>
       </c>
       <c r="E45" s="1">
-        <v>0.003731343283582156</v>
+        <v>0.005147269087789397</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008095498577272736</v>
+        <v>0.007974371661526742</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.02074592074592063</v>
+        <v>-0.007617233991906724</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.00753598451476426</v>
+        <v>0.007533987413615719</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.00613496932515345</v>
+        <v>-0.0002519526329050059</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007192145982534134</v>
+        <v>0.007178231604150242</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.007794820216243448</v>
+        <v>-0.003041054232133744</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006544568998439163</v>
+        <v>0.006588561208981308</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0008109569291763208</v>
+        <v>-0.01260466372557845</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007313625637758362</v>
+        <v>0.007709176190397853</v>
       </c>
       <c r="E50" s="1">
-        <v>0.04789498580889306</v>
+        <v>0.00677124478049862</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006736538304736864</v>
+        <v>0.006629056312237494</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02173291392622245</v>
+        <v>-0.01085730989267952</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006679100836684246</v>
+        <v>0.006644835165947668</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01097167612365513</v>
+        <v>-0.001928250053562452</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005513761050225822</v>
+        <v>0.005543953638168659</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.000427807486631071</v>
+        <v>-0.01262572223411074</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006149622520645447</v>
+        <v>0.006157470270899587</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.004602874239247212</v>
+        <v>0.009659353645378399</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005640548069027806</v>
+        <v>0.005471584459497937</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0356508102456875</v>
+        <v>-0.01008239375542053</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005699518775447334</v>
+        <v>0.005686912425542793</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.008070356958096103</v>
+        <v>-0.004380932512777824</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006802546182122456</v>
+        <v>0.006769958707649399</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.01063387119145587</v>
+        <v>0.001682321603813097</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005502674557418951</v>
+        <v>0.005567443961737189</v>
       </c>
       <c r="E58" s="1">
-        <v>0.005829903978052053</v>
+        <v>0.001363791339925147</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005478614509199784</v>
+        <v>0.005454026035820451</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.01033324722293971</v>
+        <v>-0.002088227616810268</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004952281297503361</v>
+        <v>0.004918889573649836</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01257462212625438</v>
+        <v>0.00308721378955501</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004993953930039827</v>
+        <v>0.004928617889471147</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01887772774506413</v>
+        <v>-0.02586054721977038</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005106470037888285</v>
+        <v>0.005023923747720569</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.02194164292863177</v>
+        <v>-0.01755352644836283</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004202802932715446</v>
+        <v>0.004205796114747937</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.005163511187607606</v>
+        <v>-0.002707988566270414</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004117570605037088</v>
+        <v>0.004150748083759059</v>
       </c>
       <c r="E64" s="1">
-        <v>0.00213871066300042</v>
+        <v>-0.0007621951219511924</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003791266029515703</v>
+        <v>0.003830900041634028</v>
       </c>
       <c r="E65" s="1">
-        <v>0.004521133186776716</v>
+        <v>0.001899413659261606</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.00380290291558249</v>
+        <v>0.003789772202389464</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.009304056568663954</v>
+        <v>-0.002754820936639035</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003856212434185742</v>
+        <v>0.003853124893225802</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.006667482260827029</v>
+        <v>-0.01539503664018715</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003647456133460615</v>
+        <v>0.003630915923307337</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.01037961585720737</v>
+        <v>0.006142787126286464</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003541859255165382</v>
+        <v>0.003554868966704167</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.002219952936997727</v>
+        <v>-0.01081297557068472</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003006405240876071</v>
+        <v>0.003018941584548082</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.001726121979286344</v>
+        <v>-0.01959654178674353</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002882016364135149</v>
+        <v>0.002885394745001069</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.00470617122278616</v>
+        <v>0.00583857571645896</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002227598778095512</v>
+        <v>0.002217067357276907</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.01057145882602095</v>
+        <v>0.003567415229295712</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001922209146450919</v>
+        <v>0.001923042852677549</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.005440340328056625</v>
+        <v>0.002920128321131976</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001897834587797514</v>
+        <v>0.001900659817088681</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.004391597961635685</v>
+        <v>-0.0003120968748698827</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001514682251287704</v>
+        <v>0.001550203171525868</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01744186046511631</v>
+        <v>-0.01142857142857145</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.0017697502134543</v>
+        <v>0.001729662916229552</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.02838990581126721</v>
+        <v>-0.02967671132653527</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.006233203668544185</v>
+        <v>-0.001187724542183854</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06221020691732292</v>
+        <v>0.06224687718455242</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001281537845414404</v>
+        <v>0.0210121100328815</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03834712275964005</v>
+        <v>0.03841325681691291</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0001485019862139669</v>
+        <v>0.004913670400395809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03172237696132339</v>
+        <v>0.031787035389135</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0001645548790520923</v>
+        <v>0.01382033563672258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02943729048529585</v>
+        <v>0.02936430683631882</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004344549363833772</v>
+        <v>0.008237232289950436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02684149109297549</v>
+        <v>0.02699910664633258</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003991213143157646</v>
+        <v>0.01560642747083407</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02568117192828823</v>
+        <v>0.02553276731552215</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007637819525715961</v>
+        <v>-0.001737943020296617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1932810714498133</v>
+        <v>0.1938709789378046</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004705882352941115</v>
+        <v>0.009870740305522929</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02494027763189698</v>
+        <v>0.02493276075443614</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002170724552654657</v>
+        <v>0.005820790216368721</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02264182460811497</v>
+        <v>0.02273083493306028</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002053990610328738</v>
+        <v>0.01024890190336758</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02201857965956273</v>
+        <v>0.0220086400310875</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002320468978993628</v>
+        <v>0.01224140041620769</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01878846243889352</v>
+        <v>0.01877817681366088</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002416313059877329</v>
+        <v>0.01234713770898543</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02034056381838452</v>
+        <v>0.02028683039481731</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004506641366223807</v>
+        <v>-0.002382654276864571</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01737330885488706</v>
+        <v>0.01725458646061264</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008690723597203687</v>
+        <v>0.007242233657327901</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01615232612731407</v>
+        <v>0.01626008271722781</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004788906190322351</v>
+        <v>0.02359649122807017</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0145193927253078</v>
+        <v>0.01480713497501003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01791083801804172</v>
+        <v>0.02483089305591224</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01459112916799014</v>
+        <v>0.01461949425437457</v>
       </c>
       <c r="E17" s="1">
-        <v>7.046719751957475E-05</v>
+        <v>0.003523111612175889</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01438584588576078</v>
+        <v>0.01440487225613085</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0005497903924128744</v>
+        <v>0.0123770886337069</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01348344572833607</v>
+        <v>0.01366690856048981</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01171118854045683</v>
+        <v>0.01600816352562262</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01338268252218689</v>
+        <v>0.01308603850026252</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02399470461691222</v>
+        <v>-0.002373685995252561</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0115689843575009</v>
+        <v>0.01135923673333353</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01996615905245358</v>
+        <v>0.02348066298342544</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01344204106709659</v>
+        <v>0.01331096172050059</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01160310553707022</v>
+        <v>0.01087613293051382</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01148637276501831</v>
+        <v>0.0114416465092883</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005756465695320401</v>
+        <v>0.01861598980552936</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01298310974552624</v>
+        <v>0.01297953971287483</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002144354013353444</v>
+        <v>-0.002100122100122115</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01127357574292696</v>
+        <v>0.01121268204042168</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.007261247040252661</v>
+        <v>0.004611225950071685</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008734287583568605</v>
+        <v>0.008867133412393891</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01331135902636915</v>
+        <v>0.01501313649443259</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009251074702076261</v>
+        <v>0.009543685976914804</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02970093873433299</v>
+        <v>0.04071736964463635</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.009949931601239657</v>
+        <v>0.00992491043087476</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004379898570769925</v>
+        <v>0.0118082889557769</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01012053304210605</v>
+        <v>0.01004587054913913</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.009233426331871741</v>
+        <v>0.02031511900771021</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009699842701833291</v>
+        <v>0.009676809461149417</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004240052185257692</v>
+        <v>0.008516213560432195</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008457940140644557</v>
+        <v>0.008554134744104176</v>
       </c>
       <c r="E31" s="1">
-        <v>0.009482129832239172</v>
+        <v>0.01065751445086716</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009996042236392697</v>
+        <v>0.009885369586450312</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01292083712465886</v>
+        <v>0.01474926253687325</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009271084977708711</v>
+        <v>0.009246218381785793</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.00454704442112619</v>
+        <v>-0.002283907238229244</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009025504322219538</v>
+        <v>0.009014123926236278</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003128450496871715</v>
+        <v>0.008860993169651055</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009201958570978426</v>
+        <v>0.009200972245179859</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001976879109545027</v>
+        <v>-0.0008181544158806231</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008326963791050329</v>
+        <v>0.008299773801013039</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.005129081894340803</v>
+        <v>0.01220140917683454</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008561511112742165</v>
+        <v>0.008484244914881001</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01087784937296499</v>
+        <v>0.00609414401793229</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006855733980073879</v>
+        <v>0.006697299859538877</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02493640438160838</v>
+        <v>0.04138714371916352</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008869376717087287</v>
+        <v>0.008837180628441103</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.005493133583021059</v>
+        <v>0.007280944012051149</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007978088985458463</v>
+        <v>0.007768706187119954</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02806554906762104</v>
+        <v>0.00348837209302344</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.006861072689975817</v>
+        <v>0.007000393506680185</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01839811868861529</v>
+        <v>0.03006429412297384</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007137024672907132</v>
+        <v>0.007247464354206092</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01357536265611659</v>
+        <v>0.01515383437930495</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008090874175386824</v>
+        <v>0.008111182198347335</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0006354047528274176</v>
+        <v>-0.0002540005080009511</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007505197926144526</v>
+        <v>0.007375041026597597</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01917969902626149</v>
+        <v>0.002331528279181816</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007191202691911989</v>
+        <v>0.007241759062024609</v>
       </c>
       <c r="E45" s="1">
-        <v>0.005147269087789397</v>
+        <v>0.01825144983039717</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007974371661526742</v>
+        <v>0.00792845436820149</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.007617233991906724</v>
+        <v>-0.003837850803549925</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007533987413615719</v>
+        <v>0.007546199792042099</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.0002519526329050059</v>
+        <v>0.003780241935483986</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007178231604150242</v>
+        <v>0.007169808988402568</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.003041054232133744</v>
+        <v>0.003558718861209842</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006588561208981308</v>
+        <v>0.006517702016075929</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01260466372557845</v>
+        <v>0.01586577915564868</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007709176190397853</v>
+        <v>0.007775917042515995</v>
       </c>
       <c r="E50" s="1">
-        <v>0.00677124478049862</v>
+        <v>-0.00156933079251198</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006629056312237494</v>
+        <v>0.006569366606386029</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01085730989267952</v>
+        <v>-0.007936842994047399</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006644835165947668</v>
+        <v>0.006644446666690967</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.001928250053562452</v>
+        <v>0.007584792253017225</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005543953638168659</v>
+        <v>0.005484212109450959</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01262572223411074</v>
+        <v>-0.01582141309059393</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006157470270899587</v>
+        <v>0.006228594258796173</v>
       </c>
       <c r="E54" s="1">
-        <v>0.009659353645378399</v>
+        <v>0.01536817464760065</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005471584459497937</v>
+        <v>0.005426564886367221</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01008239375542053</v>
+        <v>0.002190340597963081</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005686912425542793</v>
+        <v>0.005672605611693694</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.004380932512777824</v>
+        <v>0.008188580408590829</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006769958707649399</v>
+        <v>0.006794052106116533</v>
       </c>
       <c r="E57" s="1">
-        <v>0.001682321603813097</v>
+        <v>-0.001912759505481643</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005567443961737189</v>
+        <v>0.00558548104567229</v>
       </c>
       <c r="E58" s="1">
-        <v>0.001363791339925147</v>
+        <v>-0.00102145045965274</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005454026035820451</v>
+        <v>0.0054528330024528</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.002088227616810268</v>
+        <v>-0.003400470834423075</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004918889573649836</v>
+        <v>0.004943318714578654</v>
       </c>
       <c r="E60" s="1">
-        <v>0.00308721378955501</v>
+        <v>0.005642472428827983</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004928617889471147</v>
+        <v>0.004810155610259447</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.02586054721977038</v>
+        <v>-0.005164446860560057</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005023923747720569</v>
+        <v>0.004944982758131587</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.01755352644836283</v>
+        <v>-0.01610447880778776</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004205796114747937</v>
+        <v>0.004202264652339305</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.002707988566270414</v>
+        <v>0.0007542615779152495</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004150748083759059</v>
+        <v>0.004155354472180441</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.0007621951219511924</v>
+        <v>0.02212051868802445</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003830900041634028</v>
+        <v>0.00384536693031984</v>
       </c>
       <c r="E65" s="1">
-        <v>0.001899413659261606</v>
+        <v>0.008860863831190224</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003789772202389464</v>
+        <v>0.003786412244444512</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.002754820936639035</v>
+        <v>0.01180311401305878</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003853124893225802</v>
+        <v>0.003800913195405782</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01539503664018715</v>
+        <v>0.01119519669772973</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003630915923307337</v>
+        <v>0.003660063794675409</v>
       </c>
       <c r="E68" s="1">
-        <v>0.006142787126286464</v>
+        <v>0.003637190270516122</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003554868966704167</v>
+        <v>0.003523017922066026</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.01081297557068472</v>
+        <v>-0.01090868196131356</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003018941584548082</v>
+        <v>0.00296532561132602</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01959654178674353</v>
+        <v>-0.002351557907113611</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002885394745001069</v>
+        <v>0.00290767838824228</v>
       </c>
       <c r="E71" s="1">
-        <v>0.00583857571645896</v>
+        <v>0.02824673997465554</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002217067357276907</v>
+        <v>0.002229144819491687</v>
       </c>
       <c r="E72" s="1">
-        <v>0.003567415229295712</v>
+        <v>0.03887101647619229</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001923042852677549</v>
+        <v>0.00193227152563158</v>
       </c>
       <c r="E73" s="1">
-        <v>0.002920128321131976</v>
+        <v>0.02864465860159937</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001900659817088681</v>
+        <v>0.001903626204470382</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.0003120968748698827</v>
+        <v>0.02331050846046567</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001550203171525868</v>
+        <v>0.001535357518172544</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01142857142857145</v>
+        <v>-0.005419075144508567</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001729662916229552</v>
+        <v>0.00168147639015387</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.02967671132653527</v>
+        <v>-0.006361922714420376</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.001187724542183854</v>
+        <v>0.009945449482728241</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06224687718455242</v>
+        <v>0.06291192922903889</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0210121100328815</v>
+        <v>-0.01476710391956637</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03841325681691291</v>
+        <v>0.03821152984626296</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004913670400395809</v>
+        <v>-0.01373288008670792</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.031787035389135</v>
+        <v>0.03190035860724451</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01382033563672258</v>
+        <v>-0.005314832846478379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02936430683631882</v>
+        <v>0.02930670725018033</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008237232289950436</v>
+        <v>0.001457339692634063</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02699910664633258</v>
+        <v>0.0271430956186682</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01560642747083407</v>
+        <v>-0.005557120873880939</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02553276731552215</v>
+        <v>0.02523056600475611</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001737943020296617</v>
+        <v>0.0113784741652676</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1938709789378046</v>
+        <v>0.194074790689292</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009870740305522929</v>
+        <v>0.009528236114338728</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02493276075443614</v>
+        <v>0.02482421474197043</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005820790216368721</v>
+        <v>-0.0006430116326648916</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02273083493306028</v>
+        <v>0.02273151162152061</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01024890190336758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0220086400310875</v>
+        <v>0.02205270381761226</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01224140041620769</v>
+        <v>-0.0009674688595961989</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01877817681366088</v>
+        <v>0.0188177383162501</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01234713770898543</v>
+        <v>0.0060690943043884</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02028683039481731</v>
+        <v>0.02003377221779749</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002382654276864571</v>
+        <v>0.01265822784810133</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01725458646061264</v>
+        <v>0.01720374608408924</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007242233657327901</v>
+        <v>-0.007947019867549754</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01626008271722781</v>
+        <v>0.01647540429264124</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02359649122807017</v>
+        <v>-0.00345645156682961</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01480713497501003</v>
+        <v>0.01502130918415349</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02483089305591224</v>
+        <v>-0.005054724705489178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01461949425437457</v>
+        <v>0.01452259644816444</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003523111612175889</v>
+        <v>-0.00470439545007717</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01440487225613085</v>
+        <v>0.01443564723963285</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0123770886337069</v>
+        <v>-0.0008829722203353985</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01366690856048981</v>
+        <v>0.0137452305201966</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01600816352562262</v>
+        <v>-0.007469947584821557</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01308603850026252</v>
+        <v>0.01292291926386737</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002373685995252561</v>
+        <v>0.001359619306594118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01135923673333353</v>
+        <v>0.01150835721906922</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02348066298342544</v>
+        <v>0.01248313090418351</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01331096172050059</v>
+        <v>0.01331962257658593</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01087613293051382</v>
+        <v>-0.008453590641277486</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0114416465092883</v>
+        <v>0.01153675199894152</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01861598980552936</v>
+        <v>-0.0002719608376392513</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01297953971287483</v>
+        <v>0.01282126281437982</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002100122100122115</v>
+        <v>0.007316953797964043</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01121268204042168</v>
+        <v>0.01115044180316516</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004611225950071685</v>
+        <v>-0.0004115226337448874</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008867133412393891</v>
+        <v>0.008909215158714815</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01501313649443259</v>
+        <v>-0.005053617650684128</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009543685976914804</v>
+        <v>0.00983181018870904</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04071736964463635</v>
+        <v>-0.02013658412050034</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.00992491043087476</v>
+        <v>0.009940526113855442</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0118082889557769</v>
+        <v>-0.003890160183066427</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01004587054913913</v>
+        <v>0.01014627061000192</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02031511900771021</v>
+        <v>-0.005256932579839613</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009676809461149417</v>
+        <v>0.0096605002460541</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008516213560432195</v>
+        <v>0.003572588502760654</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008554134744104176</v>
+        <v>0.008557849367449803</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01065751445086716</v>
+        <v>0.002323503127792614</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009885369586450312</v>
+        <v>0.00992970158451186</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01474926253687325</v>
+        <v>0.0007267441860463464</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009246218381785793</v>
+        <v>0.009131784738514902</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002283907238229244</v>
+        <v>0.002113048071843648</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009014123926236278</v>
+        <v>0.009002008044319573</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008860993169651055</v>
+        <v>-0.0005489478499541844</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009200972245179859</v>
+        <v>0.00910044851045142</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0008181544158806231</v>
+        <v>-0.0002154800896396747</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008299773801013039</v>
+        <v>0.008316062326133938</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01220140917683454</v>
+        <v>-0.005687606112054322</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008484244914881001</v>
+        <v>0.008449604074013987</v>
       </c>
       <c r="E37" s="1">
-        <v>0.00609414401793229</v>
+        <v>-0.001392466754856048</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006697299859538877</v>
+        <v>0.006903931878507175</v>
       </c>
       <c r="E38" s="1">
-        <v>0.04138714371916352</v>
+        <v>-0.01005487576263675</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008837180628441103</v>
+        <v>0.008811480640148858</v>
       </c>
       <c r="E39" s="1">
-        <v>0.007280944012051149</v>
+        <v>-0.004237288135592987</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007768706187119954</v>
+        <v>0.007716948158552246</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00348837209302344</v>
+        <v>0.00540749324063361</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007000393506680185</v>
+        <v>0.00713791427728908</v>
       </c>
       <c r="E41" s="1">
-        <v>0.03006429412297384</v>
+        <v>-0.008263736263736221</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007247464354206092</v>
+        <v>0.00728286884415095</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01515383437930495</v>
+        <v>-0.008896260554885238</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008111182198347335</v>
+        <v>0.008027094455831378</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0002540005080009511</v>
+        <v>0.003938008130081494</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007375041026597597</v>
+        <v>0.007317460274879352</v>
       </c>
       <c r="E44" s="1">
-        <v>0.002331528279181816</v>
+        <v>-0.004577174157725072</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007241759062024609</v>
+        <v>0.007299340954021618</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01825144983039717</v>
+        <v>-0.006340131960712814</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00792845436820149</v>
+        <v>0.007818133976329201</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.003837850803549925</v>
+        <v>0.009390801830002404</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007546199792042099</v>
+        <v>0.007498104413127668</v>
       </c>
       <c r="E47" s="1">
-        <v>0.003780241935483986</v>
+        <v>-0.006025608837559537</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007169808988402568</v>
+        <v>0.007122540308076458</v>
       </c>
       <c r="E48" s="1">
-        <v>0.003558718861209842</v>
+        <v>0.0002532928064844508</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006517702016075929</v>
+        <v>0.006554134859610795</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01586577915564868</v>
+        <v>-0.004398168925590085</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007775917042515995</v>
+        <v>0.007685180518087387</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.00156933079251198</v>
+        <v>0.008308072302683378</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006569366606386029</v>
+        <v>0.006451301830846773</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.007936842994047399</v>
+        <v>0.009574875526618065</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006644446666690967</v>
+        <v>0.006627121994061537</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007584792253017225</v>
+        <v>0.01880740460183694</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005484212109450959</v>
+        <v>0.005342846494478524</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01582141309059393</v>
+        <v>-0.004404316229905336</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006228594258796173</v>
+        <v>0.006260343014274682</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01536817464760065</v>
+        <v>0.001754122187139773</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005426564886367221</v>
+        <v>0.005383438479516954</v>
       </c>
       <c r="E55" s="1">
-        <v>0.002190340597963081</v>
+        <v>-0.01070921210796638</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005672605611693694</v>
+        <v>0.00566120531510746</v>
       </c>
       <c r="E56" s="1">
-        <v>0.008188580408590829</v>
+        <v>0.001957776863317218</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006794052106116533</v>
+        <v>0.006712463210915278</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.001912759505481643</v>
+        <v>-0.009675609984107658</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.00558548104567229</v>
+        <v>0.005523333755489976</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.00102145045965274</v>
+        <v>0.005453306066802943</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.0054528330024528</v>
+        <v>0.005379320452049288</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.003400470834423075</v>
+        <v>0.01902887139107601</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004943318714578654</v>
+        <v>0.004920925165934151</v>
       </c>
       <c r="E60" s="1">
-        <v>0.005642472428827983</v>
+        <v>0.006885998469777999</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004810155610259447</v>
+        <v>0.00473690816709327</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.005164446860560057</v>
+        <v>0.006375227686703067</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004944982758131587</v>
+        <v>0.004816131171709336</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.01610447880778776</v>
+        <v>0.01653094462540716</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004202264652339305</v>
+        <v>0.004162894357409738</v>
       </c>
       <c r="E63" s="1">
-        <v>0.0007542615779152495</v>
+        <v>-0.002487187217365183</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004155354472180441</v>
+        <v>0.0042043099479417</v>
       </c>
       <c r="E64" s="1">
-        <v>0.02212051868802445</v>
+        <v>0.0007462686567163423</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.00384536693031984</v>
+        <v>0.003840197881181525</v>
       </c>
       <c r="E65" s="1">
-        <v>0.008860863831190224</v>
+        <v>-0.00126639160096409</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003786412244444512</v>
+        <v>0.003792350323938159</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01180311401305878</v>
+        <v>0.001365103003226453</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003800913195405782</v>
+        <v>0.003804586748413512</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01119519669772973</v>
+        <v>-0.001855517070757151</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003660063794675409</v>
+        <v>0.003636218253949765</v>
       </c>
       <c r="E68" s="1">
-        <v>0.003637190270516122</v>
+        <v>0.001779647306261012</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003523017922066026</v>
+        <v>0.003449338245536124</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.01090868196131356</v>
+        <v>0.01421262080727681</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.00296532561132602</v>
+        <v>0.002928427380530885</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.002351557907113611</v>
+        <v>-0.001767825574543247</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.00290767838824228</v>
+        <v>0.002959567512048289</v>
       </c>
       <c r="E71" s="1">
-        <v>0.02824673997465554</v>
+        <v>-0.003379184225173026</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002229144819491687</v>
+        <v>0.002292368623667839</v>
       </c>
       <c r="E72" s="1">
-        <v>0.03887101647619229</v>
+        <v>0.02595380667236946</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.00193227152563158</v>
+        <v>0.001967515085432755</v>
       </c>
       <c r="E73" s="1">
-        <v>0.02864465860159937</v>
+        <v>-0.007534833655590378</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001903626204470382</v>
+        <v>0.00192829577621688</v>
       </c>
       <c r="E74" s="1">
-        <v>0.02331050846046567</v>
+        <v>-0.007321984257733893</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001535357518172544</v>
+        <v>0.001511590615798218</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.005419075144508567</v>
+        <v>-0.01307664366146033</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.00168147639015387</v>
+        <v>0.001653878269633409</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.006361922714420376</v>
+        <v>0.009058572444865964</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E77" s="1">
-        <v>0.009945449482728241</v>
+        <v>0.000315385996990214</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06291192922903889</v>
+        <v>0.06207811792476992</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01476710391956637</v>
+        <v>0.01331419915490706</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03821152984626296</v>
+        <v>0.03774466842869519</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01373288008670792</v>
+        <v>0.0130842813791725</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03190035860724451</v>
+        <v>0.03177955715913908</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005314832846478379</v>
+        <v>0.02288208182077733</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02930670725018033</v>
+        <v>0.02939450249613725</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001457339692634063</v>
+        <v>0.01124487366053684</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0271430956186682</v>
+        <v>0.02703372259897427</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005557120873880939</v>
+        <v>0.02916574038960307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02523056600475611</v>
+        <v>0.02555685055888524</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0113784741652676</v>
+        <v>0.00541005778925352</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.194074790689292</v>
+        <v>0.1943729207366834</v>
       </c>
       <c r="E8" s="1">
         <v>0.009528236114338728</v>
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02482421474197043</v>
+        <v>0.02484636194320051</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0006430116326648916</v>
+        <v>-0.002398221806270473</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02273151162152061</v>
+        <v>0.02276643087410839</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>-0.0002898550724637072</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02205270381761226</v>
+        <v>0.02206521223372782</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0009674688595961989</v>
+        <v>0.009320905459387685</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0188177383162501</v>
+        <v>0.01896102745263907</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0060690943043884</v>
+        <v>0.01107888631090503</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02003377221779749</v>
+        <v>0.02031852892090889</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01265822784810133</v>
+        <v>0.005424528301886777</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01720374608408924</v>
+        <v>0.01709324526752049</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.007947019867549754</v>
+        <v>0.01831012778943353</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01647540429264124</v>
+        <v>0.01644367924377113</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00345645156682961</v>
+        <v>0.01645359169867588</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01502130918415349</v>
+        <v>0.01496833910638067</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005054724705489178</v>
+        <v>0.02195910484107988</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01452259644816444</v>
+        <v>0.0144764805014711</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00470439545007717</v>
+        <v>7.054673721329507E-05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01443564723963285</v>
+        <v>0.01444505685637226</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0008829722203353985</v>
+        <v>0.005098572399728107</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0137452305201966</v>
+        <v>0.01366351152320778</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.007469947584821557</v>
+        <v>0.02656294469215426</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01292291926386737</v>
+        <v>0.01296036818456489</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001359619306594118</v>
+        <v>0.01171079429735222</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01150835721906922</v>
+        <v>0.01166991691902473</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01248313090418351</v>
+        <v>-0.008663778740419903</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01331962257658593</v>
+        <v>0.01322731204967953</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.008453590641277486</v>
+        <v>-0.001808473992421678</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01153675199894152</v>
+        <v>0.01155133193833298</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0002719608376392513</v>
+        <v>0.01300326441784549</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01282126281437982</v>
+        <v>0.01293491503203483</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007316953797964043</v>
+        <v>-0.001651969001287612</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01115044180316516</v>
+        <v>0.01116297496446771</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0004115226337448874</v>
+        <v>-0.002945181619533166</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008909215158714815</v>
+        <v>0.008877808213323814</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005053617650684128</v>
+        <v>0.02700693756194261</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.00983181018870904</v>
+        <v>0.00964863022759832</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02013658412050034</v>
+        <v>0.03344732128317851</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.009940526113855442</v>
+        <v>0.009917066715855146</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003890160183066427</v>
+        <v>0.01102687801516189</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01014627061000192</v>
+        <v>0.01010843671450707</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005256932579839613</v>
+        <v>-0.006077421059585086</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0096605002460541</v>
+        <v>0.009709906335541054</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003572588502760654</v>
+        <v>0.01626213592233006</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008557849367449803</v>
+        <v>0.008590910333571421</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002323503127792614</v>
+        <v>0.01569186875891582</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.00992970158451186</v>
+        <v>0.009952182639253097</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0007267441860463464</v>
+        <v>0.01053013798111824</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009131784738514902</v>
+        <v>0.009165138168196318</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002113048071843648</v>
+        <v>0.001230012300122985</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009002008044319573</v>
+        <v>0.009010887350317395</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0005489478499541844</v>
+        <v>0.003295496155254485</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00910044851045142</v>
+        <v>0.00911246428309939</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0002154800896396747</v>
+        <v>0.0003448424501055758</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008316062326133938</v>
+        <v>0.00828146598846061</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.005687606112054322</v>
+        <v>0.001366003585759445</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008449604074013987</v>
+        <v>0.008450800155986976</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001392466754856048</v>
+        <v>0.001464128843338131</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006903931878507175</v>
+        <v>0.00684501261187996</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01005487576263675</v>
+        <v>0.0440022035532297</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008811480640148858</v>
+        <v>0.008787622351890149</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.004237288135592987</v>
+        <v>-0.003504380475594537</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007716948158552246</v>
+        <v>0.007770596078266245</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00540749324063361</v>
+        <v>0.01421436803688025</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.00713791427728908</v>
+        <v>0.007089802807199912</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.008263736263736221</v>
+        <v>0.01761811896108489</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00728286884415095</v>
+        <v>0.00722916667321326</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.008896260554885238</v>
+        <v>0.01102997109386883</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008027094455831378</v>
+        <v>0.008071084684523888</v>
       </c>
       <c r="E43" s="1">
-        <v>0.003938008130081494</v>
+        <v>0.004428697962798989</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007317460274879352</v>
+        <v>0.00729515632792082</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.004577174157725072</v>
+        <v>0.01055329413538386</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007299340954021618</v>
+        <v>0.007264204037498464</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.006340131960712814</v>
+        <v>0.0002595492494701368</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007818133976329201</v>
+        <v>0.007903675215259826</v>
       </c>
       <c r="E46" s="1">
-        <v>0.009390801830002404</v>
+        <v>-0.001192748091603191</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007498104413127668</v>
+        <v>0.007464372656778065</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.006025608837559537</v>
+        <v>-0.001894417782268287</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007122540308076458</v>
+        <v>0.007135288533480481</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0002532928064844508</v>
+        <v>0.0007596859964547065</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006554134859610795</v>
+        <v>0.006535332589430908</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.004398168925590085</v>
+        <v>0.01442481067435986</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007685180518087387</v>
+        <v>0.007760933307398353</v>
       </c>
       <c r="E50" s="1">
-        <v>0.008308072302683378</v>
+        <v>-0.001113461752588973</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006451301830846773</v>
+        <v>0.006523077367842362</v>
       </c>
       <c r="E51" s="1">
-        <v>0.009574875526618065</v>
+        <v>0.007629404822121044</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006627121994061537</v>
+        <v>0.006762132747931774</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01880740460183694</v>
+        <v>0.01346468859277161</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005342846494478524</v>
+        <v>0.005327486230944309</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.004404316229905336</v>
+        <v>0.02123424021234244</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006260343014274682</v>
+        <v>0.006280958182355812</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001754122187139773</v>
+        <v>0.005703422053231932</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005383438479516954</v>
+        <v>0.005333967357745945</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01070921210796638</v>
+        <v>0.006296255384955263</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00566120531510746</v>
+        <v>0.00568100223830624</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001957776863317218</v>
+        <v>0.005368180875337192</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006712463210915278</v>
+        <v>0.006657727687090885</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.009675609984107658</v>
+        <v>0.007363005616651819</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005523333755489976</v>
+        <v>0.00556198518249439</v>
       </c>
       <c r="E58" s="1">
-        <v>0.005453306066802943</v>
+        <v>-0.001694915254237372</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005379320452049288</v>
+        <v>0.005490103594330798</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01902887139107601</v>
+        <v>0.004893754024468677</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004920925165934151</v>
+        <v>0.004962422034008554</v>
       </c>
       <c r="E60" s="1">
-        <v>0.006885998469777999</v>
+        <v>-0.007345491388044523</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.00473690816709327</v>
+        <v>0.004774430077204754</v>
       </c>
       <c r="E61" s="1">
-        <v>0.006375227686703067</v>
+        <v>0.009954751131221684</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004816131171709336</v>
+        <v>0.004903267022109991</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01653094462540716</v>
+        <v>0.01145557958824006</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004162894357409738</v>
+        <v>0.004158919428831257</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.002487187217365183</v>
+        <v>-0.001737816395919856</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.0042043099479417</v>
+        <v>0.004213910807754224</v>
       </c>
       <c r="E64" s="1">
-        <v>0.0007462686567163423</v>
+        <v>0.003579418344519247</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003840197881181525</v>
+        <v>0.003841226376882001</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.00126639160096409</v>
+        <v>-0.003108638743455461</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003792350323938159</v>
+        <v>0.003803360884537901</v>
       </c>
       <c r="E66" s="1">
-        <v>0.001365103003226453</v>
+        <v>-0.001611104226050264</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003804586748413512</v>
+        <v>0.003803360884537901</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.001855517070757151</v>
+        <v>0.005019209319618412</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003636218253949765</v>
+        <v>0.003648285195975134</v>
       </c>
       <c r="E68" s="1">
-        <v>0.001779647306261012</v>
+        <v>0.007235142118863003</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003449338245536124</v>
+        <v>0.003503736428520478</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01421262080727681</v>
+        <v>-0.007197309417040332</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002928427380530885</v>
+        <v>0.00292774101385877</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.001767825574543247</v>
+        <v>0.004132231404958775</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002959567512048289</v>
+        <v>0.002954097596185421</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.003379184225173026</v>
+        <v>0.02584865770473499</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002292368623667839</v>
+        <v>0.00235547715705255</v>
       </c>
       <c r="E72" s="1">
-        <v>0.02595380667236946</v>
+        <v>0.0413727550152585</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001967515085432755</v>
+        <v>0.001955689832282579</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.007534833655590378</v>
+        <v>0.01006246359637664</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.00192829577621688</v>
+        <v>0.001917117307923755</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.007321984257733893</v>
+        <v>0.01999713155899774</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001511590615798218</v>
+        <v>0.001494115765337017</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01307664366146033</v>
+        <v>0.02686786897313209</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001653878269633409</v>
+        <v>0.001671423682807212</v>
       </c>
       <c r="E76" s="1">
-        <v>0.009058572444865964</v>
+        <v>-0.0002820078962211259</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.000315385996990214</v>
+        <v>0.009713692884775416</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06207811792476992</v>
+        <v>0.06241396089769598</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01331419915490706</v>
+        <v>-0.001573564122737792</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03774466842869519</v>
+        <v>0.03794025682316408</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0130842813791725</v>
+        <v>0.004332833074986553</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03177955715913908</v>
+        <v>0.03225317602434644</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02288208182077733</v>
+        <v>0.00374830528750314</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02939450249613725</v>
+        <v>0.02949317459886405</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01124487366053684</v>
+        <v>-0.001308215593929685</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02703372259897427</v>
+        <v>0.02760515871228057</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02916574038960307</v>
+        <v>0.0007750821671805852</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02555685055888524</v>
+        <v>0.02549468401386035</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00541005778925352</v>
+        <v>-0.01033386327503971</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1943729207366834</v>
+        <v>0.1928567462217</v>
       </c>
       <c r="E8" s="1">
         <v>0.009528236114338728</v>
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02484636194320051</v>
+        <v>0.02459342962988622</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002398221806270473</v>
+        <v>-0.002755790090882448</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02276643087410839</v>
+        <v>0.02258229752280655</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0002898550724637072</v>
+        <v>0.003406784575239241</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02206521223372782</v>
+        <v>0.02209715959538125</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009320905459387685</v>
+        <v>-0.001559126888942219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01896102745263907</v>
+        <v>0.01902155349956707</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01107888631090503</v>
+        <v>0.01067064425448883</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02031852892090889</v>
+        <v>0.02026939621810043</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005424528301886777</v>
+        <v>-0.01454374853389651</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01709324526752049</v>
+        <v>0.01727045033302256</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01831012778943353</v>
+        <v>-0.001498407941561974</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01644367924377113</v>
+        <v>0.01658386012837511</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01645359169867588</v>
+        <v>0.002058657642413753</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01496833910638067</v>
+        <v>0.0151777084235627</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02195910484107988</v>
+        <v>0.006573541495480617</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0144764805014711</v>
+        <v>0.01436457236011464</v>
       </c>
       <c r="E17" s="1">
-        <v>7.054673721329507E-05</v>
+        <v>0.004091422121896171</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01444505685637226</v>
+        <v>0.01440545520762984</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005098572399728107</v>
+        <v>0.00304362529590807</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01366351152320778</v>
+        <v>0.01391704353455032</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02656294469215426</v>
+        <v>0.009734158888580868</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01296036818456489</v>
+        <v>0.01300986522986855</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01171079429735222</v>
+        <v>-0.02264720684448918</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01166991691902473</v>
+        <v>0.01147857070010734</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008663778740419903</v>
+        <v>-0.007731092436974785</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01322731204967953</v>
+        <v>0.01310039988647274</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001808473992421678</v>
+        <v>-0.01164696747476479</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01155133193833298</v>
+        <v>0.01161026101636458</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01300326441784549</v>
+        <v>-0.01385681293302532</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01293491503203483</v>
+        <v>0.01281281692001457</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001651969001287612</v>
+        <v>0.005110110719065641</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01116297496446771</v>
+        <v>0.01104327944758379</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002945181619533166</v>
+        <v>0.006066573497649719</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.008877808213323814</v>
+        <v>0.009046450491160062</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02700693756194261</v>
+        <v>-0.02014475271411353</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.00964863022759832</v>
+        <v>0.009893571152351923</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03344732128317851</v>
+        <v>0.009028740703390881</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.009917066715855146</v>
+        <v>0.00994821152624735</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01102687801516189</v>
+        <v>-0.004544421722335823</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01010843671450707</v>
+        <v>0.009968633463423672</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.006077421059585086</v>
+        <v>-0.005117639239665128</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009709906335541054</v>
+        <v>0.009790837895869509</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01626213592233006</v>
+        <v>-0.003343682827800176</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008590910333571421</v>
+        <v>0.008657654221558937</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01569186875891582</v>
+        <v>-0.001580056179775413</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009952182639253097</v>
+        <v>0.009978532646711429</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01053013798111824</v>
+        <v>0.0007186489399930718</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009165138168196318</v>
+        <v>0.009104832288660309</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001230012300122985</v>
+        <v>-0.008775008775008808</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009010887350317395</v>
+        <v>0.008970063092561605</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003295496155254485</v>
+        <v>-0.0001824817518248922</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00911246428309939</v>
+        <v>0.009044501833032549</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0003448424501055758</v>
+        <v>0.002154522342396659</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00828146598846061</v>
+        <v>0.008228092023930272</v>
       </c>
       <c r="E36" s="1">
-        <v>0.001366003585759445</v>
+        <v>0.009463722397476282</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008450800155986976</v>
+        <v>0.008397157603073181</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001464128843338131</v>
+        <v>-0.005778334725703105</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00684501261187996</v>
+        <v>0.007090465409088973</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0440022035532297</v>
+        <v>-0.002885693555834012</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008787622351890149</v>
+        <v>0.008688520966298722</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.003504380475594537</v>
+        <v>-0.01205727204220053</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007770596078266245</v>
+        <v>0.007819575334078729</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01421436803688025</v>
+        <v>-0.01638257575757562</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007089802807199912</v>
+        <v>0.007158434604576578</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01761811896108489</v>
+        <v>0.000762211720638506</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.00722916667321326</v>
+        <v>0.007251892248372037</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01102997109386883</v>
+        <v>0.006320066210217412</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008071084684523888</v>
+        <v>0.008043593072417468</v>
       </c>
       <c r="E43" s="1">
-        <v>0.004428697962798989</v>
+        <v>-0.006928697404887996</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.00729515632792082</v>
+        <v>0.007314639040077912</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01055329413538386</v>
+        <v>0.001939430105922568</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007264204037498464</v>
+        <v>0.007209411501192283</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0002595492494701368</v>
+        <v>0.003373264714786162</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007903675215259826</v>
+        <v>0.007832670316695607</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001192748091603191</v>
+        <v>-0.01456890374970132</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007464372656778065</v>
+        <v>0.007392117687227775</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.001894417782268287</v>
+        <v>-0.01935973680880676</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007135288533480481</v>
+        <v>0.007085009166331939</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0007596859964547065</v>
+        <v>-0.01543522267206487</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006535332589430908</v>
+        <v>0.006577890375228309</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01442481067435986</v>
+        <v>0.0009776039815143633</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007760933307398353</v>
+        <v>0.007691821307239066</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.001113461752588973</v>
+        <v>-0.01125849960985392</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006523077367842362</v>
+        <v>0.006521574155343223</v>
       </c>
       <c r="E51" s="1">
-        <v>0.007629404822121044</v>
+        <v>-0.00786446350135972</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006762132747931774</v>
+        <v>0.006799725616464234</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01346468859277161</v>
+        <v>0.002189463065706887</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005327486230944309</v>
+        <v>0.005398172744832759</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02123424021234244</v>
+        <v>0.01082954299328565</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006280958182355812</v>
+        <v>0.006267508108678255</v>
       </c>
       <c r="E54" s="1">
-        <v>0.005703422053231932</v>
+        <v>-0.008954332902198825</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005333967357745945</v>
+        <v>0.005325682662489326</v>
       </c>
       <c r="E55" s="1">
-        <v>0.006296255384955263</v>
+        <v>0.02305159165751913</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.00568100223830624</v>
+        <v>0.005666947263044186</v>
       </c>
       <c r="E56" s="1">
-        <v>0.005368180875337192</v>
+        <v>-0.005655184366025301</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006657727687090885</v>
+        <v>0.006654433666476967</v>
       </c>
       <c r="E57" s="1">
-        <v>0.007363005616651819</v>
+        <v>-0.009089631260834952</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.00556198518249439</v>
+        <v>0.005509246258100922</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.001694915254237372</v>
+        <v>-0.01154499151103561</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005490103594330798</v>
+        <v>0.005473936572830412</v>
       </c>
       <c r="E59" s="1">
-        <v>0.004893754024468677</v>
+        <v>-0.009611687812379865</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004962422034008554</v>
+        <v>0.004887546369099607</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.007345491388044523</v>
+        <v>-0.007272263332482654</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004774430077204754</v>
+        <v>0.004784345434666591</v>
       </c>
       <c r="E61" s="1">
-        <v>0.009954751131221684</v>
+        <v>-0.01532258064516123</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004903267022109991</v>
+        <v>0.004920751503592407</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01145557958824006</v>
+        <v>-0.01964200855377807</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004158919428831257</v>
+        <v>0.004119307388909417</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.001737816395919856</v>
+        <v>-0.0001513775355738156</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004213910807754224</v>
+        <v>0.004196006572808275</v>
       </c>
       <c r="E64" s="1">
-        <v>0.003579418344519247</v>
+        <v>-0.007876356070738555</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003841226376882001</v>
+        <v>0.003799415670697105</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.003108638743455461</v>
+        <v>-0.005046774987690794</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003803360884537901</v>
+        <v>0.003767613570056115</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.001611104226050264</v>
+        <v>-0.004344587884806406</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003803360884537901</v>
+        <v>0.003792634340413364</v>
       </c>
       <c r="E67" s="1">
-        <v>0.005019209319618412</v>
+        <v>-0.006597200813860282</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003648285195975134</v>
+        <v>0.003646017302899388</v>
       </c>
       <c r="E68" s="1">
-        <v>0.007235142118863003</v>
+        <v>-0.01042201128783993</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003503736428520478</v>
+        <v>0.003451385329123525</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.007197309417040332</v>
+        <v>-0.002055150296980557</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.00292774101385877</v>
+        <v>0.002916907377909631</v>
       </c>
       <c r="E70" s="1">
-        <v>0.004132231404958775</v>
+        <v>-0.01293356848912408</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.002954097596185421</v>
+        <v>0.003006818463913018</v>
       </c>
       <c r="E71" s="1">
-        <v>0.02584865770473499</v>
+        <v>0.005754948088812828</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00235547715705255</v>
+        <v>0.002433796054936944</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0413727550152585</v>
+        <v>0.002289905201127151</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001955689832282579</v>
+        <v>0.001959960344651212</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01006246359637664</v>
+        <v>-0.003102008351560936</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001917117307923755</v>
+        <v>0.001940200951238244</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01999713155899774</v>
+        <v>0.014563204306691</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001494115765337017</v>
+        <v>0.001522291729212097</v>
       </c>
       <c r="E75" s="1">
-        <v>0.02686786897313209</v>
+        <v>0.02437275985663101</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001671423682807212</v>
+        <v>0.001657918334886907</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.0002820078962211259</v>
+        <v>-0.02491772449459329</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.009713692884775416</v>
+        <v>1.978667462654293E-05</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06241396089769598</v>
+        <v>0.0749825898102265</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001573564122737792</v>
+        <v>-0.0003940110323090718</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03794025682316408</v>
+        <v>0.04585012745713136</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004332833074986553</v>
+        <v>0.001874779460272036</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03225317602434644</v>
+        <v>0.03895470610104176</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00374830528750314</v>
+        <v>-0.000913713650087411</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.02949317459886405</v>
+        <v>0.03544178766590093</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001308215593929685</v>
+        <v>-0.008514540214828559</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02760515871228057</v>
+        <v>0.03324216893408568</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007750821671805852</v>
+        <v>0.00738085463863869</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02549468401386035</v>
+        <v>0.03035994386477331</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01033386327503971</v>
+        <v>-0.0001235712079084017</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1928567462217</v>
+        <v>0.0309770845216476</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009528236114338728</v>
+        <v>0.0004526462395542108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02459342962988622</v>
+        <v>0.02951095340489092</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002755790090882448</v>
+        <v>-0.005938381937911519</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02258229752280655</v>
+        <v>0.02726514291418349</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003406784575239241</v>
+        <v>-0.002239398974210882</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02209715959538125</v>
+        <v>0.02654736518666693</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001559126888942219</v>
+        <v>0.002522522522522497</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01902155349956707</v>
+        <v>0.02313227011096682</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01067064425448883</v>
+        <v>0.001702900607367885</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02026939621810043</v>
+        <v>0.02403481487405212</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01454374853389651</v>
+        <v>0.0007141156867414011</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01727045033302256</v>
+        <v>0.02074985394142391</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001498407941561974</v>
+        <v>-0.007503282686175394</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01658386012837511</v>
+        <v>0.01999592002496738</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002058657642413753</v>
+        <v>0.008442855936734883</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0151777084235627</v>
+        <v>0.01838291318348955</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006573541495480617</v>
+        <v>0.001020408163265207</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01436457236011464</v>
+        <v>0.01735515827193507</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004091422121896171</v>
+        <v>-0.001194323450892321</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01440545520762984</v>
+        <v>0.01738639046627233</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00304362529590807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01391704353455032</v>
+        <v>0.01690895057055522</v>
       </c>
       <c r="E19" s="1">
-        <v>0.009734158888580868</v>
+        <v>-0.0003965953811890799</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01300986522986855</v>
+        <v>0.01529983602957288</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02264720684448918</v>
+        <v>0.01167181599725375</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01147857070010734</v>
+        <v>0.01370502452053177</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007731092436974785</v>
+        <v>0.001016260162601812</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01310039988647274</v>
+        <v>0.01557970650375417</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01164696747476479</v>
+        <v>0.001222067039106101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01161026101636458</v>
+        <v>0.01377668036579803</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01385681293302532</v>
+        <v>-0.01244485594466549</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01281281692001457</v>
+        <v>0.01549604549069461</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005110110719065641</v>
+        <v>0.0003873623048056274</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01104327944758379</v>
+        <v>0.01336864534638593</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006066573497649719</v>
+        <v>0.001831097079715738</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.009046450491160062</v>
+        <v>0.01066602884210612</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02014475271411353</v>
+        <v>0.0124338298658131</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.009893571152351923</v>
+        <v>0.0120121082809298</v>
       </c>
       <c r="E27" s="1">
-        <v>0.009028740703390881</v>
+        <v>-0.003638521479769619</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.00994821152624735</v>
+        <v>0.01191597314821002</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004544421722335823</v>
+        <v>-0.0004565167769915446</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009968633463423672</v>
+        <v>0.01193355884321974</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005117639239665128</v>
+        <v>0.006012425679738254</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.009790837895869509</v>
+        <v>0.01174161684408703</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003343682827800176</v>
+        <v>0.008547008547008517</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008657654221558937</v>
+        <v>0.01040102414210637</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001580056179775413</v>
+        <v>0.0008791981712679142</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.009978532646711429</v>
+        <v>0.01201548473437167</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0007186489399930718</v>
+        <v>0.02064631956912022</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.009104832288660309</v>
+        <v>0.0108594245920263</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.008775008775008808</v>
+        <v>-0.002124645892351285</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008970063092561605</v>
+        <v>0.01079142657132206</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0001824817518248922</v>
+        <v>0.004380361379813902</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.009044501833032549</v>
+        <v>0.01090641356909226</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002154522342396659</v>
+        <v>-0.01096444081351833</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.008228092023930272</v>
+        <v>0.009994302187921668</v>
       </c>
       <c r="E36" s="1">
-        <v>0.009463722397476282</v>
+        <v>-0.01393581081081097</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008397157603073181</v>
+        <v>0.01004565241735004</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.005778334725703105</v>
+        <v>0.001190392829633735</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007090465409088973</v>
+        <v>0.008507115132340025</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.002885693555834012</v>
+        <v>0.02388000463047169</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008688520966298722</v>
+        <v>0.01032857107866634</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01205727204220053</v>
+        <v>-0.01042461225527591</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.007819575334078729</v>
+        <v>0.009254905779339831</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01638257575757562</v>
+        <v>0.002406854722248886</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.007158434604576578</v>
+        <v>0.008620085637082438</v>
       </c>
       <c r="E41" s="1">
-        <v>0.000762211720638506</v>
+        <v>0.002067284675980385</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.007251892248372037</v>
+        <v>0.008781123708184742</v>
       </c>
       <c r="E42" s="1">
-        <v>0.006320066210217412</v>
+        <v>-0.004934579439252351</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008043593072417468</v>
+        <v>0.009611543674136866</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.006928697404887996</v>
+        <v>0.005454776100469516</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.007314639040077912</v>
+        <v>0.008818546067165417</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001939430105922568</v>
+        <v>0.01913341274568192</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.007209411501192283</v>
+        <v>0.008704121811635534</v>
       </c>
       <c r="E45" s="1">
-        <v>0.003373264714786162</v>
+        <v>-0.009331494332140866</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007832670316695607</v>
+        <v>0.009287497934091171</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01456890374970132</v>
+        <v>0.009936984973339724</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.007392117687227775</v>
+        <v>0.008722504724819023</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01935973680880676</v>
+        <v>-0.003483870967741942</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.007085009166331939</v>
+        <v>0.008393581885357299</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01543522267206487</v>
+        <v>0.008224106913389928</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.006577890375228309</v>
+        <v>0.007922707315777149</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0009776039815143633</v>
+        <v>0.001953298410725557</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007691821307239066</v>
+        <v>0.009151126731189162</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01125849960985392</v>
+        <v>-0.01555806087936873</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.006521574155343223</v>
+        <v>0.007785491999514673</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.00786446350135972</v>
+        <v>0.002276847830670059</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006799725616464234</v>
+        <v>0.008199810973943577</v>
       </c>
       <c r="E52" s="1">
-        <v>0.002189463065706887</v>
+        <v>0.002813776064602536</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.005398172744832759</v>
+        <v>0.006565795088827481</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01082954299328565</v>
+        <v>0.01757017355903145</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006267508108678255</v>
+        <v>0.007473967274315895</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.008954332902198825</v>
+        <v>0.008884650135528638</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.005325682662489326</v>
+        <v>0.006555947099622039</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02305159165751913</v>
+        <v>0.01169527896995715</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005666947263044186</v>
+        <v>0.006780298362277989</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.005655184366025301</v>
+        <v>0.003948566958607458</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006654433666476967</v>
+        <v>0.007934290426890216</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.009089631260834952</v>
+        <v>0.01096978580547536</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005509246258100922</v>
+        <v>0.006552570646180174</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01154499151103561</v>
+        <v>0.001374098248024591</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.005473936572830412</v>
+        <v>0.006523308049684007</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.009611687812379865</v>
+        <v>0.003105590062111752</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004887546369099607</v>
+        <v>0.005838263162478866</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.007272263332482654</v>
+        <v>0.002441845521141239</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004784345434666591</v>
+        <v>0.005668643272211821</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01532258064516123</v>
+        <v>0.00955500955500943</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.004920751503592407</v>
+        <v>0.005804686208806982</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.01964200855377807</v>
+        <v>-0.0009694619486185774</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004119307388909417</v>
+        <v>0.004955883329671367</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.0001513775355738156</v>
+        <v>-0.008099924299772798</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004196006572808275</v>
+        <v>0.005009156261754133</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.007876356070738555</v>
+        <v>-0.00943678849610563</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.003799415670697105</v>
+        <v>0.004548645528433043</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.005046774987690794</v>
+        <v>-0.00193822425667034</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.003767613570056115</v>
+        <v>0.004513755509533766</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.004344587884806406</v>
+        <v>-0.007605036778456586</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003792634340413364</v>
+        <v>0.004533451487944648</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.006597200813860282</v>
+        <v>-0.002358490566037652</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003646017302899388</v>
+        <v>0.004341415698438552</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.01042201128783993</v>
+        <v>0.006999578729057987</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003451385329123525</v>
+        <v>0.004144409019143043</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.002055150296980557</v>
+        <v>-0.006879695845025791</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.002916907377909631</v>
+        <v>0.003464428812100699</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.01293356848912408</v>
+        <v>0.0160810005955927</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003006818463913018</v>
+        <v>0.003638832011410387</v>
       </c>
       <c r="E71" s="1">
-        <v>0.005754948088812828</v>
+        <v>0.01051614150396296</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002433796054936944</v>
+        <v>0.002935216630274986</v>
       </c>
       <c r="E72" s="1">
-        <v>0.002289905201127151</v>
+        <v>0.003339138214759396</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.001959960344651212</v>
+        <v>0.002351043289645575</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.003102008351560936</v>
+        <v>0.002034547412933518</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.001940200951238244</v>
+        <v>0.002368582089468598</v>
       </c>
       <c r="E74" s="1">
-        <v>0.014563204306691</v>
+        <v>0.003761780312029783</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001522291729212097</v>
+        <v>0.001876370209943327</v>
       </c>
       <c r="E75" s="1">
-        <v>0.02437275985663101</v>
+        <v>0.02764170748775374</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001657918334886907</v>
+        <v>0.001945212344008027</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.02491772449459329</v>
+        <v>0.01610414657666337</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>1.978667462654293E-05</v>
+        <v>0.001029626029503738</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0749825898102265</v>
+        <v>0.07487595161384469</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003940110323090718</v>
+        <v>-0.01237682301931398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04585012745713136</v>
+        <v>0.04588883799227831</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001874779460272036</v>
+        <v>-0.01073454287079345</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03895470610104176</v>
+        <v>0.03887908173977962</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.000913713650087411</v>
+        <v>-0.008668336713189451</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03544178766590093</v>
+        <v>0.03510387327787091</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008514540214828559</v>
+        <v>-0.0009248249438498224</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03324216893408568</v>
+        <v>0.03345308038852613</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00738085463863869</v>
+        <v>-0.007406598300221612</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03035994386477331</v>
+        <v>0.03032496887254284</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0001235712079084017</v>
+        <v>0.01557189643452994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0309770845216476</v>
+        <v>0.03095922975366092</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0004526462395542108</v>
+        <v>0.006856228030487799</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02951095340489092</v>
+        <v>0.02930553235330135</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005938381937911519</v>
+        <v>-0.00153782456970486</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02726514291418349</v>
+        <v>0.02717610415688932</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002239398974210882</v>
+        <v>-0.02273385461917177</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02654736518666693</v>
+        <v>0.02658695689040427</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002522522522522497</v>
+        <v>0.0009585430146179519</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02313227011096682</v>
+        <v>0.02314782846107857</v>
       </c>
       <c r="E12" s="1">
-        <v>0.001702900607367885</v>
+        <v>0.0145633818779396</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02403481487405212</v>
+        <v>0.02402723944123579</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0007141156867414011</v>
+        <v>0.01213130352045666</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02074985394142391</v>
+        <v>0.02057297944646204</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.007503282686175394</v>
+        <v>0.0001890001890003656</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01999592002496738</v>
+        <v>0.02014400190835743</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008442855936734883</v>
+        <v>-0.006976809086596147</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01838291318348955</v>
+        <v>0.0183827439065467</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001020408163265207</v>
+        <v>0.004811416921508771</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01735515827193507</v>
+        <v>0.01731660097630922</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001194323450892321</v>
+        <v>-0.00337623971301948</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01738639046627233</v>
+        <v>0.01736850739896073</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>-0.01207012811867847</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01690895057055522</v>
+        <v>0.01688485946804537</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0003965953811890799</v>
+        <v>0.01553439540987611</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01529983602957288</v>
+        <v>0.01546249231592872</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01167181599725375</v>
+        <v>-0.006447234475737917</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01370502452053177</v>
+        <v>0.01370484152941056</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001016260162601812</v>
+        <v>0.005414551607444862</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01557970650375417</v>
+        <v>0.01558270159437979</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001222067039106101</v>
+        <v>-0.0207497820401048</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01377668036579803</v>
+        <v>0.01359123767117056</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01244485594466549</v>
+        <v>-0.001792361781331797</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01549604549069461</v>
+        <v>0.0154861031796619</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0003873623048056274</v>
+        <v>-0.001234239248808056</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01336864534638593</v>
+        <v>0.01337934890794602</v>
       </c>
       <c r="E25" s="1">
-        <v>0.001831097079715738</v>
+        <v>0.004537862792676428</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01066602884210612</v>
+        <v>0.01078754129675923</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0124338298658131</v>
+        <v>0.02054961089494167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0120121082809298</v>
+        <v>0.0119560916637442</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.003638521479769619</v>
+        <v>0.01200551689549267</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01191597314821002</v>
+        <v>0.01189828252515939</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0004565167769915446</v>
+        <v>-0.01073304407398956</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01193355884321974</v>
+        <v>0.01199296021485137</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006012425679738254</v>
+        <v>0.001195298492595809</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01174161684408703</v>
+        <v>0.01182979228155243</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008547008547008517</v>
+        <v>0.02708696340883887</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01040102414210637</v>
+        <v>0.01039946114762102</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0008791981712679142</v>
+        <v>0.01423049894588879</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01201548473437167</v>
+        <v>0.01225094637869783</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02064631956912022</v>
+        <v>0.00861917326297279</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0108594245920263</v>
+        <v>0.01082520624604787</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002124645892351285</v>
+        <v>-0.001242015613910574</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01079142657132206</v>
+        <v>0.01082754859364045</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004380361379813902</v>
+        <v>0.008359076867163306</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01090641356909226</v>
+        <v>0.01077573586489264</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01096444081351833</v>
+        <v>0.003391009477436535</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009994302187921668</v>
+        <v>0.009844886931602419</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01393581081081097</v>
+        <v>-0.00907922912205561</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01004565241735004</v>
+        <v>0.0100472657636011</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001190392829633735</v>
+        <v>0.01126031612812994</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008507115132340025</v>
+        <v>0.008701305989954326</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02388000463047169</v>
+        <v>0.01892978857428984</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01032857107866634</v>
+        <v>0.01021038684994818</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01042461225527591</v>
+        <v>-0.006937307297019468</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009254905779339831</v>
+        <v>0.00926763879088767</v>
       </c>
       <c r="E40" s="1">
-        <v>0.002406854722248886</v>
+        <v>-0.01066077602766047</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008620085637082438</v>
+        <v>0.008629021143247392</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002067284675980385</v>
+        <v>0.01561380268844048</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008781123708184742</v>
+        <v>0.008728805150691184</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.004934579439252351</v>
+        <v>0.004132541888947294</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009611543674136866</v>
+        <v>0.009654032449759221</v>
       </c>
       <c r="E43" s="1">
-        <v>0.005454776100469516</v>
+        <v>-0.003532677264698525</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008818546067165417</v>
+        <v>0.008978030934541409</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01913341274568192</v>
+        <v>-0.002410694718386841</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008704121811635534</v>
+        <v>0.008614030118654897</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.009331494332140866</v>
+        <v>0.02782309817485706</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009287497934091171</v>
+        <v>0.009370139921538852</v>
       </c>
       <c r="E46" s="1">
-        <v>0.009936984973339724</v>
+        <v>0.01295896328293722</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008722504724819023</v>
+        <v>0.008683176219587779</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.003483870967741942</v>
+        <v>-0.01696232034183609</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008393581885357299</v>
+        <v>0.008453907237226312</v>
       </c>
       <c r="E48" s="1">
-        <v>0.008224106913389928</v>
+        <v>0.009431557481519359</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007922707315777149</v>
+        <v>0.007930017774670471</v>
       </c>
       <c r="E49" s="1">
-        <v>0.001953298410725557</v>
+        <v>0.005848471422241985</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.009151126731189162</v>
+        <v>0.008999486838489418</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01555806087936873</v>
+        <v>-0.01030691708657805</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007785491999514673</v>
+        <v>0.007795192247241722</v>
       </c>
       <c r="E51" s="1">
-        <v>0.002276847830670059</v>
+        <v>0.01501829960876688</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008199810973943577</v>
+        <v>0.008214425619361209</v>
       </c>
       <c r="E52" s="1">
-        <v>0.002813776064602536</v>
+        <v>-0.0003421806029223484</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006565795088827481</v>
+        <v>0.006674285230289778</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01757017355903145</v>
+        <v>0.01179195620130558</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007473967274315895</v>
+        <v>0.007532615082113807</v>
       </c>
       <c r="E54" s="1">
-        <v>0.008884650135528638</v>
+        <v>-0.008905915717200008</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006555947099622039</v>
+        <v>0.006625798635123428</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01169527896995715</v>
+        <v>0.01368119630925868</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006780298362277989</v>
+        <v>0.006800069296011179</v>
       </c>
       <c r="E56" s="1">
-        <v>0.003948566958607458</v>
+        <v>0.001446729358272059</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.007934290426890216</v>
+        <v>0.008013077420303263</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01096978580547536</v>
+        <v>-0.004723820214208807</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006552570646180174</v>
+        <v>0.006554825503068334</v>
       </c>
       <c r="E58" s="1">
-        <v>0.001374098248024591</v>
+        <v>-0.003430531732418363</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006523308049684007</v>
+        <v>0.006536836273557341</v>
       </c>
       <c r="E59" s="1">
-        <v>0.003105590062111752</v>
+        <v>0.01599587203302377</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005838263162478866</v>
+        <v>0.005846499591072958</v>
       </c>
       <c r="E60" s="1">
-        <v>0.002441845521141239</v>
+        <v>-0.01448717948717948</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005668643272211821</v>
+        <v>0.00571692092225158</v>
       </c>
       <c r="E61" s="1">
-        <v>0.00955500955500943</v>
+        <v>0.02361636920858134</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005804686208806982</v>
+        <v>0.005793094065962194</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.0009694619486185774</v>
+        <v>0.01172569949862523</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004955883329671367</v>
+        <v>0.004910684880886472</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.008099924299772798</v>
+        <v>0.0139662672670382</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.005009156261754133</v>
+        <v>0.004956782281508393</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.00943678849610563</v>
+        <v>-0.006351126568879484</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004548645528433043</v>
+        <v>0.004535159714844478</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.00193822425667034</v>
+        <v>-0.004462441120568594</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004513755509533766</v>
+        <v>0.004474820840859687</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.007605036778456586</v>
+        <v>-0.001130653266331438</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004533451487944648</v>
+        <v>0.004518107424370516</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.002358490566037652</v>
+        <v>0.002923976608186996</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004341415698438552</v>
+        <v>0.004367307086360388</v>
       </c>
       <c r="E68" s="1">
-        <v>0.006999578729057987</v>
+        <v>0.01557522123893795</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004144409019143043</v>
+        <v>0.0041116632701065</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.006879695845025791</v>
+        <v>0.001184942120135091</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003464428812100699</v>
+        <v>0.003516519593784459</v>
       </c>
       <c r="E70" s="1">
-        <v>0.0160810005955927</v>
+        <v>0.004103165298944722</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003638832011410387</v>
+        <v>0.003673316341631584</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01051614150396296</v>
+        <v>-0.007269388223591022</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002935216630274986</v>
+        <v>0.002941988576277097</v>
       </c>
       <c r="E72" s="1">
-        <v>0.003339138214759396</v>
+        <v>-0.01350318471337586</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002351043289645575</v>
+        <v>0.002353403473214272</v>
       </c>
       <c r="E73" s="1">
-        <v>0.002034547412933518</v>
+        <v>0.002985906521219883</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002368582089468598</v>
+        <v>0.002375046764969686</v>
       </c>
       <c r="E74" s="1">
-        <v>0.003761780312029783</v>
+        <v>-0.0171604402540535</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001876370209943327</v>
+        <v>0.001926252966231874</v>
       </c>
       <c r="E75" s="1">
-        <v>0.02764170748775374</v>
+        <v>0.02145045965270675</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001945212344008027</v>
+        <v>0.001974505326638966</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01610414657666337</v>
+        <v>0.01599126886210489</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>0.001029626029503738</v>
+        <v>4.792443174417294E-05</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -975,10 +975,10 @@
         <v>156</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07487595161384469</v>
+        <v>0.07394568140755603</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01237682301931398</v>
+        <v>-0.00534802043422733</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -992,10 +992,10 @@
         <v>157</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04588883799227831</v>
+        <v>0.04539406680870294</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01073454287079345</v>
+        <v>-0.002179492339270062</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>156</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03887908173977962</v>
+        <v>0.03854021775012462</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008668336713189451</v>
+        <v>0.001484096105250687</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>156</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03510387327787091</v>
+        <v>0.03506972764346906</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009248249438498224</v>
+        <v>0.001939522172264896</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>158</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03345308038852613</v>
+        <v>0.03320371559098181</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007406598300221612</v>
+        <v>-0.002467536864916076</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>159</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03032496887254284</v>
+        <v>0.03079571028029109</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01557189643452994</v>
+        <v>-0.0006693033160936057</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>159</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03095922975366092</v>
+        <v>0.03116999948798736</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006856228030487799</v>
+        <v>0.0004839267196681263</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02930553235330135</v>
+        <v>0.02925906336163519</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00153782456970486</v>
+        <v>0.002606480658728705</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>161</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02717610415688932</v>
+        <v>0.02655701382607469</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02273385461917177</v>
+        <v>-0.0009631056452807929</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02658695689040427</v>
+        <v>0.02661116630718819</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0009585430146179519</v>
+        <v>0.001197031362221823</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>158</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02314782846107857</v>
+        <v>0.02348381367817658</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0145633818779396</v>
+        <v>-0.00217828418230559</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>159</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02402723944123579</v>
+        <v>0.0243175557706144</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01213130352045666</v>
+        <v>-0.003760282021151529</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02057297944646204</v>
+        <v>0.02057588165602972</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0001890001890003656</v>
+        <v>-0.0003779289493577309</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,10 +1190,10 @@
         <v>94</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02014400190835743</v>
+        <v>0.02000250244423969</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006976809086596147</v>
+        <v>0.008627715482112164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0183827439065467</v>
+        <v>0.01847030577273412</v>
       </c>
       <c r="E16" s="1">
-        <v>0.004811416921508771</v>
+        <v>0.01119993507284023</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>161</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01731660097630922</v>
+        <v>0.01725730893367441</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00337623971301948</v>
+        <v>0.002399604770978891</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>161</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01736850739896073</v>
+        <v>0.0171580449998686</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01207012811867847</v>
+        <v>0.00976042590949433</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01688485946804537</v>
+        <v>0.0171463338231572</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01553439540987611</v>
+        <v>-0.0120811419984973</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01546249231592872</v>
+        <v>0.01536206578411551</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006447234475737917</v>
+        <v>-0.003244535519125735</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01370484152941056</v>
+        <v>0.01377838677978664</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005414551607444862</v>
+        <v>-0.009424436216761922</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>160</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01558270159437979</v>
+        <v>0.01525863267140045</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0207497820401048</v>
+        <v>0.007834757834757955</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01359123767117056</v>
+        <v>0.01356622710248296</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001792361781331797</v>
+        <v>-0.003922651933701671</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,10 +1340,10 @@
         <v>160</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0154861031796619</v>
+        <v>0.01546624841214011</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001234239248808056</v>
+        <v>-0.001889992730797152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>157</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01337934890794602</v>
+        <v>0.01343941848105195</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004537862792676428</v>
+        <v>0.0004391881293723809</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01078754129675923</v>
+        <v>0.01100869348754111</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02054961089494167</v>
+        <v>0.002502085070892557</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0119560916637442</v>
+        <v>0.01209905088407907</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01200551689549267</v>
+        <v>0.006427133343658076</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>156</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01189828252515939</v>
+        <v>0.01177001366319565</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01073304407398956</v>
+        <v>0.007156048014773875</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1422,10 +1422,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01199296021485137</v>
+        <v>0.01200671996688641</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001195298492595809</v>
+        <v>0.007826490681169807</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>109</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01182979228155243</v>
+        <v>0.01214964316747231</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02708696340883887</v>
+        <v>-0.0008482418260336022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01039946114762102</v>
+        <v>0.01054694521216413</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01423049894588879</v>
+        <v>-0.01056642993244417</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01225094637869783</v>
+        <v>0.01235594725642029</v>
       </c>
       <c r="E32" s="1">
-        <v>0.00861917326297279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01082520624604787</v>
+        <v>0.01081124304818695</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001242015613910574</v>
+        <v>0.003553028957186122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>161</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01082754859364045</v>
+        <v>0.01091753368801959</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008359076867163306</v>
+        <v>-0.003604253018561931</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>163</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01077573586489264</v>
+        <v>0.01081175833996225</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003391009477436535</v>
+        <v>0.004159445407279083</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009844886931602419</v>
+        <v>0.009755035442939423</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.00907922912205561</v>
+        <v>0.00829803785979788</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>163</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0100472657636011</v>
+        <v>0.01015991424420586</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01126031612812994</v>
+        <v>0.00456463102565885</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1">
-        <v>0.008701305989954326</v>
+        <v>0.0088655949940622</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01892978857428984</v>
+        <v>-0.008924466988983193</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>160</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01021038684994818</v>
+        <v>0.01013906834965957</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.006937307297019468</v>
+        <v>0.002069857697283073</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>162</v>
       </c>
       <c r="D40" s="1">
-        <v>0.00926763879088767</v>
+        <v>0.009168399179112096</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01066077602766047</v>
+        <v>0.007572080380545687</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>156</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008629021143247392</v>
+        <v>0.008763332999018275</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01561380268844048</v>
+        <v>0.009942695860417405</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>156</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008728805150691184</v>
+        <v>0.008764457271982568</v>
       </c>
       <c r="E42" s="1">
-        <v>0.004132541888947294</v>
+        <v>0.006734510625561185</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009654032449759221</v>
+        <v>0.009619466861328285</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.003532677264698525</v>
+        <v>-0.00303874398581927</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>157</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008978030934541409</v>
+        <v>0.008955958433567343</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.002410694718386841</v>
+        <v>-0.0007322788517868384</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008614030118654897</v>
+        <v>0.008853274836161809</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02782309817485706</v>
+        <v>-0.006307145275990522</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009370139921538852</v>
+        <v>0.009491112364571366</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01295896328293722</v>
+        <v>-0.001658374792703143</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>160</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008683176219587779</v>
+        <v>0.008535480344921324</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01696232034183609</v>
+        <v>-0.0003951527924129783</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>127</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008453907237226312</v>
+        <v>0.008533231798992735</v>
       </c>
       <c r="E48" s="1">
-        <v>0.009431557481519359</v>
+        <v>0.004797979797979579</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>157</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007930017774670471</v>
+        <v>0.007976014011064439</v>
       </c>
       <c r="E49" s="1">
-        <v>0.005848471422241985</v>
+        <v>0.003259624702669273</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>160</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008999486838489418</v>
+        <v>0.008906303044311017</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01030691708657805</v>
+        <v>0.0002314279102058059</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>163</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007795192247241722</v>
+        <v>0.007911883607392825</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01501829960876688</v>
+        <v>-0.0008289124668434678</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008214425619361209</v>
+        <v>0.008211221284136146</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0003421806029223484</v>
+        <v>0.0006960053854843107</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>163</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006674285230289778</v>
+        <v>0.006752664491791847</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01179195620130558</v>
+        <v>-0.007700312174817814</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>160</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007532615082113807</v>
+        <v>0.007465172482913275</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.008905915717200008</v>
+        <v>0.002710843373494143</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1858,10 +1858,10 @@
         <v>157</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006625798635123428</v>
+        <v>0.006716125620452287</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01368119630925868</v>
+        <v>-0.003034107553881449</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006800069296011179</v>
+        <v>0.006809580810609239</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001446729358272059</v>
+        <v>0.002700443710659473</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1889,10 +1889,10 @@
         <v>163</v>
       </c>
       <c r="D57" s="1">
-        <v>0.008013077420303263</v>
+        <v>0.0079748428933933</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.004723820214208807</v>
+        <v>0.008458646616541277</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1906,10 +1906,10 @@
         <v>164</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006554825503068334</v>
+        <v>0.006532025922549116</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.003430531732418363</v>
+        <v>0.002065404475042998</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1923,10 +1923,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006536836273557341</v>
+        <v>0.006641080400085651</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01599587203302377</v>
+        <v>-0.0006348400203149973</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>164</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005846499591072958</v>
+        <v>0.005761524184352847</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01448717948717948</v>
+        <v>0.004813321191622144</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1957,10 +1957,10 @@
         <v>165</v>
       </c>
       <c r="D61" s="1">
-        <v>0.00571692092225158</v>
+        <v>0.005851653400323763</v>
       </c>
       <c r="E61" s="1">
-        <v>0.02361636920858134</v>
+        <v>-0.008277562522014725</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1974,10 +1974,10 @@
         <v>165</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005793094065962194</v>
+        <v>0.005860741273451806</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01172569949862523</v>
+        <v>0.002317960195028501</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1991,10 +1991,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004910684880886472</v>
+        <v>0.004979030201204106</v>
       </c>
       <c r="E63" s="1">
-        <v>0.0139662672670382</v>
+        <v>-0.01678458527773607</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2008,10 +2008,10 @@
         <v>160</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004956782281508393</v>
+        <v>0.004925065098917985</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.006351126568879484</v>
+        <v>0.0001521838380764695</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2025,10 +2025,10 @@
         <v>160</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004535159714844478</v>
+        <v>0.004514705466950614</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.004462441120568594</v>
+        <v>0.003942890346144257</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2042,10 +2042,10 @@
         <v>161</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004474820840859687</v>
+        <v>0.004469547169551466</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.001130653266331438</v>
+        <v>-0.0001257703433531487</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2059,10 +2059,10 @@
         <v>156</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004518107424370516</v>
+        <v>0.00453110111434657</v>
       </c>
       <c r="E67" s="1">
-        <v>0.002923976608186996</v>
+        <v>-0.02059425593945796</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2076,10 +2076,10 @@
         <v>163</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004367307086360388</v>
+        <v>0.004435116310019956</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01557522123893795</v>
+        <v>-0.002471561202826322</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2093,10 +2093,10 @@
         <v>160</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0041116632701065</v>
+        <v>0.004116338079935714</v>
       </c>
       <c r="E69" s="1">
-        <v>0.001184942120135091</v>
+        <v>-0.003778222869628589</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2110,10 +2110,10 @@
         <v>166</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003516519593784459</v>
+        <v>0.003530779244365834</v>
       </c>
       <c r="E70" s="1">
-        <v>0.004103165298944722</v>
+        <v>0.002335084646818641</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2127,10 +2127,10 @@
         <v>156</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003673316341631584</v>
+        <v>0.003646438825567597</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.007269388223591022</v>
+        <v>0.002119705553628393</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>156</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002941988576277097</v>
+        <v>0.002902123278498012</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.01350318471337586</v>
+        <v>0.04884426652892571</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2161,10 +2161,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002353403473214272</v>
+        <v>0.002360317399121915</v>
       </c>
       <c r="E73" s="1">
-        <v>0.002985906521219883</v>
+        <v>-0.002083912197832771</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2178,10 +2178,10 @@
         <v>156</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002375046764969686</v>
+        <v>0.002334178052702075</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.0171604402540535</v>
+        <v>0.01264349361804618</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2195,10 +2195,10 @@
         <v>157</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001926252966231874</v>
+        <v>0.001967477687514794</v>
       </c>
       <c r="E75" s="1">
-        <v>0.02145045965270675</v>
+        <v>-0.01466666666666672</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2209,10 +2209,10 @@
         <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001974505326638966</v>
+        <v>0.00200598403654187</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01599126886210489</v>
+        <v>-0.005744710662743513</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77" s="1">
-        <v>4.792443174417294E-05</v>
+        <v>0.0001603751961212208</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="189">
   <si>
     <t>Symbol</t>
   </si>
@@ -46,30 +46,33 @@
     <t>GOOGL</t>
   </si>
   <si>
+    <t>JNJ</t>
+  </si>
+  <si>
     <t>JPM</t>
   </si>
   <si>
     <t>BRKB</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>GSLC</t>
   </si>
   <si>
+    <t>BAC</t>
+  </si>
+  <si>
     <t>DIS</t>
   </si>
   <si>
-    <t>BAC</t>
-  </si>
-  <si>
     <t>CSCO</t>
   </si>
   <si>
+    <t>UNH</t>
+  </si>
+  <si>
     <t>IGV</t>
   </si>
   <si>
@@ -79,183 +82,183 @@
     <t>WMT</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>XAR</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>FITB</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
     <t>PEP</t>
   </si>
   <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>ABBV</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>LRCX</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
-    <t>IBB</t>
-  </si>
-  <si>
-    <t>XAR</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>ITW</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>ETN</t>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>KIE</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>BLK</t>
   </si>
   <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>CVX</t>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>JPUS</t>
   </si>
   <si>
     <t>AVGO</t>
   </si>
   <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>TMO</t>
-  </si>
-  <si>
-    <t>FITB</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>KIE</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>BLK</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PPL</t>
   </si>
   <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>LLY</t>
-  </si>
-  <si>
     <t>DHI</t>
   </si>
   <si>
-    <t>JPUS</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>PPL</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>EMN</t>
+  </si>
+  <si>
+    <t>LYB</t>
   </si>
   <si>
     <t>ED</t>
   </si>
   <si>
-    <t>LYB</t>
-  </si>
-  <si>
-    <t>EMN</t>
+    <t>BMY</t>
   </si>
   <si>
     <t>KMB</t>
   </si>
   <si>
-    <t>BMY</t>
-  </si>
-  <si>
     <t>BDX</t>
   </si>
   <si>
+    <t>VMW</t>
+  </si>
+  <si>
     <t>TSN</t>
   </si>
   <si>
-    <t>VMW</t>
-  </si>
-  <si>
     <t>FDX</t>
   </si>
   <si>
     <t>HUM</t>
   </si>
   <si>
+    <t>PYPL</t>
+  </si>
+  <si>
     <t>HST</t>
   </si>
   <si>
-    <t>PYPL</t>
+    <t>CRM</t>
   </si>
   <si>
     <t>NVDA</t>
   </si>
   <si>
+    <t>ADBE</t>
+  </si>
+  <si>
     <t>NFLX</t>
   </si>
   <si>
-    <t>ADBE</t>
+    <t>OIH</t>
   </si>
   <si>
     <t>CCL</t>
   </si>
   <si>
-    <t>OIH</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -274,30 +277,33 @@
     <t>Alphabet Inc</t>
   </si>
   <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
     <t>JPMorgan Chase &amp; Co</t>
   </si>
   <si>
     <t>Berkshire Hathaway Inc</t>
   </si>
   <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
     <t>Procter &amp; Gamble Co</t>
   </si>
   <si>
     <t>Goldman Sachs ActiveBeta US Large Cap Equity ETF</t>
   </si>
   <si>
+    <t>Bank of America Corp</t>
+  </si>
+  <si>
     <t>Walt Disney Co</t>
   </si>
   <si>
-    <t>Bank of America Corp</t>
-  </si>
-  <si>
     <t>Cisco Systems Inc</t>
   </si>
   <si>
+    <t>UnitedHealth Group Inc</t>
+  </si>
+  <si>
     <t>iShares Expanded Tech-Software Sector ETF</t>
   </si>
   <si>
@@ -307,183 +313,183 @@
     <t>Walmart Inc</t>
   </si>
   <si>
+    <t>Mastercard Inc</t>
+  </si>
+  <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
+    <t>Home Depot Inc</t>
+  </si>
+  <si>
+    <t>AT&amp;T Inc</t>
+  </si>
+  <si>
+    <t>iShares Nasdaq Biotechnology ETF</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P Aerospace &amp; Defense ETF</t>
+  </si>
+  <si>
+    <t>Corning Inc</t>
+  </si>
+  <si>
+    <t>Comcast Corp</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co</t>
+  </si>
+  <si>
+    <t>Micron Technology Inc</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works Inc</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Intel Corp</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>Eaton Corporation PLC</t>
+  </si>
+  <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
+    <t>Nike Inc</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co Inc</t>
+  </si>
+  <si>
+    <t>Lam Research Corp</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>Chevron Corp</t>
+  </si>
+  <si>
     <t>PepsiCo Inc</t>
   </si>
   <si>
-    <t>Facebook Inc</t>
-  </si>
-  <si>
-    <t>Exxon Mobil Corp</t>
-  </si>
-  <si>
-    <t>AT&amp;T Inc</t>
-  </si>
-  <si>
     <t>Abbvie Inc</t>
   </si>
   <si>
-    <t>Mastercard Inc</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Inc</t>
-  </si>
-  <si>
-    <t>Home Depot Inc</t>
-  </si>
-  <si>
-    <t>Micron Technology Inc</t>
-  </si>
-  <si>
-    <t>Lam Research Corp</t>
-  </si>
-  <si>
-    <t>Corning Inc</t>
-  </si>
-  <si>
-    <t>iShares Nasdaq Biotechnology ETF</t>
-  </si>
-  <si>
-    <t>SPDR S&amp;P Aerospace &amp; Defense ETF</t>
-  </si>
-  <si>
-    <t>Intel Corp</t>
-  </si>
-  <si>
-    <t>Comcast Corp</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
-    <t>Coca-Cola Co</t>
-  </si>
-  <si>
-    <t>Illinois Tool Works Inc</t>
-  </si>
-  <si>
-    <t>Abbott Laboratories</t>
-  </si>
-  <si>
-    <t>Eaton Corporation PLC</t>
+    <t>CVS Health Corp</t>
+  </si>
+  <si>
+    <t>Qualcomm Inc</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P Insurance ETF</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific Inc</t>
+  </si>
+  <si>
+    <t>BlackRock Inc</t>
   </si>
   <si>
     <t>Tesla Inc</t>
   </si>
   <si>
-    <t>Pfizer Inc</t>
-  </si>
-  <si>
-    <t>Chevron Corp</t>
+    <t>Caterpillar Inc</t>
+  </si>
+  <si>
+    <t>United Parcel Service Inc</t>
+  </si>
+  <si>
+    <t>Starbucks Corp</t>
+  </si>
+  <si>
+    <t>Eli Lilly and Co</t>
+  </si>
+  <si>
+    <t>JPMorgan Diversified Return US Equity ETF</t>
   </si>
   <si>
     <t>Broadcom Inc</t>
   </si>
   <si>
-    <t>Qualcomm Inc</t>
-  </si>
-  <si>
-    <t>Oracle Corp</t>
-  </si>
-  <si>
-    <t>Nike Inc</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific Inc</t>
-  </si>
-  <si>
-    <t>Fifth Third Bancorp</t>
-  </si>
-  <si>
-    <t>Merck &amp; Co Inc</t>
-  </si>
-  <si>
-    <t>SPDR S&amp;P Insurance ETF</t>
-  </si>
-  <si>
-    <t>Starbucks Corp</t>
-  </si>
-  <si>
-    <t>CVS Health Corp</t>
-  </si>
-  <si>
-    <t>Caterpillar Inc</t>
-  </si>
-  <si>
-    <t>BlackRock Inc</t>
+    <t>Citigroup Inc</t>
+  </si>
+  <si>
+    <t>PPL Corp</t>
   </si>
   <si>
     <t>Delta Air Lines Inc</t>
   </si>
   <si>
-    <t>Eli Lilly and Co</t>
-  </si>
-  <si>
     <t>D R Horton Inc</t>
   </si>
   <si>
-    <t>JPMorgan Diversified Return US Equity ETF</t>
-  </si>
-  <si>
-    <t>United Parcel Service Inc</t>
-  </si>
-  <si>
-    <t>PPL Corp</t>
-  </si>
-  <si>
-    <t>Citigroup Inc</t>
+    <t>Eastman Chemical Co</t>
+  </si>
+  <si>
+    <t>LyondellBasell Industries NV</t>
   </si>
   <si>
     <t>Consolidated Edison Inc</t>
   </si>
   <si>
-    <t>LyondellBasell Industries NV</t>
-  </si>
-  <si>
-    <t>Eastman Chemical Co</t>
+    <t>Bristol-Myers Squibb Co</t>
   </si>
   <si>
     <t>Kimberly-Clark Corp</t>
   </si>
   <si>
-    <t>Bristol-Myers Squibb Co</t>
-  </si>
-  <si>
     <t>Becton Dickinson and Co</t>
   </si>
   <si>
+    <t>VMware Inc</t>
+  </si>
+  <si>
     <t>Tyson Foods Inc</t>
   </si>
   <si>
-    <t>VMware Inc</t>
-  </si>
-  <si>
     <t>FedEx Corp</t>
   </si>
   <si>
     <t>Humana Inc</t>
   </si>
   <si>
+    <t>PayPal Holdings Inc</t>
+  </si>
+  <si>
     <t>Host Hotels &amp; Resorts Inc</t>
   </si>
   <si>
-    <t>PayPal Holdings Inc</t>
+    <t>Salesforce.Com Inc</t>
   </si>
   <si>
     <t>NVIDIA Corp</t>
   </si>
   <si>
+    <t>Adobe Inc</t>
+  </si>
+  <si>
     <t>Netflix Inc</t>
   </si>
   <si>
-    <t>Adobe Inc</t>
+    <t>VanEck Vectors Oil Services ETF</t>
   </si>
   <si>
     <t>Carnival Corp</t>
   </si>
   <si>
-    <t>VanEck Vectors Oil Services ETF</t>
-  </si>
-  <si>
     <t>Information Technology</t>
   </si>
   <si>
@@ -493,12 +499,12 @@
     <t>Communication Services</t>
   </si>
   <si>
+    <t>Health Care</t>
+  </si>
+  <si>
     <t>Financials</t>
   </si>
   <si>
-    <t>Health Care</t>
-  </si>
-  <si>
     <t>Consumer Staples</t>
   </si>
   <si>
@@ -518,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -937,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,16 +975,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07394568140755603</v>
+        <v>0.0768168303165979</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00534802043422733</v>
+        <v>0.003077165851349095</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -986,16 +992,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04539406680870294</v>
+        <v>0.04565468688254155</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002179492339270062</v>
+        <v>0.005220412302281652</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1003,16 +1009,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03854021775012462</v>
+        <v>0.04003685997524589</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001484096105250687</v>
+        <v>0.004038484380567864</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1020,16 +1026,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03506972764346906</v>
+        <v>0.03570218865235284</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001939522172264896</v>
+        <v>0.001120448179271705</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1037,16 +1043,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03320371559098181</v>
+        <v>0.03354667189725927</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002467536864916076</v>
+        <v>0.003960907923483692</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1054,16 +1060,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03079571028029109</v>
+        <v>0.02970909398476155</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0006693033160936057</v>
+        <v>0.01346471632290847</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1071,16 +1077,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03116999948798736</v>
+        <v>0.03000183920365785</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0004839267196681263</v>
+        <v>-0.01248484848484854</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1088,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02925906336163519</v>
+        <v>0.02966233121130193</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002606480658728705</v>
+        <v>-0.002109339880355665</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1105,16 +1111,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02655701382607469</v>
+        <v>0.02703251964623351</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0009631056452807929</v>
+        <v>-0.0003708098487096301</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1122,13 +1128,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02661116630718819</v>
+        <v>0.02668806962597458</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001197031362221823</v>
+        <v>-0.001306723687336864</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1136,16 +1142,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02348381367817658</v>
+        <v>0.02439011989688384</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00217828418230559</v>
+        <v>-0.01305970149253743</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1153,16 +1159,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0243175557706144</v>
+        <v>0.02301884702251246</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003760282021151529</v>
+        <v>-0.001644643566041104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1170,16 +1176,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02057588165602972</v>
+        <v>0.02119906180449043</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0003779289493577309</v>
+        <v>-0.002032144836504712</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1187,13 +1193,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02000250244423969</v>
+        <v>0.02060331432765385</v>
       </c>
       <c r="E15" s="1">
-        <v>0.008627715482112164</v>
+        <v>-0.001593070144869757</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1201,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01847030577273412</v>
+        <v>0.02038110956363733</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01119993507284023</v>
+        <v>0.0001098026297727817</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1215,16 +1224,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01725730893367441</v>
+        <v>0.01851041213363334</v>
       </c>
       <c r="E17" s="1">
-        <v>0.002399604770978891</v>
+        <v>-0.003103086967034652</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1232,16 +1238,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0171580449998686</v>
+        <v>0.0182539861575337</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00976042590949433</v>
+        <v>-0.00536365586783949</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1249,16 +1255,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0171463338231572</v>
+        <v>0.0170294821873008</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0120811419984973</v>
+        <v>-0.005283907353665906</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1266,16 +1272,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01536206578411551</v>
+        <v>0.01711284394098556</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003244535519125735</v>
+        <v>-0.01027930951810119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1283,16 +1289,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01377838677978664</v>
+        <v>0.01564207778788751</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.009424436216761922</v>
+        <v>0.00836954772251719</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1300,16 +1306,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01525863267140045</v>
+        <v>0.01449506108534145</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007834757834757955</v>
+        <v>-0.01145062721132206</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1317,16 +1323,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01356622710248296</v>
+        <v>0.01378154415111802</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003922651933701671</v>
+        <v>0.00103519668737051</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1334,16 +1340,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01546624841214011</v>
+        <v>0.01326626780787198</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001889992730797152</v>
+        <v>0.01537196356275294</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1351,16 +1354,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01343941848105195</v>
+        <v>0.01254622366698419</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0004391881293723809</v>
+        <v>-0.01404682274247493</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1368,16 +1368,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01100869348754111</v>
+        <v>0.0120315067985951</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002502085070892557</v>
+        <v>-0.005812601720530108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1385,16 +1385,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01209905088407907</v>
+        <v>0.01183918731652037</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006427133343658076</v>
+        <v>-0.003012581959950467</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1402,16 +1402,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01177001366319565</v>
+        <v>0.01089717152613978</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007156048014773875</v>
+        <v>-0.003054806828391654</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1419,13 +1419,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01200671996688641</v>
+        <v>0.0105127190536093</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007826490681169807</v>
+        <v>-0.02322115981621764</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1433,13 +1436,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01214964316747231</v>
+        <v>0.01084821747615712</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0008482418260336022</v>
+        <v>-0.001547189272821159</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1447,16 +1453,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01054694521216413</v>
+        <v>0.01065799602479594</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01056642993244417</v>
+        <v>-0.001749781277340379</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1464,13 +1470,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01235594725642029</v>
+        <v>0.0106300222819487</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1481,16 +1487,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01081124304818695</v>
+        <v>0.01065086272036989</v>
       </c>
       <c r="E33" s="1">
-        <v>0.003553028957186122</v>
+        <v>-0.001063704053894221</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1498,16 +1504,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01091753368801959</v>
+        <v>0.01028874261921245</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003604253018561931</v>
+        <v>-0.004825992387166966</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1515,16 +1521,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01081175833996225</v>
+        <v>0.01014327915640684</v>
       </c>
       <c r="E35" s="1">
-        <v>0.004159445407279083</v>
+        <v>0.02471042471042484</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1532,16 +1538,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009755035442939423</v>
+        <v>0.009325746521696442</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00829803785979788</v>
+        <v>-0.01132358455193094</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1549,16 +1555,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01015991424420586</v>
+        <v>0.009327564814981513</v>
       </c>
       <c r="E37" s="1">
-        <v>0.00456463102565885</v>
+        <v>-0.01271593090211132</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1566,16 +1572,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0088655949940622</v>
+        <v>0.00911384541962865</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.008924466988983193</v>
+        <v>0.02265193370165752</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1583,16 +1589,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01013906834965957</v>
+        <v>0.008917329876126834</v>
       </c>
       <c r="E39" s="1">
-        <v>0.002069857697283073</v>
+        <v>-0.005427025331346536</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1600,16 +1606,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009168399179112096</v>
+        <v>0.00905510055964946</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007572080380545687</v>
+        <v>0.01065801668211308</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1617,16 +1623,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008763332999018275</v>
+        <v>0.009124755179339071</v>
       </c>
       <c r="E41" s="1">
-        <v>0.009942695860417405</v>
+        <v>-0.008737239032465816</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1634,16 +1640,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008764457271982568</v>
+        <v>0.008871452937857372</v>
       </c>
       <c r="E42" s="1">
-        <v>0.006734510625561185</v>
+        <v>-0.001844640295142419</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1651,16 +1657,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009619466861328285</v>
+        <v>0.008903949102464908</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.00303874398581927</v>
+        <v>0.01477657112337538</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1668,16 +1674,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008955958433567343</v>
+        <v>0.008801565203644035</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0007322788517868384</v>
+        <v>-0.01002214194149875</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1685,16 +1691,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008853274836161809</v>
+        <v>0.008759511343563692</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.006307145275990522</v>
+        <v>-0.009761549925484281</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1702,16 +1708,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.009491112364571366</v>
+        <v>0.008548589322495553</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001658374792703143</v>
+        <v>-0.01028600100351229</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1719,16 +1722,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008535480344921324</v>
+        <v>0.008224280397086626</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.0003951527924129783</v>
+        <v>0.01634920634920634</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1736,13 +1739,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008533231798992735</v>
+        <v>0.008247778341078304</v>
       </c>
       <c r="E48" s="1">
-        <v>0.004797979797979579</v>
+        <v>-0.01535295979740414</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1750,16 +1756,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.007976014011064439</v>
+        <v>0.008442335722580812</v>
       </c>
       <c r="E49" s="1">
-        <v>0.003259624702669273</v>
+        <v>-0.007968985569674847</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1767,16 +1773,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008906303044311017</v>
+        <v>0.007837869762556841</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0002314279102058059</v>
+        <v>-0.02294303797468356</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1784,16 +1790,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007911883607392825</v>
+        <v>0.007823696399514244</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0008289124668434678</v>
+        <v>-0.04147597254004576</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1801,16 +1807,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008211221284136146</v>
+        <v>0.007799079505808678</v>
       </c>
       <c r="E52" s="1">
-        <v>0.0006960053854843107</v>
+        <v>-0.00116571018651368</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1818,16 +1824,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006752664491791847</v>
+        <v>0.008231740061845889</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007700312174817814</v>
+        <v>0.02401449932034438</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1835,16 +1841,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.007465172482913275</v>
+        <v>0.006863266892904467</v>
       </c>
       <c r="E54" s="1">
-        <v>0.002710843373494143</v>
+        <v>-0.003349341289419883</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1852,16 +1855,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006716125620452287</v>
+        <v>0.006483334510989054</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.003034107553881449</v>
+        <v>0.0008629430673312566</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1869,13 +1872,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006809580810609239</v>
+        <v>0.006636490753077658</v>
       </c>
       <c r="E56" s="1">
-        <v>0.002700443710659473</v>
+        <v>-0.01188669701568035</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1883,16 +1889,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.0079748428933933</v>
+        <v>0.006467529346280367</v>
       </c>
       <c r="E57" s="1">
-        <v>0.008458646616541277</v>
+        <v>0.003114186851211231</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1900,16 +1906,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006532025922549116</v>
+        <v>0.006579424317669302</v>
       </c>
       <c r="E58" s="1">
-        <v>0.002065404475042998</v>
+        <v>-0.01105442176870741</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1917,16 +1923,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006641080400085651</v>
+        <v>0.006496202432698782</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.0006348400203149973</v>
+        <v>-0.02379158144041327</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1934,16 +1940,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005761524184352847</v>
+        <v>0.005988712114545222</v>
       </c>
       <c r="E60" s="1">
-        <v>0.004813321191622144</v>
+        <v>-0.01331257298559763</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1951,16 +1957,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005851653400323763</v>
+        <v>0.005834203808219003</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.008277562522014725</v>
+        <v>-0.01503164556962044</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1968,16 +1974,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005860741273451806</v>
+        <v>0.005690978244841168</v>
       </c>
       <c r="E62" s="1">
-        <v>0.002317960195028501</v>
+        <v>0.007733647922401277</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1985,16 +1991,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004979030201204106</v>
+        <v>0.004751806451650051</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.01678458527773607</v>
+        <v>0.02668759811616961</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2002,16 +2008,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004925065098917985</v>
+        <v>0.004838338562857493</v>
       </c>
       <c r="E64" s="1">
-        <v>0.0001521838380764695</v>
+        <v>-0.003237742830712209</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2019,16 +2025,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004514705466950614</v>
+        <v>0.004461811984133732</v>
       </c>
       <c r="E65" s="1">
-        <v>0.003942890346144257</v>
+        <v>0.01713688610240327</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2036,16 +2042,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004469547169551466</v>
+        <v>0.004533704503251121</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.0001257703433531487</v>
+        <v>-0.0004319121367309942</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2053,16 +2059,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.00453110111434657</v>
+        <v>0.004381807079590644</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.02059425593945796</v>
+        <v>-0.01174668028600601</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2070,16 +2076,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004435116310019956</v>
+        <v>0.004232147555357945</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.002471561202826322</v>
+        <v>-0.03129750809703213</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2087,16 +2093,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004116338079935714</v>
+        <v>0.003938050272224031</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.003778222869628589</v>
+        <v>0.0009944829872374772</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2104,16 +2110,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003530779244365834</v>
+        <v>0.003680645215124738</v>
       </c>
       <c r="E70" s="1">
-        <v>0.002335084646818641</v>
+        <v>0.001710051301539117</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2121,16 +2127,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003646438825567597</v>
+        <v>0.003713048133922784</v>
       </c>
       <c r="E71" s="1">
-        <v>0.002119705553628393</v>
+        <v>-0.01602209944751398</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2138,16 +2144,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.002902123278498012</v>
+        <v>0.003306776141971463</v>
       </c>
       <c r="E72" s="1">
-        <v>0.04884426652892571</v>
+        <v>-0.001395820996531572</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2155,16 +2161,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.002360317399121915</v>
+        <v>0.003255584192561026</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.002083912197832771</v>
+        <v>-0.005656756601936097</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2172,16 +2178,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002334178052702075</v>
+        <v>0.00237403830963521</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01264349361804618</v>
+        <v>0.01076197957580516</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2189,16 +2195,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.001967477687514794</v>
+        <v>0.002295665206758211</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01466666666666672</v>
+        <v>-0.01336339080809923</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2206,124 +2212,141 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.00200598403654187</v>
+        <v>0.002230439763019412</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.005744710662743513</v>
+        <v>-0.009657190635451562</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
       <c r="D77" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.002028655831281368</v>
       </c>
       <c r="E77" s="1">
-        <v>0.0001603751961212208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>167</v>
+        <v>-0.02027027027027029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-0.001482097850096453</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0768168303165979</v>
+        <v>0.0771675783456202</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003077165851349095</v>
+        <v>-0.008023283253362656</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04565468688254155</v>
+        <v>0.0459611420814669</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005220412302281652</v>
+        <v>0.02087682672233826</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04003685997524589</v>
+        <v>0.04025821482254011</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004038484380567864</v>
+        <v>0.0143933120391182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03570218865235284</v>
+        <v>0.03579524315755187</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001120448179271705</v>
+        <v>0.007059532521199952</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03354667189725927</v>
+        <v>0.03372953765102095</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003960907923483692</v>
+        <v>0.01129180959658482</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02970909398476155</v>
+        <v>0.03015380940356623</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01346471632290847</v>
+        <v>0.008998127906274522</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03000183920365785</v>
+        <v>0.02967124647754745</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01248484848484854</v>
+        <v>-0.0155885602062108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02966233121130193</v>
+        <v>0.02964369813440752</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002109339880355665</v>
+        <v>-0.01271744403631558</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02703251964623351</v>
+        <v>0.027062605150625</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0003708098487096301</v>
+        <v>0.007418947993174552</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02668806962597458</v>
+        <v>0.02669275697094481</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001306723687336864</v>
+        <v>0.004995836802664577</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02439011989688384</v>
+        <v>0.02410732162120972</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01305970149253743</v>
+        <v>-0.0148865784499056</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02301884702251246</v>
+        <v>0.02301509985387238</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001644643566041104</v>
+        <v>0.003010679391047599</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02119906180449043</v>
+        <v>0.02118738401680617</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002032144836504712</v>
+        <v>0.0186967789707515</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02060331432765385</v>
+        <v>0.02060102453688901</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001593070144869757</v>
+        <v>0.0009723261032161812</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02038110956363733</v>
+        <v>0.02041360241932351</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0001098026297727817</v>
+        <v>0.01756649191666892</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01851041213363334</v>
+        <v>0.0184803624203993</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003103086967034652</v>
+        <v>0.01305736346363751</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0182539861575337</v>
+        <v>0.01818302708291622</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00536365586783949</v>
+        <v>0.005752085130859896</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0170294821873008</v>
+        <v>0.01696464324241944</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.005283907353665906</v>
+        <v>0.00266974926375485</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01711284394098556</v>
+        <v>0.01696207517653352</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01027930951810119</v>
+        <v>0.006691900075700197</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01564207778788751</v>
+        <v>0.01579640672485873</v>
       </c>
       <c r="E21" s="1">
-        <v>0.00836954772251719</v>
+        <v>0.001596169193934571</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01449506108534145</v>
+        <v>0.01435035217054796</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01145062721132206</v>
+        <v>0.003156113750244049</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01378154415111802</v>
+        <v>0.01381628785048963</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00103519668737051</v>
+        <v>0.00586004825922104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01326626780787198</v>
+        <v>0.01349019017508419</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01537196356275294</v>
+        <v>0.01675908043112573</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01254622366698419</v>
+        <v>0.01238834983370139</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01404682274247493</v>
+        <v>-0.0001507613447911949</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0120315067985951</v>
+        <v>0.01197932697623409</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005812601720530108</v>
+        <v>0.00654817586529477</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01183918731652037</v>
+        <v>0.01182104073344709</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.003012581959950467</v>
+        <v>0.006043370067543519</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01089717152613978</v>
+        <v>0.0108800080086302</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003054806828391654</v>
+        <v>0.007750540735400158</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0105127190536093</v>
+        <v>0.0102838431862395</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02322115981621764</v>
+        <v>0.007882023900330548</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01084821747615712</v>
+        <v>0.01084751030214649</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001547189272821159</v>
+        <v>0.001549586776859568</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01065799602479594</v>
+        <v>0.01065513882123721</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001749781277340379</v>
+        <v>0.005083260297984449</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0106300222819487</v>
+        <v>0.01064580039983385</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.006666666666666821</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01065086272036989</v>
+        <v>0.01065532558966528</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001063704053894221</v>
+        <v>-0.02626597255087559</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01028874261921245</v>
+        <v>0.01025428708249786</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004825992387166966</v>
+        <v>0.002800355166996615</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01014327915640684</v>
+        <v>0.0104093515699007</v>
       </c>
       <c r="E35" s="1">
-        <v>0.02471042471042484</v>
+        <v>0.02185380557648831</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009325746521696442</v>
+        <v>0.009233831083645363</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01132358455193094</v>
+        <v>-0.006523058252427383</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009327564814981513</v>
+        <v>0.009222624977961325</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01271593090211132</v>
+        <v>-0.01822600243013361</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00911384541962865</v>
+        <v>0.009334125729517482</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02265193370165752</v>
+        <v>0.02836304700162073</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008917329876126834</v>
+        <v>0.008882099441487693</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.005427025331346536</v>
+        <v>0.01053478212871983</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.00905510055964946</v>
+        <v>0.009165193686330642</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01065801668211308</v>
+        <v>0.0100871160018341</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009124755179339071</v>
+        <v>0.009058455529690203</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.008737239032465816</v>
+        <v>0.005845240304323651</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008871452937857372</v>
+        <v>0.008868231885703699</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.001844640295142419</v>
+        <v>0.01026694045174548</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008903949102464908</v>
+        <v>0.009048930339858773</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01477657112337538</v>
+        <v>0.01964912280701747</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008801565203644035</v>
+        <v>0.008726287880372581</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01002214194149875</v>
+        <v>0.006474396703943341</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008759511343563692</v>
+        <v>0.008686879742050388</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.009761549925484281</v>
+        <v>0.01000827752276323</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008548589322495553</v>
+        <v>0.008473216660341443</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01028600100351229</v>
+        <v>-0.006844106463878341</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008224280397086626</v>
+        <v>0.008371147714402685</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01634920634920634</v>
+        <v>0.03725932040784463</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008247778341078304</v>
+        <v>0.008133204737044996</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01535295979740414</v>
+        <v>-0.004018646519852065</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008442335722580812</v>
+        <v>0.008387489951858569</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.007968985569674847</v>
+        <v>0.01893850830021049</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007837869762556841</v>
+        <v>0.00766941203804697</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02294303797468356</v>
+        <v>-0.03801406349882808</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007823696399514244</v>
+        <v>0.007510332029440681</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.04147597254004576</v>
+        <v>0.01064358897841444</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007799079505808678</v>
+        <v>0.007801550700904557</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.00116571018651368</v>
+        <v>0.007361522578328339</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008231740061845889</v>
+        <v>0.008441932948640176</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02401449932034438</v>
+        <v>0.03336283185840694</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006863266892904467</v>
+        <v>0.006850432480972033</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003349341289419883</v>
+        <v>0.001656272364788824</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006483334510989054</v>
+        <v>0.006498560762493314</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0008629430673312566</v>
+        <v>0.01021705860797972</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006636490753077658</v>
+        <v>0.006567338236129082</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01188669701568035</v>
+        <v>-0.0159969285897108</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006467529346280367</v>
+        <v>0.00649730007560386</v>
       </c>
       <c r="E57" s="1">
-        <v>0.003114186851211231</v>
+        <v>0.003104518799585954</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006579424317669302</v>
+        <v>0.006516350455266721</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01105442176870741</v>
+        <v>-0.005159071367153989</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006496202432698782</v>
+        <v>0.006351060396427195</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.02379158144041327</v>
+        <v>-0.03131892368769296</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005988712114545222</v>
+        <v>0.00591775764331115</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01331257298559763</v>
+        <v>-0.01396559886381554</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005834203808219003</v>
+        <v>0.005755035650357549</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01503164556962044</v>
+        <v>-0.01481481481481484</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005690978244841168</v>
+        <v>0.005743502699924396</v>
       </c>
       <c r="E62" s="1">
-        <v>0.007733647922401277</v>
+        <v>0.002081165452653577</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004751806451650051</v>
+        <v>0.004885862078239537</v>
       </c>
       <c r="E63" s="1">
-        <v>0.02668759811616961</v>
+        <v>0.03042813455657489</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004838338562857493</v>
+        <v>0.004829831549819358</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.003237742830712209</v>
+        <v>0.002706883217324041</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004461811984133732</v>
+        <v>0.004545009697016785</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01713688610240327</v>
+        <v>0.008465173618245281</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004533704503251121</v>
+        <v>0.004538472802034431</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.0004319121367309942</v>
+        <v>0.009197530864197612</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004381807079590644</v>
+        <v>0.00433676289972179</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01174668028600601</v>
+        <v>-0.005943152454780498</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004232147555357945</v>
+        <v>0.004105777046309606</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.03129750809703213</v>
+        <v>-0.0009211558800451547</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003938050272224031</v>
+        <v>0.003947817648271719</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0009944829872374772</v>
+        <v>-0.00423418095801309</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003680645215124738</v>
+        <v>0.003692411822889741</v>
       </c>
       <c r="E70" s="1">
-        <v>0.001710051301539117</v>
+        <v>0.02226858877086491</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003713048133922784</v>
+        <v>0.003658980274265701</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01602209944751398</v>
+        <v>0.01122964626614276</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003306776141971463</v>
+        <v>0.003307061863679966</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.001395820996531572</v>
+        <v>0.01736625863018326</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003255584192561026</v>
+        <v>0.003241973066498525</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.005656756601936097</v>
+        <v>0.003845433727478254</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.00237403830963521</v>
+        <v>0.002403149363941441</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01076197957580516</v>
+        <v>0.04049117898500043</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002295665206758211</v>
+        <v>0.002268349250983896</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01336339080809923</v>
+        <v>0.003005290134002969</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.002230439763019412</v>
+        <v>0.002212178646242667</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.009657190635451562</v>
+        <v>-0.0119464730465616</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.002028655831281368</v>
+        <v>0.001990484522126829</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.02027027027027029</v>
+        <v>-0.02036124794745486</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.001482097850096453</v>
+        <v>0.004344093560523232</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0771675783456202</v>
+        <v>0.07687881529492549</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008023283253362656</v>
+        <v>0.02457793482528459</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0459611420814669</v>
+        <v>0.04662504763858213</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02087682672233826</v>
+        <v>0.01106718895193359</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04025821482254011</v>
+        <v>0.0407171901179598</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0143933120391182</v>
+        <v>0.007755244484082269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03579524315755187</v>
+        <v>0.03600578252399251</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007059532521199952</v>
+        <v>-0.003745318352059934</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03372953765102095</v>
+        <v>0.03385537681067825</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01129180959658482</v>
+        <v>0.007698954818533554</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03015380940356623</v>
+        <v>0.02987498085053218</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008998127906274522</v>
+        <v>0.002485451018428675</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02967124647754745</v>
+        <v>0.02902922333009095</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0155885602062108</v>
+        <v>-0.01696924324661553</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02964369813440752</v>
+        <v>0.02930194797279404</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01271744403631558</v>
+        <v>-0.01147060874416017</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.027062605150625</v>
+        <v>0.02692873741771418</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007418947993174552</v>
+        <v>0.0003707548568885333</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02669275697094481</v>
+        <v>0.02677744559310552</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004995836802664577</v>
+        <v>0.001533018867924785</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02410732162120972</v>
+        <v>0.02371501672591954</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0148865784499056</v>
+        <v>-0.01194457716196851</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02301509985387238</v>
+        <v>0.02306359815145352</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003010679391047599</v>
+        <v>0.00451009132934943</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02118738401680617</v>
+        <v>0.02136418881646932</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0186967789707515</v>
+        <v>-0.01095490231878782</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02060102453688901</v>
+        <v>0.02032451028327003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0009723261032161812</v>
+        <v>0.003191836939857806</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02041360241932351</v>
+        <v>0.02086824139878347</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01756649191666892</v>
+        <v>0.01236348100082796</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0184803624203993</v>
+        <v>0.01868477252429017</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01305736346363751</v>
+        <v>0.01351996182599025</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01818302708291622</v>
+        <v>0.01830083120880079</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005752085130859896</v>
+        <v>-0.001349911190053232</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01696464324241944</v>
+        <v>0.01697273231874318</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00266974926375485</v>
+        <v>0.00279069767441853</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01696207517653352</v>
+        <v>0.01692100147386471</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006691900075700197</v>
+        <v>0.01663346012195865</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01579640672485873</v>
+        <v>0.01558974486616641</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001596169193934571</v>
+        <v>-0.001608492842206877</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01435035217054796</v>
+        <v>0.01443123398822385</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003156113750244049</v>
+        <v>-0.004665830035074148</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01381628785048963</v>
+        <v>0.01388764218378279</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00586004825922104</v>
+        <v>-0.00784447476125516</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01349019017508419</v>
+        <v>0.01355023076646956</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01675908043112573</v>
+        <v>-0.001665535747332303</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01238834983370139</v>
+        <v>0.01239311299925083</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0001507613447911949</v>
+        <v>-0.0005245803357314394</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01197932697623409</v>
+        <v>0.01202533176815796</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00654817586529477</v>
+        <v>-0.03938832252085267</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01182104073344709</v>
+        <v>0.01188602069577429</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006043370067543519</v>
+        <v>0.007032348804500765</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0108800080086302</v>
+        <v>0.01095319375509327</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007750540735400158</v>
+        <v>-0.01086182336182329</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0102838431862395</v>
+        <v>0.01031607778405864</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007882023900330548</v>
+        <v>0.01449458028737083</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01084751030214649</v>
+        <v>0.010808217365766</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001549586776859568</v>
+        <v>-0.001374865735767949</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01065513882123721</v>
+        <v>0.01064893837300735</v>
       </c>
       <c r="E31" s="1">
-        <v>0.005083260297984449</v>
+        <v>-0.002616431187859813</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01064580039983385</v>
+        <v>0.01074552738319336</v>
       </c>
       <c r="E32" s="1">
-        <v>0.006666666666666821</v>
+        <v>0.005877268798617052</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01065532558966528</v>
+        <v>0.01039399911054524</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02626597255087559</v>
+        <v>-0.003377563329312383</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01025428708249786</v>
+        <v>0.01021359127180839</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002800355166996615</v>
+        <v>-0.004296528677623868</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0104093515699007</v>
+        <v>0.01044090050491441</v>
       </c>
       <c r="E35" s="1">
-        <v>0.02185380557648831</v>
+        <v>-0.01295143212951422</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009233831083645363</v>
+        <v>0.009190351445150376</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.006523058252427383</v>
+        <v>-0.004395937547369888</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009222624977961325</v>
+        <v>0.009042960330568459</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01822600243013361</v>
+        <v>-0.02538821789499635</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009334125729517482</v>
+        <v>0.009562729941631912</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02836304700162073</v>
+        <v>-0.01075127835321876</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008882099441487693</v>
+        <v>0.008945303268827509</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01053478212871983</v>
+        <v>0.01266138200619826</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009165193686330642</v>
+        <v>0.009187007979413167</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0100871160018341</v>
+        <v>0.00518606132290067</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009058455529690203</v>
+        <v>0.009019834692552769</v>
       </c>
       <c r="E41" s="1">
-        <v>0.005845240304323651</v>
+        <v>0.0005560189046427411</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008868231885703699</v>
+        <v>0.008915769321482173</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01026694045174548</v>
+        <v>0.005958426433746222</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009048930339858773</v>
+        <v>0.009111594252229478</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01964912280701747</v>
+        <v>-0.0001732801940738105</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008726287880372581</v>
+        <v>0.008731739394863351</v>
       </c>
       <c r="E44" s="1">
-        <v>0.006474396703943341</v>
+        <v>-0.009945009945009797</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008686879742050388</v>
+        <v>0.008751893063334855</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01000827752276323</v>
+        <v>0.01998217203981589</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008473216660341443</v>
+        <v>0.008426926768487893</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006844106463878341</v>
+        <v>-0.005576679340937973</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008371147714402685</v>
+        <v>0.008640072709234899</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03725932040784463</v>
+        <v>0.01057723315059667</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008133204737044996</v>
+        <v>0.008179045933693225</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.004018646519852065</v>
+        <v>-0.004405786569164016</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008387489951858569</v>
+        <v>0.008496442993607342</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01893850830021049</v>
+        <v>0.01278919149354807</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00766941203804697</v>
+        <v>0.007174055857517465</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.03801406349882808</v>
+        <v>-0.007657453556864424</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007510332029440681</v>
+        <v>0.007548802642229523</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01064358897841444</v>
+        <v>-0.01038385826771648</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007801550700904557</v>
+        <v>0.007840427153752664</v>
       </c>
       <c r="E52" s="1">
-        <v>0.007361522578328339</v>
+        <v>-0.0009772565742715011</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008441932948640176</v>
+        <v>0.008324858189454793</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03336283185840694</v>
+        <v>0.008969610424383045</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006850432480972033</v>
+        <v>0.006841566764761785</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001656272364788824</v>
+        <v>-0.004072490327835521</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006498560762493314</v>
+        <v>0.006557372177099108</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01021705860797972</v>
+        <v>0.01089866156787767</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006567338236129082</v>
+        <v>0.006392706489541617</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0159969285897108</v>
+        <v>-0.01725941422594157</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.00649730007560386</v>
+        <v>0.006537590004820628</v>
       </c>
       <c r="E57" s="1">
-        <v>0.003104518799585954</v>
+        <v>-0.002386634844868674</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006516350455266721</v>
+        <v>0.006477964865840419</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.005159071367153989</v>
+        <v>-0.01290322580645165</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006351060396427195</v>
+        <v>0.006180535726301295</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.03131892368769296</v>
+        <v>-0.008452609038656633</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.00591775764331115</v>
+        <v>0.005819952233948242</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01396559886381554</v>
+        <v>-0.02577196202026644</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005755035650357549</v>
+        <v>0.005622455570332334</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01481481481481484</v>
+        <v>-0.01408194785136729</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005743502699924396</v>
+        <v>0.005738130197434904</v>
       </c>
       <c r="E62" s="1">
-        <v>0.002081165452653577</v>
+        <v>0.006733134792179074</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004885862078239537</v>
+        <v>0.005003310727635199</v>
       </c>
       <c r="E63" s="1">
-        <v>0.03042813455657489</v>
+        <v>-0.0007425007425007069</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004829831549819358</v>
+        <v>0.004819791608281784</v>
       </c>
       <c r="E64" s="1">
-        <v>0.002706883217324041</v>
+        <v>-0.001695699090488612</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004545009697016785</v>
+        <v>0.004506991813756328</v>
       </c>
       <c r="E65" s="1">
-        <v>0.008465173618245281</v>
+        <v>0.0003297065611607142</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004538472802034431</v>
+        <v>0.00457469699493479</v>
       </c>
       <c r="E66" s="1">
-        <v>0.009197530864197612</v>
+        <v>-0.02204762774834035</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.00433676289972179</v>
+        <v>0.004311399068129663</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.005943152454780498</v>
+        <v>-0.0002584981258887398</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004105777046309606</v>
+        <v>0.004124861542207935</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.0009211558800451547</v>
+        <v>-0.01046978959100264</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003947817648271719</v>
+        <v>0.003893094354785645</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.00423418095801309</v>
+        <v>-0.00968557660193714</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003692411822889741</v>
+        <v>0.003781599059854584</v>
       </c>
       <c r="E70" s="1">
-        <v>0.02226858877086491</v>
+        <v>0.01282004052311669</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003658980274265701</v>
+        <v>0.003659423249374111</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01122964626614276</v>
+        <v>-0.01340033500837512</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003307061863679966</v>
+        <v>0.003347784380451852</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01736625863018326</v>
+        <v>0.0247596854063501</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003241973066498525</v>
+        <v>0.003311006257342564</v>
       </c>
       <c r="E73" s="1">
-        <v>0.003845433727478254</v>
+        <v>0.01085538772247241</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002403149363941441</v>
+        <v>0.002513450367946083</v>
       </c>
       <c r="E74" s="1">
-        <v>0.04049117898500043</v>
+        <v>0.02898791708236348</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002268349250983896</v>
+        <v>0.002269702428298797</v>
       </c>
       <c r="E75" s="1">
-        <v>0.003005290134002969</v>
+        <v>0.02275098717188051</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.002212178646242667</v>
+        <v>0.002185790725699703</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.0119464730465616</v>
+        <v>-0.01822817080943273</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.001990484522126829</v>
+        <v>0.001945804185006776</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.02036124794745486</v>
+        <v>-0.03942532576010682</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>0.004344093560523232</v>
+        <v>0.001333949955097946</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07687881529492549</v>
+        <v>0.0840448349190962</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02457793482528459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04662504763858213</v>
+        <v>0.0501977448743165</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01106718895193359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0407171901179598</v>
+        <v>0.04297445762588327</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007755244484082269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03600578252399251</v>
+        <v>0.03599307252165512</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003745318352059934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03385537681067825</v>
+        <v>0.03446627577407543</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007698954818533554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02987498085053218</v>
+        <v>0.02982047089429782</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002485451018428675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02902922333009095</v>
+        <v>0.02723556849374429</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01696924324661553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02930194797279404</v>
+        <v>0.02795321759110845</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01147060874416017</v>
+        <v>-0.006448839208942458</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02692873741771418</v>
+        <v>0.026617156632806</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0003707548568885333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02677744559310552</v>
+        <v>0.02690585505180274</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001533018867924785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02371501672591954</v>
+        <v>0.02225344953015277</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01194457716196851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02306359815145352</v>
+        <v>0.02213864388324174</v>
       </c>
       <c r="E13" s="1">
-        <v>0.00451009132934943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02136418881646932</v>
+        <v>0.02025859899132041</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01095490231878782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02032451028327003</v>
+        <v>0.02054329150352564</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003191836939857806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02086824139878347</v>
+        <v>0.02182855028024493</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01236348100082796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01868477252429017</v>
+        <v>0.01891662021616688</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01351996182599025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01830083120880079</v>
+        <v>0.01783684624918446</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001349911190053232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01697273231874318</v>
+        <v>0.01712160980022882</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00279069767441853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01692100147386471</v>
+        <v>0.01766504747383068</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01663346012195865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01558974486616641</v>
+        <v>0.01508578976011972</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001608492842206877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01443123398822385</v>
+        <v>0.01453324775290081</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.004665830035074148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01388764218378279</v>
+        <v>0.01347459583990995</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.00784447476125516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01355023076646956</v>
+        <v>0.01334458595585845</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001665535747332303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01239311299925083</v>
+        <v>0.01196946740633884</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0005245803357314394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01202533176815796</v>
+        <v>0.01103991494403779</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03938832252085267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01188602069577429</v>
+        <v>0.01181150721808298</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007032348804500765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01095319375509327</v>
+        <v>0.01030137140102249</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01086182336182329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01031607778405864</v>
+        <v>0.01033451117538857</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01449458028737083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.010808217365766</v>
+        <v>0.01013722026590704</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001374865735767949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01064893837300735</v>
+        <v>0.01027150918675856</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002616431187859813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01074552738319336</v>
+        <v>0.01021324145160943</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005877268798617052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01039399911054524</v>
+        <v>0.01021123849821368</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003377563329312383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01021359127180839</v>
+        <v>0.01022189056854563</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004296528677623868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01044090050491441</v>
+        <v>0.01001585949879173</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01295143212951422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009190351445150376</v>
+        <v>0.010932711415697</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.004395937547369888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009042960330568459</v>
+        <v>0.00815456953412153</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02538821789499635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009562729941631912</v>
+        <v>0.009600383234177542</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01075127835321876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008945303268827509</v>
+        <v>0.008492977614667368</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01266138200619826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009187007979413167</v>
+        <v>0.009735992283403537</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00518606132290067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.009019834692552769</v>
+        <v>0.008520836875535549</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0005560189046427411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008915769321482173</v>
+        <v>0.008825240270021698</v>
       </c>
       <c r="E42" s="1">
-        <v>0.005958426433746222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009111594252229478</v>
+        <v>0.008955978500762572</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0001732801940738105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008731739394863351</v>
+        <v>0.008129987833355489</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.009945009945009797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008751893063334855</v>
+        <v>0.008998086043741438</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01998217203981589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008426926768487893</v>
+        <v>0.008024195476725339</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.005576679340937973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.008640072709234899</v>
+        <v>0.009414973480066268</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01057723315059667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008179045933693225</v>
+        <v>0.008127256533270372</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.004405786569164016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008496442993607342</v>
+        <v>0.009007554550703173</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01278919149354807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007174055857517465</v>
+        <v>0.006803850598695631</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.007657453556864424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007548802642229523</v>
+        <v>0.00769461859978804</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01038385826771648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007840427153752664</v>
+        <v>0.007902333971261092</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0009772565742715011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008324858189454793</v>
+        <v>0.008573368880505942</v>
       </c>
       <c r="E53" s="1">
-        <v>0.008969610424383045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006841566764761785</v>
+        <v>0.006608223506182619</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.004072490327835521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006557372177099108</v>
+        <v>0.006463348521417868</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01089866156787767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.006392706489541617</v>
+        <v>0.005589059364172323</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01725941422594157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006537590004820628</v>
+        <v>0.006155257871816814</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.002386634844868674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.006477964865840419</v>
+        <v>0.005905070784020213</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01290322580645165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006180535726301295</v>
+        <v>0.006206879443425501</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.008452609038656633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005819952233948242</v>
+        <v>0.005147135010400596</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.02577196202026644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005622455570332334</v>
+        <v>0.005011890134519283</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01408194785136729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005738130197434904</v>
+        <v>0.00531256075222244</v>
       </c>
       <c r="E62" s="1">
-        <v>0.006733134792179074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.005003310727635199</v>
+        <v>0.004854430684612361</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.0007425007425007069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004819791608281784</v>
+        <v>0.004903229912799761</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.001695699090488612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004506991813756328</v>
+        <v>0.004540331174824052</v>
       </c>
       <c r="E65" s="1">
-        <v>0.0003297065611607142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.00457469699493479</v>
+        <v>0.004281859143435934</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.02204762774834035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.004311399068129663</v>
+        <v>0.003989336904320039</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.0002584981258887398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004124861542207935</v>
+        <v>0.004023341590379729</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.01046978959100264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.003893094354785645</v>
+        <v>0.004129634685358816</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.00968557660193714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003781599059854584</v>
+        <v>0.003996438284541339</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01282004052311669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003659423249374111</v>
+        <v>0.003350941031092321</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.01340033500837512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003347784380451852</v>
+        <v>0.00341753923150106</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0247596854063501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003311006257342564</v>
+        <v>0.003768920987451199</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01085538772247241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002513450367946083</v>
+        <v>0.002717188368009301</v>
       </c>
       <c r="E74" s="1">
-        <v>0.02898791708236348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002269702428298797</v>
+        <v>0.002465635630170142</v>
       </c>
       <c r="E75" s="1">
-        <v>0.02275098717188051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.002185790725699703</v>
+        <v>0.001935035066968326</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.01822817080943273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.001945804185006776</v>
+        <v>0.001594532989690564</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.03942532576010682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>0.001333949955097946</v>
+        <v>-0.0001802658056176965</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0840448349190962</v>
+        <v>0.08405998806056415</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0179552175749893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0501977448743165</v>
+        <v>0.05020679544274447</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.005669606664236326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04297445762588327</v>
+        <v>0.04298220584784766</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.008175466397752684</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03599307252165512</v>
+        <v>0.03599956201170304</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001669449081802998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03446627577407543</v>
+        <v>0.03447248998525426</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.002250574530469951</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02982047089429782</v>
+        <v>0.02982584747472108</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.008572959457045837</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02723556849374429</v>
+        <v>0.02724047902064036</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.00117332638028822</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02795321759110845</v>
+        <v>0.02777795920168472</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006448839208942458</v>
+        <v>0.006923409779316492</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.026617156632806</v>
+        <v>0.02662195566109037</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.007501103103397577</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02690585505180274</v>
+        <v>0.02691070613192335</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.004601932811780785</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02225344953015277</v>
+        <v>0.02225746178943324</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.00798602445719987</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02213864388324174</v>
+        <v>0.02214263544325841</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>-0.005008923944959331</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02025859899132041</v>
+        <v>0.02026225158242554</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.005285013212533052</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02054329150352564</v>
+        <v>0.02054699542420881</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.003412470140886414</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02182855028024493</v>
+        <v>0.02183248593090991</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.0002252252252250564</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01891662021616688</v>
+        <v>0.01892003085077051</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>-0.01386108116433094</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01783684624918446</v>
+        <v>0.01784006220236964</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>-0.001643561526368353</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01712160980022882</v>
+        <v>0.01712469679749298</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>-0.005849197064766498</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01766504747383068</v>
+        <v>0.01766823245198748</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>-0.006491297692612807</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01508578976011972</v>
+        <v>0.01508850970247681</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>-0.01564282222584334</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01453324775290081</v>
+        <v>0.01453586807286932</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.0132180667794275</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01347459583990995</v>
+        <v>0.01347702528673059</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>-0.003101309441764233</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01334458595585845</v>
+        <v>0.01334699196211707</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>-0.00878054770968939</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01196946740633884</v>
+        <v>0.01197162548105074</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>-0.001977637483836503</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01103991494403779</v>
+        <v>0.01104190542201424</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.005690252350321501</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01181150721808298</v>
+        <v>0.01181363681284032</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.008844953173777315</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01030137140102249</v>
+        <v>0.01030322872084832</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.008166295471417895</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01033451117538857</v>
+        <v>0.01033637447025961</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>-0.03527380365071531</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01013722026590704</v>
+        <v>0.01013904798956107</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.01131617944227403</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01027150918675856</v>
+        <v>0.01027336112247771</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.002127282396738206</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01021324145160943</v>
+        <v>0.01021508288175456</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>-0.002317703690497552</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01021123849821368</v>
+        <v>0.0102130795672297</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>0.03623013962445865</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01022189056854563</v>
+        <v>0.0102237335581119</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.01656646626586511</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01001585949879173</v>
+        <v>0.01001766534130489</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.00152710613387641</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.010932711415697</v>
+        <v>0.01093468256505876</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.0003122853038535212</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00815456953412153</v>
+        <v>0.008156039789204782</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>-0.006698821007502631</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009600383234177542</v>
+        <v>0.009602114167023492</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.005761106132377458</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008492977614667368</v>
+        <v>0.008494508884154697</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>-0.01336227689339109</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009735992283403537</v>
+        <v>0.009737747666331511</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>0.008836896145430151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008520836875535549</v>
+        <v>0.008522373168000454</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>-0.01019328781613604</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008825240270021698</v>
+        <v>0.008826831445903346</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>0.004425668879501021</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008955978500762572</v>
+        <v>0.008957593248525911</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>0.008813617903741466</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008129987833355489</v>
+        <v>0.008131453656399702</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>0.001970928800197003</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008998086043741438</v>
+        <v>0.0089997083834235</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>-0.008640838586302158</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008024195476725339</v>
+        <v>0.008025642225586733</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>0.0007828810020877874</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009414973480066268</v>
+        <v>0.009416670983847408</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>0.01094650524117147</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008127256533270372</v>
+        <v>0.008128721863865804</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>0.0092530358023033</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009007554550703173</v>
+        <v>0.009009178597541013</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>-0.02263561660450608</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006803850598695631</v>
+        <v>0.00680507732144127</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.005479580367178549</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00769461859978804</v>
+        <v>0.007696005926496418</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>0.01405651000993902</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007902333971261092</v>
+        <v>0.007903758748699334</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>0.01218353063164246</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008573368880505942</v>
+        <v>0.008574914644402418</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>0.001699090986322371</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006608223506182619</v>
+        <v>0.006609414957694629</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>0.003846960611793904</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006463348521417868</v>
+        <v>0.006464513852215364</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>-0.007902298850574585</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005589059364172323</v>
+        <v>0.005590067062114732</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>-0.004104969945755488</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006155257871816814</v>
+        <v>0.006156367654391712</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>-0.0003549875754348397</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005905070784020213</v>
+        <v>0.005906135458286688</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>-0.01618871415356149</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006206879443425501</v>
+        <v>0.006207998533282377</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>0.02299229922992296</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005147135010400596</v>
+        <v>0.005148063030130093</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>0.009286282833643078</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005011890134519283</v>
+        <v>0.005012793769826596</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>0.003097212508742286</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.00531256075222244</v>
+        <v>0.005313518597933161</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>0.00548395941870039</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004854430684612361</v>
+        <v>0.004855305930247398</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>0.007351837959489904</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004903229912799761</v>
+        <v>0.004904113956853035</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>0.008021390374331583</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004540331174824052</v>
+        <v>0.00454114978884917</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>0.01054742330058156</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004281859143435934</v>
+        <v>0.004282631155391323</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>0.007973464310773837</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003989336904320039</v>
+        <v>0.003990056175010886</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>0.004929481035190975</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004023341590379729</v>
+        <v>0.004024066992057912</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>-0.003597976986524531</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004129634685358816</v>
+        <v>0.004130379251502094</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>0.008576026808351234</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.003996438284541339</v>
+        <v>0.00399715883559902</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>0.015343083652269</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003350941031092321</v>
+        <v>0.003351545200087879</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>-0.00896592946802155</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.00341753923150106</v>
+        <v>0.003418155408039416</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>-0.007232767232767334</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003768920987451199</v>
+        <v>0.003769600517525347</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>-0.01578616807981259</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002717188368009301</v>
+        <v>0.002717678272472498</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>0.01486011057128489</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002465635630170142</v>
+        <v>0.002466080180100525</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>-0.01048667011299009</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001935035066968326</v>
+        <v>0.001935383950515345</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>-0.0219252846523007</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.001594532989690564</v>
+        <v>0.00159482048128944</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>-0.0375699440447641</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.0001802658056176965</v>
+        <v>0.003130244963410522</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08405998806056415</v>
+        <v>0.08530228638322408</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0179552175749893</v>
+        <v>-0.00919969564916634</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05020679544274447</v>
+        <v>0.05033389081655922</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005669606664236326</v>
+        <v>0.009422222703147298</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04298220584784766</v>
+        <v>0.04319838390381563</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008175466397752684</v>
+        <v>-0.008966527346122244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03599956201170304</v>
+        <v>0.03594713809946392</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001669449081802998</v>
+        <v>-0.01412499999999994</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03447248998525426</v>
+        <v>0.03444226018175454</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002250574530469951</v>
+        <v>-0.01130667172699529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02982584747472108</v>
+        <v>0.02998767448886075</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008572959457045837</v>
+        <v>-0.001947936957676477</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02724047902064036</v>
+        <v>0.02718733796555175</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00117332638028822</v>
+        <v>-0.01725372745621467</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02777795920168472</v>
+        <v>0.02788299678581752</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006923409779316492</v>
+        <v>-0.01840710499928377</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02662195566109037</v>
+        <v>0.02673795335150782</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007501103103397577</v>
+        <v>-0.000145985401459936</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02691070613192335</v>
+        <v>0.02695018670725667</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004601932811780785</v>
+        <v>-0.008932661475034243</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02225746178943324</v>
+        <v>0.02201081391582705</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00798602445719987</v>
+        <v>-0.02440251572327046</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02214263544325841</v>
+        <v>0.02196297517396236</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005008923944959331</v>
+        <v>-0.0001157273463718855</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02026225158242554</v>
+        <v>0.02030577579733657</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005285013212533052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02054699542420881</v>
+        <v>0.02055277620836849</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003412470140886414</v>
+        <v>-0.004153913423699307</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02183248593090991</v>
+        <v>0.02176926004087081</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0002252252252250564</v>
+        <v>-0.009107057969926613</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01892003085077051</v>
+        <v>0.01859955759602969</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01386108116433094</v>
+        <v>-0.01339215992503517</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01784006220236964</v>
+        <v>0.01775516295309734</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001643561526368353</v>
+        <v>-0.0008589220528237851</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01712469679749298</v>
+        <v>0.01697140641180751</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.005849197064766498</v>
+        <v>-0.009975395806589682</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01766823245198748</v>
+        <v>0.01749876726733487</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006491297692612807</v>
+        <v>-0.01380923849467908</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01508850970247681</v>
+        <v>0.01480613599492238</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01564282222584334</v>
+        <v>-0.004469458698890927</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01453586807286932</v>
+        <v>0.01468204574799822</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0132180667794275</v>
+        <v>-0.01527142327191788</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01347702528673059</v>
+        <v>0.01339330453689193</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003101309441764233</v>
+        <v>-0.02592464569650876</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01334699196211707</v>
+        <v>0.0131885147804465</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.00878054770968939</v>
+        <v>0.001982283342625291</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01197162548105074</v>
+        <v>0.01191066664149157</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001977637483836503</v>
+        <v>-0.001905342580595937</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01104190542201424</v>
+        <v>0.01107008457381218</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005690252350321501</v>
+        <v>-0.01353013530135305</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01181363681284032</v>
+        <v>0.0118809376320785</v>
       </c>
       <c r="E27" s="1">
-        <v>0.008844953173777315</v>
+        <v>0.001031459515213884</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01030322872084832</v>
+        <v>0.01035495438707588</v>
       </c>
       <c r="E28" s="1">
-        <v>0.008166295471417895</v>
+        <v>-0.003497790868924877</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01033637447025961</v>
+        <v>0.00994065454291943</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.03527380365071531</v>
+        <v>-0.0141907440552288</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01013904798956107</v>
+        <v>0.01022178658002559</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01131617944227403</v>
+        <v>-0.006127614226721589</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01027336112247771</v>
+        <v>0.01026308947859947</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002127282396738206</v>
+        <v>-0.01503626393065627</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01021508288175456</v>
+        <v>0.01015960529316162</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002317703690497552</v>
+        <v>-0.01018584703359549</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0102130795672297</v>
+        <v>0.01055007654198699</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03623013962445865</v>
+        <v>-0.005807875479149738</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0102237335581119</v>
+        <v>0.01036067324995534</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01656646626586511</v>
+        <v>-0.01057957681692756</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01001766534130489</v>
+        <v>0.01000165574696701</v>
       </c>
       <c r="E35" s="1">
-        <v>0.00152710613387641</v>
+        <v>-0.002541296060991072</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01093468256505876</v>
+        <v>0.01090396522350406</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0003122853038535212</v>
+        <v>0.002934565434565384</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008156039789204782</v>
+        <v>0.008076123693012895</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.006698821007502631</v>
+        <v>-0.01402751551119519</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009602114167023492</v>
+        <v>0.009627297167365517</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005761106132377458</v>
+        <v>-0.005600814663950904</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008494508884154697</v>
+        <v>0.00835485017668563</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01336227689339109</v>
+        <v>-0.01232093091478026</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009737747666331511</v>
+        <v>0.009793144190869862</v>
       </c>
       <c r="E40" s="1">
-        <v>0.008836896145430151</v>
+        <v>-0.005088846250104084</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008522373168000454</v>
+        <v>0.008409179374040503</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01019328781613604</v>
+        <v>-0.003206062372486329</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008826831445903346</v>
+        <v>0.008838230253401906</v>
       </c>
       <c r="E42" s="1">
-        <v>0.004425668879501021</v>
+        <v>0.0004673209159491432</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.008957593248525911</v>
+        <v>0.009008343730165531</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008813617903741466</v>
+        <v>-0.003426124197002278</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008131453656399702</v>
+        <v>0.008122056147251097</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001970928800197003</v>
+        <v>-0.01376936316695354</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0089997083834235</v>
+        <v>0.008894102635978219</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.008640838586302158</v>
+        <v>-0.01200257197970989</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008025642225586733</v>
+        <v>0.008006861909250543</v>
       </c>
       <c r="E46" s="1">
-        <v>0.0007828810020877874</v>
+        <v>-0.02659713168187761</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009416670983847408</v>
+        <v>0.009490044458258474</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01094650524117147</v>
+        <v>-0.007862718089990839</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008128721863865804</v>
+        <v>0.008178337020033087</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0092530358023033</v>
+        <v>-0.02712722267853585</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009009178597541013</v>
+        <v>0.008777773702961898</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02263561660450608</v>
+        <v>0.01265803148995581</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00680507732144127</v>
+        <v>0.006821014842173909</v>
       </c>
       <c r="E50" s="1">
-        <v>0.005479580367178549</v>
+        <v>-0.0120173273091434</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007696005926496418</v>
+        <v>0.0077798321304961</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01405651000993902</v>
+        <v>-0.0102212265471856</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007903758748699334</v>
+        <v>0.007975090448809096</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01218353063164246</v>
+        <v>-0.009817312617380947</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008574914644402418</v>
+        <v>0.008562680915773314</v>
       </c>
       <c r="E53" s="1">
-        <v>0.001699090986322371</v>
+        <v>0.005512679162072764</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006609414957694629</v>
+        <v>0.006614137246899469</v>
       </c>
       <c r="E54" s="1">
-        <v>0.003846960611793904</v>
+        <v>-0.008749356664951136</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006464513852215364</v>
+        <v>0.006393416372432685</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007902298850574585</v>
+        <v>0.002044554244579722</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005590067062114732</v>
+        <v>0.005549747934310419</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.004104969945755488</v>
+        <v>-0.01766524363315192</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006156367654391712</v>
+        <v>0.006134978235641842</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.0003549875754348397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005906135458286688</v>
+        <v>0.0057923911164818</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01618871415356149</v>
+        <v>-0.01104842501175374</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006207998533282377</v>
+        <v>0.006330917370964298</v>
       </c>
       <c r="E59" s="1">
-        <v>0.02299229922992296</v>
+        <v>-0.04193999354769318</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005148063030130093</v>
+        <v>0.00517965580796821</v>
       </c>
       <c r="E60" s="1">
-        <v>0.009286282833643078</v>
+        <v>-0.02278303540133197</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005012793769826596</v>
+        <v>0.005012628701647469</v>
       </c>
       <c r="E61" s="1">
-        <v>0.003097212508742286</v>
+        <v>-0.01384462151394417</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005313518597933161</v>
+        <v>0.005325986077201381</v>
       </c>
       <c r="E62" s="1">
-        <v>0.00548395941870039</v>
+        <v>0.0002727024815925017</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004855305930247398</v>
+        <v>0.004875739094945469</v>
       </c>
       <c r="E63" s="1">
-        <v>0.007351837959489904</v>
+        <v>-0.006702412868632712</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004904113956853035</v>
+        <v>0.004928025841271963</v>
       </c>
       <c r="E64" s="1">
-        <v>0.008021390374331583</v>
+        <v>-0.003094606542882294</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.00454114978884917</v>
+        <v>0.004574727201163089</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01054742330058156</v>
+        <v>-0.003889197555361545</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004282631155391323</v>
+        <v>0.004303308153391886</v>
       </c>
       <c r="E66" s="1">
-        <v>0.007973464310773837</v>
+        <v>0.001265662574357451</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003990056175010886</v>
+        <v>0.003997212825938875</v>
       </c>
       <c r="E67" s="1">
-        <v>0.004929481035190975</v>
+        <v>-0.01021937593677613</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004024066992057912</v>
+        <v>0.003997076662536982</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.003597976986524531</v>
+        <v>-0.00105603815363664</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004130379251502094</v>
+        <v>0.004152802206500696</v>
       </c>
       <c r="E69" s="1">
-        <v>0.008576026808351234</v>
+        <v>-0.006513945964850998</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.00399715883559902</v>
+        <v>0.004045823160414286</v>
       </c>
       <c r="E70" s="1">
-        <v>0.015343083652269</v>
+        <v>-0.007000302897721467</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003351545200087879</v>
+        <v>0.003311130831606176</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.00896592946802155</v>
+        <v>0.001809408926417344</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003418155408039416</v>
+        <v>0.003382843556602581</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.007232767232767334</v>
+        <v>-0.01062630816293653</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003769600517525347</v>
+        <v>0.003698515709988657</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.01578616807981259</v>
+        <v>-0.02302207714113902</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002717678272472498</v>
+        <v>0.002749456798802053</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01486011057128489</v>
+        <v>0.0002971424798192679</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002466080180100525</v>
+        <v>0.002432604562599581</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.01048667011299009</v>
+        <v>-0.00970221658332715</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001935383950515345</v>
+        <v>0.001887043199019333</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.0219252846523007</v>
+        <v>-0.00269386184337117</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.00159482048128944</v>
+        <v>0.00153011353486001</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.0375699440447641</v>
+        <v>-0.01495016611295685</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2243,10 +2243,10 @@
         <v>81</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E78" s="1">
-        <v>0.003130244963410522</v>
+        <v>-0.007980718536087172</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08530228638322408</v>
+        <v>0.08519746832500949</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00919969564916634</v>
+        <v>0.01305501256632247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05033389081655922</v>
+        <v>0.05121689557321069</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009422222703147298</v>
+        <v>-0.003234702163525283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04319838390381563</v>
+        <v>0.04315545596055145</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008966527346122244</v>
+        <v>0.001874414245548017</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03594713809946392</v>
+        <v>0.03572449188841516</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01412499999999994</v>
+        <v>0.007861037149740069</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03444226018175454</v>
+        <v>0.03432678526378264</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01130667172699529</v>
+        <v>0.003794664278174098</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02998767448886075</v>
+        <v>0.03017003897876139</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001947936957676477</v>
+        <v>0.003962621244381292</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02718733796555175</v>
+        <v>0.0269332013452463</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01725372745621467</v>
+        <v>0.03199946998807479</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02788299678581752</v>
+        <v>0.0275899390744674</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01840710499928377</v>
+        <v>0.02331265961327977</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02673795335150782</v>
+        <v>0.02694912336905631</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.000145985401459936</v>
+        <v>0.0003650167907724988</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02695018670725667</v>
+        <v>0.02692432527450164</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008932661475034243</v>
+        <v>0.009937601109313743</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02201081391582705</v>
+        <v>0.02164644889913388</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02440251572327046</v>
+        <v>0.03249097472924189</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02196297517396236</v>
+        <v>0.02213710344895743</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0001157273463718855</v>
+        <v>0.0245370370370368</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02030577579733657</v>
+        <v>0.02046913419603251</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.009012392039053685</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02055277620836849</v>
+        <v>0.02063206042243325</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004153913423699307</v>
+        <v>0.005268935236004468</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02176926004087081</v>
+        <v>0.02174454320674501</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.009107057969926613</v>
+        <v>0.0063375836384294</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01859955759602969</v>
+        <v>0.01849809745541353</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01339215992503517</v>
+        <v>0.01705647235743402</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01775516295309734</v>
+        <v>0.01788262887986092</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0008589220528237851</v>
+        <v>0.005086324235260564</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01697140641180751</v>
+        <v>0.01693728159261233</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.009975395806589682</v>
+        <v>0.007428617736837895</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01749876726733487</v>
+        <v>0.01739595483598988</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01380923849467908</v>
+        <v>0.01380008679299882</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01480613599492238</v>
+        <v>0.01485854242656584</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004469458698890927</v>
+        <v>0.01812437645493836</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01468204574799822</v>
+        <v>0.01457414213920076</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01527142327191788</v>
+        <v>0.01114459722483807</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01339330453689193</v>
+        <v>0.01315104263176779</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02592464569650876</v>
+        <v>0.009581263307310239</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0131885147804465</v>
+        <v>0.0133209690582919</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001982283342625291</v>
+        <v>0.008655332302936802</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01191066664149157</v>
+        <v>0.01198361056413469</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001905342580595937</v>
+        <v>0.01206475259621231</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01107008457381218</v>
+        <v>0.01100815784106142</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01353013530135305</v>
+        <v>0.02319201995012476</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0118809376320785</v>
+        <v>0.01198887215246271</v>
       </c>
       <c r="E27" s="1">
-        <v>0.001031459515213884</v>
+        <v>-0.003434655675768505</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01035495438707588</v>
+        <v>0.0104017483480214</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003497790868924877</v>
+        <v>0.006096434509514248</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.00994065454291943</v>
+        <v>0.009878426197622145</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0141907440552288</v>
+        <v>0.02113863312151465</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01022178658002559</v>
+        <v>0.01024088100400988</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006127614226721589</v>
+        <v>0.0158602510834116</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01026308947859947</v>
+        <v>0.01019009523840897</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01503626393065627</v>
+        <v>0.007004310344827847</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01015960529316162</v>
+        <v>0.01013702182570892</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01018584703359549</v>
+        <v>0.01083228019498095</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01055007654198699</v>
+        <v>0.01057318462163095</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.005807875479149738</v>
+        <v>0.02535342913891792</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01036067324995534</v>
+        <v>0.01033353071152504</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01057957681692756</v>
+        <v>0.01985787341435885</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01000165574696701</v>
+        <v>0.0100564966478192</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002541296060991072</v>
+        <v>0.009171974522292903</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01090396522350406</v>
+        <v>0.01102394260604548</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002934565434565384</v>
+        <v>0.002303430243416615</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008076123693012895</v>
+        <v>0.008026896141462238</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01402751551119519</v>
+        <v>0.04186046511627906</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009627297167365517</v>
+        <v>0.009650393534779877</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005600814663950904</v>
+        <v>-0.001664106502816232</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00835485017668563</v>
+        <v>0.008318296628950686</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01232093091478026</v>
+        <v>0.01125356830519952</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009793144190869862</v>
+        <v>0.009821692549563476</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005088846250104084</v>
+        <v>0.004024819721616391</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008409179374040503</v>
+        <v>0.008449653325383302</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.003206062372486329</v>
+        <v>0.01432748538011697</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008838230253401906</v>
+        <v>0.008913496651204918</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0004673209159491432</v>
+        <v>-0.002535699986654483</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009008343730165531</v>
+        <v>0.009049703159487709</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.003426124197002278</v>
+        <v>0.001976794155565065</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008122056147251097</v>
+        <v>0.008074662212892282</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01376936316695354</v>
+        <v>0.01371229119920225</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008894102635978219</v>
+        <v>0.008858044085521764</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01200257197970989</v>
+        <v>0.02270590787475602</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008006861909250543</v>
+        <v>0.00785660369140226</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.02659713168187761</v>
+        <v>0.02250200910795619</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009490044458258474</v>
+        <v>0.009491173296679735</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.007862718089990839</v>
+        <v>-0.002603112165210919</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008178337020033087</v>
+        <v>0.008020490729584648</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02712722267853585</v>
+        <v>0.02830576155162579</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008777773702961898</v>
+        <v>0.008960393416737284</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01265803148995581</v>
+        <v>0.006341814616810604</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006821014842173909</v>
+        <v>0.006793259566780033</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0120173273091434</v>
+        <v>0.02503418037810556</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0077798321304961</v>
+        <v>0.00776226112503373</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0102212265471856</v>
+        <v>0.008723534681944534</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007975090448809096</v>
+        <v>0.007960325610877266</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.009817312617380947</v>
+        <v>0.01275972066557474</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008562680915773314</v>
+        <v>0.008679150082369021</v>
       </c>
       <c r="E53" s="1">
-        <v>0.005512679162072764</v>
+        <v>-0.008982793522267163</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006614137246899469</v>
+        <v>0.006609012469415302</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.008749356664951136</v>
+        <v>0.01460539979231568</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006393416372432685</v>
+        <v>0.006458027760872065</v>
       </c>
       <c r="E55" s="1">
-        <v>0.002044554244579722</v>
+        <v>0.02057385759829966</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005549747934310419</v>
+        <v>0.005495568873321908</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01766524363315192</v>
+        <v>0.02577551326240068</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006134978235641842</v>
+        <v>0.006184333661930962</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>0.009943181818181879</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.0057923911164818</v>
+        <v>0.005774478807649049</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.01104842501175374</v>
+        <v>0.02020442120275745</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006330917370964298</v>
+        <v>0.006114194401871332</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.04193999354769318</v>
+        <v>0.005387810079694466</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.00517965580796821</v>
+        <v>0.005102368089921734</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.02278303540133197</v>
+        <v>0.03075681492109039</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005012628701647469</v>
+        <v>0.004982998664288612</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.01384462151394417</v>
+        <v>0.03757196242803751</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005325986077201381</v>
+        <v>0.005370297318173004</v>
       </c>
       <c r="E62" s="1">
-        <v>0.0002727024815925017</v>
+        <v>-0.0008178844056706547</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004875739094945469</v>
+        <v>0.004882021921332574</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.006702412868632712</v>
+        <v>0.007047533363322867</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004928025841271963</v>
+        <v>0.004952298440218154</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.003094606542882294</v>
+        <v>-0.002069475240206953</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004574727201163089</v>
+        <v>0.00459359537507301</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.003889197555361545</v>
+        <v>-0.004780876494023811</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004303308153391886</v>
+        <v>0.004343418288311065</v>
       </c>
       <c r="E66" s="1">
-        <v>0.001265662574357451</v>
+        <v>0.007963594994311762</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003997212825938875</v>
+        <v>0.003988192446756615</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01021937593677613</v>
+        <v>0.01252753303964749</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.003997076662536982</v>
+        <v>0.004024977812110785</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.00105603815363664</v>
+        <v>0.01077615604965199</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004152802206500696</v>
+        <v>0.00415894242623642</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.006513945964850998</v>
+        <v>0.002530253025302409</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.004045823160414286</v>
+        <v>0.004049821659607445</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.007000302897721467</v>
+        <v>0.01748856126080311</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003311130831606176</v>
+        <v>0.003343808011870875</v>
       </c>
       <c r="E71" s="1">
-        <v>0.001809408926417344</v>
+        <v>0.0301023479831426</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003382843556602581</v>
+        <v>0.003373821941811591</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.01062630816293653</v>
+        <v>-0.003010577705451656</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003698515709988657</v>
+        <v>0.003642437464192603</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.02302207714113902</v>
+        <v>0.007411036163344153</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002749456798802053</v>
+        <v>0.0027723995194477</v>
       </c>
       <c r="E74" s="1">
-        <v>0.0002971424798192679</v>
+        <v>-0.002392936710949867</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002432604562599581</v>
+        <v>0.002428383148679034</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.00970221658332715</v>
+        <v>0.009834953651367995</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001887043199019333</v>
+        <v>0.001897099986374774</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.00269386184337117</v>
+        <v>0.03038780628979354</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.00153011353486001</v>
+        <v>0.001519363697364786</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.01495016611295685</v>
+        <v>0.02276559865092764</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2243,10 +2243,10 @@
         <v>81</v>
       </c>
       <c r="D78" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.007980718536087172</v>
+        <v>0.01096783806093904</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08519746832500949</v>
+        <v>0.08476074917005307</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01305501256632247</v>
+        <v>0.007889273356401327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05121689557321069</v>
+        <v>0.05033597292940658</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003234702163525283</v>
+        <v>-0.01107689825335156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04315545596055145</v>
+        <v>0.04254452662414319</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001874414245548017</v>
+        <v>0.01319774989182187</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03572449188841516</v>
+        <v>0.03541907374861097</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007861037149740069</v>
+        <v>0.01883381679068408</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03432678526378264</v>
+        <v>0.03437595477106864</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003794664278174098</v>
+        <v>0.002882445826163149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03017003897876139</v>
+        <v>0.02982405211627804</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003962621244381292</v>
+        <v>-0.001239084257729339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0269332013452463</v>
+        <v>0.02780387204609353</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03199946998807479</v>
+        <v>-0.01487341772151896</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0275899390744674</v>
+        <v>0.02780576714934886</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02331265961327977</v>
+        <v>-0.00321302345507124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02694912336905631</v>
+        <v>0.02660824237800299</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0003650167907724988</v>
+        <v>-0.001239609158524058</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02692432527450164</v>
+        <v>0.0269025248406525</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009937601109313743</v>
+        <v>-0.003991788321168088</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02164644889913388</v>
+        <v>0.02236609886244713</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03249097472924189</v>
+        <v>-0.01895151365985737</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02213710344895743</v>
+        <v>0.02329460921454792</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0245370370370368</v>
+        <v>-0.003959214665364974</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02046913419603251</v>
+        <v>0.02017526925627051</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009012392039053685</v>
+        <v>0.001690775878264272</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02063206042243325</v>
+        <v>0.02064958652817661</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005268935236004468</v>
+        <v>0.006009037592539235</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02174454320674501</v>
+        <v>0.02142549594671706</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0063375836384294</v>
+        <v>-0.0005307050796056201</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01849809745541353</v>
+        <v>0.01879725846060726</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01705647235743402</v>
+        <v>-0.002150785420747425</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01788262887986092</v>
+        <v>0.01769394739395507</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005086324235260564</v>
+        <v>0.003784362727597301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01693728159261233</v>
+        <v>0.0169458328231595</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007428617736837895</v>
+        <v>0.02170092661625311</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01739595483598988</v>
+        <v>0.01752862219568035</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01380008679299882</v>
+        <v>-0.003029788197984051</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01485854242656584</v>
+        <v>0.01490444564511769</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01812437645493836</v>
+        <v>-0.004740886055255911</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01457414213920076</v>
+        <v>0.01451739336596906</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01114459722483807</v>
+        <v>-0.01457698762976323</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01315104263176779</v>
+        <v>0.01310761703002594</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009581263307310239</v>
+        <v>-0.007373595505618002</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0133209690582919</v>
+        <v>0.01320128927664667</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008655332302936802</v>
+        <v>-0.009843730773963277</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01198361056413469</v>
+        <v>0.01179115196865492</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01206475259621231</v>
+        <v>-0.01331700596969243</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01100815784106142</v>
+        <v>0.01107823217260124</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02319201995012476</v>
+        <v>-0.008553274682307155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01198887215246271</v>
+        <v>0.01182950524882236</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.003434655675768505</v>
+        <v>-0.007552351527634671</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0104017483480214</v>
+        <v>0.01032452253505183</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006096434509514248</v>
+        <v>0.009911894273127775</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.009878426197622145</v>
+        <v>0.01005162766628394</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02113863312151465</v>
+        <v>-0.01395173453997001</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01024088100400988</v>
+        <v>0.01026378898786903</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0158602510834116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01019009523840897</v>
+        <v>0.0101342902654213</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007004310344827847</v>
+        <v>-0.001068566340160171</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01013702182570892</v>
+        <v>0.01023897215952539</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01083228019498095</v>
+        <v>0.002467830072272026</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01057318462163095</v>
+        <v>0.01060878802335171</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02535342913891792</v>
+        <v>-0.0001148369315572273</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01033353071152504</v>
+        <v>0.01049548792158647</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01985787341435885</v>
+        <v>-0.006642161604436647</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0100564966478192</v>
+        <v>0.01004657405760305</v>
       </c>
       <c r="E35" s="1">
-        <v>0.009171974522292903</v>
+        <v>-0.002766599597585406</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01102394260604548</v>
+        <v>0.01095234317063986</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002303430243416615</v>
+        <v>-0.001421332344580306</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008026896141462238</v>
+        <v>0.008314630168253402</v>
       </c>
       <c r="E37" s="1">
-        <v>0.04186046511627906</v>
+        <v>-0.02135972909611872</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009650393534779877</v>
+        <v>0.009447766550424039</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001664106502816232</v>
+        <v>0.0007736943907155069</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008318296628950686</v>
+        <v>0.008465967699643532</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01125356830519952</v>
+        <v>-0.001199194141536908</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009821692549563476</v>
+        <v>0.009649595047116958</v>
       </c>
       <c r="E40" s="1">
-        <v>0.004024819721616391</v>
+        <v>-0.001346687989226325</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008449653325383302</v>
+        <v>0.008469487177117721</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01432748538011697</v>
+        <v>-0.003356348293056977</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008913496651204918</v>
+        <v>0.008769951286100091</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.002535699986654483</v>
+        <v>0.02307537957327277</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009049703159487709</v>
+        <v>0.009022992692193069</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001976794155565065</v>
+        <v>0.002380345150046814</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.008074662212892282</v>
+        <v>0.00812205158030675</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01371229119920225</v>
+        <v>-0.001955512099731105</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008858044085521764</v>
+        <v>0.008999845359574364</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02270590787475602</v>
+        <v>-0.009054537797431039</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00785660369140226</v>
+        <v>0.007976489601694777</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02250200910795619</v>
+        <v>-0.01535258912308091</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009491173296679735</v>
+        <v>0.009289435185591614</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.002603112165210919</v>
+        <v>-0.0007577376673338909</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008020490729584648</v>
+        <v>0.008265537969639074</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02830576155162579</v>
+        <v>-0.008570617521180823</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.008960393416737284</v>
+        <v>0.009281945015582443</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006341814616810604</v>
+        <v>-0.02502552136502867</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006793259566780033</v>
+        <v>0.006903861159176545</v>
       </c>
       <c r="E50" s="1">
-        <v>0.02503418037810556</v>
+        <v>-0.01550919571781517</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.00776226112503373</v>
+        <v>0.007700616713525651</v>
       </c>
       <c r="E51" s="1">
-        <v>0.008723534681944534</v>
+        <v>-0.009656400881263738</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.007960325610877266</v>
+        <v>0.008017640415239141</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01275972066557474</v>
+        <v>0.009201418200236455</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008679150082369021</v>
+        <v>0.008519301319829319</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.008982793522267163</v>
+        <v>-0.00300834710393616</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006609012469415302</v>
+        <v>0.006626580480017742</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01460539979231568</v>
+        <v>-0.008954397633677558</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.006458027760872065</v>
+        <v>0.00657533147341282</v>
       </c>
       <c r="E55" s="1">
-        <v>0.02057385759829966</v>
+        <v>-0.003582089552238821</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005495568873321908</v>
+        <v>0.005639827287869722</v>
       </c>
       <c r="E56" s="1">
-        <v>0.02577551326240068</v>
+        <v>-0.01540898617511521</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006184333661930962</v>
+        <v>0.006144466211861137</v>
       </c>
       <c r="E57" s="1">
-        <v>0.009943181818181879</v>
+        <v>-0.01550934085301381</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005774478807649049</v>
+        <v>0.005800369606500037</v>
       </c>
       <c r="E58" s="1">
-        <v>0.02020442120275745</v>
+        <v>-0.03547257876312726</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006114194401871332</v>
+        <v>0.006025751529366376</v>
       </c>
       <c r="E59" s="1">
-        <v>0.005387810079694466</v>
+        <v>-0.02830506570818825</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005102368089921734</v>
+        <v>0.005199351145523137</v>
       </c>
       <c r="E60" s="1">
-        <v>0.03075681492109039</v>
+        <v>-0.01466631953484321</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.004982998664288612</v>
+        <v>0.005075041396274537</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03757196242803751</v>
+        <v>-0.002151589242053831</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005370297318173004</v>
+        <v>0.005296181897569416</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.0008178844056706547</v>
+        <v>-0.009950926935659798</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.004882021921332574</v>
+        <v>0.00487312265656946</v>
       </c>
       <c r="E63" s="1">
-        <v>0.007047533363322867</v>
+        <v>-0.000888888888888939</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004952298440218154</v>
+        <v>0.004862293495110416</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.002069475240206953</v>
+        <v>-0.002672605790645766</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.00459359537507301</v>
+        <v>0.004504570194913355</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.004780876494023811</v>
+        <v>-0.003846462056254496</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004343418288311065</v>
+        <v>0.004180327052227168</v>
       </c>
       <c r="E66" s="1">
-        <v>0.007963594994311762</v>
+        <v>-0.02072404637005376</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003988192446756615</v>
+        <v>0.003928278319267936</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01252753303964749</v>
+        <v>-0.01075120606478275</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004024977812110785</v>
+        <v>0.004056468518039361</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01077615604965199</v>
+        <v>-0.001968832382287178</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.00415894242623642</v>
+        <v>0.004135927490245091</v>
       </c>
       <c r="E69" s="1">
-        <v>0.002530253025302409</v>
+        <v>0.004363858523706687</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.004049821659607445</v>
+        <v>0.004101138809057915</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01748856126080311</v>
+        <v>-0.005875169158662708</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003343808011870875</v>
+        <v>0.003392956771142566</v>
       </c>
       <c r="E71" s="1">
-        <v>0.0301023479831426</v>
+        <v>-0.03101228788765364</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003373821941811591</v>
+        <v>0.003288139512520243</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.003010577705451656</v>
+        <v>0.004569593676670536</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003642437464192603</v>
+        <v>0.003702219573810409</v>
       </c>
       <c r="E73" s="1">
-        <v>0.007411036163344153</v>
+        <v>-0.01279707495429616</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.0027723995194477</v>
+        <v>0.002708192794882398</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.002392936710949867</v>
+        <v>0.008013995334888335</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002428383148679034</v>
+        <v>0.002424423643149386</v>
       </c>
       <c r="E75" s="1">
-        <v>0.009834953651367995</v>
+        <v>0.00627198451545663</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001897099986374774</v>
+        <v>0.001931200460196045</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03038780628979354</v>
+        <v>-0.02009345794392525</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.001519363697364786</v>
+        <v>0.001507238789074502</v>
       </c>
       <c r="E77" s="1">
-        <v>0.02276559865092764</v>
+        <v>-0.04233025984911964</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>0.01096783806093904</v>
+        <v>-0.002080690265912177</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/DYNGROWTH_holdings.xlsx
+++ b/DYNGROWTH_holdings.xlsx
@@ -524,7 +524,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -981,10 +981,10 @@
         <v>158</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08476074917005307</v>
+        <v>0.08560757273342377</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007889273356401327</v>
+        <v>0.02410052183466105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -998,10 +998,10 @@
         <v>159</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05033597292940658</v>
+        <v>0.04988219587819016</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01107689825335156</v>
+        <v>0.001174755803076133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1015,10 +1015,10 @@
         <v>158</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04254452662414319</v>
+        <v>0.04319589592597512</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01319774989182187</v>
+        <v>0.005445227418321652</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1032,10 +1032,10 @@
         <v>158</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03541907374861097</v>
+        <v>0.03616139074821971</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01883381679068408</v>
+        <v>0.01501959975242406</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03437595477106864</v>
+        <v>0.03454692304491565</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002882445826163149</v>
+        <v>0.007032271490440944</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1066,10 +1066,10 @@
         <v>161</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02982405211627804</v>
+        <v>0.02984920455215596</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001239084257729339</v>
+        <v>0.006793879600637709</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1083,10 +1083,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02780387204609353</v>
+        <v>0.02744744307049728</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01487341772151896</v>
+        <v>-0.003405075489881115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02780576714934886</v>
+        <v>0.02777421610841187</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00321302345507124</v>
+        <v>-0.003223380251423658</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1117,10 +1117,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02660824237800299</v>
+        <v>0.02663066873026078</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001239609158524058</v>
+        <v>0.007373877491421377</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>91</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0269025248406525</v>
+        <v>0.0268510042794178</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003991788321168088</v>
+        <v>0.0006870491240125176</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>162</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02236609886244713</v>
+        <v>0.0219879776053082</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01895151365985737</v>
+        <v>-0.02508780732563975</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>160</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02329460921454792</v>
+        <v>0.02325075848297233</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003959214665364974</v>
+        <v>-0.001252382248843054</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>158</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02017526925627051</v>
+        <v>0.02025151825176289</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001690775878264272</v>
+        <v>0.01444111027756945</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>161</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02064958652817661</v>
+        <v>0.02081698436663211</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006009037592539235</v>
+        <v>-0.009079180006689946</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1213,10 +1213,10 @@
         <v>96</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02142549594671706</v>
+        <v>0.02145877439017711</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0005307050796056201</v>
+        <v>-0.007155680295329869</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1227,10 +1227,10 @@
         <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01879725846060726</v>
+        <v>0.01879593811663815</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.002150785420747425</v>
+        <v>-0.002193910934913945</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>163</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01769394739395507</v>
+        <v>0.01779793970888239</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003784362727597301</v>
+        <v>0.006899985773225259</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1261,10 +1261,10 @@
         <v>158</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0169458328231595</v>
+        <v>0.01734967239216933</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02170092661625311</v>
+        <v>0.01847749602564441</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1278,10 +1278,10 @@
         <v>160</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01752862219568035</v>
+        <v>0.01751195112927677</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003029788197984051</v>
+        <v>-0.01266721576869545</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>164</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01490444564511769</v>
+        <v>0.01486471423280721</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004740886055255911</v>
+        <v>-0.02217477003942181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01451739336596906</v>
+        <v>0.01433560144884753</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01457698762976323</v>
+        <v>0.006844346317615546</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1329,10 +1329,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01310761703002594</v>
+        <v>0.01303809500135935</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007373595505618002</v>
+        <v>-0.0003537318712415471</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,10 +1343,10 @@
         <v>104</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01320128927664667</v>
+        <v>0.01309859345503719</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.009843730773963277</v>
+        <v>-0.01273766621101047</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01179115196865492</v>
+        <v>0.0116583866190533</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01331700596969243</v>
+        <v>-0.01706484641638206</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>158</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01107823217260124</v>
+        <v>0.0110063778731382</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.008553274682307155</v>
+        <v>0.004683263495193435</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1391,10 +1391,10 @@
         <v>160</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01182950524882236</v>
+        <v>0.01176464324546803</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.007552351527634671</v>
+        <v>-0.0008647526807332717</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01032452253505183</v>
+        <v>0.01044859840783941</v>
       </c>
       <c r="E28" s="1">
-        <v>0.009911894273127775</v>
+        <v>0.02253725917848048</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>158</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01005162766628394</v>
+        <v>0.009932055556706667</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01395173453997001</v>
+        <v>0.000509878903760308</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>165</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01026378898786903</v>
+        <v>0.01028518928108925</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.006638238009407882</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0101342902654213</v>
+        <v>0.01014456880953614</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001068566340160171</v>
+        <v>0.004100552683187653</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>158</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01023897215952539</v>
+        <v>0.01028564143694634</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002467830072272026</v>
+        <v>-0.0061543871988744</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>158</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01060878802335171</v>
+        <v>0.01062968682860154</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0001148369315572273</v>
+        <v>0.01389686459170791</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>165</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01049548792158647</v>
+        <v>0.0104475132337824</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006642161604436647</v>
+        <v>-0.004154764996104898</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01004657405760305</v>
+        <v>0.01003966865069266</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002766599597585406</v>
+        <v>0.007566204287515754</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1544,10 +1544,10 @@
         <v>159</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01095234317063986</v>
+        <v>0.01095957974193001</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.001421332344580306</v>
+        <v>-0.0003094250881860994</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1561,10 +1561,10 @@
         <v>162</v>
       </c>
       <c r="D37" s="1">
-        <v>0.008314630168253402</v>
+        <v>0.008153997864309632</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02135972909611872</v>
+        <v>-0.005057226510513657</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>161</v>
       </c>
       <c r="D38" s="1">
-        <v>0.009447766550424039</v>
+        <v>0.009474790338437639</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0007736943907155069</v>
+        <v>0.0001288493750808417</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1">
-        <v>0.008465967699643532</v>
+        <v>0.008473445977339461</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001199194141536908</v>
+        <v>-0.01086973922230927</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>0.009649595047116958</v>
+        <v>0.009656692639742526</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.001346687989226325</v>
+        <v>-0.01247366203118427</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>164</v>
       </c>
       <c r="D41" s="1">
-        <v>0.008469487177117721</v>
+        <v>0.008458660480812818</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.003356348293056977</v>
+        <v>-0.01885884730106813</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="1">
-        <v>0.008769951286100091</v>
+        <v>0.008991028786943493</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02307537957327277</v>
+        <v>0.01032949790794979</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>161</v>
       </c>
       <c r="D43" s="1">
-        <v>0.009022992692193069</v>
+        <v>0.00906332850849122</v>
       </c>
       <c r="E43" s="1">
-        <v>0.002380345150046814</v>
+        <v>-0.004664574675600108</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1680,10 +1680,10 @@
         <v>161</v>
       </c>
       <c r="D44" s="1">
-        <v>0.00812205158030675</v>
+        <v>0.008123070403685087</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.001955512099731105</v>
+        <v>0.009306882194464849</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>158</v>
       </c>
       <c r="D45" s="1">
-        <v>0.008999845359574364</v>
+        <v>0.008936950946436248</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.009054537797431039</v>
+        <v>0.01820371157387735</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>126</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007976489601694777</v>
+        <v>0.007870405710746561</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01535258912308091</v>
+        <v>-0.003171247357294016</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1728,10 +1728,10 @@
         <v>161</v>
       </c>
       <c r="D47" s="1">
-        <v>0.009289435185591614</v>
+        <v>0.009301750291931601</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.0007577376673338909</v>
+        <v>-0.006844254326268673</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1745,10 +1745,10 @@
         <v>162</v>
       </c>
       <c r="D48" s="1">
-        <v>0.008265537969639074</v>
+        <v>0.008211783382844964</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.008570617521180823</v>
+        <v>-0.03055931811424228</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1762,10 +1762,10 @@
         <v>159</v>
       </c>
       <c r="D49" s="1">
-        <v>0.009281945015582443</v>
+        <v>0.009068528300847686</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02502552136502867</v>
+        <v>-0.02267627965417174</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>0.006903861159176545</v>
+        <v>0.006810959322013091</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01550919571781517</v>
+        <v>-0.01649704911938277</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1796,10 +1796,10 @@
         <v>165</v>
       </c>
       <c r="D51" s="1">
-        <v>0.007700616713525651</v>
+        <v>0.007642157434090568</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.009656400881263738</v>
+        <v>0.001230652719269143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1813,10 +1813,10 @@
         <v>159</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008017640415239141</v>
+        <v>0.008108284907158441</v>
       </c>
       <c r="E52" s="1">
-        <v>0.009201418200236455</v>
+        <v>0.002091175240485077</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1830,10 +1830,10 @@
         <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>0.008519301319829319</v>
+        <v>0.008511381853748808</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.00300834710393616</v>
+        <v>0.004462388440289011</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>134</v>
       </c>
       <c r="D54" s="1">
-        <v>0.006626580480017742</v>
+        <v>0.006580936333618044</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.008954397633677558</v>
+        <v>-0.001447998309809906</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>158</v>
       </c>
       <c r="D55" s="1">
-        <v>0.00657533147341282</v>
+        <v>0.00656543869161649</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.003582089552238821</v>
+        <v>-0.00499989669634926</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>162</v>
       </c>
       <c r="D56" s="1">
-        <v>0.005639827287869722</v>
+        <v>0.005564501270789688</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01540898617511521</v>
+        <v>-0.002925259616791132</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>166</v>
       </c>
       <c r="D57" s="1">
-        <v>0.006144466211861137</v>
+        <v>0.006061782282410647</v>
       </c>
       <c r="E57" s="1">
-        <v>-0.01550934085301381</v>
+        <v>0.005012531328320913</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>165</v>
       </c>
       <c r="D58" s="1">
-        <v>0.005800369606500037</v>
+        <v>0.005606280471984247</v>
       </c>
       <c r="E58" s="1">
-        <v>-0.03547257876312726</v>
+        <v>-0.01572707476409374</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>159</v>
       </c>
       <c r="D59" s="1">
-        <v>0.006025751529366376</v>
+        <v>0.005867400479450245</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.02830506570818825</v>
+        <v>0.00300543289793076</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>167</v>
       </c>
       <c r="D60" s="1">
-        <v>0.005199351145523137</v>
+        <v>0.005133777601331491</v>
       </c>
       <c r="E60" s="1">
-        <v>-0.01466631953484321</v>
+        <v>-0.001497269684692659</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>167</v>
       </c>
       <c r="D61" s="1">
-        <v>0.005075041396274537</v>
+        <v>0.005074680830810614</v>
       </c>
       <c r="E61" s="1">
-        <v>-0.002151589242053831</v>
+        <v>-0.005978633735175709</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>166</v>
       </c>
       <c r="D62" s="1">
-        <v>0.005296181897569416</v>
+        <v>0.005254412784001495</v>
       </c>
       <c r="E62" s="1">
-        <v>-0.009950926935659798</v>
+        <v>0.007710312543026232</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>161</v>
       </c>
       <c r="D63" s="1">
-        <v>0.00487312265656946</v>
+        <v>0.004878942560278959</v>
       </c>
       <c r="E63" s="1">
-        <v>-0.000888888888888939</v>
+        <v>0.006524317912218303</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>163</v>
       </c>
       <c r="D64" s="1">
-        <v>0.004862293495110416</v>
+        <v>0.004859409427252932</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.002672605790645766</v>
+        <v>0.006699419383653371</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>161</v>
       </c>
       <c r="D65" s="1">
-        <v>0.004504570194913355</v>
+        <v>0.004496599567528748</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.003846462056254496</v>
+        <v>-0.01053817070227658</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>158</v>
       </c>
       <c r="D66" s="1">
-        <v>0.004180327052227168</v>
+        <v>0.004102229228980102</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.02072404637005376</v>
+        <v>-0.004563190265193917</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>163</v>
       </c>
       <c r="D67" s="1">
-        <v>0.003928278319267936</v>
+        <v>0.003894147103550055</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.01075120606478275</v>
+        <v>-0.008360039013515452</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>165</v>
       </c>
       <c r="D68" s="1">
-        <v>0.004056468518039361</v>
+        <v>0.004056923212100287</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.001968832382287178</v>
+        <v>-0.01076635014043059</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>161</v>
       </c>
       <c r="D69" s="1">
-        <v>0.004135927490245091</v>
+        <v>0.004162637251486521</v>
       </c>
       <c r="E69" s="1">
-        <v>0.004363858523706687</v>
+        <v>-0.0004344898003518782</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>158</v>
       </c>
       <c r="D70" s="1">
-        <v>0.004101138809057915</v>
+        <v>0.004085544677853703</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.005875169158662708</v>
+        <v>-0.001460871874896186</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>168</v>
       </c>
       <c r="D71" s="1">
-        <v>0.003392956771142566</v>
+        <v>0.0032945884370567</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.03101228788765364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>158</v>
       </c>
       <c r="D72" s="1">
-        <v>0.003288139512520243</v>
+        <v>0.003310052167368972</v>
       </c>
       <c r="E72" s="1">
-        <v>0.004569593676670536</v>
+        <v>-0.006515859355790687</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>158</v>
       </c>
       <c r="D73" s="1">
-        <v>0.003702219573810409</v>
+        <v>0.003662462442380224</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.01279707495429616</v>
+        <v>-0.02017283950617288</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>0.002708192794882398</v>
+        <v>0.002735588150943777</v>
       </c>
       <c r="E74" s="1">
-        <v>0.008013995334888335</v>
+        <v>0.006313945224045936</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>160</v>
       </c>
       <c r="D75" s="1">
-        <v>0.002424423643149386</v>
+        <v>0.002444716288081654</v>
       </c>
       <c r="E75" s="1">
-        <v>0.00627198451545663</v>
+        <v>0.01344603092402186</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2215,10 +2215,10 @@
         <v>156</v>
       </c>
       <c r="D76" s="1">
-        <v>0.001931200460196045</v>
+        <v>0.001896341664610205</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.02009345794392525</v>
+        <v>-0.03633762517882677</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>159</v>
       </c>
       <c r="D77" s="1">
-        <v>0.001507238789074502</v>
+        <v>0.001446446586811647</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.04233025984911964</v>
+        <v>-0.01181619256017519</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2243,10 +2243,10 @@
         <v>81</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.002080690265912177</v>
+        <v>0.001800857651490517</v>
       </c>
     </row>
     <row r="81" spans="1:1">
